--- a/grid_data_input_file_WIP_v1.xlsx
+++ b/grid_data_input_file_WIP_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c30483\Documents\dc_design_tool\dc_design_tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80FFE725-BE0C-4B66-B496-764DB3D3B565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDBCB43C-3B1F-46B8-8E72-4443A68AA6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15540" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23196" yWindow="10692" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="simple example" sheetId="20" r:id="rId1"/>
@@ -1811,19 +1811,25 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1838,20 +1844,17 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1879,9 +1882,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2601,8 +2601,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2865966" y="3837460"/>
-          <a:ext cx="389297" cy="323457"/>
+          <a:off x="2888826" y="3997480"/>
+          <a:ext cx="387392" cy="342507"/>
           <a:chOff x="3573269" y="3601319"/>
           <a:chExt cx="424926" cy="329094"/>
         </a:xfrm>
@@ -2868,8 +2868,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2865966" y="2986499"/>
-          <a:ext cx="389297" cy="318643"/>
+          <a:off x="2888826" y="3114134"/>
+          <a:ext cx="387392" cy="328168"/>
           <a:chOff x="3573269" y="3601319"/>
           <a:chExt cx="424926" cy="329094"/>
         </a:xfrm>
@@ -3592,8 +3592,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2866797" y="1785849"/>
-          <a:ext cx="389297" cy="323457"/>
+          <a:off x="2889657" y="1863954"/>
+          <a:ext cx="387392" cy="334887"/>
           <a:chOff x="3573269" y="3601319"/>
           <a:chExt cx="424926" cy="329094"/>
         </a:xfrm>
@@ -3914,8 +3914,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2865966" y="4702230"/>
-          <a:ext cx="389297" cy="323457"/>
+          <a:off x="2888826" y="4902255"/>
+          <a:ext cx="387392" cy="336792"/>
           <a:chOff x="3573269" y="3601319"/>
           <a:chExt cx="424926" cy="329094"/>
         </a:xfrm>
@@ -7593,8 +7593,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5017782" y="1450175"/>
-          <a:ext cx="1424674" cy="749765"/>
+          <a:off x="5057787" y="1509230"/>
+          <a:ext cx="1436104" cy="785960"/>
           <a:chOff x="5974842" y="1887551"/>
           <a:chExt cx="1550251" cy="767591"/>
         </a:xfrm>
@@ -9340,8 +9340,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5665719" y="2946564"/>
-          <a:ext cx="385489" cy="323455"/>
+          <a:off x="5709534" y="3070389"/>
+          <a:ext cx="395014" cy="336790"/>
           <a:chOff x="3573266" y="3601319"/>
           <a:chExt cx="424929" cy="329093"/>
         </a:xfrm>
@@ -21079,8 +21079,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="0" y="563879"/>
-          <a:ext cx="11123295" cy="5490211"/>
+          <a:off x="0" y="586739"/>
+          <a:ext cx="11224260" cy="5730241"/>
           <a:chOff x="335486" y="881826"/>
           <a:chExt cx="12151247" cy="5595213"/>
         </a:xfrm>
@@ -45256,7 +45256,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>441660</xdr:colOff>
+      <xdr:colOff>449280</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>154098</xdr:rowOff>
     </xdr:to>
@@ -45356,7 +45356,7 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>342314</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>131070</xdr:rowOff>
+      <xdr:rowOff>148215</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -45720,7 +45720,7 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -45735,7 +45735,7 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -45753,125 +45753,125 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.796875" customWidth="1"/>
-    <col min="2" max="2" width="12.8984375" style="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="87.19921875" style="52" customWidth="1"/>
+    <col min="1" max="1" width="1.75" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="52" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="87.25" style="52" customWidth="1"/>
     <col min="4" max="4" width="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="51"/>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
       <c r="D1" s="51"/>
     </row>
-    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A2" s="51"/>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="68" t="s">
         <v>290</v>
       </c>
-      <c r="C2" s="75"/>
+      <c r="C2" s="68"/>
       <c r="D2" s="51"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="51"/>
       <c r="D3" s="51"/>
     </row>
-    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A4" s="51"/>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="74" t="s">
         <v>277</v>
       </c>
-      <c r="C4" s="72"/>
+      <c r="C4" s="74"/>
       <c r="D4" s="51"/>
     </row>
-    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A5" s="51"/>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="73" t="s">
         <v>278</v>
       </c>
-      <c r="C5" s="71"/>
+      <c r="C5" s="73"/>
       <c r="D5" s="51"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="51"/>
       <c r="D6" s="51"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="51"/>
       <c r="D7" s="51"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="51"/>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="76" t="s">
         <v>246</v>
       </c>
-      <c r="C8" s="65"/>
+      <c r="C8" s="76"/>
       <c r="D8" s="51"/>
     </row>
-    <row r="9" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="51"/>
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="69" t="s">
         <v>245</v>
       </c>
-      <c r="C9" s="76"/>
+      <c r="C9" s="69"/>
       <c r="D9" s="51"/>
     </row>
-    <row r="10" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="51"/>
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="69" t="s">
         <v>244</v>
       </c>
-      <c r="C10" s="76"/>
+      <c r="C10" s="69"/>
       <c r="D10" s="51"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="51"/>
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="77" t="s">
         <v>248</v>
       </c>
-      <c r="C11" s="66"/>
+      <c r="C11" s="77"/>
       <c r="D11" s="51"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="51"/>
-      <c r="B12" s="76" t="s">
+      <c r="B12" s="69" t="s">
         <v>249</v>
       </c>
-      <c r="C12" s="76"/>
+      <c r="C12" s="69"/>
       <c r="D12" s="51"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="51"/>
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="65" t="s">
         <v>250</v>
       </c>
-      <c r="C13" s="67"/>
+      <c r="C13" s="65"/>
       <c r="D13" s="56"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="51"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
       <c r="D14" s="57"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="51"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="67"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
       <c r="D15" s="51"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="51"/>
-      <c r="B16" s="65" t="s">
+      <c r="B16" s="76" t="s">
         <v>247</v>
       </c>
-      <c r="C16" s="65"/>
+      <c r="C16" s="76"/>
       <c r="D16" s="58"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="51"/>
       <c r="B17" s="54" t="s">
         <v>52</v>
@@ -45881,7 +45881,7 @@
       </c>
       <c r="D17" s="59"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="51"/>
       <c r="B18" s="52" t="s">
         <v>99</v>
@@ -45891,7 +45891,7 @@
       </c>
       <c r="D18" s="59"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="51"/>
       <c r="B19" s="52" t="s">
         <v>53</v>
@@ -45901,7 +45901,7 @@
       </c>
       <c r="D19" s="51"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="51"/>
       <c r="B20" s="52" t="s">
         <v>55</v>
@@ -45911,7 +45911,7 @@
       </c>
       <c r="D20" s="51"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="51"/>
       <c r="B21" s="52" t="s">
         <v>57</v>
@@ -45921,7 +45921,7 @@
       </c>
       <c r="D21" s="51"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="51"/>
       <c r="B22" s="52" t="s">
         <v>59</v>
@@ -45931,19 +45931,19 @@
       </c>
       <c r="D22" s="51"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="51"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="67"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
       <c r="D23" s="51"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="51"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
       <c r="D24" s="51"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="51"/>
       <c r="B25" s="53" t="s">
         <v>251</v>
@@ -45951,376 +45951,336 @@
       <c r="C25" s="53"/>
       <c r="D25" s="58"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="51"/>
-      <c r="B26" s="70" t="s">
+      <c r="B26" s="72" t="s">
         <v>254</v>
       </c>
-      <c r="C26" s="70"/>
+      <c r="C26" s="72"/>
       <c r="D26" s="51"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="51"/>
-      <c r="B27" s="67" t="s">
+      <c r="B27" s="65" t="s">
         <v>253</v>
       </c>
-      <c r="C27" s="67"/>
+      <c r="C27" s="65"/>
       <c r="D27" s="51"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="51"/>
-      <c r="B28" s="74" t="s">
+      <c r="B28" s="67" t="s">
         <v>252</v>
       </c>
-      <c r="C28" s="74"/>
+      <c r="C28" s="67"/>
       <c r="D28" s="51"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="51"/>
-      <c r="B29" s="77" t="s">
+      <c r="B29" s="66" t="s">
         <v>256</v>
       </c>
-      <c r="C29" s="77"/>
+      <c r="C29" s="66"/>
       <c r="D29" s="51"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="51"/>
-      <c r="B30" s="67" t="s">
+      <c r="B30" s="65" t="s">
         <v>279</v>
       </c>
-      <c r="C30" s="67"/>
+      <c r="C30" s="65"/>
       <c r="D30" s="51"/>
       <c r="F30" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="51"/>
-      <c r="B31" s="67" t="s">
+      <c r="B31" s="65" t="s">
         <v>280</v>
       </c>
-      <c r="C31" s="67"/>
+      <c r="C31" s="65"/>
       <c r="D31" s="51"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="51"/>
-      <c r="B32" s="74" t="s">
+      <c r="B32" s="67" t="s">
         <v>281</v>
       </c>
-      <c r="C32" s="74"/>
+      <c r="C32" s="67"/>
       <c r="D32" s="51"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="51"/>
-      <c r="B33" s="67" t="s">
+      <c r="B33" s="65" t="s">
         <v>282</v>
       </c>
-      <c r="C33" s="67"/>
+      <c r="C33" s="65"/>
       <c r="D33" s="51"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="51"/>
       <c r="D34" s="51"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="51"/>
-      <c r="B35" s="70" t="s">
+      <c r="B35" s="72" t="s">
         <v>261</v>
       </c>
-      <c r="C35" s="70"/>
+      <c r="C35" s="72"/>
       <c r="D35" s="51"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="51"/>
-      <c r="B36" s="67" t="s">
+      <c r="B36" s="65" t="s">
         <v>255</v>
       </c>
-      <c r="C36" s="67"/>
+      <c r="C36" s="65"/>
       <c r="D36" s="51"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="51"/>
-      <c r="B37" s="67" t="s">
+      <c r="B37" s="65" t="s">
         <v>283</v>
       </c>
-      <c r="C37" s="67"/>
+      <c r="C37" s="65"/>
       <c r="D37" s="51"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="51"/>
-      <c r="B38" s="67" t="s">
+      <c r="B38" s="65" t="s">
         <v>284</v>
       </c>
-      <c r="C38" s="67"/>
+      <c r="C38" s="65"/>
       <c r="D38" s="51"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="51"/>
-      <c r="B39" s="67" t="s">
+      <c r="B39" s="65" t="s">
         <v>285</v>
       </c>
-      <c r="C39" s="67"/>
+      <c r="C39" s="65"/>
       <c r="D39" s="51"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="51"/>
-      <c r="B40" s="68" t="s">
+      <c r="B40" s="78" t="s">
         <v>257</v>
       </c>
-      <c r="C40" s="68"/>
+      <c r="C40" s="78"/>
       <c r="D40" s="51"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="51"/>
-      <c r="B41" s="67" t="s">
+      <c r="B41" s="65" t="s">
         <v>258</v>
       </c>
-      <c r="C41" s="67"/>
+      <c r="C41" s="65"/>
       <c r="D41" s="51"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="51"/>
-      <c r="B42" s="67" t="s">
+      <c r="B42" s="65" t="s">
         <v>259</v>
       </c>
-      <c r="C42" s="67"/>
+      <c r="C42" s="65"/>
       <c r="D42" s="51"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="51"/>
-      <c r="B43" s="67" t="s">
+      <c r="B43" s="65" t="s">
         <v>260</v>
       </c>
-      <c r="C43" s="67"/>
+      <c r="C43" s="65"/>
       <c r="D43" s="51"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="51"/>
-      <c r="B44" s="67"/>
-      <c r="C44" s="67"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="65"/>
       <c r="D44" s="51"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="51"/>
-      <c r="B45" s="70" t="s">
+      <c r="B45" s="72" t="s">
         <v>262</v>
       </c>
-      <c r="C45" s="70"/>
+      <c r="C45" s="72"/>
       <c r="D45" s="51"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="51"/>
-      <c r="B46" s="67" t="s">
+      <c r="B46" s="65" t="s">
         <v>263</v>
       </c>
-      <c r="C46" s="67"/>
+      <c r="C46" s="65"/>
       <c r="D46" s="51"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="51"/>
-      <c r="B47" s="73" t="s">
+      <c r="B47" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="C47" s="67"/>
+      <c r="C47" s="65"/>
       <c r="D47" s="51"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="51"/>
-      <c r="B48" s="67" t="s">
+      <c r="B48" s="65" t="s">
         <v>267</v>
       </c>
-      <c r="C48" s="67"/>
+      <c r="C48" s="65"/>
       <c r="D48" s="51"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="51"/>
-      <c r="B49" s="73" t="s">
+      <c r="B49" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="C49" s="67"/>
+      <c r="C49" s="65"/>
       <c r="D49" s="51"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="51"/>
-      <c r="B50" s="67" t="s">
+      <c r="B50" s="65" t="s">
         <v>266</v>
       </c>
-      <c r="C50" s="67"/>
+      <c r="C50" s="65"/>
       <c r="D50" s="51"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="51"/>
-      <c r="B51" s="73" t="s">
+      <c r="B51" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="C51" s="67"/>
+      <c r="C51" s="65"/>
       <c r="D51" s="51"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="51"/>
-      <c r="B52" s="67" t="s">
+      <c r="B52" s="65" t="s">
         <v>265</v>
       </c>
-      <c r="C52" s="67"/>
+      <c r="C52" s="65"/>
       <c r="D52" s="51"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="51"/>
-      <c r="B53" s="73" t="s">
+      <c r="B53" s="70" t="s">
         <v>289</v>
       </c>
-      <c r="C53" s="67"/>
+      <c r="C53" s="65"/>
       <c r="D53" s="51"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="51"/>
-      <c r="B54" s="67" t="s">
+      <c r="B54" s="65" t="s">
         <v>264</v>
       </c>
-      <c r="C54" s="67"/>
+      <c r="C54" s="65"/>
       <c r="D54" s="51"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="51"/>
-      <c r="B55" s="67"/>
-      <c r="C55" s="67"/>
+      <c r="B55" s="65"/>
+      <c r="C55" s="65"/>
       <c r="D55" s="51"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="51"/>
-      <c r="B56" s="70" t="s">
+      <c r="B56" s="72" t="s">
         <v>273</v>
       </c>
-      <c r="C56" s="70"/>
+      <c r="C56" s="72"/>
       <c r="D56" s="51"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="51"/>
-      <c r="B57" s="67" t="s">
+      <c r="B57" s="65" t="s">
         <v>274</v>
       </c>
-      <c r="C57" s="67"/>
+      <c r="C57" s="65"/>
       <c r="D57" s="51"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="51"/>
-      <c r="B58" s="67" t="s">
+      <c r="B58" s="65" t="s">
         <v>275</v>
       </c>
-      <c r="C58" s="67"/>
+      <c r="C58" s="65"/>
       <c r="D58" s="51"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="51"/>
       <c r="B59" s="50"/>
       <c r="C59" s="50"/>
       <c r="D59" s="51"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="51"/>
-      <c r="B60" s="67"/>
-      <c r="C60" s="67"/>
+      <c r="B60" s="65"/>
+      <c r="C60" s="65"/>
       <c r="D60" s="51"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="51"/>
-      <c r="B61" s="70" t="s">
+      <c r="B61" s="72" t="s">
         <v>272</v>
       </c>
-      <c r="C61" s="70"/>
+      <c r="C61" s="72"/>
       <c r="D61" s="51"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="51"/>
-      <c r="B62" s="67" t="s">
+      <c r="B62" s="65" t="s">
         <v>268</v>
       </c>
-      <c r="C62" s="67"/>
+      <c r="C62" s="65"/>
       <c r="D62" s="51"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="51"/>
-      <c r="B63" s="67" t="s">
+      <c r="B63" s="65" t="s">
         <v>269</v>
       </c>
-      <c r="C63" s="67"/>
+      <c r="C63" s="65"/>
       <c r="D63" s="51"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="51"/>
-      <c r="B64" s="67" t="s">
+      <c r="B64" s="65" t="s">
         <v>270</v>
       </c>
-      <c r="C64" s="67"/>
+      <c r="C64" s="65"/>
       <c r="D64" s="51"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="51"/>
-      <c r="B65" s="67" t="s">
+      <c r="B65" s="65" t="s">
         <v>271</v>
       </c>
-      <c r="C65" s="67"/>
+      <c r="C65" s="65"/>
       <c r="D65" s="51"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="51"/>
-      <c r="B66" s="64"/>
-      <c r="C66" s="64"/>
+      <c r="B66" s="75"/>
+      <c r="C66" s="75"/>
       <c r="D66" s="51"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B67" s="55"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B70" s="67"/>
-      <c r="C70" s="67"/>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B70" s="65"/>
+      <c r="C70" s="65"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B71" s="67"/>
-      <c r="C71" s="67"/>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B71" s="65"/>
+      <c r="C71" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B8:C8"/>
@@ -46337,6 +46297,46 @@
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B41:C41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -46358,33 +46358,33 @@
       <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.296875" style="63" customWidth="1"/>
-    <col min="2" max="2" width="13.19921875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="33.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.25" style="63" customWidth="1"/>
+    <col min="2" max="2" width="13.25" style="4" customWidth="1"/>
+    <col min="3" max="3" width="33.625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.69921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="63.796875" style="39" customWidth="1"/>
-    <col min="7" max="7" width="18.69921875" style="39" customWidth="1"/>
-    <col min="8" max="8" width="17.8984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="1.3984375" style="63" customWidth="1"/>
+    <col min="5" max="5" width="28.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="63.75" style="39" customWidth="1"/>
+    <col min="7" max="7" width="18.75" style="39" customWidth="1"/>
+    <col min="8" max="8" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.375" style="63" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="31.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="60"/>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
       <c r="I1" s="60"/>
     </row>
-    <row r="2" spans="1:9" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="60"/>
       <c r="B2" s="20" t="s">
         <v>52</v>
@@ -46409,7 +46409,7 @@
       </c>
       <c r="I2" s="60"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="60"/>
       <c r="B3" s="25" t="s">
         <v>53</v>
@@ -46430,7 +46430,7 @@
       <c r="H3" s="24"/>
       <c r="I3" s="60"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="60"/>
       <c r="B4" s="27" t="s">
         <v>53</v>
@@ -46447,13 +46447,13 @@
       <c r="F4" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="G4" s="79" t="s">
+      <c r="G4" s="80" t="s">
         <v>211</v>
       </c>
       <c r="H4" s="26"/>
       <c r="I4" s="60"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="60"/>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
@@ -46462,11 +46462,11 @@
         <v>8</v>
       </c>
       <c r="F5" s="38"/>
-      <c r="G5" s="80"/>
+      <c r="G5" s="81"/>
       <c r="H5" s="21"/>
       <c r="I5" s="60"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="60"/>
       <c r="B6" s="27" t="s">
         <v>53</v>
@@ -46483,29 +46483,29 @@
       <c r="F6" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="G6" s="79" t="s">
+      <c r="G6" s="80" t="s">
         <v>211</v>
       </c>
       <c r="H6" s="26"/>
       <c r="I6" s="60"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="60"/>
       <c r="E7" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G7" s="67"/>
+      <c r="G7" s="65"/>
       <c r="I7" s="60"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="60"/>
       <c r="E8" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G8" s="67"/>
+      <c r="G8" s="65"/>
       <c r="I8" s="60"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="60"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
@@ -46514,11 +46514,11 @@
         <v>109</v>
       </c>
       <c r="F9" s="38"/>
-      <c r="G9" s="80"/>
+      <c r="G9" s="81"/>
       <c r="H9" s="21"/>
       <c r="I9" s="60"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="60"/>
       <c r="B10" s="27" t="s">
         <v>53</v>
@@ -46526,7 +46526,7 @@
       <c r="C10" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="79" t="s">
+      <c r="D10" s="80" t="s">
         <v>93</v>
       </c>
       <c r="E10" s="27" t="s">
@@ -46535,26 +46535,26 @@
       <c r="F10" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="G10" s="79" t="s">
+      <c r="G10" s="80" t="s">
         <v>211</v>
       </c>
       <c r="H10" s="26"/>
       <c r="I10" s="60"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="60"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
-      <c r="D11" s="80"/>
+      <c r="D11" s="81"/>
       <c r="E11" s="22" t="s">
         <v>291</v>
       </c>
       <c r="F11" s="38"/>
-      <c r="G11" s="80"/>
+      <c r="G11" s="81"/>
       <c r="H11" s="21"/>
       <c r="I11" s="60"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="60"/>
       <c r="B12" s="27" t="s">
         <v>53</v>
@@ -46571,21 +46571,21 @@
       <c r="F12" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="G12" s="79" t="s">
+      <c r="G12" s="80" t="s">
         <v>211</v>
       </c>
       <c r="H12" s="26"/>
       <c r="I12" s="60"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="60"/>
       <c r="E13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="67"/>
+      <c r="G13" s="65"/>
       <c r="I13" s="60"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="60"/>
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
@@ -46594,11 +46594,11 @@
         <v>23</v>
       </c>
       <c r="F14" s="38"/>
-      <c r="G14" s="80"/>
+      <c r="G14" s="81"/>
       <c r="H14" s="21"/>
       <c r="I14" s="60"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="60"/>
       <c r="B15" s="22" t="s">
         <v>53</v>
@@ -46617,7 +46617,7 @@
       </c>
       <c r="I15" s="60"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="60"/>
       <c r="B16" s="22" t="s">
         <v>53</v>
@@ -46636,7 +46636,7 @@
       </c>
       <c r="I16" s="60"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="60"/>
       <c r="B17" s="29" t="s">
         <v>53</v>
@@ -46657,7 +46657,7 @@
       <c r="H17" s="28"/>
       <c r="I17" s="60"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="60"/>
       <c r="B18" s="29" t="s">
         <v>53</v>
@@ -46678,7 +46678,7 @@
       <c r="H18" s="28"/>
       <c r="I18" s="60"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="60"/>
       <c r="B19" s="29" t="s">
         <v>53</v>
@@ -46699,7 +46699,7 @@
       <c r="H19" s="28"/>
       <c r="I19" s="60"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="60"/>
       <c r="B20" s="29" t="s">
         <v>53</v>
@@ -46720,7 +46720,7 @@
       <c r="H20" s="28"/>
       <c r="I20" s="60"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="60"/>
       <c r="B21" s="29" t="s">
         <v>53</v>
@@ -46741,7 +46741,7 @@
       <c r="H21" s="28"/>
       <c r="I21" s="60"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="60"/>
       <c r="B22" s="29" t="s">
         <v>53</v>
@@ -46762,7 +46762,7 @@
       <c r="H22" s="28"/>
       <c r="I22" s="60"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="60"/>
       <c r="B23" s="29" t="s">
         <v>53</v>
@@ -46783,7 +46783,7 @@
       <c r="H23" s="28"/>
       <c r="I23" s="60"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="60"/>
       <c r="B24" s="29" t="s">
         <v>53</v>
@@ -46808,7 +46808,7 @@
       <c r="K24" s="4"/>
       <c r="M24" s="4"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="60"/>
       <c r="B25" s="27" t="s">
         <v>53</v>
@@ -46825,7 +46825,7 @@
       <c r="F25" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="G25" s="79" t="s">
+      <c r="G25" s="80" t="s">
         <v>211</v>
       </c>
       <c r="H25" s="26"/>
@@ -46833,7 +46833,7 @@
       <c r="K25" s="4"/>
       <c r="M25" s="4"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="60"/>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
@@ -46842,13 +46842,13 @@
         <v>104</v>
       </c>
       <c r="F26" s="38"/>
-      <c r="G26" s="80"/>
+      <c r="G26" s="81"/>
       <c r="H26" s="21"/>
       <c r="I26" s="60"/>
       <c r="K26" s="4"/>
       <c r="M26" s="4"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="60"/>
       <c r="B27" s="27" t="s">
         <v>53</v>
@@ -46865,7 +46865,7 @@
       <c r="F27" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="G27" s="79" t="s">
+      <c r="G27" s="80" t="s">
         <v>211</v>
       </c>
       <c r="H27" s="26"/>
@@ -46873,7 +46873,7 @@
       <c r="K27" s="4"/>
       <c r="M27" s="4"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="60"/>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -46882,13 +46882,13 @@
         <v>106</v>
       </c>
       <c r="F28" s="38"/>
-      <c r="G28" s="80"/>
+      <c r="G28" s="81"/>
       <c r="H28" s="21"/>
       <c r="I28" s="60"/>
       <c r="K28" s="4"/>
       <c r="M28" s="4"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="60"/>
       <c r="B29" s="29" t="s">
         <v>53</v>
@@ -46913,7 +46913,7 @@
       <c r="K29" s="4"/>
       <c r="M29" s="4"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="60"/>
       <c r="B30" s="29" t="s">
         <v>53</v>
@@ -46938,7 +46938,7 @@
       <c r="K30" s="4"/>
       <c r="M30" s="4"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="60"/>
       <c r="B31" s="29" t="s">
         <v>53</v>
@@ -46963,7 +46963,7 @@
       <c r="K31" s="4"/>
       <c r="M31" s="4"/>
     </row>
-    <row r="32" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A32" s="60"/>
       <c r="B32" s="29" t="s">
         <v>53</v>
@@ -46988,7 +46988,7 @@
       <c r="K32" s="4"/>
       <c r="M32" s="4"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="60"/>
       <c r="B33" s="27" t="s">
         <v>53</v>
@@ -47005,14 +47005,14 @@
       <c r="F33" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="G33" s="79" t="s">
+      <c r="G33" s="80" t="s">
         <v>211</v>
       </c>
       <c r="I33" s="60"/>
       <c r="K33" s="4"/>
       <c r="M33" s="4"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="60"/>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
@@ -47022,12 +47022,12 @@
       <c r="F34" s="39" t="s">
         <v>216</v>
       </c>
-      <c r="G34" s="80"/>
+      <c r="G34" s="81"/>
       <c r="I34" s="60"/>
       <c r="K34" s="4"/>
       <c r="M34" s="4"/>
     </row>
-    <row r="35" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="60"/>
       <c r="B35" s="47" t="s">
         <v>53</v>
@@ -47042,7 +47042,7 @@
       <c r="K35" s="4"/>
       <c r="M35" s="4"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="60"/>
       <c r="B36" s="48" t="s">
         <v>55</v>
@@ -47059,45 +47059,45 @@
       <c r="F36" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="G36" s="83" t="s">
+      <c r="G36" s="84" t="s">
         <v>211</v>
       </c>
       <c r="H36" s="31"/>
       <c r="I36" s="60"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="60"/>
       <c r="E37" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="67"/>
+      <c r="G37" s="65"/>
       <c r="I37" s="60"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="60"/>
       <c r="E38" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G38" s="67"/>
+      <c r="G38" s="65"/>
       <c r="I38" s="60"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="60"/>
       <c r="E39" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="67"/>
+      <c r="G39" s="65"/>
       <c r="I39" s="60"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="60"/>
       <c r="E40" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G40" s="67"/>
+      <c r="G40" s="65"/>
       <c r="I40" s="60"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="60"/>
       <c r="B41" s="22"/>
       <c r="C41" s="22"/>
@@ -47106,11 +47106,11 @@
         <v>25</v>
       </c>
       <c r="F41" s="38"/>
-      <c r="G41" s="80"/>
+      <c r="G41" s="81"/>
       <c r="H41" s="21"/>
       <c r="I41" s="60"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="60"/>
       <c r="B42" s="29" t="s">
         <v>55</v>
@@ -47131,7 +47131,7 @@
       <c r="H42" s="28"/>
       <c r="I42" s="60"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="60"/>
       <c r="B43" s="27" t="s">
         <v>55</v>
@@ -47148,13 +47148,13 @@
       <c r="F43" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="G43" s="79" t="s">
+      <c r="G43" s="80" t="s">
         <v>211</v>
       </c>
       <c r="H43" s="26"/>
       <c r="I43" s="60"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="60"/>
       <c r="E44" s="4" t="s">
         <v>3</v>
@@ -47162,10 +47162,10 @@
       <c r="F44" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="G44" s="67"/>
+      <c r="G44" s="65"/>
       <c r="I44" s="60"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="60"/>
       <c r="E45" s="4" t="s">
         <v>101</v>
@@ -47173,10 +47173,10 @@
       <c r="F45" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="G45" s="67"/>
+      <c r="G45" s="65"/>
       <c r="I45" s="60"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="60"/>
       <c r="B46" s="22"/>
       <c r="C46" s="22"/>
@@ -47187,11 +47187,11 @@
       <c r="F46" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="G46" s="80"/>
+      <c r="G46" s="81"/>
       <c r="H46" s="21"/>
       <c r="I46" s="60"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="60"/>
       <c r="B47" s="29" t="s">
         <v>55</v>
@@ -47214,7 +47214,7 @@
       </c>
       <c r="I47" s="60"/>
     </row>
-    <row r="48" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A48" s="60"/>
       <c r="B48" s="29" t="s">
         <v>55</v>
@@ -47237,7 +47237,7 @@
       </c>
       <c r="I48" s="60"/>
     </row>
-    <row r="49" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A49" s="60"/>
       <c r="B49" s="29" t="s">
         <v>55</v>
@@ -47260,7 +47260,7 @@
       </c>
       <c r="I49" s="60"/>
     </row>
-    <row r="50" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A50" s="60"/>
       <c r="B50" s="29" t="s">
         <v>55</v>
@@ -47281,7 +47281,7 @@
       <c r="H50" s="28"/>
       <c r="I50" s="60"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="60"/>
       <c r="B51" s="29" t="s">
         <v>55</v>
@@ -47302,7 +47302,7 @@
       <c r="H51" s="28"/>
       <c r="I51" s="60"/>
     </row>
-    <row r="52" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="60"/>
       <c r="B52" s="47" t="s">
         <v>55</v>
@@ -47317,7 +47317,7 @@
       <c r="H52" s="30"/>
       <c r="I52" s="60"/>
     </row>
-    <row r="53" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A53" s="60"/>
       <c r="B53" s="25" t="s">
         <v>57</v>
@@ -47338,7 +47338,7 @@
       <c r="H53" s="24"/>
       <c r="I53" s="60"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="60"/>
       <c r="B54" s="29" t="s">
         <v>57</v>
@@ -47359,7 +47359,7 @@
       <c r="H54" s="28"/>
       <c r="I54" s="60"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="60"/>
       <c r="B55" s="29" t="s">
         <v>57</v>
@@ -47380,7 +47380,7 @@
       <c r="H55" s="28"/>
       <c r="I55" s="60"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="60"/>
       <c r="B56" s="27" t="s">
         <v>57</v>
@@ -47397,61 +47397,61 @@
       <c r="F56" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="G56" s="79" t="s">
+      <c r="G56" s="80" t="s">
         <v>211</v>
       </c>
       <c r="H56" s="26"/>
       <c r="I56" s="60"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="60"/>
       <c r="E57" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="G57" s="67"/>
+      <c r="G57" s="65"/>
       <c r="I57" s="60"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="60"/>
       <c r="E58" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G58" s="67"/>
+      <c r="G58" s="65"/>
       <c r="I58" s="60"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="60"/>
       <c r="E59" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="G59" s="67"/>
+      <c r="G59" s="65"/>
       <c r="I59" s="60"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="60"/>
       <c r="E60" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="G60" s="67"/>
+      <c r="G60" s="65"/>
       <c r="I60" s="60"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="60"/>
       <c r="E61" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G61" s="67"/>
+      <c r="G61" s="65"/>
       <c r="I61" s="60"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="60"/>
       <c r="E62" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G62" s="67"/>
+      <c r="G62" s="65"/>
       <c r="I62" s="60"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="60"/>
       <c r="B63" s="22"/>
       <c r="C63" s="22"/>
@@ -47460,11 +47460,11 @@
         <v>92</v>
       </c>
       <c r="F63" s="38"/>
-      <c r="G63" s="80"/>
+      <c r="G63" s="81"/>
       <c r="H63" s="21"/>
       <c r="I63" s="60"/>
     </row>
-    <row r="64" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A64" s="60"/>
       <c r="B64" s="29" t="s">
         <v>57</v>
@@ -47487,7 +47487,7 @@
       </c>
       <c r="I64" s="60"/>
     </row>
-    <row r="65" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A65" s="60"/>
       <c r="B65" s="29" t="s">
         <v>57</v>
@@ -47510,7 +47510,7 @@
       </c>
       <c r="I65" s="60"/>
     </row>
-    <row r="66" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A66" s="60"/>
       <c r="B66" s="29" t="s">
         <v>57</v>
@@ -47533,7 +47533,7 @@
       </c>
       <c r="I66" s="60"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="60"/>
       <c r="B67" s="27" t="s">
         <v>57</v>
@@ -47550,13 +47550,13 @@
       <c r="F67" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="G67" s="79" t="s">
+      <c r="G67" s="80" t="s">
         <v>211</v>
       </c>
       <c r="H67" s="26"/>
       <c r="I67" s="60"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="60"/>
       <c r="B68" s="22"/>
       <c r="C68" s="22"/>
@@ -47567,11 +47567,11 @@
       <c r="F68" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="G68" s="80"/>
+      <c r="G68" s="81"/>
       <c r="H68" s="21"/>
       <c r="I68" s="60"/>
     </row>
-    <row r="69" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A69" s="60"/>
       <c r="B69" s="27" t="s">
         <v>57</v>
@@ -47592,7 +47592,7 @@
       <c r="H69" s="21"/>
       <c r="I69" s="60"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="60"/>
       <c r="B70" s="27" t="s">
         <v>57</v>
@@ -47609,13 +47609,13 @@
       <c r="F70" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="G70" s="81" t="s">
+      <c r="G70" s="82" t="s">
         <v>211</v>
       </c>
       <c r="H70" s="26"/>
       <c r="I70" s="60"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="60"/>
       <c r="B71" s="22"/>
       <c r="C71" s="22"/>
@@ -47624,11 +47624,11 @@
         <v>126</v>
       </c>
       <c r="F71" s="38"/>
-      <c r="G71" s="82"/>
+      <c r="G71" s="83"/>
       <c r="H71" s="21"/>
       <c r="I71" s="60"/>
     </row>
-    <row r="72" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A72" s="60"/>
       <c r="B72" s="4" t="s">
         <v>57</v>
@@ -47645,12 +47645,12 @@
       <c r="F72" s="39" t="s">
         <v>239</v>
       </c>
-      <c r="G72" s="79" t="s">
+      <c r="G72" s="80" t="s">
         <v>211</v>
       </c>
       <c r="I72" s="60"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="60"/>
       <c r="E73" s="4" t="s">
         <v>229</v>
@@ -47658,10 +47658,10 @@
       <c r="F73" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="G73" s="67"/>
+      <c r="G73" s="65"/>
       <c r="I73" s="60"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="60"/>
       <c r="E74" s="4" t="s">
         <v>231</v>
@@ -47669,10 +47669,10 @@
       <c r="F74" s="39" t="s">
         <v>238</v>
       </c>
-      <c r="G74" s="67"/>
+      <c r="G74" s="65"/>
       <c r="I74" s="60"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="60"/>
       <c r="B75" s="22"/>
       <c r="C75" s="22"/>
@@ -47683,11 +47683,11 @@
       <c r="F75" s="38" t="s">
         <v>237</v>
       </c>
-      <c r="G75" s="80"/>
+      <c r="G75" s="81"/>
       <c r="H75" s="21"/>
       <c r="I75" s="60"/>
     </row>
-    <row r="76" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A76" s="60"/>
       <c r="B76" s="29" t="s">
         <v>57</v>
@@ -47708,7 +47708,7 @@
       <c r="H76" s="21"/>
       <c r="I76" s="60"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="60"/>
       <c r="B77" s="22" t="s">
         <v>59</v>
@@ -47729,7 +47729,7 @@
       <c r="H77" s="32"/>
       <c r="I77" s="60"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="60"/>
       <c r="B78" s="29" t="s">
         <v>59</v>
@@ -47750,7 +47750,7 @@
       <c r="H78" s="28"/>
       <c r="I78" s="60"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="60"/>
       <c r="B79" s="29" t="s">
         <v>59</v>
@@ -47773,7 +47773,7 @@
       </c>
       <c r="I79" s="60"/>
     </row>
-    <row r="80" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A80" s="60"/>
       <c r="B80" s="44" t="s">
         <v>59</v>
@@ -47796,7 +47796,7 @@
       </c>
       <c r="I80" s="60"/>
     </row>
-    <row r="81" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="60"/>
       <c r="B81" s="61"/>
       <c r="C81" s="61"/>
@@ -47854,23 +47854,23 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="84"/>
+      <c r="B1" s="85"/>
     </row>
-    <row r="2" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>34</v>
       </c>
@@ -47881,7 +47881,7 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:7" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -47892,7 +47892,7 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>71</v>
       </c>
@@ -47903,7 +47903,7 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:7" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -47914,14 +47914,14 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="84" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="B8" s="84"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
@@ -47929,21 +47929,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>73</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>72</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>33</v>
       </c>
@@ -47953,7 +47953,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>41</v>
       </c>
@@ -47963,7 +47963,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>44</v>
       </c>
@@ -47973,7 +47973,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>42</v>
       </c>
@@ -47983,7 +47983,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>43</v>
       </c>
@@ -47993,7 +47993,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>45</v>
       </c>
@@ -48003,7 +48003,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>90</v>
       </c>
@@ -48013,14 +48013,14 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="84" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="84"/>
+      <c r="B20" s="85"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>48</v>
       </c>
@@ -48028,7 +48028,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="s">
         <v>30</v>
       </c>
@@ -48036,7 +48036,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>31</v>
       </c>
@@ -48044,7 +48044,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>37</v>
       </c>
@@ -48052,24 +48052,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>117</v>
       </c>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="84" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="84"/>
+      <c r="B27" s="85"/>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>131</v>
       </c>
@@ -48077,7 +48077,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>130</v>
       </c>
@@ -48085,7 +48085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>129</v>
       </c>
@@ -48093,20 +48093,20 @@
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="86" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="87" t="s">
         <v>119</v>
       </c>
-      <c r="B32" s="86"/>
+      <c r="B32" s="87"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>122</v>
       </c>
@@ -48114,7 +48114,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>74</v>
       </c>
@@ -48122,7 +48122,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>76</v>
       </c>
@@ -48130,7 +48130,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>75</v>
       </c>
@@ -48138,13 +48138,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="85" t="s">
+    <row r="38" spans="1:2" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="86" t="s">
         <v>120</v>
       </c>
-      <c r="B38" s="85"/>
+      <c r="B38" s="86"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>121</v>
       </c>
@@ -48152,7 +48152,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>74</v>
       </c>
@@ -48160,7 +48160,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>76</v>
       </c>
@@ -48168,7 +48168,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>77</v>
       </c>
@@ -48261,26 +48261,26 @@
   </sheetPr>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.69921875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="10.8984375" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.796875" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.69921875" style="18" customWidth="1"/>
-    <col min="5" max="5" width="11.8984375" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.69921875" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.09765625" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.796875" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.75" style="10" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.75" style="18" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.75" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.125" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.75" style="18" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.3984375" style="19"/>
+    <col min="10" max="16384" width="11.375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>12</v>
       </c>
@@ -48309,7 +48309,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -48332,7 +48332,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -48357,7 +48357,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -48384,7 +48384,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -48409,7 +48409,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -48434,7 +48434,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -48455,7 +48455,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -48480,7 +48480,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -48501,7 +48501,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -48522,7 +48522,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -48543,7 +48543,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -48557,14 +48557,14 @@
         <v>350</v>
       </c>
       <c r="E12" s="2">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="1"/>
       <c r="H12" s="2"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -48578,34 +48578,34 @@
         <v>350</v>
       </c>
       <c r="E13" s="2">
-        <v>0.2</v>
+        <v>6</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="1"/>
       <c r="H13" s="2"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <autoFilter ref="A1:H34" xr:uid="{804CF21E-C353-4454-9B0E-05956E676815}"/>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -48648,28 +48648,28 @@
   </sheetPr>
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.3984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.59765625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.69921875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="28.69921875" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.8984375" style="10" customWidth="1"/>
+    <col min="1" max="1" width="13.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.75" style="10" customWidth="1"/>
+    <col min="4" max="4" width="28.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.875" style="10" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.09765625" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.19921875" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.8984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.19921875" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.25" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>38</v>
       </c>
@@ -48707,7 +48707,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>47</v>
       </c>
@@ -48745,7 +48745,7 @@
       </c>
       <c r="L2" s="15"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>78</v>
       </c>
@@ -48780,7 +48780,7 @@
       </c>
       <c r="L3" s="15"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>79</v>
       </c>
@@ -48815,7 +48815,7 @@
       </c>
       <c r="L4" s="15"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>80</v>
       </c>
@@ -48849,7 +48849,7 @@
       </c>
       <c r="L5" s="15"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>81</v>
       </c>
@@ -48883,7 +48883,7 @@
       </c>
       <c r="L6" s="15"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>82</v>
       </c>
@@ -48917,7 +48917,7 @@
       </c>
       <c r="L7" s="15"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>83</v>
       </c>
@@ -48953,7 +48953,7 @@
       </c>
       <c r="L8" s="15"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>84</v>
       </c>
@@ -49043,18 +49043,18 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.5" style="10" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.59765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -49068,7 +49068,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -49080,7 +49080,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -49092,7 +49092,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -49104,7 +49104,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -49116,7 +49116,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -49128,7 +49128,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -49140,7 +49140,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -49152,7 +49152,7 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>15</v>
       </c>
@@ -49164,7 +49164,7 @@
       </c>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>17</v>
       </c>
@@ -49176,7 +49176,7 @@
       </c>
       <c r="D10" s="9"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>18</v>
       </c>
@@ -49188,7 +49188,7 @@
       </c>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>19</v>
       </c>
@@ -49196,11 +49196,11 @@
         <v>20</v>
       </c>
       <c r="C12" s="8">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D12" s="9"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>20</v>
       </c>
@@ -49208,146 +49208,146 @@
         <v>21</v>
       </c>
       <c r="C13" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="87">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="64">
         <v>14</v>
       </c>
-      <c r="B14" s="87">
+      <c r="B14" s="64">
         <v>16</v>
       </c>
-      <c r="C14" s="87">
+      <c r="C14" s="64">
         <v>100</v>
       </c>
       <c r="D14"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="87"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="87"/>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="64"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
       <c r="D15"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
     </row>
@@ -49367,14 +49367,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.25" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="46" t="s">
         <v>226</v>
       </c>
@@ -49394,7 +49394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>35</v>
       </c>
@@ -49414,7 +49414,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>221</v>
       </c>
@@ -49426,7 +49426,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>89</v>
       </c>
@@ -49438,7 +49438,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>91</v>
       </c>
@@ -49450,7 +49450,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>92</v>
       </c>
@@ -49462,7 +49462,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>92</v>
       </c>
@@ -49474,7 +49474,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -49486,7 +49486,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>223</v>
       </c>
@@ -49498,7 +49498,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>223</v>
       </c>
@@ -49528,14 +49528,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a656bf76-cca4-4796-b3e3-9ff4debad9ca">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3f4d043c-ef99-408b-9086-307465b47223" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -49774,27 +49772,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a656bf76-cca4-4796-b3e3-9ff4debad9ca">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3f4d043c-ef99-408b-9086-307465b47223" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D351F7AA-766C-4547-802C-9F4B7AB5F83E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80A89352-0353-48F1-9429-0E3BD72B2E30}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="3f4d043c-ef99-408b-9086-307465b47223"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a656bf76-cca4-4796-b3e3-9ff4debad9ca"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -49819,9 +49810,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80A89352-0353-48F1-9429-0E3BD72B2E30}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D351F7AA-766C-4547-802C-9F4B7AB5F83E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="3f4d043c-ef99-408b-9086-307465b47223"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a656bf76-cca4-4796-b3e3-9ff4debad9ca"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/grid_data_input_file_WIP_v1.xlsx
+++ b/grid_data_input_file_WIP_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c30483\Documents\dc_design_tool\dc_design_tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDBCB43C-3B1F-46B8-8E72-4443A68AA6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BB59D0-D0AA-4E61-BA39-34B0FE6B7CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23196" yWindow="10692" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23196" yWindow="10692" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="simple example" sheetId="20" r:id="rId1"/>
@@ -1814,36 +1814,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1853,8 +1823,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -45763,16 +45763,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="51"/>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
       <c r="D1" s="51"/>
     </row>
     <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A2" s="51"/>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="75" t="s">
         <v>290</v>
       </c>
-      <c r="C2" s="68"/>
+      <c r="C2" s="75"/>
       <c r="D2" s="51"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -45805,70 +45805,70 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="51"/>
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="66" t="s">
         <v>246</v>
       </c>
-      <c r="C8" s="76"/>
+      <c r="C8" s="66"/>
       <c r="D8" s="51"/>
     </row>
     <row r="9" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="51"/>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="76" t="s">
         <v>245</v>
       </c>
-      <c r="C9" s="69"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="51"/>
     </row>
     <row r="10" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="51"/>
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="76" t="s">
         <v>244</v>
       </c>
-      <c r="C10" s="69"/>
+      <c r="C10" s="76"/>
       <c r="D10" s="51"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="51"/>
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="67" t="s">
         <v>248</v>
       </c>
-      <c r="C11" s="77"/>
+      <c r="C11" s="67"/>
       <c r="D11" s="51"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="51"/>
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="76" t="s">
         <v>249</v>
       </c>
-      <c r="C12" s="69"/>
+      <c r="C12" s="76"/>
       <c r="D12" s="51"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="51"/>
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="68" t="s">
         <v>250</v>
       </c>
-      <c r="C13" s="65"/>
+      <c r="C13" s="68"/>
       <c r="D13" s="56"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="51"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
       <c r="D14" s="57"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="51"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="51"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="51"/>
-      <c r="B16" s="76" t="s">
+      <c r="B16" s="66" t="s">
         <v>247</v>
       </c>
-      <c r="C16" s="76"/>
+      <c r="C16" s="66"/>
       <c r="D16" s="58"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -45933,14 +45933,14 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="51"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
       <c r="D23" s="51"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="51"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
       <c r="D24" s="51"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -45953,42 +45953,42 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="51"/>
-      <c r="B26" s="72" t="s">
+      <c r="B26" s="71" t="s">
         <v>254</v>
       </c>
-      <c r="C26" s="72"/>
+      <c r="C26" s="71"/>
       <c r="D26" s="51"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="51"/>
-      <c r="B27" s="65" t="s">
+      <c r="B27" s="68" t="s">
         <v>253</v>
       </c>
-      <c r="C27" s="65"/>
+      <c r="C27" s="68"/>
       <c r="D27" s="51"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="51"/>
-      <c r="B28" s="67" t="s">
+      <c r="B28" s="78" t="s">
         <v>252</v>
       </c>
-      <c r="C28" s="67"/>
+      <c r="C28" s="78"/>
       <c r="D28" s="51"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="51"/>
-      <c r="B29" s="66" t="s">
+      <c r="B29" s="77" t="s">
         <v>256</v>
       </c>
-      <c r="C29" s="66"/>
+      <c r="C29" s="77"/>
       <c r="D29" s="51"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="51"/>
-      <c r="B30" s="65" t="s">
+      <c r="B30" s="68" t="s">
         <v>279</v>
       </c>
-      <c r="C30" s="65"/>
+      <c r="C30" s="68"/>
       <c r="D30" s="51"/>
       <c r="F30" t="s">
         <v>276</v>
@@ -45996,26 +45996,26 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="51"/>
-      <c r="B31" s="65" t="s">
+      <c r="B31" s="68" t="s">
         <v>280</v>
       </c>
-      <c r="C31" s="65"/>
+      <c r="C31" s="68"/>
       <c r="D31" s="51"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="51"/>
-      <c r="B32" s="67" t="s">
+      <c r="B32" s="78" t="s">
         <v>281</v>
       </c>
-      <c r="C32" s="67"/>
+      <c r="C32" s="78"/>
       <c r="D32" s="51"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="51"/>
-      <c r="B33" s="65" t="s">
+      <c r="B33" s="68" t="s">
         <v>282</v>
       </c>
-      <c r="C33" s="65"/>
+      <c r="C33" s="68"/>
       <c r="D33" s="51"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -46024,96 +46024,96 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="51"/>
-      <c r="B35" s="72" t="s">
+      <c r="B35" s="71" t="s">
         <v>261</v>
       </c>
-      <c r="C35" s="72"/>
+      <c r="C35" s="71"/>
       <c r="D35" s="51"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="51"/>
-      <c r="B36" s="65" t="s">
+      <c r="B36" s="68" t="s">
         <v>255</v>
       </c>
-      <c r="C36" s="65"/>
+      <c r="C36" s="68"/>
       <c r="D36" s="51"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="51"/>
-      <c r="B37" s="65" t="s">
+      <c r="B37" s="68" t="s">
         <v>283</v>
       </c>
-      <c r="C37" s="65"/>
+      <c r="C37" s="68"/>
       <c r="D37" s="51"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="51"/>
-      <c r="B38" s="65" t="s">
+      <c r="B38" s="68" t="s">
         <v>284</v>
       </c>
-      <c r="C38" s="65"/>
+      <c r="C38" s="68"/>
       <c r="D38" s="51"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="51"/>
-      <c r="B39" s="65" t="s">
+      <c r="B39" s="68" t="s">
         <v>285</v>
       </c>
-      <c r="C39" s="65"/>
+      <c r="C39" s="68"/>
       <c r="D39" s="51"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="51"/>
-      <c r="B40" s="78" t="s">
+      <c r="B40" s="69" t="s">
         <v>257</v>
       </c>
-      <c r="C40" s="78"/>
+      <c r="C40" s="69"/>
       <c r="D40" s="51"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="51"/>
-      <c r="B41" s="65" t="s">
+      <c r="B41" s="68" t="s">
         <v>258</v>
       </c>
-      <c r="C41" s="65"/>
+      <c r="C41" s="68"/>
       <c r="D41" s="51"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="51"/>
-      <c r="B42" s="65" t="s">
+      <c r="B42" s="68" t="s">
         <v>259</v>
       </c>
-      <c r="C42" s="65"/>
+      <c r="C42" s="68"/>
       <c r="D42" s="51"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="51"/>
-      <c r="B43" s="65" t="s">
+      <c r="B43" s="68" t="s">
         <v>260</v>
       </c>
-      <c r="C43" s="65"/>
+      <c r="C43" s="68"/>
       <c r="D43" s="51"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="51"/>
-      <c r="B44" s="65"/>
-      <c r="C44" s="65"/>
+      <c r="B44" s="68"/>
+      <c r="C44" s="68"/>
       <c r="D44" s="51"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="51"/>
-      <c r="B45" s="72" t="s">
+      <c r="B45" s="71" t="s">
         <v>262</v>
       </c>
-      <c r="C45" s="72"/>
+      <c r="C45" s="71"/>
       <c r="D45" s="51"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="51"/>
-      <c r="B46" s="65" t="s">
+      <c r="B46" s="68" t="s">
         <v>263</v>
       </c>
-      <c r="C46" s="65"/>
+      <c r="C46" s="68"/>
       <c r="D46" s="51"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -46121,15 +46121,15 @@
       <c r="B47" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="C47" s="65"/>
+      <c r="C47" s="68"/>
       <c r="D47" s="51"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="51"/>
-      <c r="B48" s="65" t="s">
+      <c r="B48" s="68" t="s">
         <v>267</v>
       </c>
-      <c r="C48" s="65"/>
+      <c r="C48" s="68"/>
       <c r="D48" s="51"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -46137,15 +46137,15 @@
       <c r="B49" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="C49" s="65"/>
+      <c r="C49" s="68"/>
       <c r="D49" s="51"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="51"/>
-      <c r="B50" s="65" t="s">
+      <c r="B50" s="68" t="s">
         <v>266</v>
       </c>
-      <c r="C50" s="65"/>
+      <c r="C50" s="68"/>
       <c r="D50" s="51"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -46153,15 +46153,15 @@
       <c r="B51" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="C51" s="65"/>
+      <c r="C51" s="68"/>
       <c r="D51" s="51"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="51"/>
-      <c r="B52" s="65" t="s">
+      <c r="B52" s="68" t="s">
         <v>265</v>
       </c>
-      <c r="C52" s="65"/>
+      <c r="C52" s="68"/>
       <c r="D52" s="51"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -46169,45 +46169,45 @@
       <c r="B53" s="70" t="s">
         <v>289</v>
       </c>
-      <c r="C53" s="65"/>
+      <c r="C53" s="68"/>
       <c r="D53" s="51"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="51"/>
-      <c r="B54" s="65" t="s">
+      <c r="B54" s="68" t="s">
         <v>264</v>
       </c>
-      <c r="C54" s="65"/>
+      <c r="C54" s="68"/>
       <c r="D54" s="51"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="51"/>
-      <c r="B55" s="65"/>
-      <c r="C55" s="65"/>
+      <c r="B55" s="68"/>
+      <c r="C55" s="68"/>
       <c r="D55" s="51"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="51"/>
-      <c r="B56" s="72" t="s">
+      <c r="B56" s="71" t="s">
         <v>273</v>
       </c>
-      <c r="C56" s="72"/>
+      <c r="C56" s="71"/>
       <c r="D56" s="51"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="51"/>
-      <c r="B57" s="65" t="s">
+      <c r="B57" s="68" t="s">
         <v>274</v>
       </c>
-      <c r="C57" s="65"/>
+      <c r="C57" s="68"/>
       <c r="D57" s="51"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="51"/>
-      <c r="B58" s="65" t="s">
+      <c r="B58" s="68" t="s">
         <v>275</v>
       </c>
-      <c r="C58" s="65"/>
+      <c r="C58" s="68"/>
       <c r="D58" s="51"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -46218,69 +46218,109 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="51"/>
-      <c r="B60" s="65"/>
-      <c r="C60" s="65"/>
+      <c r="B60" s="68"/>
+      <c r="C60" s="68"/>
       <c r="D60" s="51"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="51"/>
-      <c r="B61" s="72" t="s">
+      <c r="B61" s="71" t="s">
         <v>272</v>
       </c>
-      <c r="C61" s="72"/>
+      <c r="C61" s="71"/>
       <c r="D61" s="51"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="51"/>
-      <c r="B62" s="65" t="s">
+      <c r="B62" s="68" t="s">
         <v>268</v>
       </c>
-      <c r="C62" s="65"/>
+      <c r="C62" s="68"/>
       <c r="D62" s="51"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="51"/>
-      <c r="B63" s="65" t="s">
+      <c r="B63" s="68" t="s">
         <v>269</v>
       </c>
-      <c r="C63" s="65"/>
+      <c r="C63" s="68"/>
       <c r="D63" s="51"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="51"/>
-      <c r="B64" s="65" t="s">
+      <c r="B64" s="68" t="s">
         <v>270</v>
       </c>
-      <c r="C64" s="65"/>
+      <c r="C64" s="68"/>
       <c r="D64" s="51"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="51"/>
-      <c r="B65" s="65" t="s">
+      <c r="B65" s="68" t="s">
         <v>271</v>
       </c>
-      <c r="C65" s="65"/>
+      <c r="C65" s="68"/>
       <c r="D65" s="51"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="51"/>
-      <c r="B66" s="75"/>
-      <c r="C66" s="75"/>
+      <c r="B66" s="65"/>
+      <c r="C66" s="65"/>
       <c r="D66" s="51"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B67" s="55"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B70" s="65"/>
-      <c r="C70" s="65"/>
+      <c r="B70" s="68"/>
+      <c r="C70" s="68"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B71" s="65"/>
-      <c r="C71" s="65"/>
+      <c r="B71" s="68"/>
+      <c r="C71" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B8:C8"/>
@@ -46297,46 +46337,6 @@
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B41:C41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -46494,7 +46494,7 @@
       <c r="E7" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G7" s="65"/>
+      <c r="G7" s="68"/>
       <c r="I7" s="60"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -46502,7 +46502,7 @@
       <c r="E8" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G8" s="65"/>
+      <c r="G8" s="68"/>
       <c r="I8" s="60"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -46582,7 +46582,7 @@
       <c r="E13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="65"/>
+      <c r="G13" s="68"/>
       <c r="I13" s="60"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -47070,7 +47070,7 @@
       <c r="E37" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="65"/>
+      <c r="G37" s="68"/>
       <c r="I37" s="60"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
@@ -47078,7 +47078,7 @@
       <c r="E38" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G38" s="65"/>
+      <c r="G38" s="68"/>
       <c r="I38" s="60"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
@@ -47086,7 +47086,7 @@
       <c r="E39" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="65"/>
+      <c r="G39" s="68"/>
       <c r="I39" s="60"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
@@ -47094,7 +47094,7 @@
       <c r="E40" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G40" s="65"/>
+      <c r="G40" s="68"/>
       <c r="I40" s="60"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
@@ -47162,7 +47162,7 @@
       <c r="F44" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="G44" s="65"/>
+      <c r="G44" s="68"/>
       <c r="I44" s="60"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
@@ -47173,7 +47173,7 @@
       <c r="F45" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="G45" s="65"/>
+      <c r="G45" s="68"/>
       <c r="I45" s="60"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
@@ -47408,7 +47408,7 @@
       <c r="E57" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="G57" s="65"/>
+      <c r="G57" s="68"/>
       <c r="I57" s="60"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -47416,7 +47416,7 @@
       <c r="E58" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G58" s="65"/>
+      <c r="G58" s="68"/>
       <c r="I58" s="60"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -47424,7 +47424,7 @@
       <c r="E59" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="G59" s="65"/>
+      <c r="G59" s="68"/>
       <c r="I59" s="60"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -47432,7 +47432,7 @@
       <c r="E60" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="G60" s="65"/>
+      <c r="G60" s="68"/>
       <c r="I60" s="60"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -47440,7 +47440,7 @@
       <c r="E61" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G61" s="65"/>
+      <c r="G61" s="68"/>
       <c r="I61" s="60"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -47448,7 +47448,7 @@
       <c r="E62" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G62" s="65"/>
+      <c r="G62" s="68"/>
       <c r="I62" s="60"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
@@ -47658,7 +47658,7 @@
       <c r="F73" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="G73" s="65"/>
+      <c r="G73" s="68"/>
       <c r="I73" s="60"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
@@ -47669,7 +47669,7 @@
       <c r="F74" s="39" t="s">
         <v>238</v>
       </c>
-      <c r="G74" s="65"/>
+      <c r="G74" s="68"/>
       <c r="I74" s="60"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
@@ -48261,7 +48261,7 @@
   </sheetPr>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
@@ -49041,9 +49041,9 @@
   </sheetPr>
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -49196,7 +49196,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="8">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="D12" s="9"/>
     </row>
@@ -49528,15 +49528,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005D48458B7DF5B44891BF6C8B708F036C" ma:contentTypeVersion="15" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="6ec72bf5cc41951886dd851de9b63939">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a656bf76-cca4-4796-b3e3-9ff4debad9ca" xmlns:ns3="3f4d043c-ef99-408b-9086-307465b47223" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="619265aacb58e563d368a43a0aeb056e" ns2:_="" ns3:_="">
     <xsd:import namespace="a656bf76-cca4-4796-b3e3-9ff4debad9ca"/>
@@ -49771,6 +49762,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -49783,14 +49783,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80A89352-0353-48F1-9429-0E3BD72B2E30}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{908F6F40-8D93-4BAF-B5F7-B52D93E367E6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -49805,6 +49797,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80A89352-0353-48F1-9429-0E3BD72B2E30}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/grid_data_input_file_WIP_v1.xlsx
+++ b/grid_data_input_file_WIP_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c30483\Documents\dc_design_tool\dc_design_tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BB59D0-D0AA-4E61-BA39-34B0FE6B7CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A70C9D-556B-4C3D-9CA7-6749E0196569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23196" yWindow="10692" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="simple example" sheetId="20" r:id="rId1"/>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="293">
   <si>
     <t>Node_i</t>
   </si>
@@ -932,9 +932,6 @@
     <t>Conditional (on converter type)</t>
   </si>
   <si>
-    <t>[1,085; 0], [1; 1], [1; 1], [1; 1], [1; 1], [0,915; 1]</t>
-  </si>
-  <si>
     <t>Index Curve</t>
   </si>
   <si>
@@ -1371,6 +1368,9 @@
   </si>
   <si>
     <t>[[0,100],[50,98],[75,97],[100,95]]</t>
+  </si>
+  <si>
+    <t>[1.085; 0], [1; 1], [1; 1], [1; 1], [1; 1], [0.915; 1]</t>
   </si>
 </sst>
 </file>
@@ -2601,8 +2601,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2888826" y="3997480"/>
-          <a:ext cx="387392" cy="342507"/>
+          <a:off x="2877396" y="3957475"/>
+          <a:ext cx="389297" cy="334887"/>
           <a:chOff x="3573269" y="3601319"/>
           <a:chExt cx="424926" cy="329094"/>
         </a:xfrm>
@@ -2868,8 +2868,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2888826" y="3114134"/>
-          <a:ext cx="387392" cy="328168"/>
+          <a:off x="2877396" y="3083654"/>
+          <a:ext cx="389297" cy="324358"/>
           <a:chOff x="3573269" y="3601319"/>
           <a:chExt cx="424926" cy="329094"/>
         </a:xfrm>
@@ -3592,8 +3592,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2889657" y="1863954"/>
-          <a:ext cx="387392" cy="334887"/>
+          <a:off x="2878227" y="1842999"/>
+          <a:ext cx="389297" cy="334887"/>
           <a:chOff x="3573269" y="3601319"/>
           <a:chExt cx="424926" cy="329094"/>
         </a:xfrm>
@@ -3914,8 +3914,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2888826" y="4902255"/>
-          <a:ext cx="387392" cy="336792"/>
+          <a:off x="2877396" y="4850820"/>
+          <a:ext cx="389297" cy="334887"/>
           <a:chOff x="3573269" y="3601319"/>
           <a:chExt cx="424926" cy="329094"/>
         </a:xfrm>
@@ -7593,8 +7593,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5057787" y="1509230"/>
-          <a:ext cx="1436104" cy="785960"/>
+          <a:off x="5036832" y="1495895"/>
+          <a:ext cx="1432294" cy="772625"/>
           <a:chOff x="5974842" y="1887551"/>
           <a:chExt cx="1550251" cy="767591"/>
         </a:xfrm>
@@ -9340,8 +9340,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5709534" y="3070389"/>
-          <a:ext cx="395014" cy="336790"/>
+          <a:off x="5688579" y="3038004"/>
+          <a:ext cx="389299" cy="334885"/>
           <a:chOff x="3573266" y="3601319"/>
           <a:chExt cx="424929" cy="329093"/>
         </a:xfrm>
@@ -21079,8 +21079,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="0" y="586739"/>
-          <a:ext cx="11224260" cy="5730241"/>
+          <a:off x="0" y="581024"/>
+          <a:ext cx="11172825" cy="5667376"/>
           <a:chOff x="335486" y="881826"/>
           <a:chExt cx="12151247" cy="5595213"/>
         </a:xfrm>
@@ -45770,7 +45770,7 @@
     <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A2" s="51"/>
       <c r="B2" s="75" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C2" s="75"/>
       <c r="D2" s="51"/>
@@ -45782,7 +45782,7 @@
     <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A4" s="51"/>
       <c r="B4" s="74" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C4" s="74"/>
       <c r="D4" s="51"/>
@@ -45790,7 +45790,7 @@
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A5" s="51"/>
       <c r="B5" s="73" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C5" s="73"/>
       <c r="D5" s="51"/>
@@ -45806,7 +45806,7 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="51"/>
       <c r="B8" s="66" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C8" s="66"/>
       <c r="D8" s="51"/>
@@ -45814,7 +45814,7 @@
     <row r="9" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="51"/>
       <c r="B9" s="76" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C9" s="76"/>
       <c r="D9" s="51"/>
@@ -45822,7 +45822,7 @@
     <row r="10" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="51"/>
       <c r="B10" s="76" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C10" s="76"/>
       <c r="D10" s="51"/>
@@ -45830,7 +45830,7 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="51"/>
       <c r="B11" s="67" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C11" s="67"/>
       <c r="D11" s="51"/>
@@ -45838,7 +45838,7 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="51"/>
       <c r="B12" s="76" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C12" s="76"/>
       <c r="D12" s="51"/>
@@ -45846,7 +45846,7 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="51"/>
       <c r="B13" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C13" s="68"/>
       <c r="D13" s="56"/>
@@ -45866,7 +45866,7 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="51"/>
       <c r="B16" s="66" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C16" s="66"/>
       <c r="D16" s="58"/>
@@ -45946,7 +45946,7 @@
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="51"/>
       <c r="B25" s="53" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C25" s="53"/>
       <c r="D25" s="58"/>
@@ -45954,7 +45954,7 @@
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="51"/>
       <c r="B26" s="71" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C26" s="71"/>
       <c r="D26" s="51"/>
@@ -45962,7 +45962,7 @@
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="51"/>
       <c r="B27" s="68" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C27" s="68"/>
       <c r="D27" s="51"/>
@@ -45970,7 +45970,7 @@
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="51"/>
       <c r="B28" s="78" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C28" s="78"/>
       <c r="D28" s="51"/>
@@ -45978,7 +45978,7 @@
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="51"/>
       <c r="B29" s="77" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C29" s="77"/>
       <c r="D29" s="51"/>
@@ -45986,18 +45986,18 @@
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="51"/>
       <c r="B30" s="68" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C30" s="68"/>
       <c r="D30" s="51"/>
       <c r="F30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="51"/>
       <c r="B31" s="68" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C31" s="68"/>
       <c r="D31" s="51"/>
@@ -46005,7 +46005,7 @@
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="51"/>
       <c r="B32" s="78" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C32" s="78"/>
       <c r="D32" s="51"/>
@@ -46013,7 +46013,7 @@
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="51"/>
       <c r="B33" s="68" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C33" s="68"/>
       <c r="D33" s="51"/>
@@ -46025,7 +46025,7 @@
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="51"/>
       <c r="B35" s="71" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C35" s="71"/>
       <c r="D35" s="51"/>
@@ -46033,7 +46033,7 @@
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="51"/>
       <c r="B36" s="68" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C36" s="68"/>
       <c r="D36" s="51"/>
@@ -46041,7 +46041,7 @@
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="51"/>
       <c r="B37" s="68" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C37" s="68"/>
       <c r="D37" s="51"/>
@@ -46049,7 +46049,7 @@
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="51"/>
       <c r="B38" s="68" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C38" s="68"/>
       <c r="D38" s="51"/>
@@ -46057,7 +46057,7 @@
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="51"/>
       <c r="B39" s="68" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C39" s="68"/>
       <c r="D39" s="51"/>
@@ -46065,7 +46065,7 @@
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="51"/>
       <c r="B40" s="69" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C40" s="69"/>
       <c r="D40" s="51"/>
@@ -46073,7 +46073,7 @@
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="51"/>
       <c r="B41" s="68" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C41" s="68"/>
       <c r="D41" s="51"/>
@@ -46081,7 +46081,7 @@
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="51"/>
       <c r="B42" s="68" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C42" s="68"/>
       <c r="D42" s="51"/>
@@ -46089,7 +46089,7 @@
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="51"/>
       <c r="B43" s="68" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C43" s="68"/>
       <c r="D43" s="51"/>
@@ -46103,7 +46103,7 @@
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="51"/>
       <c r="B45" s="71" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C45" s="71"/>
       <c r="D45" s="51"/>
@@ -46111,7 +46111,7 @@
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="51"/>
       <c r="B46" s="68" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C46" s="68"/>
       <c r="D46" s="51"/>
@@ -46119,7 +46119,7 @@
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="51"/>
       <c r="B47" s="70" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C47" s="68"/>
       <c r="D47" s="51"/>
@@ -46127,7 +46127,7 @@
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="51"/>
       <c r="B48" s="68" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C48" s="68"/>
       <c r="D48" s="51"/>
@@ -46135,7 +46135,7 @@
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="51"/>
       <c r="B49" s="70" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C49" s="68"/>
       <c r="D49" s="51"/>
@@ -46143,7 +46143,7 @@
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="51"/>
       <c r="B50" s="68" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C50" s="68"/>
       <c r="D50" s="51"/>
@@ -46151,7 +46151,7 @@
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="51"/>
       <c r="B51" s="70" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C51" s="68"/>
       <c r="D51" s="51"/>
@@ -46159,7 +46159,7 @@
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="51"/>
       <c r="B52" s="68" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C52" s="68"/>
       <c r="D52" s="51"/>
@@ -46167,7 +46167,7 @@
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="51"/>
       <c r="B53" s="70" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C53" s="68"/>
       <c r="D53" s="51"/>
@@ -46175,7 +46175,7 @@
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="51"/>
       <c r="B54" s="68" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C54" s="68"/>
       <c r="D54" s="51"/>
@@ -46189,7 +46189,7 @@
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="51"/>
       <c r="B56" s="71" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C56" s="71"/>
       <c r="D56" s="51"/>
@@ -46197,7 +46197,7 @@
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="51"/>
       <c r="B57" s="68" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C57" s="68"/>
       <c r="D57" s="51"/>
@@ -46205,7 +46205,7 @@
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="51"/>
       <c r="B58" s="68" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C58" s="68"/>
       <c r="D58" s="51"/>
@@ -46225,7 +46225,7 @@
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="51"/>
       <c r="B61" s="71" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C61" s="71"/>
       <c r="D61" s="51"/>
@@ -46233,7 +46233,7 @@
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="51"/>
       <c r="B62" s="68" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C62" s="68"/>
       <c r="D62" s="51"/>
@@ -46241,7 +46241,7 @@
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="51"/>
       <c r="B63" s="68" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C63" s="68"/>
       <c r="D63" s="51"/>
@@ -46249,7 +46249,7 @@
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="51"/>
       <c r="B64" s="68" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C64" s="68"/>
       <c r="D64" s="51"/>
@@ -46257,7 +46257,7 @@
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="51"/>
       <c r="B65" s="68" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C65" s="68"/>
       <c r="D65" s="51"/>
@@ -46396,7 +46396,7 @@
         <v>62</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F2" s="35" t="s">
         <v>159</v>
@@ -46445,7 +46445,7 @@
         <v>7</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G4" s="80" t="s">
         <v>211</v>
@@ -46533,7 +46533,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G10" s="80" t="s">
         <v>211</v>
@@ -46547,7 +46547,7 @@
       <c r="C11" s="22"/>
       <c r="D11" s="81"/>
       <c r="E11" s="22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F11" s="38"/>
       <c r="G11" s="81"/>
@@ -47584,7 +47584,7 @@
       </c>
       <c r="E69" s="29"/>
       <c r="F69" s="36" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G69" s="38" t="s">
         <v>215</v>
@@ -47640,10 +47640,10 @@
         <v>203</v>
       </c>
       <c r="E72" s="27" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F72" s="39" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G72" s="80" t="s">
         <v>211</v>
@@ -47653,10 +47653,10 @@
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="60"/>
       <c r="E73" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F73" s="39" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G73" s="68"/>
       <c r="I73" s="60"/>
@@ -47664,10 +47664,10 @@
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="60"/>
       <c r="E74" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F74" s="39" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G74" s="68"/>
       <c r="I74" s="60"/>
@@ -47678,10 +47678,10 @@
       <c r="C75" s="22"/>
       <c r="D75" s="38"/>
       <c r="E75" s="22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F75" s="38" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G75" s="81"/>
       <c r="H75" s="21"/>
@@ -47700,7 +47700,7 @@
       </c>
       <c r="E76" s="22"/>
       <c r="F76" s="36" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G76" s="38" t="s">
         <v>215</v>
@@ -47850,8 +47850,8 @@
   </sheetPr>
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="88" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" zoomScalePageLayoutView="88" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -48263,7 +48263,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -48648,9 +48648,9 @@
   </sheetPr>
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -48695,7 +48695,7 @@
         <v>70</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J1" s="14" t="s">
         <v>27</v>
@@ -48704,10 +48704,10 @@
         <v>69</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>47</v>
       </c>
@@ -48729,21 +48729,23 @@
         <v>700</v>
       </c>
       <c r="G2" s="15">
-        <v>50</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="15" t="s">
         <v>125</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J2" s="15" t="s">
         <v>127</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="L2" s="15"/>
+        <v>230</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -48763,20 +48765,18 @@
       <c r="F3" s="1">
         <v>700</v>
       </c>
-      <c r="G3" s="15">
-        <v>50</v>
-      </c>
+      <c r="G3" s="15"/>
       <c r="H3" s="15" t="s">
-        <v>125</v>
+        <v>39</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>127</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L3" s="15"/>
     </row>
@@ -48798,20 +48798,18 @@
       <c r="F4" s="1">
         <v>700</v>
       </c>
-      <c r="G4" s="15">
-        <v>50</v>
-      </c>
+      <c r="G4" s="15"/>
       <c r="H4" s="15" t="s">
-        <v>125</v>
+        <v>39</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>127</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L4" s="15"/>
     </row>
@@ -48832,20 +48830,18 @@
       <c r="F5" s="1">
         <v>700</v>
       </c>
-      <c r="G5" s="15">
-        <v>50</v>
-      </c>
+      <c r="G5" s="15"/>
       <c r="H5" s="15" t="s">
-        <v>125</v>
+        <v>39</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>127</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L5" s="15"/>
     </row>
@@ -48866,20 +48862,18 @@
       <c r="F6" s="1">
         <v>700</v>
       </c>
-      <c r="G6" s="15">
-        <v>50</v>
-      </c>
+      <c r="G6" s="15"/>
       <c r="H6" s="15" t="s">
-        <v>125</v>
+        <v>39</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>127</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L6" s="15"/>
     </row>
@@ -48900,20 +48894,18 @@
       <c r="F7" s="1">
         <v>700</v>
       </c>
-      <c r="G7" s="15">
-        <v>50</v>
-      </c>
+      <c r="G7" s="15"/>
       <c r="H7" s="15" t="s">
-        <v>125</v>
+        <v>39</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>127</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L7" s="15"/>
     </row>
@@ -48936,20 +48928,18 @@
       <c r="F8" s="1">
         <v>350</v>
       </c>
-      <c r="G8" s="15">
-        <v>50</v>
-      </c>
+      <c r="G8" s="15"/>
       <c r="H8" s="15" t="s">
-        <v>125</v>
+        <v>39</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>127</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L8" s="15"/>
     </row>
@@ -48972,20 +48962,18 @@
       <c r="F9" s="1">
         <v>700</v>
       </c>
-      <c r="G9" s="15">
-        <v>50</v>
-      </c>
+      <c r="G9" s="15"/>
       <c r="H9" s="15" t="s">
-        <v>125</v>
+        <v>39</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>127</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L9" s="15"/>
     </row>
@@ -49043,7 +49031,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -49208,7 +49196,7 @@
         <v>21</v>
       </c>
       <c r="C13" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="D13" s="2"/>
     </row>
@@ -49364,7 +49352,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -49376,7 +49364,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="46" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B1" s="46">
         <v>0</v>
@@ -49399,19 +49387,19 @@
         <v>35</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="45" t="s">
         <v>227</v>
       </c>
-      <c r="C2" s="45" t="s">
-        <v>228</v>
-      </c>
       <c r="D2" s="45" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E2" s="45" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -49419,7 +49407,7 @@
         <v>221</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>225</v>
+        <v>292</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -49431,7 +49419,7 @@
         <v>89</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>225</v>
+        <v>292</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -49443,7 +49431,7 @@
         <v>91</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>225</v>
+        <v>292</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -49455,7 +49443,7 @@
         <v>92</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>225</v>
+        <v>292</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -49467,7 +49455,7 @@
         <v>92</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>225</v>
+        <v>292</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -49479,7 +49467,7 @@
         <v>26</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>225</v>
+        <v>292</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -49491,7 +49479,7 @@
         <v>223</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>225</v>
+        <v>292</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -49503,7 +49491,7 @@
         <v>223</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>225</v>
+        <v>292</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -49528,6 +49516,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a656bf76-cca4-4796-b3e3-9ff4debad9ca">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3f4d043c-ef99-408b-9086-307465b47223" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005D48458B7DF5B44891BF6C8B708F036C" ma:contentTypeVersion="15" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="6ec72bf5cc41951886dd851de9b63939">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a656bf76-cca4-4796-b3e3-9ff4debad9ca" xmlns:ns3="3f4d043c-ef99-408b-9086-307465b47223" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="619265aacb58e563d368a43a0aeb056e" ns2:_="" ns3:_="">
     <xsd:import namespace="a656bf76-cca4-4796-b3e3-9ff4debad9ca"/>
@@ -49762,7 +49761,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -49771,18 +49770,24 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a656bf76-cca4-4796-b3e3-9ff4debad9ca">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3f4d043c-ef99-408b-9086-307465b47223" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D351F7AA-766C-4547-802C-9F4B7AB5F83E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="3f4d043c-ef99-408b-9086-307465b47223"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a656bf76-cca4-4796-b3e3-9ff4debad9ca"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{908F6F40-8D93-4BAF-B5F7-B52D93E367E6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -49801,27 +49806,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80A89352-0353-48F1-9429-0E3BD72B2E30}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D351F7AA-766C-4547-802C-9F4B7AB5F83E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="3f4d043c-ef99-408b-9086-307465b47223"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a656bf76-cca4-4796-b3e3-9ff4debad9ca"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/grid_data_input_file_WIP_v1.xlsx
+++ b/grid_data_input_file_WIP_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c30483\Documents\dc_design_tool\dc_design_tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A70C9D-556B-4C3D-9CA7-6749E0196569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C821B69-D49D-4F56-82ED-6FBFFE3B91FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1814,29 +1814,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -1850,11 +1844,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2601,8 +2601,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2877396" y="3957475"/>
-          <a:ext cx="389297" cy="334887"/>
+          <a:off x="2865966" y="3837460"/>
+          <a:ext cx="389297" cy="323457"/>
           <a:chOff x="3573269" y="3601319"/>
           <a:chExt cx="424926" cy="329094"/>
         </a:xfrm>
@@ -2868,8 +2868,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2877396" y="3083654"/>
-          <a:ext cx="389297" cy="324358"/>
+          <a:off x="2865966" y="2986499"/>
+          <a:ext cx="389297" cy="318643"/>
           <a:chOff x="3573269" y="3601319"/>
           <a:chExt cx="424926" cy="329094"/>
         </a:xfrm>
@@ -3592,8 +3592,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2878227" y="1842999"/>
-          <a:ext cx="389297" cy="334887"/>
+          <a:off x="2866797" y="1785849"/>
+          <a:ext cx="389297" cy="323457"/>
           <a:chOff x="3573269" y="3601319"/>
           <a:chExt cx="424926" cy="329094"/>
         </a:xfrm>
@@ -3914,8 +3914,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2877396" y="4850820"/>
-          <a:ext cx="389297" cy="334887"/>
+          <a:off x="2865966" y="4702230"/>
+          <a:ext cx="389297" cy="323457"/>
           <a:chOff x="3573269" y="3601319"/>
           <a:chExt cx="424926" cy="329094"/>
         </a:xfrm>
@@ -7593,8 +7593,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5036832" y="1495895"/>
-          <a:ext cx="1432294" cy="772625"/>
+          <a:off x="5017782" y="1450175"/>
+          <a:ext cx="1424674" cy="749765"/>
           <a:chOff x="5974842" y="1887551"/>
           <a:chExt cx="1550251" cy="767591"/>
         </a:xfrm>
@@ -9340,8 +9340,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5688579" y="3038004"/>
-          <a:ext cx="389299" cy="334885"/>
+          <a:off x="5665719" y="2946564"/>
+          <a:ext cx="385489" cy="323455"/>
           <a:chOff x="3573266" y="3601319"/>
           <a:chExt cx="424929" cy="329093"/>
         </a:xfrm>
@@ -21079,8 +21079,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="0" y="581024"/>
-          <a:ext cx="11172825" cy="5667376"/>
+          <a:off x="0" y="563879"/>
+          <a:ext cx="11123295" cy="5490211"/>
           <a:chOff x="335486" y="881826"/>
           <a:chExt cx="12151247" cy="5595213"/>
         </a:xfrm>
@@ -45720,7 +45720,7 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -45735,7 +45735,7 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -45753,125 +45753,125 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.75" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="87.25" style="52" customWidth="1"/>
+    <col min="1" max="1" width="1.69921875" customWidth="1"/>
+    <col min="2" max="2" width="12.8984375" style="52" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="87.19921875" style="52" customWidth="1"/>
     <col min="4" max="4" width="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="51"/>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
       <c r="D1" s="51"/>
     </row>
-    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="51"/>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="73" t="s">
         <v>289</v>
       </c>
-      <c r="C2" s="75"/>
+      <c r="C2" s="73"/>
       <c r="D2" s="51"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="51"/>
       <c r="D3" s="51"/>
     </row>
-    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="51"/>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="72" t="s">
         <v>276</v>
       </c>
-      <c r="C4" s="74"/>
+      <c r="C4" s="72"/>
       <c r="D4" s="51"/>
     </row>
-    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="51"/>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="71" t="s">
         <v>277</v>
       </c>
-      <c r="C5" s="73"/>
+      <c r="C5" s="71"/>
       <c r="D5" s="51"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="51"/>
       <c r="D6" s="51"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="51"/>
       <c r="D7" s="51"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="51"/>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="76" t="s">
         <v>245</v>
       </c>
-      <c r="C8" s="66"/>
+      <c r="C8" s="76"/>
       <c r="D8" s="51"/>
     </row>
-    <row r="9" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="51"/>
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="74" t="s">
         <v>244</v>
       </c>
-      <c r="C9" s="76"/>
+      <c r="C9" s="74"/>
       <c r="D9" s="51"/>
     </row>
-    <row r="10" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="51"/>
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="74" t="s">
         <v>243</v>
       </c>
-      <c r="C10" s="76"/>
+      <c r="C10" s="74"/>
       <c r="D10" s="51"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="51"/>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="77" t="s">
         <v>247</v>
       </c>
-      <c r="C11" s="67"/>
+      <c r="C11" s="77"/>
       <c r="D11" s="51"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="51"/>
-      <c r="B12" s="76" t="s">
+      <c r="B12" s="74" t="s">
         <v>248</v>
       </c>
-      <c r="C12" s="76"/>
+      <c r="C12" s="74"/>
       <c r="D12" s="51"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="51"/>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="65" t="s">
         <v>249</v>
       </c>
-      <c r="C13" s="68"/>
+      <c r="C13" s="65"/>
       <c r="D13" s="56"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="51"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
       <c r="D14" s="57"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="51"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
       <c r="D15" s="51"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="51"/>
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="76" t="s">
         <v>246</v>
       </c>
-      <c r="C16" s="66"/>
+      <c r="C16" s="76"/>
       <c r="D16" s="58"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="51"/>
       <c r="B17" s="54" t="s">
         <v>52</v>
@@ -45881,7 +45881,7 @@
       </c>
       <c r="D17" s="59"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="51"/>
       <c r="B18" s="52" t="s">
         <v>99</v>
@@ -45891,7 +45891,7 @@
       </c>
       <c r="D18" s="59"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="51"/>
       <c r="B19" s="52" t="s">
         <v>53</v>
@@ -45901,7 +45901,7 @@
       </c>
       <c r="D19" s="51"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="51"/>
       <c r="B20" s="52" t="s">
         <v>55</v>
@@ -45911,7 +45911,7 @@
       </c>
       <c r="D20" s="51"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="51"/>
       <c r="B21" s="52" t="s">
         <v>57</v>
@@ -45921,7 +45921,7 @@
       </c>
       <c r="D21" s="51"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="51"/>
       <c r="B22" s="52" t="s">
         <v>59</v>
@@ -45931,19 +45931,19 @@
       </c>
       <c r="D22" s="51"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="51"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="68"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
       <c r="D23" s="51"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="51"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="68"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
       <c r="D24" s="51"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="51"/>
       <c r="B25" s="53" t="s">
         <v>250</v>
@@ -45951,336 +45951,376 @@
       <c r="C25" s="53"/>
       <c r="D25" s="58"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="51"/>
-      <c r="B26" s="71" t="s">
+      <c r="B26" s="70" t="s">
         <v>253</v>
       </c>
-      <c r="C26" s="71"/>
+      <c r="C26" s="70"/>
       <c r="D26" s="51"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="51"/>
-      <c r="B27" s="68" t="s">
+      <c r="B27" s="65" t="s">
         <v>252</v>
       </c>
-      <c r="C27" s="68"/>
+      <c r="C27" s="65"/>
       <c r="D27" s="51"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="51"/>
-      <c r="B28" s="78" t="s">
+      <c r="B28" s="67" t="s">
         <v>251</v>
       </c>
-      <c r="C28" s="78"/>
+      <c r="C28" s="67"/>
       <c r="D28" s="51"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="51"/>
-      <c r="B29" s="77" t="s">
+      <c r="B29" s="66" t="s">
         <v>255</v>
       </c>
-      <c r="C29" s="77"/>
+      <c r="C29" s="66"/>
       <c r="D29" s="51"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="51"/>
-      <c r="B30" s="68" t="s">
+      <c r="B30" s="65" t="s">
         <v>278</v>
       </c>
-      <c r="C30" s="68"/>
+      <c r="C30" s="65"/>
       <c r="D30" s="51"/>
       <c r="F30" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="51"/>
-      <c r="B31" s="68" t="s">
+      <c r="B31" s="65" t="s">
         <v>279</v>
       </c>
-      <c r="C31" s="68"/>
+      <c r="C31" s="65"/>
       <c r="D31" s="51"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="51"/>
-      <c r="B32" s="78" t="s">
+      <c r="B32" s="67" t="s">
         <v>280</v>
       </c>
-      <c r="C32" s="78"/>
+      <c r="C32" s="67"/>
       <c r="D32" s="51"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="51"/>
-      <c r="B33" s="68" t="s">
+      <c r="B33" s="65" t="s">
         <v>281</v>
       </c>
-      <c r="C33" s="68"/>
+      <c r="C33" s="65"/>
       <c r="D33" s="51"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="51"/>
       <c r="D34" s="51"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="51"/>
-      <c r="B35" s="71" t="s">
+      <c r="B35" s="70" t="s">
         <v>260</v>
       </c>
-      <c r="C35" s="71"/>
+      <c r="C35" s="70"/>
       <c r="D35" s="51"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="51"/>
-      <c r="B36" s="68" t="s">
+      <c r="B36" s="65" t="s">
         <v>254</v>
       </c>
-      <c r="C36" s="68"/>
+      <c r="C36" s="65"/>
       <c r="D36" s="51"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="51"/>
-      <c r="B37" s="68" t="s">
+      <c r="B37" s="65" t="s">
         <v>282</v>
       </c>
-      <c r="C37" s="68"/>
+      <c r="C37" s="65"/>
       <c r="D37" s="51"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="51"/>
-      <c r="B38" s="68" t="s">
+      <c r="B38" s="65" t="s">
         <v>283</v>
       </c>
-      <c r="C38" s="68"/>
+      <c r="C38" s="65"/>
       <c r="D38" s="51"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="51"/>
-      <c r="B39" s="68" t="s">
+      <c r="B39" s="65" t="s">
         <v>284</v>
       </c>
-      <c r="C39" s="68"/>
+      <c r="C39" s="65"/>
       <c r="D39" s="51"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="51"/>
-      <c r="B40" s="69" t="s">
+      <c r="B40" s="78" t="s">
         <v>256</v>
       </c>
-      <c r="C40" s="69"/>
+      <c r="C40" s="78"/>
       <c r="D40" s="51"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="51"/>
-      <c r="B41" s="68" t="s">
+      <c r="B41" s="65" t="s">
         <v>257</v>
       </c>
-      <c r="C41" s="68"/>
+      <c r="C41" s="65"/>
       <c r="D41" s="51"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="51"/>
-      <c r="B42" s="68" t="s">
+      <c r="B42" s="65" t="s">
         <v>258</v>
       </c>
-      <c r="C42" s="68"/>
+      <c r="C42" s="65"/>
       <c r="D42" s="51"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="51"/>
-      <c r="B43" s="68" t="s">
+      <c r="B43" s="65" t="s">
         <v>259</v>
       </c>
-      <c r="C43" s="68"/>
+      <c r="C43" s="65"/>
       <c r="D43" s="51"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="51"/>
-      <c r="B44" s="68"/>
-      <c r="C44" s="68"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="65"/>
       <c r="D44" s="51"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="51"/>
-      <c r="B45" s="71" t="s">
+      <c r="B45" s="70" t="s">
         <v>261</v>
       </c>
-      <c r="C45" s="71"/>
+      <c r="C45" s="70"/>
       <c r="D45" s="51"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="51"/>
-      <c r="B46" s="68" t="s">
+      <c r="B46" s="65" t="s">
         <v>262</v>
       </c>
-      <c r="C46" s="68"/>
+      <c r="C46" s="65"/>
       <c r="D46" s="51"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="51"/>
-      <c r="B47" s="70" t="s">
+      <c r="B47" s="68" t="s">
         <v>285</v>
       </c>
-      <c r="C47" s="68"/>
+      <c r="C47" s="65"/>
       <c r="D47" s="51"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="51"/>
-      <c r="B48" s="68" t="s">
+      <c r="B48" s="65" t="s">
         <v>266</v>
       </c>
-      <c r="C48" s="68"/>
+      <c r="C48" s="65"/>
       <c r="D48" s="51"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="51"/>
-      <c r="B49" s="70" t="s">
+      <c r="B49" s="68" t="s">
         <v>286</v>
       </c>
-      <c r="C49" s="68"/>
+      <c r="C49" s="65"/>
       <c r="D49" s="51"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="51"/>
-      <c r="B50" s="68" t="s">
+      <c r="B50" s="65" t="s">
         <v>265</v>
       </c>
-      <c r="C50" s="68"/>
+      <c r="C50" s="65"/>
       <c r="D50" s="51"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="51"/>
-      <c r="B51" s="70" t="s">
+      <c r="B51" s="68" t="s">
         <v>287</v>
       </c>
-      <c r="C51" s="68"/>
+      <c r="C51" s="65"/>
       <c r="D51" s="51"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="51"/>
-      <c r="B52" s="68" t="s">
+      <c r="B52" s="65" t="s">
         <v>264</v>
       </c>
-      <c r="C52" s="68"/>
+      <c r="C52" s="65"/>
       <c r="D52" s="51"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="51"/>
-      <c r="B53" s="70" t="s">
+      <c r="B53" s="68" t="s">
         <v>288</v>
       </c>
-      <c r="C53" s="68"/>
+      <c r="C53" s="65"/>
       <c r="D53" s="51"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="51"/>
-      <c r="B54" s="68" t="s">
+      <c r="B54" s="65" t="s">
         <v>263</v>
       </c>
-      <c r="C54" s="68"/>
+      <c r="C54" s="65"/>
       <c r="D54" s="51"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="51"/>
-      <c r="B55" s="68"/>
-      <c r="C55" s="68"/>
+      <c r="B55" s="65"/>
+      <c r="C55" s="65"/>
       <c r="D55" s="51"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="51"/>
-      <c r="B56" s="71" t="s">
+      <c r="B56" s="70" t="s">
         <v>272</v>
       </c>
-      <c r="C56" s="71"/>
+      <c r="C56" s="70"/>
       <c r="D56" s="51"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="51"/>
-      <c r="B57" s="68" t="s">
+      <c r="B57" s="65" t="s">
         <v>273</v>
       </c>
-      <c r="C57" s="68"/>
+      <c r="C57" s="65"/>
       <c r="D57" s="51"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="51"/>
-      <c r="B58" s="68" t="s">
+      <c r="B58" s="65" t="s">
         <v>274</v>
       </c>
-      <c r="C58" s="68"/>
+      <c r="C58" s="65"/>
       <c r="D58" s="51"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="51"/>
       <c r="B59" s="50"/>
       <c r="C59" s="50"/>
       <c r="D59" s="51"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="51"/>
-      <c r="B60" s="68"/>
-      <c r="C60" s="68"/>
+      <c r="B60" s="65"/>
+      <c r="C60" s="65"/>
       <c r="D60" s="51"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="51"/>
-      <c r="B61" s="71" t="s">
+      <c r="B61" s="70" t="s">
         <v>271</v>
       </c>
-      <c r="C61" s="71"/>
+      <c r="C61" s="70"/>
       <c r="D61" s="51"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="51"/>
-      <c r="B62" s="68" t="s">
+      <c r="B62" s="65" t="s">
         <v>267</v>
       </c>
-      <c r="C62" s="68"/>
+      <c r="C62" s="65"/>
       <c r="D62" s="51"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="51"/>
-      <c r="B63" s="68" t="s">
+      <c r="B63" s="65" t="s">
         <v>268</v>
       </c>
-      <c r="C63" s="68"/>
+      <c r="C63" s="65"/>
       <c r="D63" s="51"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="51"/>
-      <c r="B64" s="68" t="s">
+      <c r="B64" s="65" t="s">
         <v>269</v>
       </c>
-      <c r="C64" s="68"/>
+      <c r="C64" s="65"/>
       <c r="D64" s="51"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="51"/>
-      <c r="B65" s="68" t="s">
+      <c r="B65" s="65" t="s">
         <v>270</v>
       </c>
-      <c r="C65" s="68"/>
+      <c r="C65" s="65"/>
       <c r="D65" s="51"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="51"/>
-      <c r="B66" s="65"/>
-      <c r="C66" s="65"/>
+      <c r="B66" s="75"/>
+      <c r="C66" s="75"/>
       <c r="D66" s="51"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B67" s="55"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B70" s="68"/>
-      <c r="C70" s="68"/>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B70" s="65"/>
+      <c r="C70" s="65"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B71" s="68"/>
-      <c r="C71" s="68"/>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B71" s="65"/>
+      <c r="C71" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B70:C70"/>
     <mergeCell ref="B71:C71"/>
     <mergeCell ref="B29:C29"/>
@@ -46297,46 +46337,6 @@
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -46358,20 +46358,20 @@
       <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.25" style="63" customWidth="1"/>
-    <col min="2" max="2" width="13.25" style="4" customWidth="1"/>
-    <col min="3" max="3" width="33.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.19921875" style="63" customWidth="1"/>
+    <col min="2" max="2" width="13.19921875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="33.59765625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="63.75" style="39" customWidth="1"/>
-    <col min="7" max="7" width="18.75" style="39" customWidth="1"/>
-    <col min="8" max="8" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="1.375" style="63" customWidth="1"/>
+    <col min="5" max="5" width="28.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="63.69921875" style="39" customWidth="1"/>
+    <col min="7" max="7" width="18.69921875" style="39" customWidth="1"/>
+    <col min="8" max="8" width="17.8984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.3984375" style="63" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="31.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="79" t="s">
         <v>63</v>
@@ -46384,7 +46384,7 @@
       <c r="H1" s="79"/>
       <c r="I1" s="60"/>
     </row>
-    <row r="2" spans="1:9" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="60"/>
       <c r="B2" s="20" t="s">
         <v>52</v>
@@ -46409,7 +46409,7 @@
       </c>
       <c r="I2" s="60"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="60"/>
       <c r="B3" s="25" t="s">
         <v>53</v>
@@ -46430,7 +46430,7 @@
       <c r="H3" s="24"/>
       <c r="I3" s="60"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="60"/>
       <c r="B4" s="27" t="s">
         <v>53</v>
@@ -46453,7 +46453,7 @@
       <c r="H4" s="26"/>
       <c r="I4" s="60"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="60"/>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
@@ -46466,7 +46466,7 @@
       <c r="H5" s="21"/>
       <c r="I5" s="60"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="60"/>
       <c r="B6" s="27" t="s">
         <v>53</v>
@@ -46489,23 +46489,23 @@
       <c r="H6" s="26"/>
       <c r="I6" s="60"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="60"/>
       <c r="E7" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G7" s="68"/>
+      <c r="G7" s="65"/>
       <c r="I7" s="60"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="60"/>
       <c r="E8" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G8" s="68"/>
+      <c r="G8" s="65"/>
       <c r="I8" s="60"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="60"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
@@ -46518,7 +46518,7 @@
       <c r="H9" s="21"/>
       <c r="I9" s="60"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="60"/>
       <c r="B10" s="27" t="s">
         <v>53</v>
@@ -46541,7 +46541,7 @@
       <c r="H10" s="26"/>
       <c r="I10" s="60"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="60"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -46554,7 +46554,7 @@
       <c r="H11" s="21"/>
       <c r="I11" s="60"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="60"/>
       <c r="B12" s="27" t="s">
         <v>53</v>
@@ -46577,15 +46577,15 @@
       <c r="H12" s="26"/>
       <c r="I12" s="60"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="60"/>
       <c r="E13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="68"/>
+      <c r="G13" s="65"/>
       <c r="I13" s="60"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="60"/>
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
@@ -46598,7 +46598,7 @@
       <c r="H14" s="21"/>
       <c r="I14" s="60"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="60"/>
       <c r="B15" s="22" t="s">
         <v>53</v>
@@ -46617,7 +46617,7 @@
       </c>
       <c r="I15" s="60"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="60"/>
       <c r="B16" s="22" t="s">
         <v>53</v>
@@ -46636,7 +46636,7 @@
       </c>
       <c r="I16" s="60"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="60"/>
       <c r="B17" s="29" t="s">
         <v>53</v>
@@ -46657,7 +46657,7 @@
       <c r="H17" s="28"/>
       <c r="I17" s="60"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="60"/>
       <c r="B18" s="29" t="s">
         <v>53</v>
@@ -46678,7 +46678,7 @@
       <c r="H18" s="28"/>
       <c r="I18" s="60"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="60"/>
       <c r="B19" s="29" t="s">
         <v>53</v>
@@ -46699,7 +46699,7 @@
       <c r="H19" s="28"/>
       <c r="I19" s="60"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="60"/>
       <c r="B20" s="29" t="s">
         <v>53</v>
@@ -46720,7 +46720,7 @@
       <c r="H20" s="28"/>
       <c r="I20" s="60"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="60"/>
       <c r="B21" s="29" t="s">
         <v>53</v>
@@ -46741,7 +46741,7 @@
       <c r="H21" s="28"/>
       <c r="I21" s="60"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="60"/>
       <c r="B22" s="29" t="s">
         <v>53</v>
@@ -46762,7 +46762,7 @@
       <c r="H22" s="28"/>
       <c r="I22" s="60"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="60"/>
       <c r="B23" s="29" t="s">
         <v>53</v>
@@ -46783,7 +46783,7 @@
       <c r="H23" s="28"/>
       <c r="I23" s="60"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="60"/>
       <c r="B24" s="29" t="s">
         <v>53</v>
@@ -46808,7 +46808,7 @@
       <c r="K24" s="4"/>
       <c r="M24" s="4"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="60"/>
       <c r="B25" s="27" t="s">
         <v>53</v>
@@ -46833,7 +46833,7 @@
       <c r="K25" s="4"/>
       <c r="M25" s="4"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="60"/>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
@@ -46848,7 +46848,7 @@
       <c r="K26" s="4"/>
       <c r="M26" s="4"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="60"/>
       <c r="B27" s="27" t="s">
         <v>53</v>
@@ -46873,7 +46873,7 @@
       <c r="K27" s="4"/>
       <c r="M27" s="4"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="60"/>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -46888,7 +46888,7 @@
       <c r="K28" s="4"/>
       <c r="M28" s="4"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="60"/>
       <c r="B29" s="29" t="s">
         <v>53</v>
@@ -46913,7 +46913,7 @@
       <c r="K29" s="4"/>
       <c r="M29" s="4"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="60"/>
       <c r="B30" s="29" t="s">
         <v>53</v>
@@ -46938,7 +46938,7 @@
       <c r="K30" s="4"/>
       <c r="M30" s="4"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="60"/>
       <c r="B31" s="29" t="s">
         <v>53</v>
@@ -46963,7 +46963,7 @@
       <c r="K31" s="4"/>
       <c r="M31" s="4"/>
     </row>
-    <row r="32" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A32" s="60"/>
       <c r="B32" s="29" t="s">
         <v>53</v>
@@ -46988,7 +46988,7 @@
       <c r="K32" s="4"/>
       <c r="M32" s="4"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="60"/>
       <c r="B33" s="27" t="s">
         <v>53</v>
@@ -47012,7 +47012,7 @@
       <c r="K33" s="4"/>
       <c r="M33" s="4"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="60"/>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
@@ -47027,7 +47027,7 @@
       <c r="K34" s="4"/>
       <c r="M34" s="4"/>
     </row>
-    <row r="35" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="60"/>
       <c r="B35" s="47" t="s">
         <v>53</v>
@@ -47042,7 +47042,7 @@
       <c r="K35" s="4"/>
       <c r="M35" s="4"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="60"/>
       <c r="B36" s="48" t="s">
         <v>55</v>
@@ -47065,39 +47065,39 @@
       <c r="H36" s="31"/>
       <c r="I36" s="60"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="60"/>
       <c r="E37" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="68"/>
+      <c r="G37" s="65"/>
       <c r="I37" s="60"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="60"/>
       <c r="E38" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G38" s="68"/>
+      <c r="G38" s="65"/>
       <c r="I38" s="60"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="60"/>
       <c r="E39" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="68"/>
+      <c r="G39" s="65"/>
       <c r="I39" s="60"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="60"/>
       <c r="E40" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G40" s="68"/>
+      <c r="G40" s="65"/>
       <c r="I40" s="60"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="60"/>
       <c r="B41" s="22"/>
       <c r="C41" s="22"/>
@@ -47110,7 +47110,7 @@
       <c r="H41" s="21"/>
       <c r="I41" s="60"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="60"/>
       <c r="B42" s="29" t="s">
         <v>55</v>
@@ -47131,7 +47131,7 @@
       <c r="H42" s="28"/>
       <c r="I42" s="60"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="60"/>
       <c r="B43" s="27" t="s">
         <v>55</v>
@@ -47154,7 +47154,7 @@
       <c r="H43" s="26"/>
       <c r="I43" s="60"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="60"/>
       <c r="E44" s="4" t="s">
         <v>3</v>
@@ -47162,10 +47162,10 @@
       <c r="F44" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="G44" s="68"/>
+      <c r="G44" s="65"/>
       <c r="I44" s="60"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="60"/>
       <c r="E45" s="4" t="s">
         <v>101</v>
@@ -47173,10 +47173,10 @@
       <c r="F45" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="G45" s="68"/>
+      <c r="G45" s="65"/>
       <c r="I45" s="60"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="60"/>
       <c r="B46" s="22"/>
       <c r="C46" s="22"/>
@@ -47191,7 +47191,7 @@
       <c r="H46" s="21"/>
       <c r="I46" s="60"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="60"/>
       <c r="B47" s="29" t="s">
         <v>55</v>
@@ -47214,7 +47214,7 @@
       </c>
       <c r="I47" s="60"/>
     </row>
-    <row r="48" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A48" s="60"/>
       <c r="B48" s="29" t="s">
         <v>55</v>
@@ -47237,7 +47237,7 @@
       </c>
       <c r="I48" s="60"/>
     </row>
-    <row r="49" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A49" s="60"/>
       <c r="B49" s="29" t="s">
         <v>55</v>
@@ -47260,7 +47260,7 @@
       </c>
       <c r="I49" s="60"/>
     </row>
-    <row r="50" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A50" s="60"/>
       <c r="B50" s="29" t="s">
         <v>55</v>
@@ -47281,7 +47281,7 @@
       <c r="H50" s="28"/>
       <c r="I50" s="60"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="60"/>
       <c r="B51" s="29" t="s">
         <v>55</v>
@@ -47302,7 +47302,7 @@
       <c r="H51" s="28"/>
       <c r="I51" s="60"/>
     </row>
-    <row r="52" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="60"/>
       <c r="B52" s="47" t="s">
         <v>55</v>
@@ -47317,7 +47317,7 @@
       <c r="H52" s="30"/>
       <c r="I52" s="60"/>
     </row>
-    <row r="53" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A53" s="60"/>
       <c r="B53" s="25" t="s">
         <v>57</v>
@@ -47338,7 +47338,7 @@
       <c r="H53" s="24"/>
       <c r="I53" s="60"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="60"/>
       <c r="B54" s="29" t="s">
         <v>57</v>
@@ -47359,7 +47359,7 @@
       <c r="H54" s="28"/>
       <c r="I54" s="60"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="60"/>
       <c r="B55" s="29" t="s">
         <v>57</v>
@@ -47380,7 +47380,7 @@
       <c r="H55" s="28"/>
       <c r="I55" s="60"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="60"/>
       <c r="B56" s="27" t="s">
         <v>57</v>
@@ -47403,55 +47403,55 @@
       <c r="H56" s="26"/>
       <c r="I56" s="60"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="60"/>
       <c r="E57" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="G57" s="68"/>
+      <c r="G57" s="65"/>
       <c r="I57" s="60"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="60"/>
       <c r="E58" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G58" s="68"/>
+      <c r="G58" s="65"/>
       <c r="I58" s="60"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="60"/>
       <c r="E59" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="G59" s="68"/>
+      <c r="G59" s="65"/>
       <c r="I59" s="60"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="60"/>
       <c r="E60" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="G60" s="68"/>
+      <c r="G60" s="65"/>
       <c r="I60" s="60"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="60"/>
       <c r="E61" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G61" s="68"/>
+      <c r="G61" s="65"/>
       <c r="I61" s="60"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="60"/>
       <c r="E62" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G62" s="68"/>
+      <c r="G62" s="65"/>
       <c r="I62" s="60"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="60"/>
       <c r="B63" s="22"/>
       <c r="C63" s="22"/>
@@ -47464,7 +47464,7 @@
       <c r="H63" s="21"/>
       <c r="I63" s="60"/>
     </row>
-    <row r="64" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A64" s="60"/>
       <c r="B64" s="29" t="s">
         <v>57</v>
@@ -47487,7 +47487,7 @@
       </c>
       <c r="I64" s="60"/>
     </row>
-    <row r="65" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A65" s="60"/>
       <c r="B65" s="29" t="s">
         <v>57</v>
@@ -47510,7 +47510,7 @@
       </c>
       <c r="I65" s="60"/>
     </row>
-    <row r="66" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A66" s="60"/>
       <c r="B66" s="29" t="s">
         <v>57</v>
@@ -47533,7 +47533,7 @@
       </c>
       <c r="I66" s="60"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="60"/>
       <c r="B67" s="27" t="s">
         <v>57</v>
@@ -47556,7 +47556,7 @@
       <c r="H67" s="26"/>
       <c r="I67" s="60"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="60"/>
       <c r="B68" s="22"/>
       <c r="C68" s="22"/>
@@ -47571,7 +47571,7 @@
       <c r="H68" s="21"/>
       <c r="I68" s="60"/>
     </row>
-    <row r="69" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A69" s="60"/>
       <c r="B69" s="27" t="s">
         <v>57</v>
@@ -47592,7 +47592,7 @@
       <c r="H69" s="21"/>
       <c r="I69" s="60"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="60"/>
       <c r="B70" s="27" t="s">
         <v>57</v>
@@ -47615,7 +47615,7 @@
       <c r="H70" s="26"/>
       <c r="I70" s="60"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="60"/>
       <c r="B71" s="22"/>
       <c r="C71" s="22"/>
@@ -47628,7 +47628,7 @@
       <c r="H71" s="21"/>
       <c r="I71" s="60"/>
     </row>
-    <row r="72" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A72" s="60"/>
       <c r="B72" s="4" t="s">
         <v>57</v>
@@ -47650,7 +47650,7 @@
       </c>
       <c r="I72" s="60"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="60"/>
       <c r="E73" s="4" t="s">
         <v>228</v>
@@ -47658,10 +47658,10 @@
       <c r="F73" s="39" t="s">
         <v>239</v>
       </c>
-      <c r="G73" s="68"/>
+      <c r="G73" s="65"/>
       <c r="I73" s="60"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="60"/>
       <c r="E74" s="4" t="s">
         <v>230</v>
@@ -47669,10 +47669,10 @@
       <c r="F74" s="39" t="s">
         <v>237</v>
       </c>
-      <c r="G74" s="68"/>
+      <c r="G74" s="65"/>
       <c r="I74" s="60"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="60"/>
       <c r="B75" s="22"/>
       <c r="C75" s="22"/>
@@ -47687,7 +47687,7 @@
       <c r="H75" s="21"/>
       <c r="I75" s="60"/>
     </row>
-    <row r="76" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A76" s="60"/>
       <c r="B76" s="29" t="s">
         <v>57</v>
@@ -47708,7 +47708,7 @@
       <c r="H76" s="21"/>
       <c r="I76" s="60"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="60"/>
       <c r="B77" s="22" t="s">
         <v>59</v>
@@ -47729,7 +47729,7 @@
       <c r="H77" s="32"/>
       <c r="I77" s="60"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="60"/>
       <c r="B78" s="29" t="s">
         <v>59</v>
@@ -47750,7 +47750,7 @@
       <c r="H78" s="28"/>
       <c r="I78" s="60"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="60"/>
       <c r="B79" s="29" t="s">
         <v>59</v>
@@ -47773,7 +47773,7 @@
       </c>
       <c r="I79" s="60"/>
     </row>
-    <row r="80" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A80" s="60"/>
       <c r="B80" s="44" t="s">
         <v>59</v>
@@ -47796,7 +47796,7 @@
       </c>
       <c r="I80" s="60"/>
     </row>
-    <row r="81" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="60"/>
       <c r="B81" s="61"/>
       <c r="C81" s="61"/>
@@ -47854,23 +47854,23 @@
       <selection activeCell="B33" sqref="B33:B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.3984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="85" t="s">
         <v>40</v>
       </c>
       <c r="B1" s="85"/>
     </row>
-    <row r="2" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>34</v>
       </c>
@@ -47881,7 +47881,7 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:7" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -47892,7 +47892,7 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>71</v>
       </c>
@@ -47903,7 +47903,7 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -47914,14 +47914,14 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="85" t="s">
         <v>118</v>
       </c>
       <c r="B8" s="85"/>
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
@@ -47929,21 +47929,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>73</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>72</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>33</v>
       </c>
@@ -47953,7 +47953,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>41</v>
       </c>
@@ -47963,7 +47963,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>44</v>
       </c>
@@ -47973,7 +47973,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>42</v>
       </c>
@@ -47983,7 +47983,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>43</v>
       </c>
@@ -47993,7 +47993,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>45</v>
       </c>
@@ -48003,7 +48003,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>90</v>
       </c>
@@ -48013,14 +48013,14 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="85" t="s">
         <v>50</v>
       </c>
       <c r="B20" s="85"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>48</v>
       </c>
@@ -48028,7 +48028,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>30</v>
       </c>
@@ -48036,7 +48036,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>31</v>
       </c>
@@ -48044,7 +48044,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>37</v>
       </c>
@@ -48052,24 +48052,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>117</v>
       </c>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="85" t="s">
         <v>49</v>
       </c>
       <c r="B27" s="85"/>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>131</v>
       </c>
@@ -48077,7 +48077,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>130</v>
       </c>
@@ -48085,7 +48085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>129</v>
       </c>
@@ -48093,12 +48093,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="87" t="s">
         <v>119</v>
       </c>
@@ -48106,7 +48106,7 @@
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>122</v>
       </c>
@@ -48114,7 +48114,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>74</v>
       </c>
@@ -48122,7 +48122,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>76</v>
       </c>
@@ -48130,7 +48130,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>75</v>
       </c>
@@ -48138,13 +48138,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="86" t="s">
         <v>120</v>
       </c>
       <c r="B38" s="86"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>121</v>
       </c>
@@ -48152,7 +48152,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>74</v>
       </c>
@@ -48160,7 +48160,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>76</v>
       </c>
@@ -48168,7 +48168,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>77</v>
       </c>
@@ -48266,21 +48266,21 @@
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="10" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.75" style="18" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.75" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.125" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.75" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.69921875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="10.8984375" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.69921875" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.69921875" style="18" customWidth="1"/>
+    <col min="5" max="5" width="11.8984375" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.69921875" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.09765625" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.69921875" style="18" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.375" style="19"/>
+    <col min="10" max="16384" width="11.3984375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>12</v>
       </c>
@@ -48309,7 +48309,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -48332,7 +48332,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -48357,7 +48357,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -48384,7 +48384,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -48409,7 +48409,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -48434,7 +48434,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -48455,7 +48455,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -48480,7 +48480,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -48501,7 +48501,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -48522,7 +48522,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -48543,7 +48543,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -48564,7 +48564,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -48585,27 +48585,27 @@
       <c r="H13" s="2"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="17" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="18" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="21" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="22" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="23" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="24" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="25" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="26" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="29" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="31" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:H34" xr:uid="{804CF21E-C353-4454-9B0E-05956E676815}"/>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -48653,23 +48653,23 @@
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.75" style="10" customWidth="1"/>
-    <col min="4" max="4" width="28.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="13.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.59765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.69921875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="28.69921875" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.59765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.8984375" style="10" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.09765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.19921875" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.8984375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.19921875" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>38</v>
       </c>
@@ -48707,7 +48707,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>47</v>
       </c>
@@ -48747,7 +48747,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>78</v>
       </c>
@@ -48780,7 +48780,7 @@
       </c>
       <c r="L3" s="15"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>79</v>
       </c>
@@ -48813,7 +48813,7 @@
       </c>
       <c r="L4" s="15"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>80</v>
       </c>
@@ -48845,7 +48845,7 @@
       </c>
       <c r="L5" s="15"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>81</v>
       </c>
@@ -48877,7 +48877,7 @@
       </c>
       <c r="L6" s="15"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>82</v>
       </c>
@@ -48909,7 +48909,7 @@
       </c>
       <c r="L7" s="15"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>83</v>
       </c>
@@ -48943,7 +48943,7 @@
       </c>
       <c r="L8" s="15"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>84</v>
       </c>
@@ -49031,18 +49031,18 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5" style="10" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.59765625" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -49056,7 +49056,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -49068,7 +49068,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -49080,7 +49080,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -49092,7 +49092,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -49104,7 +49104,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -49116,7 +49116,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -49128,7 +49128,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -49140,7 +49140,7 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>15</v>
       </c>
@@ -49152,7 +49152,7 @@
       </c>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>17</v>
       </c>
@@ -49164,7 +49164,7 @@
       </c>
       <c r="D10" s="9"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>18</v>
       </c>
@@ -49176,7 +49176,7 @@
       </c>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>19</v>
       </c>
@@ -49184,11 +49184,11 @@
         <v>20</v>
       </c>
       <c r="C12" s="8">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D12" s="9"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>20</v>
       </c>
@@ -49200,7 +49200,7 @@
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="64">
         <v>14</v>
       </c>
@@ -49212,130 +49212,130 @@
       </c>
       <c r="D14"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="64"/>
       <c r="B15" s="64"/>
       <c r="C15" s="64"/>
       <c r="D15"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
     </row>
@@ -49355,14 +49355,14 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
         <v>225</v>
       </c>
@@ -49382,7 +49382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>35</v>
       </c>
@@ -49402,7 +49402,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>221</v>
       </c>
@@ -49414,7 +49414,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>89</v>
       </c>
@@ -49426,7 +49426,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>91</v>
       </c>
@@ -49438,7 +49438,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>92</v>
       </c>
@@ -49450,7 +49450,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>92</v>
       </c>
@@ -49462,7 +49462,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -49474,7 +49474,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>223</v>
       </c>
@@ -49486,7 +49486,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>223</v>
       </c>
@@ -49516,17 +49516,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a656bf76-cca4-4796-b3e3-9ff4debad9ca">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3f4d043c-ef99-408b-9086-307465b47223" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005D48458B7DF5B44891BF6C8B708F036C" ma:contentTypeVersion="15" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="6ec72bf5cc41951886dd851de9b63939">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a656bf76-cca4-4796-b3e3-9ff4debad9ca" xmlns:ns3="3f4d043c-ef99-408b-9086-307465b47223" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="619265aacb58e563d368a43a0aeb056e" ns2:_="" ns3:_="">
     <xsd:import namespace="a656bf76-cca4-4796-b3e3-9ff4debad9ca"/>
@@ -49761,6 +49750,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a656bf76-cca4-4796-b3e3-9ff4debad9ca">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3f4d043c-ef99-408b-9086-307465b47223" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -49771,23 +49771,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D351F7AA-766C-4547-802C-9F4B7AB5F83E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="3f4d043c-ef99-408b-9086-307465b47223"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a656bf76-cca4-4796-b3e3-9ff4debad9ca"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{908F6F40-8D93-4BAF-B5F7-B52D93E367E6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -49806,6 +49789,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D351F7AA-766C-4547-802C-9F4B7AB5F83E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="3f4d043c-ef99-408b-9086-307465b47223"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a656bf76-cca4-4796-b3e3-9ff4debad9ca"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80A89352-0353-48F1-9429-0E3BD72B2E30}">
   <ds:schemaRefs>

--- a/grid_data_input_file_WIP_v1.xlsx
+++ b/grid_data_input_file_WIP_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c30483\Documents\dc_design_tool\dc_design_tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C821B69-D49D-4F56-82ED-6FBFFE3B91FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D4F32B-D595-4F89-89A2-EF7294A0FD08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="simple example" sheetId="20" r:id="rId1"/>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="294">
   <si>
     <t>Node_i</t>
   </si>
@@ -674,9 +674,6 @@
   </si>
   <si>
     <t>Line length (m)</t>
-  </si>
-  <si>
-    <t>Cable section (mm²)</t>
   </si>
   <si>
     <t>Maximum power (kW)</t>
@@ -1371,6 +1368,12 @@
   </si>
   <si>
     <t>[1.085; 0], [1; 1], [1; 1], [1; 1], [1; 1], [0.915; 1]</t>
+  </si>
+  <si>
+    <t>Cable R_km (Ohm/km)</t>
+  </si>
+  <si>
+    <t>Imax (A)</t>
   </si>
 </sst>
 </file>
@@ -45347,16 +45350,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>139220</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>357882</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>78578</xdr:rowOff>
+      <xdr:rowOff>71952</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>342314</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>560975</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>148215</xdr:rowOff>
+      <xdr:rowOff>141590</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -45379,8 +45382,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3767003" y="255274"/>
-          <a:ext cx="6265963" cy="3240633"/>
+          <a:off x="4651586" y="423135"/>
+          <a:ext cx="6166572" cy="3170646"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -45770,7 +45773,7 @@
     <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="51"/>
       <c r="B2" s="73" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C2" s="73"/>
       <c r="D2" s="51"/>
@@ -45782,7 +45785,7 @@
     <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="51"/>
       <c r="B4" s="72" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C4" s="72"/>
       <c r="D4" s="51"/>
@@ -45790,7 +45793,7 @@
     <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="51"/>
       <c r="B5" s="71" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C5" s="71"/>
       <c r="D5" s="51"/>
@@ -45806,7 +45809,7 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="51"/>
       <c r="B8" s="76" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C8" s="76"/>
       <c r="D8" s="51"/>
@@ -45814,7 +45817,7 @@
     <row r="9" spans="1:4" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="51"/>
       <c r="B9" s="74" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C9" s="74"/>
       <c r="D9" s="51"/>
@@ -45822,7 +45825,7 @@
     <row r="10" spans="1:4" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="51"/>
       <c r="B10" s="74" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C10" s="74"/>
       <c r="D10" s="51"/>
@@ -45830,7 +45833,7 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="51"/>
       <c r="B11" s="77" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C11" s="77"/>
       <c r="D11" s="51"/>
@@ -45838,7 +45841,7 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="51"/>
       <c r="B12" s="74" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C12" s="74"/>
       <c r="D12" s="51"/>
@@ -45846,7 +45849,7 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="51"/>
       <c r="B13" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C13" s="65"/>
       <c r="D13" s="56"/>
@@ -45866,7 +45869,7 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="51"/>
       <c r="B16" s="76" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C16" s="76"/>
       <c r="D16" s="58"/>
@@ -45946,7 +45949,7 @@
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="51"/>
       <c r="B25" s="53" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C25" s="53"/>
       <c r="D25" s="58"/>
@@ -45954,7 +45957,7 @@
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="51"/>
       <c r="B26" s="70" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C26" s="70"/>
       <c r="D26" s="51"/>
@@ -45962,7 +45965,7 @@
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="51"/>
       <c r="B27" s="65" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C27" s="65"/>
       <c r="D27" s="51"/>
@@ -45970,7 +45973,7 @@
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="51"/>
       <c r="B28" s="67" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C28" s="67"/>
       <c r="D28" s="51"/>
@@ -45978,7 +45981,7 @@
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="51"/>
       <c r="B29" s="66" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C29" s="66"/>
       <c r="D29" s="51"/>
@@ -45986,18 +45989,18 @@
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="51"/>
       <c r="B30" s="65" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C30" s="65"/>
       <c r="D30" s="51"/>
       <c r="F30" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="51"/>
       <c r="B31" s="65" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C31" s="65"/>
       <c r="D31" s="51"/>
@@ -46005,7 +46008,7 @@
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="51"/>
       <c r="B32" s="67" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C32" s="67"/>
       <c r="D32" s="51"/>
@@ -46013,7 +46016,7 @@
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="51"/>
       <c r="B33" s="65" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C33" s="65"/>
       <c r="D33" s="51"/>
@@ -46025,7 +46028,7 @@
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="51"/>
       <c r="B35" s="70" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C35" s="70"/>
       <c r="D35" s="51"/>
@@ -46033,7 +46036,7 @@
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="51"/>
       <c r="B36" s="65" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C36" s="65"/>
       <c r="D36" s="51"/>
@@ -46041,7 +46044,7 @@
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="51"/>
       <c r="B37" s="65" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C37" s="65"/>
       <c r="D37" s="51"/>
@@ -46049,7 +46052,7 @@
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="51"/>
       <c r="B38" s="65" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C38" s="65"/>
       <c r="D38" s="51"/>
@@ -46057,7 +46060,7 @@
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="51"/>
       <c r="B39" s="65" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C39" s="65"/>
       <c r="D39" s="51"/>
@@ -46065,7 +46068,7 @@
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="51"/>
       <c r="B40" s="78" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C40" s="78"/>
       <c r="D40" s="51"/>
@@ -46073,7 +46076,7 @@
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="51"/>
       <c r="B41" s="65" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C41" s="65"/>
       <c r="D41" s="51"/>
@@ -46081,7 +46084,7 @@
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="51"/>
       <c r="B42" s="65" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C42" s="65"/>
       <c r="D42" s="51"/>
@@ -46089,7 +46092,7 @@
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="51"/>
       <c r="B43" s="65" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C43" s="65"/>
       <c r="D43" s="51"/>
@@ -46103,7 +46106,7 @@
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="51"/>
       <c r="B45" s="70" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C45" s="70"/>
       <c r="D45" s="51"/>
@@ -46111,7 +46114,7 @@
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="51"/>
       <c r="B46" s="65" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C46" s="65"/>
       <c r="D46" s="51"/>
@@ -46119,7 +46122,7 @@
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="51"/>
       <c r="B47" s="68" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C47" s="65"/>
       <c r="D47" s="51"/>
@@ -46127,7 +46130,7 @@
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="51"/>
       <c r="B48" s="65" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C48" s="65"/>
       <c r="D48" s="51"/>
@@ -46135,7 +46138,7 @@
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="51"/>
       <c r="B49" s="68" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C49" s="65"/>
       <c r="D49" s="51"/>
@@ -46143,7 +46146,7 @@
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="51"/>
       <c r="B50" s="65" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C50" s="65"/>
       <c r="D50" s="51"/>
@@ -46151,7 +46154,7 @@
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="51"/>
       <c r="B51" s="68" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C51" s="65"/>
       <c r="D51" s="51"/>
@@ -46159,7 +46162,7 @@
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="51"/>
       <c r="B52" s="65" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C52" s="65"/>
       <c r="D52" s="51"/>
@@ -46167,7 +46170,7 @@
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="51"/>
       <c r="B53" s="68" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C53" s="65"/>
       <c r="D53" s="51"/>
@@ -46175,7 +46178,7 @@
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="51"/>
       <c r="B54" s="65" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C54" s="65"/>
       <c r="D54" s="51"/>
@@ -46189,7 +46192,7 @@
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="51"/>
       <c r="B56" s="70" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C56" s="70"/>
       <c r="D56" s="51"/>
@@ -46197,7 +46200,7 @@
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="51"/>
       <c r="B57" s="65" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C57" s="65"/>
       <c r="D57" s="51"/>
@@ -46205,7 +46208,7 @@
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="51"/>
       <c r="B58" s="65" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C58" s="65"/>
       <c r="D58" s="51"/>
@@ -46225,7 +46228,7 @@
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="51"/>
       <c r="B61" s="70" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C61" s="70"/>
       <c r="D61" s="51"/>
@@ -46233,7 +46236,7 @@
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="51"/>
       <c r="B62" s="65" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C62" s="65"/>
       <c r="D62" s="51"/>
@@ -46241,7 +46244,7 @@
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="51"/>
       <c r="B63" s="65" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C63" s="65"/>
       <c r="D63" s="51"/>
@@ -46249,7 +46252,7 @@
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="51"/>
       <c r="B64" s="65" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C64" s="65"/>
       <c r="D64" s="51"/>
@@ -46257,7 +46260,7 @@
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="51"/>
       <c r="B65" s="65" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C65" s="65"/>
       <c r="D65" s="51"/>
@@ -46396,13 +46399,13 @@
         <v>62</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F2" s="35" t="s">
         <v>159</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H2" s="20" t="s">
         <v>68</v>
@@ -46425,7 +46428,7 @@
         <v>134</v>
       </c>
       <c r="G3" s="42" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H3" s="24"/>
       <c r="I3" s="60"/>
@@ -46445,10 +46448,10 @@
         <v>7</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G4" s="80" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H4" s="26"/>
       <c r="I4" s="60"/>
@@ -46484,7 +46487,7 @@
         <v>135</v>
       </c>
       <c r="G6" s="80" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H6" s="26"/>
       <c r="I6" s="60"/>
@@ -46533,10 +46536,10 @@
         <v>10</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G10" s="80" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H10" s="26"/>
       <c r="I10" s="60"/>
@@ -46547,7 +46550,7 @@
       <c r="C11" s="22"/>
       <c r="D11" s="81"/>
       <c r="E11" s="22" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F11" s="38"/>
       <c r="G11" s="81"/>
@@ -46572,7 +46575,7 @@
         <v>136</v>
       </c>
       <c r="G12" s="80" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H12" s="26"/>
       <c r="I12" s="60"/>
@@ -46610,7 +46613,7 @@
       <c r="E15" s="22"/>
       <c r="F15" s="38"/>
       <c r="G15" s="36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H15" s="21" t="s">
         <v>5</v>
@@ -46629,7 +46632,7 @@
       <c r="E16" s="22"/>
       <c r="F16" s="38"/>
       <c r="G16" s="36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H16" s="21" t="s">
         <v>5</v>
@@ -46652,7 +46655,7 @@
         <v>137</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H17" s="28"/>
       <c r="I17" s="60"/>
@@ -46673,7 +46676,7 @@
         <v>138</v>
       </c>
       <c r="G18" s="36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H18" s="28"/>
       <c r="I18" s="60"/>
@@ -46694,7 +46697,7 @@
         <v>139</v>
       </c>
       <c r="G19" s="36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H19" s="28"/>
       <c r="I19" s="60"/>
@@ -46715,7 +46718,7 @@
         <v>140</v>
       </c>
       <c r="G20" s="36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H20" s="28"/>
       <c r="I20" s="60"/>
@@ -46736,7 +46739,7 @@
         <v>141</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H21" s="28"/>
       <c r="I21" s="60"/>
@@ -46757,7 +46760,7 @@
         <v>143</v>
       </c>
       <c r="G22" s="36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H22" s="28"/>
       <c r="I22" s="60"/>
@@ -46778,7 +46781,7 @@
         <v>142</v>
       </c>
       <c r="G23" s="36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H23" s="28"/>
       <c r="I23" s="60"/>
@@ -46799,7 +46802,7 @@
         <v>145</v>
       </c>
       <c r="G24" s="36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H24" s="28" t="s">
         <v>32</v>
@@ -46826,7 +46829,7 @@
         <v>146</v>
       </c>
       <c r="G25" s="80" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H25" s="26"/>
       <c r="I25" s="60"/>
@@ -46866,7 +46869,7 @@
         <v>147</v>
       </c>
       <c r="G27" s="80" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H27" s="26"/>
       <c r="I27" s="60"/>
@@ -46904,7 +46907,7 @@
         <v>150</v>
       </c>
       <c r="G29" s="36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H29" s="28" t="s">
         <v>67</v>
@@ -46929,7 +46932,7 @@
         <v>151</v>
       </c>
       <c r="G30" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H30" s="28" t="s">
         <v>67</v>
@@ -46954,7 +46957,7 @@
         <v>150</v>
       </c>
       <c r="G31" s="36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H31" s="28" t="s">
         <v>67</v>
@@ -46979,7 +46982,7 @@
         <v>150</v>
       </c>
       <c r="G32" s="36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H32" s="28" t="s">
         <v>67</v>
@@ -47003,10 +47006,10 @@
         <v>132</v>
       </c>
       <c r="F33" s="39" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G33" s="80" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I33" s="60"/>
       <c r="K33" s="4"/>
@@ -47020,7 +47023,7 @@
         <v>133</v>
       </c>
       <c r="F34" s="39" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G34" s="81"/>
       <c r="I34" s="60"/>
@@ -47060,7 +47063,7 @@
         <v>155</v>
       </c>
       <c r="G36" s="84" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H36" s="31"/>
       <c r="I36" s="60"/>
@@ -47126,7 +47129,7 @@
         <v>156</v>
       </c>
       <c r="G42" s="36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H42" s="28"/>
       <c r="I42" s="60"/>
@@ -47149,7 +47152,7 @@
         <v>116</v>
       </c>
       <c r="G43" s="80" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H43" s="26"/>
       <c r="I43" s="60"/>
@@ -47207,7 +47210,7 @@
         <v>158</v>
       </c>
       <c r="G47" s="36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H47" s="28" t="s">
         <v>2</v>
@@ -47230,7 +47233,7 @@
         <v>160</v>
       </c>
       <c r="G48" s="36" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H48" s="28" t="s">
         <v>5</v>
@@ -47253,7 +47256,7 @@
         <v>162</v>
       </c>
       <c r="G49" s="36" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H49" s="28" t="s">
         <v>94</v>
@@ -47276,7 +47279,7 @@
         <v>168</v>
       </c>
       <c r="G50" s="36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H50" s="28"/>
       <c r="I50" s="60"/>
@@ -47297,7 +47300,7 @@
         <v>167</v>
       </c>
       <c r="G51" s="36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H51" s="28"/>
       <c r="I51" s="60"/>
@@ -47333,7 +47336,7 @@
         <v>168</v>
       </c>
       <c r="G53" s="42" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H53" s="24"/>
       <c r="I53" s="60"/>
@@ -47344,17 +47347,17 @@
         <v>57</v>
       </c>
       <c r="C54" s="29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D54" s="36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E54" s="29"/>
       <c r="F54" s="36" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G54" s="36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H54" s="28"/>
       <c r="I54" s="60"/>
@@ -47365,17 +47368,17 @@
         <v>57</v>
       </c>
       <c r="C55" s="29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D55" s="36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E55" s="29"/>
       <c r="F55" s="36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G55" s="36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H55" s="28"/>
       <c r="I55" s="60"/>
@@ -47392,13 +47395,13 @@
         <v>88</v>
       </c>
       <c r="E56" s="27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F56" s="37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G56" s="80" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H56" s="26"/>
       <c r="I56" s="60"/>
@@ -47406,7 +47409,7 @@
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="60"/>
       <c r="E57" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G57" s="65"/>
       <c r="I57" s="60"/>
@@ -47422,7 +47425,7 @@
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="60"/>
       <c r="E59" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G59" s="65"/>
       <c r="I59" s="60"/>
@@ -47430,7 +47433,7 @@
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="60"/>
       <c r="E60" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G60" s="65"/>
       <c r="I60" s="60"/>
@@ -47470,17 +47473,17 @@
         <v>57</v>
       </c>
       <c r="C64" s="29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D64" s="36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E64" s="29"/>
       <c r="F64" s="36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G64" s="36" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H64" s="28" t="s">
         <v>2</v>
@@ -47493,17 +47496,17 @@
         <v>57</v>
       </c>
       <c r="C65" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="36" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E65" s="29"/>
       <c r="F65" s="36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G65" s="36" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H65" s="28" t="s">
         <v>2</v>
@@ -47519,14 +47522,14 @@
         <v>46</v>
       </c>
       <c r="D66" s="36" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E66" s="29"/>
       <c r="F66" s="36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G66" s="36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H66" s="28" t="s">
         <v>5</v>
@@ -47542,16 +47545,16 @@
         <v>70</v>
       </c>
       <c r="D67" s="37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E67" s="27" t="s">
         <v>39</v>
       </c>
       <c r="F67" s="39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G67" s="80" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H67" s="26"/>
       <c r="I67" s="60"/>
@@ -47565,7 +47568,7 @@
         <v>125</v>
       </c>
       <c r="F68" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G68" s="81"/>
       <c r="H68" s="21"/>
@@ -47580,14 +47583,14 @@
         <v>124</v>
       </c>
       <c r="D69" s="38" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E69" s="29"/>
       <c r="F69" s="36" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G69" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H69" s="21"/>
       <c r="I69" s="60"/>
@@ -47601,16 +47604,16 @@
         <v>27</v>
       </c>
       <c r="D70" s="37" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>127</v>
       </c>
       <c r="F70" s="39" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G70" s="82" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H70" s="26"/>
       <c r="I70" s="60"/>
@@ -47637,26 +47640,26 @@
         <v>69</v>
       </c>
       <c r="D72" s="39" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E72" s="27" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F72" s="39" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G72" s="80" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I72" s="60"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="60"/>
       <c r="E73" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F73" s="39" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G73" s="65"/>
       <c r="I73" s="60"/>
@@ -47664,10 +47667,10 @@
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="60"/>
       <c r="E74" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F74" s="39" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G74" s="65"/>
       <c r="I74" s="60"/>
@@ -47678,10 +47681,10 @@
       <c r="C75" s="22"/>
       <c r="D75" s="38"/>
       <c r="E75" s="22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F75" s="38" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G75" s="81"/>
       <c r="H75" s="21"/>
@@ -47696,14 +47699,14 @@
         <v>128</v>
       </c>
       <c r="D76" s="38" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E76" s="22"/>
       <c r="F76" s="36" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G76" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H76" s="21"/>
       <c r="I76" s="60"/>
@@ -47714,17 +47717,17 @@
         <v>59</v>
       </c>
       <c r="C77" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D77" s="38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E77" s="22"/>
       <c r="F77" s="36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G77" s="22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H77" s="32"/>
       <c r="I77" s="60"/>
@@ -47735,17 +47738,17 @@
         <v>59</v>
       </c>
       <c r="C78" s="29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D78" s="36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E78" s="29"/>
       <c r="F78" s="36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G78" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H78" s="28"/>
       <c r="I78" s="60"/>
@@ -47763,10 +47766,10 @@
       </c>
       <c r="E79" s="29"/>
       <c r="F79" s="36" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G79" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H79" s="28" t="s">
         <v>97</v>
@@ -47782,14 +47785,14 @@
         <v>171</v>
       </c>
       <c r="D80" s="38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E80" s="22"/>
       <c r="F80" s="36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G80" s="43" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H80" s="21" t="s">
         <v>123</v>
@@ -47850,8 +47853,8 @@
   </sheetPr>
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" zoomScalePageLayoutView="88" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:B36"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" zoomScalePageLayoutView="88" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -48261,7 +48264,7 @@
   </sheetPr>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
@@ -48291,19 +48294,19 @@
         <v>85</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>13</v>
       </c>
       <c r="G1" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>218</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>219</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>29</v>
@@ -48674,19 +48677,19 @@
         <v>38</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>35</v>
       </c>
       <c r="E1" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>188</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>189</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>46</v>
@@ -48695,7 +48698,7 @@
         <v>70</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J1" s="14" t="s">
         <v>27</v>
@@ -48704,7 +48707,7 @@
         <v>69</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
@@ -48720,7 +48723,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E2" s="1">
         <v>400</v>
@@ -48735,16 +48738,16 @@
         <v>125</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J2" s="15" t="s">
         <v>127</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -48770,13 +48773,13 @@
         <v>39</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>127</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L3" s="15"/>
     </row>
@@ -48803,13 +48806,13 @@
         <v>39</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>127</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L4" s="15"/>
     </row>
@@ -48835,13 +48838,13 @@
         <v>39</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>127</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L5" s="15"/>
     </row>
@@ -48867,13 +48870,13 @@
         <v>39</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>127</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L6" s="15"/>
     </row>
@@ -48899,13 +48902,13 @@
         <v>39</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>127</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L7" s="15"/>
     </row>
@@ -48920,7 +48923,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E8" s="2">
         <v>48</v>
@@ -48933,13 +48936,13 @@
         <v>39</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>127</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L8" s="15"/>
     </row>
@@ -48954,7 +48957,7 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E9" s="2">
         <v>350</v>
@@ -48967,13 +48970,13 @@
         <v>39</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>127</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L9" s="15"/>
     </row>
@@ -49027,11 +49030,11 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -49042,7 +49045,7 @@
     <col min="4" max="4" width="18" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -49053,10 +49056,13 @@
         <v>173</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>174</v>
+        <v>292</v>
+      </c>
+      <c r="E1" t="s">
+        <v>293</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -49067,8 +49073,9 @@
         <v>100</v>
       </c>
       <c r="D2" s="2"/>
+      <c r="E2" s="64"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -49080,7 +49087,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -49092,7 +49099,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -49104,7 +49111,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -49116,7 +49123,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -49128,7 +49135,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -49140,7 +49147,7 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>15</v>
       </c>
@@ -49152,7 +49159,7 @@
       </c>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>17</v>
       </c>
@@ -49164,7 +49171,7 @@
       </c>
       <c r="D10" s="9"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>18</v>
       </c>
@@ -49176,7 +49183,7 @@
       </c>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>19</v>
       </c>
@@ -49188,7 +49195,7 @@
       </c>
       <c r="D12" s="9"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>20</v>
       </c>
@@ -49200,7 +49207,7 @@
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="64">
         <v>14</v>
       </c>
@@ -49212,13 +49219,13 @@
       </c>
       <c r="D14"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="64"/>
       <c r="B15" s="64"/>
       <c r="C15" s="64"/>
       <c r="D15"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -49364,7 +49371,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B1" s="46">
         <v>0</v>
@@ -49387,27 +49394,27 @@
         <v>35</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="45" t="s">
         <v>226</v>
       </c>
-      <c r="C2" s="45" t="s">
-        <v>227</v>
-      </c>
       <c r="D2" s="45" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E2" s="45" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -49419,7 +49426,7 @@
         <v>89</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -49431,7 +49438,7 @@
         <v>91</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -49443,7 +49450,7 @@
         <v>92</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -49455,7 +49462,7 @@
         <v>92</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -49467,7 +49474,7 @@
         <v>26</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -49476,10 +49483,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -49488,10 +49495,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/grid_data_input_file_WIP_v1.xlsx
+++ b/grid_data_input_file_WIP_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c30483\Documents\dc_design_tool\dc_design_tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D4F32B-D595-4F89-89A2-EF7294A0FD08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799F50D2-8745-4EA0-9EA8-4D9BF7A3C292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23196" yWindow="10692" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="simple example" sheetId="20" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Assets Nodes" sheetId="2" r:id="rId6"/>
     <sheet name="Converters" sheetId="5" r:id="rId7"/>
     <sheet name="Lines" sheetId="1" r:id="rId8"/>
-    <sheet name="Droop curves" sheetId="14" r:id="rId9"/>
+    <sheet name="Default droop curves" sheetId="14" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Assets Nodes'!$A$1:$H$13</definedName>
@@ -79,33 +79,6 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={292EFFE2-BF10-4280-90FB-73789412420E}</author>
-    <author>tc={7FCB9B43-0788-40F6-889D-8F923A4D4397}</author>
-  </authors>
-  <commentList>
-    <comment ref="A25" authorId="0" shapeId="0" xr:uid="{292EFFE2-BF10-4280-90FB-73789412420E}">
-      <text>
-        <t>[Commentaire à thread]
-Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
-Commentaire :
-    foisonnement</t>
-      </text>
-    </comment>
-    <comment ref="A32" authorId="1" shapeId="0" xr:uid="{7FCB9B43-0788-40F6-889D-8F923A4D4397}">
-      <text>
-        <t>[Commentaire à thread]
-Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
-Commentaire :
-    Instead of only AC/DC converter</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
     <author>tc={639D7D96-3B2D-4B72-989E-37A0D6AF2EAF}</author>
     <author>tc={13412737-2AD2-44EE-9F96-E158448B3EEA}</author>
   </authors>
@@ -132,27 +105,8 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={0C7C4B0E-3CAD-4F4D-B4A1-B36593524B25}</author>
-  </authors>
-  <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{0C7C4B0E-3CAD-4F4D-B4A1-B36593524B25}">
-      <text>
-        <t xml:space="preserve">[Commentaire à thread]
-Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
-Commentaire :
-    Non utile pour moi 
-</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="300">
   <si>
     <t>Node_i</t>
   </si>
@@ -376,12 +330,6 @@
     <t>Total PV power installed (kW)</t>
   </si>
   <si>
-    <t>PV power (%)</t>
-  </si>
-  <si>
-    <t>AC Grid (%)</t>
-  </si>
-  <si>
     <t>EV Charging station consumption (%)</t>
   </si>
   <si>
@@ -511,19 +459,7 @@
     <t>Grid architecture and inputs</t>
   </si>
   <si>
-    <t xml:space="preserve">Worst case definition for Storage DC/DC converter sizing </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Worst case definition for AC/DC, DC/AC, PDU DC/DC, PV DC/DC and EV DC/DC converters sizing </t>
-  </si>
-  <si>
-    <t>Loads power factor  (%)</t>
-  </si>
-  <si>
     <t>Loads power factor (%)</t>
-  </si>
-  <si>
-    <t>mm²</t>
   </si>
   <si>
     <t>Efficiency curve if user-defined</t>
@@ -628,9 +564,6 @@
     <t>Operating nominal voltage of the node</t>
   </si>
   <si>
-    <t>Specify the voltage level for all node types</t>
-  </si>
-  <si>
     <t>Comment/Instruction</t>
   </si>
   <si>
@@ -667,9 +600,6 @@
     <t xml:space="preserve">Operating nominal voltage </t>
   </si>
   <si>
-    <t>Cable section</t>
-  </si>
-  <si>
     <t>Line length</t>
   </si>
   <si>
@@ -697,34 +627,6 @@
     <t>Select the converter type</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Node_i number
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tw Cen MT"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Asset side / Lower Voltage Bus side</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tw Cen MT"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
     <t>Node_i number</t>
   </si>
   <si>
@@ -735,66 +637,6 @@
   </si>
   <si>
     <t>Unique identifier for the ending node of the line</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Node_j number
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tw Cen MT"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DC Grid side / Higher Voltage Bus side</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Voltage level V_i (V)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tw Cen MT"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Asset side / Lower Voltage Bus side</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tw Cen MT"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Voltage level V_j(V)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tw Cen MT"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DC Grid side / Higher Voltage Bus side</t>
-    </r>
   </si>
   <si>
     <r>
@@ -864,13 +706,7 @@
     <t>Specify the length of the line connecting Node_i and Node_j in meters</t>
   </si>
   <si>
-    <t>User predefined section of the cable</t>
-  </si>
-  <si>
     <t>Specify the nominal power of the converter if already sized/fixed, otherwise the tool will determine the nomial power of the converter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specify the cross-sectional area of the cable in square millimeters if already sized, otherwise the tool will determine the section of each cable </t>
   </si>
   <si>
     <t>Mandatory</t>
@@ -894,23 +730,6 @@
     <t>Select "Yes" if SSCB losses are considered</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Directly linked converter 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tw Cen MT"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Conv_X</t>
-    </r>
-  </si>
-  <si>
     <t>Node number for directly linked converter</t>
   </si>
   <si>
@@ -929,16 +748,6 @@
     <t>Conditional (on converter type)</t>
   </si>
   <si>
-    <t>Index Curve</t>
-  </si>
-  <si>
-    <t>Default Droop curve [Vi;Pi], i={1,2,3,4,5,6}, 
-with V=Asset voltage value (p.u.), P=Asset power value (p.u.)</t>
-  </si>
-  <si>
-    <t>Droop curve [Vi;Pi], i={1,2,3,4,5,6}</t>
-  </si>
-  <si>
     <t>default dynamic</t>
   </si>
   <si>
@@ -951,42 +760,7 @@
     <t>default non-dynamic</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Droop curve if user-efined
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tw Cen MT"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Vi;Pi], i={1,2,3,4,5,6}, 
-with V=Asset voltage value (p.u.), P=Asset power value (p.u.)</t>
-    </r>
-  </si>
-  <si>
     <t>Specify the efficiency curve, if "user-defined" is chosen, as follows: [Xi;Yi], i={1,2,3,4}, with X= Factor of Nominal Power (%), Y=Efficiency (%)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Efficiency curve if user-efined </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tw Cen MT"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Xi;Yi], i={1,2,3,4}, 
-with X= Factor of Nominal Power (%), Y=Efficiency (%)</t>
-    </r>
   </si>
   <si>
     <t>Specify the droop curve, if "user-defined" is chosen, as follows: [Vi;Pi], i={1,2,3,4,5,6}, with V=Asset voltage value (p.u.), P=Asset power value (p.u.)</t>
@@ -1108,9 +882,6 @@
   </si>
   <si>
     <t>Avoid reusing node identifiers.</t>
-  </si>
-  <si>
-    <t>Step2: Add and Number Nodes to the Grid</t>
   </si>
   <si>
     <t>Step 3:  Fill the sheets using the SLD</t>
@@ -1364,16 +1135,97 @@
     <t>Open DC Alliance (ODCA)</t>
   </si>
   <si>
-    <t>[[0,100],[50,98],[75,97],[100,95]]</t>
+    <t>Step 2: Add and Number Nodes to the Grid</t>
   </si>
   <si>
     <t>[1.085; 0], [1; 1], [1; 1], [1; 1], [1; 1], [0.915; 1]</t>
   </si>
   <si>
-    <t>Cable R_km (Ohm/km)</t>
+    <t>The total power of PV installed in the grid</t>
   </si>
   <si>
-    <t>Imax (A)</t>
+    <t>Specify the total PV power installed</t>
+  </si>
+  <si>
+    <t>Specify the total EV charging station size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The total EV charging station size </t>
+  </si>
+  <si>
+    <t>Specify the operating nominal voltage level for all node types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Directly linked converter </t>
+  </si>
+  <si>
+    <t>Voltage level V_i (V)</t>
+  </si>
+  <si>
+    <t>Resistance (ohm/m)</t>
+  </si>
+  <si>
+    <t>Resistance</t>
+  </si>
+  <si>
+    <t>User predefined resistance of the line</t>
+  </si>
+  <si>
+    <t>ohm/m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specify the resistance of the line in ohms per meter if already sized, otherwise the tool will size each cable </t>
+  </si>
+  <si>
+    <t>Default Droop curve</t>
+  </si>
+  <si>
+    <t>Droop curve 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worst case scenario 1 for sizing of Storage DC/DC converter </t>
+  </si>
+  <si>
+    <t>PV power factor (%)</t>
+  </si>
+  <si>
+    <t>AC grid</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>Worst case scenario 3 for sizing cables and AC/DC converter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worst case scenario 2 for sizing of cables and  PDU DC/DC,  DC/AC, PV DC/DC and EV DC/DC converters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">P batt : output , to be fixed starting scenario 1 </t>
+  </si>
+  <si>
+    <t>Storage duration (hours)</t>
+  </si>
+  <si>
+    <t>[[0,100],[50,98],[75,97],[100,95]]</t>
+  </si>
+  <si>
+    <t>Droop curve 2</t>
+  </si>
+  <si>
+    <t>Droop curve 3</t>
+  </si>
+  <si>
+    <t>Droop curve 4</t>
+  </si>
+  <si>
+    <t>Load expansion factor (%)</t>
+  </si>
+  <si>
+    <t>Sizing factors</t>
   </si>
 </sst>
 </file>
@@ -1406,14 +1258,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Tw Cen MT"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Tw Cen MT"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1477,8 +1321,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Tw Cen MT"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1506,12 +1357,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1655,7 +1500,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1702,11 +1547,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -1739,7 +1584,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1772,7 +1617,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1785,11 +1629,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1798,12 +1642,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -1814,11 +1658,44 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1826,40 +1703,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -45259,7 +45103,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>449280</xdr:colOff>
+      <xdr:colOff>437850</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>154098</xdr:rowOff>
     </xdr:to>
@@ -45307,8 +45151,8 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1816941</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>532971</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>114718</xdr:rowOff>
     </xdr:to>
@@ -45350,16 +45194,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>357882</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>139220</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>71952</xdr:rowOff>
+      <xdr:rowOff>78578</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>560975</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>342314</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>141590</xdr:rowOff>
+      <xdr:rowOff>134880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -45382,8 +45226,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4651586" y="423135"/>
-          <a:ext cx="6166572" cy="3170646"/>
+          <a:off x="3767003" y="255274"/>
+          <a:ext cx="6265963" cy="3240633"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -45683,17 +45527,6 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A25" dT="2025-01-15T07:56:21.70" personId="{ACF79D30-62B4-4BD1-A04B-464A97F1B60D}" id="{292EFFE2-BF10-4280-90FB-73789412420E}">
-    <text>foisonnement</text>
-  </threadedComment>
-  <threadedComment ref="A32" dT="2025-01-15T08:02:59.28" personId="{ACF79D30-62B4-4BD1-A04B-464A97F1B60D}" id="{7FCB9B43-0788-40F6-889D-8F923A4D4397}">
-    <text>Instead of only AC/DC converter</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
-<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="D1" dT="2025-01-03T16:21:48.39" personId="{AA3E51E6-FED3-4B77-905E-F42BB68A2AFF}" id="{639D7D96-3B2D-4B72-989E-37A0D6AF2EAF}">
     <text>ILC, PDU, Asset converter (load, EV , Sto, PV), AC load</text>
   </threadedComment>
@@ -45702,15 +45535,6 @@
   </threadedComment>
   <threadedComment ref="G1" dT="2025-01-10T16:35:24.03" personId="{AA3E51E6-FED3-4B77-905E-F42BB68A2AFF}" id="{13412737-2AD2-44EE-9F96-E158448B3EEA}">
     <text xml:space="preserve">Information non obligatoire p-e mettre des couleurs différentes ? </text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
-<file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D1" dT="2025-01-10T16:50:05.67" personId="{AA3E51E6-FED3-4B77-905E-F42BB68A2AFF}" id="{0C7C4B0E-3CAD-4F4D-B4A1-B36593524B25}">
-    <text xml:space="preserve">Non utile pour moi 
-</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -45752,538 +45576,578 @@
   </sheetPr>
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.69921875" customWidth="1"/>
-    <col min="2" max="2" width="12.8984375" style="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="87.19921875" style="52" customWidth="1"/>
+    <col min="1" max="1" width="1.796875" customWidth="1"/>
+    <col min="2" max="2" width="12.8984375" style="51" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="87.19921875" style="51" customWidth="1"/>
     <col min="4" max="4" width="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="51"/>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="51"/>
+      <c r="A1" s="50"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="50"/>
     </row>
     <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="51"/>
-      <c r="B2" s="73" t="s">
-        <v>288</v>
-      </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="51"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="74" t="s">
+        <v>267</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="50"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="51"/>
-      <c r="D3" s="51"/>
+      <c r="A3" s="50"/>
+      <c r="D3" s="50"/>
     </row>
     <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
-      <c r="B4" s="72" t="s">
-        <v>275</v>
-      </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="51"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="73" t="s">
+        <v>254</v>
+      </c>
+      <c r="C4" s="73"/>
+      <c r="D4" s="50"/>
     </row>
     <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
-      <c r="B5" s="71" t="s">
-        <v>276</v>
-      </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="51"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="72" t="s">
+        <v>255</v>
+      </c>
+      <c r="C5" s="72"/>
+      <c r="D5" s="50"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
-      <c r="D6" s="51"/>
+      <c r="A6" s="50"/>
+      <c r="D6" s="50"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="D7" s="51"/>
+      <c r="A7" s="50"/>
+      <c r="D7" s="50"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="51"/>
-      <c r="B8" s="76" t="s">
-        <v>244</v>
-      </c>
-      <c r="C8" s="76"/>
-      <c r="D8" s="51"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="65" t="s">
+        <v>224</v>
+      </c>
+      <c r="C8" s="65"/>
+      <c r="D8" s="50"/>
     </row>
-    <row r="9" spans="1:4" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
-      <c r="B9" s="74" t="s">
-        <v>243</v>
-      </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="51"/>
+    <row r="9" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="50"/>
+      <c r="B9" s="75" t="s">
+        <v>223</v>
+      </c>
+      <c r="C9" s="75"/>
+      <c r="D9" s="50"/>
     </row>
-    <row r="10" spans="1:4" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
-      <c r="B10" s="74" t="s">
-        <v>242</v>
-      </c>
-      <c r="C10" s="74"/>
-      <c r="D10" s="51"/>
+    <row r="10" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="50"/>
+      <c r="B10" s="75" t="s">
+        <v>222</v>
+      </c>
+      <c r="C10" s="75"/>
+      <c r="D10" s="50"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
-      <c r="B11" s="77" t="s">
-        <v>246</v>
-      </c>
-      <c r="C11" s="77"/>
-      <c r="D11" s="51"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="66" t="s">
+        <v>226</v>
+      </c>
+      <c r="C11" s="66"/>
+      <c r="D11" s="50"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
-      <c r="B12" s="74" t="s">
-        <v>247</v>
-      </c>
-      <c r="C12" s="74"/>
-      <c r="D12" s="51"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="75" t="s">
+        <v>227</v>
+      </c>
+      <c r="C12" s="75"/>
+      <c r="D12" s="50"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
-      <c r="B13" s="65" t="s">
-        <v>248</v>
-      </c>
-      <c r="C13" s="65"/>
-      <c r="D13" s="56"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="67" t="s">
+        <v>228</v>
+      </c>
+      <c r="C13" s="67"/>
+      <c r="D13" s="55"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="57"/>
+      <c r="A14" s="50"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="56"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="51"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="50"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
-      <c r="B16" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="C16" s="76"/>
-      <c r="D16" s="58"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="65" t="s">
+        <v>225</v>
+      </c>
+      <c r="C16" s="65"/>
+      <c r="D16" s="57"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
-      <c r="B17" s="54" t="s">
+      <c r="A17" s="50"/>
+      <c r="B17" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="59"/>
+      <c r="D17" s="58"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
-      <c r="B18" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="C18" s="52" t="s">
-        <v>100</v>
-      </c>
-      <c r="D18" s="59"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="58"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
-      <c r="B19" s="52" t="s">
+      <c r="A19" s="50"/>
+      <c r="B19" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="52" t="s">
+      <c r="C19" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="51"/>
+      <c r="D19" s="50"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="51"/>
-      <c r="B20" s="52" t="s">
+      <c r="A20" s="50"/>
+      <c r="B20" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="52" t="s">
+      <c r="C20" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="51"/>
+      <c r="D20" s="50"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
-      <c r="B21" s="52" t="s">
+      <c r="A21" s="50"/>
+      <c r="B21" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="52" t="s">
+      <c r="C21" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="51"/>
+      <c r="D21" s="50"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
-      <c r="B22" s="52" t="s">
+      <c r="A22" s="50"/>
+      <c r="B22" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="52" t="s">
+      <c r="C22" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="51"/>
+      <c r="D22" s="50"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="51"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="51"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="50"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="51"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="50"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="51"/>
-      <c r="B25" s="53" t="s">
-        <v>249</v>
-      </c>
-      <c r="C25" s="53"/>
-      <c r="D25" s="58"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="C25" s="52"/>
+      <c r="D25" s="57"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="51"/>
+      <c r="A26" s="50"/>
       <c r="B26" s="70" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="C26" s="70"/>
-      <c r="D26" s="51"/>
+      <c r="D26" s="50"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
-      <c r="B27" s="65" t="s">
-        <v>251</v>
-      </c>
-      <c r="C27" s="65"/>
-      <c r="D27" s="51"/>
+      <c r="A27" s="50"/>
+      <c r="B27" s="67" t="s">
+        <v>231</v>
+      </c>
+      <c r="C27" s="67"/>
+      <c r="D27" s="50"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="51"/>
-      <c r="B28" s="67" t="s">
-        <v>250</v>
-      </c>
-      <c r="C28" s="67"/>
-      <c r="D28" s="51"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="77" t="s">
+        <v>230</v>
+      </c>
+      <c r="C28" s="77"/>
+      <c r="D28" s="50"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="51"/>
-      <c r="B29" s="66" t="s">
-        <v>254</v>
-      </c>
-      <c r="C29" s="66"/>
-      <c r="D29" s="51"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="C29" s="76"/>
+      <c r="D29" s="50"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="51"/>
-      <c r="B30" s="65" t="s">
-        <v>277</v>
-      </c>
-      <c r="C30" s="65"/>
-      <c r="D30" s="51"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="67" t="s">
+        <v>256</v>
+      </c>
+      <c r="C30" s="67"/>
+      <c r="D30" s="50"/>
       <c r="F30" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="51"/>
-      <c r="B31" s="65" t="s">
-        <v>278</v>
-      </c>
-      <c r="C31" s="65"/>
-      <c r="D31" s="51"/>
+      <c r="A31" s="50"/>
+      <c r="B31" s="67" t="s">
+        <v>257</v>
+      </c>
+      <c r="C31" s="67"/>
+      <c r="D31" s="50"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="51"/>
-      <c r="B32" s="67" t="s">
-        <v>279</v>
-      </c>
-      <c r="C32" s="67"/>
-      <c r="D32" s="51"/>
+      <c r="A32" s="50"/>
+      <c r="B32" s="77" t="s">
+        <v>258</v>
+      </c>
+      <c r="C32" s="77"/>
+      <c r="D32" s="50"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="51"/>
-      <c r="B33" s="65" t="s">
-        <v>280</v>
-      </c>
-      <c r="C33" s="65"/>
-      <c r="D33" s="51"/>
+      <c r="A33" s="50"/>
+      <c r="B33" s="67" t="s">
+        <v>259</v>
+      </c>
+      <c r="C33" s="67"/>
+      <c r="D33" s="50"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="51"/>
-      <c r="D34" s="51"/>
+      <c r="A34" s="50"/>
+      <c r="D34" s="50"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="51"/>
+      <c r="A35" s="50"/>
       <c r="B35" s="70" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="C35" s="70"/>
-      <c r="D35" s="51"/>
+      <c r="D35" s="50"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="51"/>
-      <c r="B36" s="65" t="s">
-        <v>253</v>
-      </c>
-      <c r="C36" s="65"/>
-      <c r="D36" s="51"/>
+      <c r="A36" s="50"/>
+      <c r="B36" s="67" t="s">
+        <v>233</v>
+      </c>
+      <c r="C36" s="67"/>
+      <c r="D36" s="50"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="51"/>
-      <c r="B37" s="65" t="s">
-        <v>281</v>
-      </c>
-      <c r="C37" s="65"/>
-      <c r="D37" s="51"/>
+      <c r="A37" s="50"/>
+      <c r="B37" s="67" t="s">
+        <v>260</v>
+      </c>
+      <c r="C37" s="67"/>
+      <c r="D37" s="50"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="51"/>
-      <c r="B38" s="65" t="s">
-        <v>282</v>
-      </c>
-      <c r="C38" s="65"/>
-      <c r="D38" s="51"/>
+      <c r="A38" s="50"/>
+      <c r="B38" s="67" t="s">
+        <v>261</v>
+      </c>
+      <c r="C38" s="67"/>
+      <c r="D38" s="50"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="51"/>
-      <c r="B39" s="65" t="s">
-        <v>283</v>
-      </c>
-      <c r="C39" s="65"/>
-      <c r="D39" s="51"/>
+      <c r="A39" s="50"/>
+      <c r="B39" s="67" t="s">
+        <v>262</v>
+      </c>
+      <c r="C39" s="67"/>
+      <c r="D39" s="50"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="51"/>
-      <c r="B40" s="78" t="s">
-        <v>255</v>
-      </c>
-      <c r="C40" s="78"/>
-      <c r="D40" s="51"/>
+      <c r="A40" s="50"/>
+      <c r="B40" s="68" t="s">
+        <v>235</v>
+      </c>
+      <c r="C40" s="68"/>
+      <c r="D40" s="50"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="51"/>
-      <c r="B41" s="65" t="s">
-        <v>256</v>
-      </c>
-      <c r="C41" s="65"/>
-      <c r="D41" s="51"/>
+      <c r="A41" s="50"/>
+      <c r="B41" s="67" t="s">
+        <v>236</v>
+      </c>
+      <c r="C41" s="67"/>
+      <c r="D41" s="50"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="51"/>
-      <c r="B42" s="65" t="s">
-        <v>257</v>
-      </c>
-      <c r="C42" s="65"/>
-      <c r="D42" s="51"/>
+      <c r="A42" s="50"/>
+      <c r="B42" s="67" t="s">
+        <v>237</v>
+      </c>
+      <c r="C42" s="67"/>
+      <c r="D42" s="50"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="51"/>
-      <c r="B43" s="65" t="s">
-        <v>258</v>
-      </c>
-      <c r="C43" s="65"/>
-      <c r="D43" s="51"/>
+      <c r="A43" s="50"/>
+      <c r="B43" s="67" t="s">
+        <v>238</v>
+      </c>
+      <c r="C43" s="67"/>
+      <c r="D43" s="50"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="51"/>
-      <c r="B44" s="65"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="51"/>
+      <c r="A44" s="50"/>
+      <c r="B44" s="67"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="50"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="51"/>
+      <c r="A45" s="50"/>
       <c r="B45" s="70" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="C45" s="70"/>
-      <c r="D45" s="51"/>
+      <c r="D45" s="50"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="51"/>
-      <c r="B46" s="65" t="s">
-        <v>261</v>
-      </c>
-      <c r="C46" s="65"/>
-      <c r="D46" s="51"/>
+      <c r="A46" s="50"/>
+      <c r="B46" s="67" t="s">
+        <v>240</v>
+      </c>
+      <c r="C46" s="67"/>
+      <c r="D46" s="50"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="51"/>
-      <c r="B47" s="68" t="s">
-        <v>284</v>
-      </c>
-      <c r="C47" s="65"/>
-      <c r="D47" s="51"/>
+      <c r="A47" s="50"/>
+      <c r="B47" s="69" t="s">
+        <v>263</v>
+      </c>
+      <c r="C47" s="67"/>
+      <c r="D47" s="50"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="51"/>
-      <c r="B48" s="65" t="s">
-        <v>265</v>
-      </c>
-      <c r="C48" s="65"/>
-      <c r="D48" s="51"/>
+      <c r="A48" s="50"/>
+      <c r="B48" s="67" t="s">
+        <v>244</v>
+      </c>
+      <c r="C48" s="67"/>
+      <c r="D48" s="50"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="51"/>
-      <c r="B49" s="68" t="s">
-        <v>285</v>
-      </c>
-      <c r="C49" s="65"/>
-      <c r="D49" s="51"/>
+      <c r="A49" s="50"/>
+      <c r="B49" s="69" t="s">
+        <v>264</v>
+      </c>
+      <c r="C49" s="67"/>
+      <c r="D49" s="50"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="51"/>
-      <c r="B50" s="65" t="s">
-        <v>264</v>
-      </c>
-      <c r="C50" s="65"/>
-      <c r="D50" s="51"/>
+      <c r="A50" s="50"/>
+      <c r="B50" s="67" t="s">
+        <v>243</v>
+      </c>
+      <c r="C50" s="67"/>
+      <c r="D50" s="50"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="51"/>
-      <c r="B51" s="68" t="s">
-        <v>286</v>
-      </c>
-      <c r="C51" s="65"/>
-      <c r="D51" s="51"/>
+      <c r="A51" s="50"/>
+      <c r="B51" s="69" t="s">
+        <v>265</v>
+      </c>
+      <c r="C51" s="67"/>
+      <c r="D51" s="50"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="51"/>
-      <c r="B52" s="65" t="s">
-        <v>263</v>
-      </c>
-      <c r="C52" s="65"/>
-      <c r="D52" s="51"/>
+      <c r="A52" s="50"/>
+      <c r="B52" s="67" t="s">
+        <v>242</v>
+      </c>
+      <c r="C52" s="67"/>
+      <c r="D52" s="50"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="51"/>
-      <c r="B53" s="68" t="s">
-        <v>287</v>
-      </c>
-      <c r="C53" s="65"/>
-      <c r="D53" s="51"/>
+      <c r="A53" s="50"/>
+      <c r="B53" s="69" t="s">
+        <v>266</v>
+      </c>
+      <c r="C53" s="67"/>
+      <c r="D53" s="50"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="51"/>
-      <c r="B54" s="65" t="s">
-        <v>262</v>
-      </c>
-      <c r="C54" s="65"/>
-      <c r="D54" s="51"/>
+      <c r="A54" s="50"/>
+      <c r="B54" s="67" t="s">
+        <v>241</v>
+      </c>
+      <c r="C54" s="67"/>
+      <c r="D54" s="50"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="51"/>
-      <c r="B55" s="65"/>
-      <c r="C55" s="65"/>
-      <c r="D55" s="51"/>
+      <c r="A55" s="50"/>
+      <c r="B55" s="67"/>
+      <c r="C55" s="67"/>
+      <c r="D55" s="50"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="51"/>
+      <c r="A56" s="50"/>
       <c r="B56" s="70" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="C56" s="70"/>
-      <c r="D56" s="51"/>
+      <c r="D56" s="50"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="51"/>
-      <c r="B57" s="65" t="s">
-        <v>272</v>
-      </c>
-      <c r="C57" s="65"/>
-      <c r="D57" s="51"/>
+      <c r="A57" s="50"/>
+      <c r="B57" s="67" t="s">
+        <v>251</v>
+      </c>
+      <c r="C57" s="67"/>
+      <c r="D57" s="50"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="51"/>
-      <c r="B58" s="65" t="s">
-        <v>273</v>
-      </c>
-      <c r="C58" s="65"/>
-      <c r="D58" s="51"/>
+      <c r="A58" s="50"/>
+      <c r="B58" s="67" t="s">
+        <v>252</v>
+      </c>
+      <c r="C58" s="67"/>
+      <c r="D58" s="50"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="51"/>
-      <c r="B59" s="50"/>
-      <c r="C59" s="50"/>
-      <c r="D59" s="51"/>
+      <c r="A59" s="50"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="50"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="51"/>
-      <c r="B60" s="65"/>
-      <c r="C60" s="65"/>
-      <c r="D60" s="51"/>
+      <c r="A60" s="50"/>
+      <c r="B60" s="67"/>
+      <c r="C60" s="67"/>
+      <c r="D60" s="50"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="51"/>
+      <c r="A61" s="50"/>
       <c r="B61" s="70" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="C61" s="70"/>
-      <c r="D61" s="51"/>
+      <c r="D61" s="50"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="51"/>
-      <c r="B62" s="65" t="s">
-        <v>266</v>
-      </c>
-      <c r="C62" s="65"/>
-      <c r="D62" s="51"/>
+      <c r="A62" s="50"/>
+      <c r="B62" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="C62" s="67"/>
+      <c r="D62" s="50"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="51"/>
-      <c r="B63" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="C63" s="65"/>
-      <c r="D63" s="51"/>
+      <c r="A63" s="50"/>
+      <c r="B63" s="67" t="s">
+        <v>246</v>
+      </c>
+      <c r="C63" s="67"/>
+      <c r="D63" s="50"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="51"/>
-      <c r="B64" s="65" t="s">
-        <v>268</v>
-      </c>
-      <c r="C64" s="65"/>
-      <c r="D64" s="51"/>
+      <c r="A64" s="50"/>
+      <c r="B64" s="67" t="s">
+        <v>247</v>
+      </c>
+      <c r="C64" s="67"/>
+      <c r="D64" s="50"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="51"/>
-      <c r="B65" s="65" t="s">
-        <v>269</v>
-      </c>
-      <c r="C65" s="65"/>
-      <c r="D65" s="51"/>
+      <c r="A65" s="50"/>
+      <c r="B65" s="67" t="s">
+        <v>248</v>
+      </c>
+      <c r="C65" s="67"/>
+      <c r="D65" s="50"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="51"/>
-      <c r="B66" s="75"/>
-      <c r="C66" s="75"/>
-      <c r="D66" s="51"/>
+      <c r="A66" s="50"/>
+      <c r="B66" s="64"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="50"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B67" s="55"/>
+      <c r="B67" s="54"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B70" s="65"/>
-      <c r="C70" s="65"/>
+      <c r="B70" s="67"/>
+      <c r="C70" s="67"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B71" s="65"/>
-      <c r="C71" s="65"/>
+      <c r="B71" s="67"/>
+      <c r="C71" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B8:C8"/>
@@ -46300,46 +46164,6 @@
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B41:C41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -46358,37 +46182,37 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
+      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.19921875" style="63" customWidth="1"/>
+    <col min="1" max="1" width="1.296875" style="62" customWidth="1"/>
     <col min="2" max="2" width="13.19921875" style="4" customWidth="1"/>
     <col min="3" max="3" width="33.59765625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51.5" style="39" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.69921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="63.69921875" style="39" customWidth="1"/>
+    <col min="6" max="6" width="63.796875" style="39" customWidth="1"/>
     <col min="7" max="7" width="18.69921875" style="39" customWidth="1"/>
     <col min="8" max="8" width="17.8984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="1.3984375" style="63" customWidth="1"/>
+    <col min="9" max="9" width="1.3984375" style="62" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60"/>
-      <c r="B1" s="79" t="s">
+      <c r="A1" s="59"/>
+      <c r="B1" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="60"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="59"/>
     </row>
     <row r="2" spans="1:9" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="60"/>
+      <c r="A2" s="59"/>
       <c r="B2" s="20" t="s">
         <v>52</v>
       </c>
@@ -46399,21 +46223,21 @@
         <v>62</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="H2" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="60"/>
+      <c r="I2" s="59"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="60"/>
+      <c r="A3" s="59"/>
       <c r="B3" s="25" t="s">
         <v>53</v>
       </c>
@@ -46421,20 +46245,20 @@
         <v>34</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="42" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G3" s="42" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="H3" s="24"/>
-      <c r="I3" s="60"/>
+      <c r="I3" s="59"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="60"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="27" t="s">
         <v>53</v>
       </c>
@@ -46448,16 +46272,16 @@
         <v>7</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>240</v>
-      </c>
-      <c r="G4" s="80" t="s">
-        <v>210</v>
+        <v>220</v>
+      </c>
+      <c r="G4" s="79" t="s">
+        <v>196</v>
       </c>
       <c r="H4" s="26"/>
-      <c r="I4" s="60"/>
+      <c r="I4" s="59"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
+      <c r="A5" s="59"/>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
       <c r="D5" s="38"/>
@@ -46465,12 +46289,12 @@
         <v>8</v>
       </c>
       <c r="F5" s="38"/>
-      <c r="G5" s="81"/>
+      <c r="G5" s="80"/>
       <c r="H5" s="21"/>
-      <c r="I5" s="60"/>
+      <c r="I5" s="59"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="60"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="27" t="s">
         <v>53</v>
       </c>
@@ -46481,84 +46305,84 @@
         <v>65</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="G6" s="80" t="s">
-        <v>210</v>
+        <v>129</v>
+      </c>
+      <c r="G6" s="79" t="s">
+        <v>196</v>
       </c>
       <c r="H6" s="26"/>
-      <c r="I6" s="60"/>
+      <c r="I6" s="59"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="60"/>
+      <c r="A7" s="59"/>
       <c r="E7" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="65"/>
-      <c r="I7" s="60"/>
+        <v>106</v>
+      </c>
+      <c r="G7" s="67"/>
+      <c r="I7" s="59"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
+      <c r="A8" s="59"/>
       <c r="E8" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G8" s="65"/>
-      <c r="I8" s="60"/>
+        <v>108</v>
+      </c>
+      <c r="G8" s="67"/>
+      <c r="I8" s="59"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="60"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="D9" s="38"/>
       <c r="E9" s="22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F9" s="38"/>
-      <c r="G9" s="81"/>
+      <c r="G9" s="80"/>
       <c r="H9" s="21"/>
-      <c r="I9" s="60"/>
+      <c r="I9" s="59"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="60"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="27" t="s">
         <v>53</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="80" t="s">
-        <v>93</v>
+      <c r="D10" s="79" t="s">
+        <v>91</v>
       </c>
       <c r="E10" s="27" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="G10" s="80" t="s">
-        <v>210</v>
+        <v>221</v>
+      </c>
+      <c r="G10" s="79" t="s">
+        <v>196</v>
       </c>
       <c r="H10" s="26"/>
-      <c r="I10" s="60"/>
+      <c r="I10" s="59"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="60"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
-      <c r="D11" s="81"/>
+      <c r="D11" s="80"/>
       <c r="E11" s="22" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="F11" s="38"/>
-      <c r="G11" s="81"/>
+      <c r="G11" s="80"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="60"/>
+      <c r="I11" s="59"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="60"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="27" t="s">
         <v>53</v>
       </c>
@@ -46572,24 +46396,24 @@
         <v>20</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="G12" s="80" t="s">
-        <v>210</v>
+        <v>130</v>
+      </c>
+      <c r="G12" s="79" t="s">
+        <v>196</v>
       </c>
       <c r="H12" s="26"/>
-      <c r="I12" s="60"/>
+      <c r="I12" s="59"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="60"/>
+      <c r="A13" s="59"/>
       <c r="E13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="65"/>
-      <c r="I13" s="60"/>
+      <c r="G13" s="67"/>
+      <c r="I13" s="59"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="60"/>
+      <c r="A14" s="59"/>
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
       <c r="D14" s="38"/>
@@ -46597,50 +46421,58 @@
         <v>23</v>
       </c>
       <c r="F14" s="38"/>
-      <c r="G14" s="81"/>
+      <c r="G14" s="80"/>
       <c r="H14" s="21"/>
-      <c r="I14" s="60"/>
+      <c r="I14" s="59"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="60"/>
+      <c r="A15" s="59"/>
       <c r="B15" s="22" t="s">
         <v>53</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="38"/>
+      <c r="D15" s="38" t="s">
+        <v>271</v>
+      </c>
       <c r="E15" s="22"/>
-      <c r="F15" s="38"/>
+      <c r="F15" s="38" t="s">
+        <v>272</v>
+      </c>
       <c r="G15" s="36" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="H15" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="60"/>
+      <c r="I15" s="59"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="60"/>
+      <c r="A16" s="59"/>
       <c r="B16" s="22" t="s">
         <v>53</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="38"/>
+      <c r="D16" s="38" t="s">
+        <v>274</v>
+      </c>
       <c r="E16" s="22"/>
-      <c r="F16" s="38"/>
+      <c r="F16" s="38" t="s">
+        <v>273</v>
+      </c>
       <c r="G16" s="36" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="H16" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I16" s="60"/>
+      <c r="I16" s="59"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="60"/>
+      <c r="A17" s="59"/>
       <c r="B17" s="29" t="s">
         <v>53</v>
       </c>
@@ -46652,16 +46484,16 @@
       </c>
       <c r="E17" s="29"/>
       <c r="F17" s="36" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="H17" s="28"/>
-      <c r="I17" s="60"/>
+      <c r="I17" s="59"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="60"/>
+      <c r="A18" s="59"/>
       <c r="B18" s="29" t="s">
         <v>53</v>
       </c>
@@ -46673,16 +46505,16 @@
       </c>
       <c r="E18" s="29"/>
       <c r="F18" s="36" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G18" s="36" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="H18" s="28"/>
-      <c r="I18" s="60"/>
+      <c r="I18" s="59"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="60"/>
+      <c r="A19" s="59"/>
       <c r="B19" s="29" t="s">
         <v>53</v>
       </c>
@@ -46694,16 +46526,16 @@
       </c>
       <c r="E19" s="29"/>
       <c r="F19" s="36" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G19" s="36" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="H19" s="28"/>
-      <c r="I19" s="60"/>
+      <c r="I19" s="59"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="60"/>
+      <c r="A20" s="59"/>
       <c r="B20" s="29" t="s">
         <v>53</v>
       </c>
@@ -46715,16 +46547,16 @@
       </c>
       <c r="E20" s="29"/>
       <c r="F20" s="36" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G20" s="36" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="H20" s="28"/>
-      <c r="I20" s="60"/>
+      <c r="I20" s="59"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="60"/>
+      <c r="A21" s="59"/>
       <c r="B21" s="29" t="s">
         <v>53</v>
       </c>
@@ -46736,16 +46568,16 @@
       </c>
       <c r="E21" s="29"/>
       <c r="F21" s="36" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="H21" s="28"/>
-      <c r="I21" s="60"/>
+      <c r="I21" s="59"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="60"/>
+      <c r="A22" s="59"/>
       <c r="B22" s="29" t="s">
         <v>53</v>
       </c>
@@ -46757,37 +46589,37 @@
       </c>
       <c r="E22" s="29"/>
       <c r="F22" s="36" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="G22" s="36" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="H22" s="28"/>
-      <c r="I22" s="60"/>
+      <c r="I22" s="59"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="60"/>
+      <c r="A23" s="59"/>
       <c r="B23" s="29" t="s">
         <v>53</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E23" s="29"/>
       <c r="F23" s="36" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G23" s="36" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="H23" s="28"/>
-      <c r="I23" s="60"/>
+      <c r="I23" s="59"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="60"/>
+      <c r="A24" s="59"/>
       <c r="B24" s="29" t="s">
         <v>53</v>
       </c>
@@ -46795,24 +46627,24 @@
         <v>48</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E24" s="29"/>
       <c r="F24" s="36" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G24" s="36" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="H24" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="I24" s="60"/>
+      <c r="I24" s="59"/>
       <c r="K24" s="4"/>
       <c r="M24" s="4"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="60"/>
+      <c r="A25" s="59"/>
       <c r="B25" s="27" t="s">
         <v>53</v>
       </c>
@@ -46820,39 +46652,39 @@
         <v>30</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F25" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="G25" s="80" t="s">
-        <v>210</v>
+        <v>140</v>
+      </c>
+      <c r="G25" s="79" t="s">
+        <v>196</v>
       </c>
       <c r="H25" s="26"/>
-      <c r="I25" s="60"/>
+      <c r="I25" s="59"/>
       <c r="K25" s="4"/>
       <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="60"/>
+      <c r="A26" s="59"/>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
       <c r="D26" s="38"/>
       <c r="E26" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F26" s="38"/>
-      <c r="G26" s="81"/>
+      <c r="G26" s="80"/>
       <c r="H26" s="21"/>
-      <c r="I26" s="60"/>
+      <c r="I26" s="59"/>
       <c r="K26" s="4"/>
       <c r="M26" s="4"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="60"/>
+      <c r="A27" s="59"/>
       <c r="B27" s="27" t="s">
         <v>53</v>
       </c>
@@ -46860,39 +46692,39 @@
         <v>31</v>
       </c>
       <c r="D27" s="37" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F27" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="G27" s="80" t="s">
-        <v>210</v>
+        <v>141</v>
+      </c>
+      <c r="G27" s="79" t="s">
+        <v>196</v>
       </c>
       <c r="H27" s="26"/>
-      <c r="I27" s="60"/>
+      <c r="I27" s="59"/>
       <c r="K27" s="4"/>
       <c r="M27" s="4"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="60"/>
+      <c r="A28" s="59"/>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
       <c r="D28" s="38"/>
       <c r="E28" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F28" s="38"/>
-      <c r="G28" s="81"/>
+      <c r="G28" s="80"/>
       <c r="H28" s="21"/>
-      <c r="I28" s="60"/>
+      <c r="I28" s="59"/>
       <c r="K28" s="4"/>
       <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="60"/>
+      <c r="A29" s="59"/>
       <c r="B29" s="29" t="s">
         <v>53</v>
       </c>
@@ -46900,208 +46732,208 @@
         <v>37</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E29" s="29"/>
       <c r="F29" s="36" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G29" s="36" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="H29" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="I29" s="60"/>
+      <c r="I29" s="59"/>
       <c r="K29" s="4"/>
       <c r="M29" s="4"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="60"/>
+      <c r="A30" s="59"/>
       <c r="B30" s="29" t="s">
         <v>53</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D30" s="36" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E30" s="29"/>
       <c r="F30" s="39" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G30" s="39" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="H30" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="I30" s="60"/>
+      <c r="I30" s="59"/>
       <c r="K30" s="4"/>
       <c r="M30" s="4"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="60"/>
+      <c r="A31" s="59"/>
       <c r="B31" s="29" t="s">
         <v>53</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D31" s="36" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E31" s="29"/>
       <c r="F31" s="36" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G31" s="36" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="H31" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="I31" s="60"/>
+      <c r="I31" s="59"/>
       <c r="K31" s="4"/>
       <c r="M31" s="4"/>
     </row>
     <row r="32" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A32" s="60"/>
+      <c r="A32" s="59"/>
       <c r="B32" s="29" t="s">
         <v>53</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D32" s="36" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E32" s="29"/>
       <c r="F32" s="36" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G32" s="36" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="H32" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="I32" s="60"/>
+      <c r="I32" s="59"/>
       <c r="K32" s="4"/>
       <c r="M32" s="4"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="60"/>
+      <c r="A33" s="59"/>
       <c r="B33" s="27" t="s">
         <v>53</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F33" s="39" t="s">
-        <v>216</v>
-      </c>
-      <c r="G33" s="80" t="s">
-        <v>210</v>
-      </c>
-      <c r="I33" s="60"/>
+        <v>202</v>
+      </c>
+      <c r="G33" s="79" t="s">
+        <v>196</v>
+      </c>
+      <c r="I33" s="59"/>
       <c r="K33" s="4"/>
       <c r="M33" s="4"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="60"/>
+      <c r="A34" s="59"/>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
       <c r="E34" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F34" s="39" t="s">
-        <v>215</v>
-      </c>
-      <c r="G34" s="81"/>
-      <c r="I34" s="60"/>
+        <v>201</v>
+      </c>
+      <c r="G34" s="80"/>
+      <c r="I34" s="59"/>
       <c r="K34" s="4"/>
       <c r="M34" s="4"/>
     </row>
     <row r="35" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="60"/>
-      <c r="B35" s="47" t="s">
+      <c r="A35" s="59"/>
+      <c r="B35" s="46" t="s">
         <v>53</v>
       </c>
       <c r="C35" s="34"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="47"/>
+      <c r="E35" s="46"/>
       <c r="F35" s="40"/>
       <c r="G35" s="40"/>
       <c r="H35" s="30"/>
-      <c r="I35" s="60"/>
+      <c r="I35" s="59"/>
       <c r="K35" s="4"/>
       <c r="M35" s="4"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="60"/>
-      <c r="B36" s="48" t="s">
+      <c r="A36" s="59"/>
+      <c r="B36" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="C36" s="48" t="s">
+      <c r="C36" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="49" t="s">
-        <v>112</v>
-      </c>
-      <c r="E36" s="48" t="s">
+      <c r="D36" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="E36" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="G36" s="84" t="s">
-        <v>210</v>
+      <c r="F36" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="G36" s="83" t="s">
+        <v>196</v>
       </c>
       <c r="H36" s="31"/>
-      <c r="I36" s="60"/>
+      <c r="I36" s="59"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="60"/>
+      <c r="A37" s="59"/>
       <c r="E37" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="65"/>
-      <c r="I37" s="60"/>
+      <c r="G37" s="67"/>
+      <c r="I37" s="59"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="60"/>
+      <c r="A38" s="59"/>
       <c r="E38" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G38" s="65"/>
-      <c r="I38" s="60"/>
+      <c r="G38" s="67"/>
+      <c r="I38" s="59"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="60"/>
+      <c r="A39" s="59"/>
       <c r="E39" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="65"/>
-      <c r="I39" s="60"/>
+      <c r="G39" s="67"/>
+      <c r="I39" s="59"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="60"/>
+      <c r="A40" s="59"/>
       <c r="E40" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G40" s="65"/>
-      <c r="I40" s="60"/>
+      <c r="G40" s="67"/>
+      <c r="I40" s="59"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="60"/>
+      <c r="A41" s="59"/>
       <c r="B41" s="22"/>
       <c r="C41" s="22"/>
       <c r="D41" s="38"/>
@@ -47109,33 +46941,33 @@
         <v>25</v>
       </c>
       <c r="F41" s="38"/>
-      <c r="G41" s="81"/>
+      <c r="G41" s="80"/>
       <c r="H41" s="21"/>
-      <c r="I41" s="60"/>
+      <c r="I41" s="59"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="60"/>
+      <c r="A42" s="59"/>
       <c r="B42" s="29" t="s">
         <v>55</v>
       </c>
       <c r="C42" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="36" t="s">
         <v>85</v>
-      </c>
-      <c r="D42" s="36" t="s">
-        <v>87</v>
       </c>
       <c r="E42" s="29"/>
       <c r="F42" s="36" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G42" s="36" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="H42" s="28"/>
-      <c r="I42" s="60"/>
+      <c r="I42" s="59"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="60"/>
+      <c r="A43" s="59"/>
       <c r="B43" s="27" t="s">
         <v>55</v>
       </c>
@@ -47143,44 +46975,44 @@
         <v>24</v>
       </c>
       <c r="D43" s="37" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E43" s="27" t="s">
         <v>2</v>
       </c>
       <c r="F43" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="G43" s="80" t="s">
-        <v>210</v>
+        <v>114</v>
+      </c>
+      <c r="G43" s="79" t="s">
+        <v>196</v>
       </c>
       <c r="H43" s="26"/>
-      <c r="I43" s="60"/>
+      <c r="I43" s="59"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="60"/>
+      <c r="A44" s="59"/>
       <c r="E44" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F44" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="G44" s="65"/>
-      <c r="I44" s="60"/>
+        <v>112</v>
+      </c>
+      <c r="G44" s="67"/>
+      <c r="I44" s="59"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="60"/>
+      <c r="A45" s="59"/>
       <c r="E45" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F45" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="G45" s="65"/>
-      <c r="I45" s="60"/>
+        <v>113</v>
+      </c>
+      <c r="G45" s="67"/>
+      <c r="I45" s="59"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="60"/>
+      <c r="A46" s="59"/>
       <c r="B46" s="22"/>
       <c r="C46" s="22"/>
       <c r="D46" s="38"/>
@@ -47188,104 +47020,104 @@
         <v>4</v>
       </c>
       <c r="F46" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="G46" s="81"/>
+        <v>111</v>
+      </c>
+      <c r="G46" s="80"/>
       <c r="H46" s="21"/>
-      <c r="I46" s="60"/>
+      <c r="I46" s="59"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="60"/>
+      <c r="A47" s="59"/>
       <c r="B47" s="29" t="s">
         <v>55</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D47" s="36" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E47" s="29"/>
       <c r="F47" s="36" t="s">
-        <v>158</v>
+        <v>275</v>
       </c>
       <c r="G47" s="36" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="H47" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="I47" s="60"/>
+      <c r="I47" s="59"/>
     </row>
     <row r="48" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A48" s="60"/>
+      <c r="A48" s="59"/>
       <c r="B48" s="29" t="s">
         <v>55</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D48" s="36" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E48" s="29"/>
       <c r="F48" s="36" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="G48" s="36" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="H48" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="I48" s="60"/>
+      <c r="I48" s="59"/>
     </row>
     <row r="49" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A49" s="60"/>
+      <c r="A49" s="59"/>
       <c r="B49" s="29" t="s">
         <v>55</v>
       </c>
       <c r="C49" s="29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D49" s="36" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E49" s="29"/>
       <c r="F49" s="36" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="G49" s="36" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="H49" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="I49" s="60"/>
+        <v>92</v>
+      </c>
+      <c r="I49" s="59"/>
     </row>
     <row r="50" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A50" s="60"/>
+      <c r="A50" s="59"/>
       <c r="B50" s="29" t="s">
         <v>55</v>
       </c>
       <c r="C50" s="36" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D50" s="36" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E50" s="29"/>
       <c r="F50" s="36" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G50" s="36" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="H50" s="28"/>
-      <c r="I50" s="60"/>
+      <c r="I50" s="59"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="60"/>
+      <c r="A51" s="59"/>
       <c r="B51" s="29" t="s">
         <v>55</v>
       </c>
@@ -47293,35 +47125,35 @@
         <v>28</v>
       </c>
       <c r="D51" s="36" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E51" s="29"/>
       <c r="F51" s="36" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="G51" s="36" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="H51" s="28"/>
-      <c r="I51" s="60"/>
+      <c r="I51" s="59"/>
     </row>
     <row r="52" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="60"/>
-      <c r="B52" s="47" t="s">
+      <c r="A52" s="59"/>
+      <c r="B52" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="47" t="s">
+      <c r="C52" s="46" t="s">
         <v>29</v>
       </c>
       <c r="D52" s="40"/>
-      <c r="E52" s="47"/>
+      <c r="E52" s="46"/>
       <c r="F52" s="40"/>
       <c r="G52" s="40"/>
       <c r="H52" s="30"/>
-      <c r="I52" s="60"/>
+      <c r="I52" s="59"/>
     </row>
     <row r="53" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A53" s="60"/>
+      <c r="A53" s="59"/>
       <c r="B53" s="25" t="s">
         <v>57</v>
       </c>
@@ -47329,62 +47161,62 @@
         <v>38</v>
       </c>
       <c r="D53" s="42" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E53" s="25"/>
       <c r="F53" s="42" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G53" s="42" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="H53" s="24"/>
-      <c r="I53" s="60"/>
+      <c r="I53" s="59"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="60"/>
+      <c r="A54" s="59"/>
       <c r="B54" s="29" t="s">
         <v>57</v>
       </c>
       <c r="C54" s="29" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D54" s="36" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E54" s="29"/>
       <c r="F54" s="36" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G54" s="36" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="H54" s="28"/>
-      <c r="I54" s="60"/>
+      <c r="I54" s="59"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="60"/>
+      <c r="A55" s="59"/>
       <c r="B55" s="29" t="s">
         <v>57</v>
       </c>
       <c r="C55" s="29" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D55" s="36" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="E55" s="29"/>
       <c r="F55" s="36" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G55" s="36" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="H55" s="28"/>
-      <c r="I55" s="60"/>
+      <c r="I55" s="59"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="60"/>
+      <c r="A56" s="59"/>
       <c r="B56" s="27" t="s">
         <v>57</v>
       </c>
@@ -47392,129 +47224,129 @@
         <v>35</v>
       </c>
       <c r="D56" s="37" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E56" s="27" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="F56" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="G56" s="80" t="s">
-        <v>210</v>
+        <v>172</v>
+      </c>
+      <c r="G56" s="79" t="s">
+        <v>196</v>
       </c>
       <c r="H56" s="26"/>
-      <c r="I56" s="60"/>
+      <c r="I56" s="59"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="60"/>
+      <c r="A57" s="59"/>
       <c r="E57" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="G57" s="65"/>
-      <c r="I57" s="60"/>
+        <v>205</v>
+      </c>
+      <c r="G57" s="67"/>
+      <c r="I57" s="59"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="60"/>
+      <c r="A58" s="59"/>
       <c r="E58" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G58" s="65"/>
-      <c r="I58" s="60"/>
+      <c r="G58" s="67"/>
+      <c r="I58" s="59"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="60"/>
+      <c r="A59" s="59"/>
       <c r="E59" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G59" s="65"/>
-      <c r="I59" s="60"/>
+        <v>206</v>
+      </c>
+      <c r="G59" s="67"/>
+      <c r="I59" s="59"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="60"/>
+      <c r="A60" s="59"/>
       <c r="E60" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="G60" s="65"/>
-      <c r="I60" s="60"/>
+        <v>207</v>
+      </c>
+      <c r="G60" s="67"/>
+      <c r="I60" s="59"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="60"/>
+      <c r="A61" s="59"/>
       <c r="E61" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G61" s="65"/>
-      <c r="I61" s="60"/>
+        <v>87</v>
+      </c>
+      <c r="G61" s="67"/>
+      <c r="I61" s="59"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="60"/>
+      <c r="A62" s="59"/>
       <c r="E62" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G62" s="65"/>
-      <c r="I62" s="60"/>
+        <v>89</v>
+      </c>
+      <c r="G62" s="67"/>
+      <c r="I62" s="59"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="60"/>
+      <c r="A63" s="59"/>
       <c r="B63" s="22"/>
       <c r="C63" s="22"/>
       <c r="D63" s="38"/>
       <c r="E63" s="22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F63" s="38"/>
-      <c r="G63" s="81"/>
+      <c r="G63" s="80"/>
       <c r="H63" s="21"/>
-      <c r="I63" s="60"/>
+      <c r="I63" s="59"/>
     </row>
     <row r="64" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A64" s="60"/>
+      <c r="A64" s="59"/>
       <c r="B64" s="29" t="s">
         <v>57</v>
       </c>
       <c r="C64" s="29" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="D64" s="36" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E64" s="29"/>
       <c r="F64" s="36" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="G64" s="36" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="H64" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="I64" s="60"/>
+      <c r="I64" s="59"/>
     </row>
     <row r="65" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A65" s="60"/>
+      <c r="A65" s="59"/>
       <c r="B65" s="29" t="s">
         <v>57</v>
       </c>
       <c r="C65" s="29" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="D65" s="36" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="E65" s="29"/>
       <c r="F65" s="36" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="G65" s="36" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="H65" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="I65" s="60"/>
+      <c r="I65" s="59"/>
     </row>
     <row r="66" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A66" s="60"/>
+      <c r="A66" s="59"/>
       <c r="B66" s="29" t="s">
         <v>57</v>
       </c>
@@ -47522,22 +47354,22 @@
         <v>46</v>
       </c>
       <c r="D66" s="36" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="E66" s="29"/>
       <c r="F66" s="36" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="G66" s="36" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="H66" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="I66" s="60"/>
+      <c r="I66" s="59"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="60"/>
+      <c r="A67" s="59"/>
       <c r="B67" s="27" t="s">
         <v>57</v>
       </c>
@@ -47545,58 +47377,58 @@
         <v>70</v>
       </c>
       <c r="D67" s="37" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="E67" s="27" t="s">
         <v>39</v>
       </c>
       <c r="F67" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="G67" s="80" t="s">
-        <v>210</v>
+        <v>186</v>
+      </c>
+      <c r="G67" s="79" t="s">
+        <v>196</v>
       </c>
       <c r="H67" s="26"/>
-      <c r="I67" s="60"/>
+      <c r="I67" s="59"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="60"/>
+      <c r="A68" s="59"/>
       <c r="B68" s="22"/>
       <c r="C68" s="22"/>
       <c r="D68" s="38"/>
       <c r="E68" s="22" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F68" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="G68" s="81"/>
+        <v>185</v>
+      </c>
+      <c r="G68" s="80"/>
       <c r="H68" s="21"/>
-      <c r="I68" s="60"/>
+      <c r="I68" s="59"/>
     </row>
     <row r="69" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A69" s="60"/>
+      <c r="A69" s="59"/>
       <c r="B69" s="27" t="s">
         <v>57</v>
       </c>
       <c r="C69" s="22" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D69" s="38" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="E69" s="29"/>
       <c r="F69" s="36" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="G69" s="38" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="H69" s="21"/>
-      <c r="I69" s="60"/>
+      <c r="I69" s="59"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="60"/>
+      <c r="A70" s="59"/>
       <c r="B70" s="27" t="s">
         <v>57</v>
       </c>
@@ -47604,35 +47436,35 @@
         <v>27</v>
       </c>
       <c r="D70" s="37" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F70" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="G70" s="82" t="s">
-        <v>210</v>
+        <v>189</v>
+      </c>
+      <c r="G70" s="81" t="s">
+        <v>196</v>
       </c>
       <c r="H70" s="26"/>
-      <c r="I70" s="60"/>
+      <c r="I70" s="59"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="60"/>
+      <c r="A71" s="59"/>
       <c r="B71" s="22"/>
       <c r="C71" s="22"/>
       <c r="D71" s="38"/>
       <c r="E71" s="22" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F71" s="38"/>
-      <c r="G71" s="83"/>
+      <c r="G71" s="82"/>
       <c r="H71" s="21"/>
-      <c r="I71" s="60"/>
+      <c r="I71" s="59"/>
     </row>
     <row r="72" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A72" s="60"/>
+      <c r="A72" s="59"/>
       <c r="B72" s="4" t="s">
         <v>57</v>
       </c>
@@ -47640,174 +47472,174 @@
         <v>69</v>
       </c>
       <c r="D72" s="39" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="E72" s="27" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="F72" s="39" t="s">
-        <v>237</v>
-      </c>
-      <c r="G72" s="80" t="s">
-        <v>210</v>
-      </c>
-      <c r="I72" s="60"/>
+        <v>217</v>
+      </c>
+      <c r="G72" s="79" t="s">
+        <v>196</v>
+      </c>
+      <c r="I72" s="59"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="60"/>
+      <c r="A73" s="59"/>
       <c r="E73" s="4" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="F73" s="39" t="s">
-        <v>238</v>
-      </c>
-      <c r="G73" s="65"/>
-      <c r="I73" s="60"/>
+        <v>218</v>
+      </c>
+      <c r="G73" s="67"/>
+      <c r="I73" s="59"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="60"/>
+      <c r="A74" s="59"/>
       <c r="E74" s="4" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="F74" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="G74" s="65"/>
-      <c r="I74" s="60"/>
+        <v>216</v>
+      </c>
+      <c r="G74" s="67"/>
+      <c r="I74" s="59"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="60"/>
+      <c r="A75" s="59"/>
       <c r="B75" s="22"/>
       <c r="C75" s="22"/>
       <c r="D75" s="38"/>
       <c r="E75" s="22" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="F75" s="38" t="s">
-        <v>235</v>
-      </c>
-      <c r="G75" s="81"/>
+        <v>215</v>
+      </c>
+      <c r="G75" s="80"/>
       <c r="H75" s="21"/>
-      <c r="I75" s="60"/>
+      <c r="I75" s="59"/>
     </row>
     <row r="76" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A76" s="60"/>
+      <c r="A76" s="59"/>
       <c r="B76" s="29" t="s">
         <v>57</v>
       </c>
       <c r="C76" s="22" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D76" s="38" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="E76" s="22"/>
       <c r="F76" s="36" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="G76" s="38" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="H76" s="21"/>
-      <c r="I76" s="60"/>
+      <c r="I76" s="59"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="60"/>
+      <c r="A77" s="59"/>
       <c r="B77" s="22" t="s">
         <v>59</v>
       </c>
       <c r="C77" s="22" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D77" s="38" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E77" s="22"/>
       <c r="F77" s="36" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="G77" s="22" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="H77" s="32"/>
-      <c r="I77" s="60"/>
+      <c r="I77" s="59"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="60"/>
+      <c r="A78" s="59"/>
       <c r="B78" s="29" t="s">
         <v>59</v>
       </c>
       <c r="C78" s="29" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D78" s="36" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E78" s="29"/>
       <c r="F78" s="36" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="G78" s="29" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="H78" s="28"/>
-      <c r="I78" s="60"/>
+      <c r="I78" s="59"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="60"/>
+      <c r="A79" s="59"/>
       <c r="B79" s="29" t="s">
         <v>59</v>
       </c>
       <c r="C79" s="29" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D79" s="36" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E79" s="29"/>
       <c r="F79" s="36" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="G79" s="29" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="H79" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="I79" s="60"/>
+        <v>95</v>
+      </c>
+      <c r="I79" s="59"/>
     </row>
     <row r="80" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A80" s="60"/>
+      <c r="A80" s="59"/>
       <c r="B80" s="44" t="s">
         <v>59</v>
       </c>
       <c r="C80" s="44" t="s">
-        <v>171</v>
+        <v>279</v>
       </c>
       <c r="D80" s="38" t="s">
-        <v>207</v>
+        <v>280</v>
       </c>
       <c r="E80" s="22"/>
       <c r="F80" s="36" t="s">
-        <v>209</v>
+        <v>282</v>
       </c>
       <c r="G80" s="43" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="H80" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="I80" s="60"/>
+        <v>281</v>
+      </c>
+      <c r="I80" s="59"/>
     </row>
     <row r="81" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="60"/>
-      <c r="B81" s="61"/>
-      <c r="C81" s="61"/>
-      <c r="D81" s="62"/>
-      <c r="E81" s="61"/>
-      <c r="F81" s="62"/>
-      <c r="G81" s="62"/>
-      <c r="H81" s="60"/>
+      <c r="A81" s="59"/>
+      <c r="B81" s="60"/>
+      <c r="C81" s="60"/>
+      <c r="D81" s="61"/>
+      <c r="E81" s="60"/>
+      <c r="F81" s="61"/>
+      <c r="G81" s="61"/>
+      <c r="H81" s="59"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:H80" xr:uid="{6F42B86B-1E1B-4BC7-A1AC-69908067C16A}"/>
@@ -47851,16 +47683,16 @@
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" zoomScalePageLayoutView="88" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" zoomScalePageLayoutView="88" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.59765625" customWidth="1"/>
     <col min="3" max="3" width="29.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.3984375" bestFit="1" customWidth="1"/>
@@ -47868,10 +47700,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="85"/>
+      <c r="B1" s="84"/>
     </row>
     <row r="2" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -47884,7 +47716,7 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:7" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -47900,7 +47732,7 @@
         <v>71</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -47918,10 +47750,10 @@
       <c r="E5" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="85" t="s">
-        <v>118</v>
-      </c>
-      <c r="B8" s="85"/>
+      <c r="A8" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="84"/>
       <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -48008,7 +47840,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B18" s="4">
         <v>2</v>
@@ -48017,10 +47849,10 @@
       <c r="G18" s="4"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="85" t="s">
+      <c r="A20" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="85"/>
+      <c r="B20" s="84"/>
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -48036,7 +47868,7 @@
         <v>30</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -48044,160 +47876,273 @@
         <v>31</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="4">
-        <v>10</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>117</v>
-      </c>
+      <c r="A25" s="4"/>
       <c r="B25" s="4"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
+      <c r="A26" s="84" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="84"/>
+      <c r="D26" s="6"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="85"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B28" s="4">
-        <v>10</v>
-      </c>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B29" s="4">
-        <v>5</v>
-      </c>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>133</v>
-      </c>
+      <c r="A30" s="84" t="s">
+        <v>299</v>
+      </c>
+      <c r="B30" s="84"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
+      <c r="A31" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="87" t="s">
-        <v>119</v>
-      </c>
-      <c r="B32" s="87"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
+      <c r="A32" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32" s="4">
+        <v>10</v>
+      </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>122</v>
-      </c>
-      <c r="B33">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B34" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="86" t="s">
+        <v>285</v>
+      </c>
+      <c r="B36" s="86"/>
+      <c r="C36" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37">
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>286</v>
+      </c>
+      <c r="B38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>74</v>
-      </c>
-      <c r="B34">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>76</v>
-      </c>
-      <c r="B35">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>75</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="86" t="s">
-        <v>120</v>
-      </c>
-      <c r="B38" s="86"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>121</v>
       </c>
       <c r="B39">
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>287</v>
+      </c>
+      <c r="B40" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>293</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="86" t="s">
+        <v>291</v>
+      </c>
+      <c r="B44" s="86"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>286</v>
+      </c>
+      <c r="B46">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>74</v>
       </c>
-      <c r="B40">
+      <c r="B47">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>287</v>
+      </c>
+      <c r="B49" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="85" t="s">
+        <v>290</v>
+      </c>
+      <c r="B51" s="85"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>117</v>
+      </c>
+      <c r="B52">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>286</v>
+      </c>
+      <c r="B53">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>76</v>
-      </c>
-      <c r="B41">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54">
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>77</v>
-      </c>
-      <c r="B42">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55">
         <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>287</v>
+      </c>
+      <c r="B56" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="A30:B30"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A51:B51"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A44:B44"/>
   </mergeCells>
-  <dataValidations count="4">
+  <dataValidations count="15">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3 H5 C9" xr:uid="{6A482B15-3B1C-4495-8EF5-99F2516B6988}">
       <formula1>#REF!</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the project" sqref="B2" xr:uid="{EE077631-4BC7-4D8E-A3AA-3BF6CC57DF66}"/>
     <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2" xr:uid="{A900CE2D-F91F-4E54-BA50-6333F5F34A60}"/>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please enter a non-negative integer value" sqref="B12:B18" xr:uid="{CD105F1A-D660-4715-9998-B5F2C0609C56}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please enter a non-negative integer value" prompt="Provide the number of EV DC/DC converters used" sqref="B18" xr:uid="{CD105F1A-D660-4715-9998-B5F2C0609C56}">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the total PV power installed in kiloWatts (kW)" sqref="B10" xr:uid="{978E4E38-9FA5-4BD8-A2A8-00119E4B9E94}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the total EV charging station size in kiloWatts (kW)" sqref="B11" xr:uid="{BAC21D1E-5AFF-4525-8DE5-3C1AB33FB7C3}"/>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please enter a non-negative integer value" prompt="Specify the number of voltage levels in the grid" sqref="B12" xr:uid="{B03A2ED4-F790-467E-9A35-006CB2924FBD}">
+      <formula1>0</formula1>
+      <formula2>1000</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please enter a non-negative integer value" prompt="Provide the number of AC/DC converters used" sqref="B13" xr:uid="{8A18BF1C-50B3-4EC6-AA32-E5BBD99F1905}">
+      <formula1>0</formula1>
+      <formula2>1000</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please enter a non-negative integer value" prompt="Provide the number of DC/AC converters used" sqref="B14" xr:uid="{5D6271FB-74D5-48EB-AF2E-3B74309D3487}">
+      <formula1>0</formula1>
+      <formula2>1000</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please enter a non-negative integer value" prompt="Provide the number of PDU DC/DC converters used" sqref="B15" xr:uid="{5A8FD316-DF9B-42BC-B527-BB1FB34E7206}">
+      <formula1>0</formula1>
+      <formula2>1000</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please enter a non-negative integer value" prompt="Provide the number of PV DC/DC converters used" sqref="B16" xr:uid="{4AD90601-D764-4F3C-B5DB-AF36133605E0}">
+      <formula1>0</formula1>
+      <formula2>1000</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please enter a non-negative integer value" prompt="Provide the number of storage DC/DC converters used" sqref="B17" xr:uid="{C0B53F21-2F97-4EBD-983F-36ED553D15B3}">
+      <formula1>0</formula1>
+      <formula2>1000</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the operation temperature in degrees Celsius (°C)" sqref="B21" xr:uid="{621E9E2C-1966-4421-BAAC-E285337B2514}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the security factor for sizing in percentage (%)" sqref="B31:B33" xr:uid="{662F2B8C-7A32-4F59-BBCD-1EAF8C14D435}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the expansion factor for sizing in percentage (%)" sqref="B34" xr:uid="{C7A8F5ED-B7CF-45EC-A603-65DDBAA539CB}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="82" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -48209,13 +48154,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0AC33A4A-9025-49F6-BBB0-37B86D081505}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose the conductor material type" xr:uid="{0AC33A4A-9025-49F6-BBB0-37B86D081505}">
           <x14:formula1>
             <xm:f>Glossary!$E$25:$E$26</xm:f>
           </x14:formula1>
           <xm:sqref>B22</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{754B0C02-7102-4557-8261-71F11C98DFC3}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose the conductor isolation type" xr:uid="{754B0C02-7102-4557-8261-71F11C98DFC3}">
           <x14:formula1>
             <xm:f>Glossary!$E$27:$E$28</xm:f>
           </x14:formula1>
@@ -48245,11 +48190,11 @@
           </x14:formula1>
           <xm:sqref>B9</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9BF5F348-1695-4E12-9496-16541B001C25}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select &quot;Yes&quot; if SSCB losses are considered, &quot;No&quot; otherwise" xr:uid="{9BF5F348-1695-4E12-9496-16541B001C25}">
           <x14:formula1>
             <xm:f>Glossary!$E$33:$E$34</xm:f>
           </x14:formula1>
-          <xm:sqref>B30</xm:sqref>
+          <xm:sqref>B27:B29</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -48264,26 +48209,26 @@
   </sheetPr>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.69921875" style="10" customWidth="1"/>
     <col min="2" max="2" width="10.8984375" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.69921875" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.796875" style="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.69921875" style="18" customWidth="1"/>
     <col min="5" max="5" width="11.8984375" style="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.69921875" style="19" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.09765625" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.69921875" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.796875" style="18" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5" style="18" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="11.3984375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>12</v>
       </c>
@@ -48291,22 +48236,22 @@
         <v>24</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>13</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>217</v>
+        <v>276</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>29</v>
@@ -48349,11 +48294,11 @@
         <v>700</v>
       </c>
       <c r="E3" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H3" s="1">
         <v>4</v>
@@ -48365,7 +48310,7 @@
         <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2">
         <v>5</v>
@@ -48373,14 +48318,10 @@
       <c r="D4" s="1">
         <v>700</v>
       </c>
-      <c r="E4" s="2">
-        <v>30</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1000</v>
-      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
       <c r="G4" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H4" s="2">
         <v>6</v>
@@ -48392,7 +48333,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2">
         <v>7</v>
@@ -48405,7 +48346,7 @@
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H5" s="2">
         <v>11</v>
@@ -48417,7 +48358,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C6" s="2">
         <v>9</v>
@@ -48430,7 +48371,7 @@
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H6" s="2">
         <v>11</v>
@@ -48472,11 +48413,11 @@
         <v>400</v>
       </c>
       <c r="E8" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H8" s="2">
         <v>23</v>
@@ -48560,7 +48501,7 @@
         <v>350</v>
       </c>
       <c r="E12" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="1"/>
@@ -48581,7 +48522,7 @@
         <v>350</v>
       </c>
       <c r="E13" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="1"/>
@@ -48611,28 +48552,48 @@
     <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:H34" xr:uid="{804CF21E-C353-4454-9B0E-05956E676815}"/>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{87D41A8A-B7E0-4C23-A4B4-5C3476B64083}">
+  <phoneticPr fontId="8" type="noConversion"/>
+  <dataValidations xWindow="834" yWindow="350" count="13">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14:C1048576" xr:uid="{87D41A8A-B7E0-4C23-A4B4-5C3476B64083}">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A35:B1048576 C2:C1048576" xr:uid="{67714409-184E-42C6-BF23-2F5F79EA82DF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A35:B1048576 C14:C1048576" xr:uid="{67714409-184E-42C6-BF23-2F5F79EA82DF}">
       <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Assign a unique identifier to each node of the grid" sqref="C2:C13" xr:uid="{44E61ACE-CE6C-40A1-A840-A8282D4EAD6B}">
+      <formula1>0</formula1>
+      <formula2>1000</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Assign a unique identifier to each node of the grid" sqref="C1" xr:uid="{C944422E-27C3-4BA2-9A44-CE59FCCA64BD}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose the asset type" sqref="A1" xr:uid="{F0B1DBD1-A6F0-4A49-B0AF-80BCB836758F}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose the node type: V for the assets &quot;AC grid&quot;, P for the assets &quot;DC load&quot;, &quot;AC load&quot;, storage for the assets &quot;Storage&quot;, &quot;EV&quot;, and gen for the asset &quot;PV&quot;" sqref="B1" xr:uid="{43E78A6E-6ED1-4696-ADC3-CBCF8FA32539}"/>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Assign a unique identifier to each node of the grid" sqref="C2:C13" xr:uid="{9CBF80FB-F434-4B12-ADCB-6382A1B455DE}">
+      <formula1>0</formula1>
+      <formula2>10000</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the operating nominal voltage level for all node types" sqref="D1 D2:D13" xr:uid="{49B2F3FF-8A45-403E-81CA-D5147119B155}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the maximum power (non-negative for consumption and generation) in kilowatts if the node type is P, storage or gen, otherwise leave empty. " sqref="E1 E2:E13" xr:uid="{5201E93D-792F-4158-BD95-8C7F8A99D0C8}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the storage capacity in kilowatt-hours if the node type is storage, otherwise leave empty" sqref="F1 F2:F13" xr:uid="{11F5BC60-E48F-4A32-9105-B6224F41F4B9}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="If the node is linked direclty to a converter, provide the name of this converter following this: Conv_X where X∈[1,m], with m=total number of converters in the grid_x000a_Otherwise leave empty" sqref="G1:G13" xr:uid="{B996EBBF-B69A-41B7-AC00-C8E66CA296E1}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Assign a unique identifier to each converter" sqref="H1" xr:uid="{C1AC1EF0-DB87-48A8-961F-2CF2249E3998}"/>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Assign a unique identifier to each converter" sqref="H2:H13" xr:uid="{FD5AD164-C639-4CA7-8E59-88E7ACCC3A2F}">
+      <formula1>0</formula1>
+      <formula2>10000</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4BF5972B-EC41-4FEC-84D0-F6BA53E0988C}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="834" yWindow="350" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose the asset type" xr:uid="{4BF5972B-EC41-4FEC-84D0-F6BA53E0988C}">
           <x14:formula1>
             <xm:f>Glossary!$E$36:$E$41</xm:f>
           </x14:formula1>
-          <xm:sqref>A1:A13</xm:sqref>
+          <xm:sqref>A2:A13</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7745034A-3FFE-4B1F-8466-3449F5DC35D6}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose the node type: V for the assets &quot;AC grid&quot;, P for the assets &quot;DC load&quot;, &quot;AC load&quot;, storage for the assets &quot;Storage&quot;, &quot;EV&quot;, and gen for the asset &quot;PV&quot;" xr:uid="{7745034A-3FFE-4B1F-8466-3449F5DC35D6}">
           <x14:formula1>
             <xm:f>Glossary!$E$43:$E$46</xm:f>
           </x14:formula1>
@@ -48647,49 +48608,47 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA95C75-007C-4C1A-8654-C87E758B33B3}">
   <sheetPr>
-    <tabColor theme="4" tint="0.79998168889431442"/>
+    <tabColor theme="5" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.3984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.59765625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.69921875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="28.69921875" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.8984375" style="10" customWidth="1"/>
+    <col min="2" max="3" width="13" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.69921875" style="10" customWidth="1"/>
+    <col min="5" max="6" width="17.59765625" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.09765625" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.19921875" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.19921875" style="10" customWidth="1"/>
     <col min="10" max="10" width="19.8984375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.19921875" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.59765625" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>38</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>35</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>187</v>
+        <v>277</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>46</v>
@@ -48698,7 +48657,7 @@
         <v>70</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>233</v>
+        <v>118</v>
       </c>
       <c r="J1" s="14" t="s">
         <v>27</v>
@@ -48707,7 +48666,7 @@
         <v>69</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
@@ -48723,7 +48682,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="E2" s="1">
         <v>400</v>
@@ -48731,28 +48690,26 @@
       <c r="F2" s="1">
         <v>700</v>
       </c>
-      <c r="G2" s="15">
-        <v>10000</v>
-      </c>
+      <c r="G2" s="15"/>
       <c r="H2" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>290</v>
+        <v>39</v>
+      </c>
+      <c r="I2" s="63" t="s">
+        <v>294</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>290</v>
+        <v>212</v>
+      </c>
+      <c r="L2" s="63" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B3" s="1">
         <f>'Assets Nodes'!C3</f>
@@ -48762,7 +48719,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="1">
@@ -48772,20 +48729,20 @@
       <c r="H3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="15" t="s">
-        <v>290</v>
+      <c r="I3" s="63" t="s">
+        <v>294</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="L3" s="15"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B4" s="1">
         <f>'Assets Nodes'!C4</f>
@@ -48795,7 +48752,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="1">
@@ -48805,20 +48762,20 @@
       <c r="H4" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="15" t="s">
-        <v>290</v>
+      <c r="I4" s="63" t="s">
+        <v>294</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="L4" s="15"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B5" s="1">
         <v>7</v>
@@ -48827,7 +48784,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="1">
@@ -48837,20 +48794,20 @@
       <c r="H5" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="15" t="s">
-        <v>290</v>
+      <c r="I5" s="63" t="s">
+        <v>294</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="L5" s="15"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B6" s="1">
         <v>9</v>
@@ -48859,7 +48816,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="1">
@@ -48869,20 +48826,20 @@
       <c r="H6" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="15" t="s">
-        <v>290</v>
+      <c r="I6" s="63" t="s">
+        <v>294</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="L6" s="15"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B7" s="1">
         <v>13</v>
@@ -48893,7 +48850,9 @@
       <c r="D7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2">
+        <v>400</v>
+      </c>
       <c r="F7" s="1">
         <v>700</v>
       </c>
@@ -48901,20 +48860,20 @@
       <c r="H7" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="15" t="s">
-        <v>290</v>
+      <c r="I7" s="63" t="s">
+        <v>294</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="L7" s="15"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B8" s="1">
         <v>16</v>
@@ -48923,7 +48882,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="E8" s="2">
         <v>48</v>
@@ -48935,20 +48894,20 @@
       <c r="H8" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="15" t="s">
-        <v>290</v>
+      <c r="I8" s="63" t="s">
+        <v>294</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="L8" s="15"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B9" s="1">
         <v>21</v>
@@ -48957,7 +48916,7 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="E9" s="2">
         <v>350</v>
@@ -48969,24 +48928,36 @@
       <c r="H9" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="15" t="s">
-        <v>290</v>
+      <c r="I9" s="63" t="s">
+        <v>294</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="L9" s="15"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K1" xr:uid="{6EA95C75-007C-4C1A-8654-C87E758B33B3}"/>
-  <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C9" xr:uid="{35501E21-23C8-4EFE-B555-5ABCA02AE8FE}">
+  <dataValidations count="10">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the DC grid-side or higher voltage bus side (ending node of the converter connection)" sqref="C2:C9" xr:uid="{35501E21-23C8-4EFE-B555-5ABCA02AE8FE}">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Provide the name of the converter: Conv_X where X∈[1,m], with m=total number of converters in the grid" sqref="A1 A2:A9" xr:uid="{92DA2E92-9BAF-4DCB-B968-293FEB1CA683}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the asset-side or lower voltage bus side (starting node of the converter connection)" sqref="B1" xr:uid="{BFF4FFFE-A271-4C6F-9BB8-7EEB3B11C4E5}"/>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the asset-side or lower voltage bus side (starting node of the converter connection)" sqref="B2:B9" xr:uid="{84781552-34B6-4632-A0FA-FA8531151888}">
+      <formula1>0</formula1>
+      <formula2>1000</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the DC grid-side or higher voltage bus side (ending node of the converter connection)" sqref="C1" xr:uid="{3BF40D17-796C-4178-A42B-A458598A3635}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the voltage level in Volts on the asset side or lower voltage bus (voltage of node_i)" sqref="E1 E2:E9" xr:uid="{C0DE6548-F4A4-4437-B45B-C1B4C50BC8C3}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the voltage level in Volts on the DC grid side or higher voltage bus (voltage of node_j)" sqref="F1 F2:F9" xr:uid="{CA8A52CE-BEB7-43AE-9E43-8973B6AF90C6}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the nominal power in kiloWatts of the converter if already sized/fixed, otherwise the tool will determine the nomial power of the converter" sqref="G1 G2:G9" xr:uid="{7F4768D6-9993-4393-96EE-458CD48D8977}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the efficiency curve, if &quot;user-defined&quot; is chosen, as follows: [Xi;Yi], i={1,2,3,4}, with X= Factor of Nominal Power (%), Y=Efficiency (%)" sqref="I1" xr:uid="{355B32F2-1574-412B-893F-008AF9EACEFD}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the droop curve, if &quot;user-defined&quot; is chosen, as follows: [Vi;Pi], i={1,2,3,4,5,6}, with V=Asset voltage value (p.u.), P=Asset power value (p.u.)" sqref="L1 L3:L9" xr:uid="{42E98D2E-53D0-4D55-8457-7C680BFFAD86}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -48994,14 +48965,14 @@
   <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5DC1F66F-17B2-416A-BC3A-19C6491E4C8B}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select the converter type from the proposed list" xr:uid="{5DC1F66F-17B2-416A-BC3A-19C6491E4C8B}">
           <x14:formula1>
             <xm:f>Glossary!$E$56:$E$63</xm:f>
           </x14:formula1>
           <xm:sqref>D1:D9</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8C996FD7-C814-40FE-9FF2-40716467DE61}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose the efficiency curve type: &quot;default&quot; for a constructor default efficiency curve per converter type, &quot;user-defined&quot; for a user-defined efficiency curve" xr:uid="{8C996FD7-C814-40FE-9FF2-40716467DE61}">
           <x14:formula1>
             <xm:f>Glossary!$E$67:$E$68</xm:f>
           </x14:formula1>
@@ -49011,13 +48982,19 @@
           <x14:formula1>
             <xm:f>Glossary!$E$70:$E$71</xm:f>
           </x14:formula1>
-          <xm:sqref>J1:J9</xm:sqref>
+          <xm:sqref>J2:J9</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{205689B3-AD8B-4B4A-B8AA-73F04A8C81AA}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose the droop curve type for each converter" xr:uid="{205689B3-AD8B-4B4A-B8AA-73F04A8C81AA}">
           <x14:formula1>
             <xm:f>Glossary!$E$72:$E$75</xm:f>
           </x14:formula1>
           <xm:sqref>K1:K9</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose the appropriate voltage control mode for each converter" xr:uid="{67503E9B-4F7C-4D04-A767-3C4C6BF68BBB}">
+          <x14:formula1>
+            <xm:f>Glossary!$E$70:$E$71</xm:f>
+          </x14:formula1>
+          <xm:sqref>J1</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -49026,18 +49003,18 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5" style="10" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="10" bestFit="1" customWidth="1"/>
@@ -49045,7 +49022,7 @@
     <col min="4" max="4" width="18" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -49053,16 +49030,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>173</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>292</v>
-      </c>
-      <c r="E1" t="s">
-        <v>293</v>
+        <v>165</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>278</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -49073,9 +49047,8 @@
         <v>100</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="64"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -49087,7 +49060,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -49099,7 +49072,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -49111,7 +49084,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -49123,7 +49096,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -49135,7 +49108,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -49147,85 +49120,85 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>15</v>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>14</v>
       </c>
       <c r="B9" s="8">
         <v>16</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="1">
         <v>100</v>
       </c>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="8">
-        <v>21</v>
-      </c>
-      <c r="C10" s="8">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1">
         <v>100</v>
       </c>
       <c r="D10" s="9"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="8">
         <v>21</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="1">
         <v>100</v>
       </c>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="8">
-        <v>20</v>
-      </c>
-      <c r="C12" s="8">
+        <v>21</v>
+      </c>
+      <c r="C12" s="1">
         <v>100</v>
       </c>
       <c r="D12" s="9"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>19</v>
+      </c>
+      <c r="B13" s="8">
         <v>20</v>
       </c>
-      <c r="B13" s="1">
+      <c r="C13" s="1">
+        <v>100</v>
+      </c>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1">
         <v>21</v>
       </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2"/>
+      <c r="C14" s="1">
+        <v>100</v>
+      </c>
+      <c r="D14" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="64">
-        <v>14</v>
-      </c>
-      <c r="B14" s="64">
-        <v>16</v>
-      </c>
-      <c r="C14" s="64">
-        <v>100</v>
-      </c>
-      <c r="D14"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="64"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
       <c r="D15"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -49298,123 +49271,137 @@
       <c r="D27"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
     </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <dataValidations count="6">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the resistance of the line in ohms per meters if already sized, otherwise the tool will size each cable " sqref="D1:D14" xr:uid="{7D2C384E-9E8C-464E-9021-98079FD99E6D}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the starting node of the line connection" sqref="A1" xr:uid="{8221C3CB-3351-40EE-988A-0D4B3FCD3E68}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the ending node of the line connection" sqref="B1" xr:uid="{8F09B62E-7CD4-46FD-BB21-77280F5E3E46}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the length of the line connecting Node_i and Node_j in meters" sqref="C1:C14" xr:uid="{F0A6EC5F-9457-4061-831A-06A82F0EB214}"/>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the starting node of the line connection" sqref="A2:A14" xr:uid="{D46F0B51-AA14-41C3-BAA6-3DCD0B4E9ADA}">
+      <formula1>0</formula1>
+      <formula2>10000</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the ending node of the line connection" sqref="B2:B14" xr:uid="{7BD6309B-D3A2-4CB1-A78E-5EDEAD8B0FA7}">
+      <formula1>0</formula1>
+      <formula2>10000</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC94C54-E50E-4CC5-AD84-94C9ADC35342}">
-  <dimension ref="A1:F10"/>
+  <sheetPr>
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.69921875" customWidth="1"/>
     <col min="3" max="6" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>224</v>
-      </c>
-      <c r="B1" s="46">
-        <v>0</v>
-      </c>
-      <c r="C1" s="46">
-        <v>1</v>
-      </c>
-      <c r="D1" s="46">
-        <v>2</v>
-      </c>
-      <c r="E1" s="46">
-        <v>3</v>
-      </c>
-      <c r="F1" s="46">
-        <v>4</v>
+      <c r="A1" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>295</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>297</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="C2" s="45" t="s">
-        <v>226</v>
-      </c>
-      <c r="D2" s="45" t="s">
-        <v>226</v>
-      </c>
-      <c r="E2" s="45" t="s">
-        <v>226</v>
-      </c>
-      <c r="F2" s="45" t="s">
-        <v>226</v>
-      </c>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>220</v>
+        <v>87</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -49426,7 +49413,7 @@
         <v>89</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -49435,10 +49422,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -49447,10 +49434,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -49459,10 +49446,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -49471,10 +49458,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>207</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -49483,29 +49470,24 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
   </sheetData>
+  <dataValidations count="5">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the droop curve index 1, as follows: [Vi;Pi], i={1,2,3,4,5,6}, with V=Asset voltage value (p.u.), P=Asset power value (p.u.)" sqref="C1:C9" xr:uid="{B21BD030-2940-4E8D-BAC4-20C90C0349A0}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the default droop curve index 0, as follows: [Vi;Pi], i={1,2,3,4,5,6}, with V=Asset voltage value (p.u.), P=Asset power value (p.u.)" sqref="B1:B9" xr:uid="{6A38DD94-D4A2-43C1-8B58-060D7FB8F2C7}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the droop curve index 2, as follows: [Vi;Pi], i={1,2,3,4,5,6}, with V=Asset voltage value (p.u.), P=Asset power value (p.u.)" sqref="D1:D9" xr:uid="{04EA2867-C584-410B-9F91-945740F87AD4}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the droop curve index 3, as follows: [Vi;Pi], i={1,2,3,4,5,6}, with V=Asset voltage value (p.u.), P=Asset power value (p.u.)" sqref="E1:E9" xr:uid="{D6C1814A-03D4-418C-8AD4-0957E2D8131F}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the droop curve index 4, as follows: [Vi;Pi], i={1,2,3,4,5,6}, with V=Asset voltage value (p.u.), P=Asset power value (p.u.)" sqref="F1:F9" xr:uid="{8FDEA274-DFE4-459D-A2A7-343BED09B01B}"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -49514,7 +49496,7 @@
           <x14:formula1>
             <xm:f>Glossary!$E$56:$E$63</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A10</xm:sqref>
+          <xm:sqref>A1:A9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -49758,6 +49740,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="a656bf76-cca4-4796-b3e3-9ff4debad9ca">
@@ -49766,15 +49757,6 @@
     <TaxCatchAll xmlns="3f4d043c-ef99-408b-9086-307465b47223" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -49797,26 +49779,26 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D351F7AA-766C-4547-802C-9F4B7AB5F83E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80A89352-0353-48F1-9429-0E3BD72B2E30}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="3f4d043c-ef99-408b-9086-307465b47223"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a656bf76-cca4-4796-b3e3-9ff4debad9ca"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80A89352-0353-48F1-9429-0E3BD72B2E30}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D351F7AA-766C-4547-802C-9F4B7AB5F83E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a656bf76-cca4-4796-b3e3-9ff4debad9ca"/>
+    <ds:schemaRef ds:uri="3f4d043c-ef99-408b-9086-307465b47223"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/grid_data_input_file_WIP_v1.xlsx
+++ b/grid_data_input_file_WIP_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c30483\Documents\dc_design_tool\dc_design_tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799F50D2-8745-4EA0-9EA8-4D9BF7A3C292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5249EB1-373F-451A-A357-5B49410D98C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23196" yWindow="10692" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1661,29 +1661,23 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -1697,11 +1691,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2448,8 +2448,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2865966" y="3837460"/>
-          <a:ext cx="389297" cy="323457"/>
+          <a:off x="2877396" y="3759355"/>
+          <a:ext cx="391202" cy="317742"/>
           <a:chOff x="3573269" y="3601319"/>
           <a:chExt cx="424926" cy="329094"/>
         </a:xfrm>
@@ -2715,8 +2715,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2865966" y="2986499"/>
-          <a:ext cx="389297" cy="318643"/>
+          <a:off x="2877396" y="2923634"/>
+          <a:ext cx="391202" cy="312928"/>
           <a:chOff x="3573269" y="3601319"/>
           <a:chExt cx="424926" cy="329094"/>
         </a:xfrm>
@@ -3439,8 +3439,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2866797" y="1785849"/>
-          <a:ext cx="389297" cy="323457"/>
+          <a:off x="2878227" y="1745844"/>
+          <a:ext cx="391202" cy="319647"/>
           <a:chOff x="3573269" y="3601319"/>
           <a:chExt cx="424926" cy="329094"/>
         </a:xfrm>
@@ -3761,8 +3761,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2865966" y="4702230"/>
-          <a:ext cx="389297" cy="323457"/>
+          <a:off x="2877396" y="4601265"/>
+          <a:ext cx="391202" cy="319647"/>
           <a:chOff x="3573269" y="3601319"/>
           <a:chExt cx="424926" cy="329094"/>
         </a:xfrm>
@@ -7440,8 +7440,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5017782" y="1450175"/>
-          <a:ext cx="1424674" cy="749765"/>
+          <a:off x="5034927" y="1421600"/>
+          <a:ext cx="1436104" cy="728810"/>
           <a:chOff x="5974842" y="1887551"/>
           <a:chExt cx="1550251" cy="767591"/>
         </a:xfrm>
@@ -9187,8 +9187,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5665719" y="2946564"/>
-          <a:ext cx="385489" cy="323455"/>
+          <a:off x="5692389" y="2883699"/>
+          <a:ext cx="385489" cy="317740"/>
           <a:chOff x="3573266" y="3601319"/>
           <a:chExt cx="424929" cy="329093"/>
         </a:xfrm>
@@ -20926,8 +20926,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="0" y="563879"/>
-          <a:ext cx="11123295" cy="5490211"/>
+          <a:off x="0" y="552449"/>
+          <a:ext cx="11170920" cy="5368291"/>
           <a:chOff x="335486" y="881826"/>
           <a:chExt cx="12151247" cy="5595213"/>
         </a:xfrm>
@@ -45590,16 +45590,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="50"/>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
       <c r="D1" s="50"/>
     </row>
     <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="50"/>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="72" t="s">
         <v>267</v>
       </c>
-      <c r="C2" s="74"/>
+      <c r="C2" s="72"/>
       <c r="D2" s="50"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -45608,18 +45608,18 @@
     </row>
     <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="50"/>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="71" t="s">
         <v>254</v>
       </c>
-      <c r="C4" s="73"/>
+      <c r="C4" s="71"/>
       <c r="D4" s="50"/>
     </row>
     <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="50"/>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="70" t="s">
         <v>255</v>
       </c>
-      <c r="C5" s="72"/>
+      <c r="C5" s="70"/>
       <c r="D5" s="50"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -45632,70 +45632,70 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="50"/>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="75" t="s">
         <v>224</v>
       </c>
-      <c r="C8" s="65"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="50"/>
     </row>
     <row r="9" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="50"/>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="73" t="s">
         <v>223</v>
       </c>
-      <c r="C9" s="75"/>
+      <c r="C9" s="73"/>
       <c r="D9" s="50"/>
     </row>
     <row r="10" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="50"/>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="73" t="s">
         <v>222</v>
       </c>
-      <c r="C10" s="75"/>
+      <c r="C10" s="73"/>
       <c r="D10" s="50"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="50"/>
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="76" t="s">
         <v>226</v>
       </c>
-      <c r="C11" s="66"/>
+      <c r="C11" s="76"/>
       <c r="D11" s="50"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="50"/>
-      <c r="B12" s="75" t="s">
+      <c r="B12" s="73" t="s">
         <v>227</v>
       </c>
-      <c r="C12" s="75"/>
+      <c r="C12" s="73"/>
       <c r="D12" s="50"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="50"/>
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="64" t="s">
         <v>228</v>
       </c>
-      <c r="C13" s="67"/>
+      <c r="C13" s="64"/>
       <c r="D13" s="55"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="50"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
       <c r="D14" s="56"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="50"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="67"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
       <c r="D15" s="50"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="50"/>
-      <c r="B16" s="65" t="s">
+      <c r="B16" s="75" t="s">
         <v>225</v>
       </c>
-      <c r="C16" s="65"/>
+      <c r="C16" s="75"/>
       <c r="D16" s="57"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -45760,14 +45760,14 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="50"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="67"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
       <c r="D23" s="50"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="50"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
       <c r="D24" s="50"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -45780,42 +45780,42 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="50"/>
-      <c r="B26" s="70" t="s">
+      <c r="B26" s="69" t="s">
         <v>232</v>
       </c>
-      <c r="C26" s="70"/>
+      <c r="C26" s="69"/>
       <c r="D26" s="50"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="50"/>
-      <c r="B27" s="67" t="s">
+      <c r="B27" s="64" t="s">
         <v>231</v>
       </c>
-      <c r="C27" s="67"/>
+      <c r="C27" s="64"/>
       <c r="D27" s="50"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="50"/>
-      <c r="B28" s="77" t="s">
+      <c r="B28" s="66" t="s">
         <v>230</v>
       </c>
-      <c r="C28" s="77"/>
+      <c r="C28" s="66"/>
       <c r="D28" s="50"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="50"/>
-      <c r="B29" s="76" t="s">
+      <c r="B29" s="65" t="s">
         <v>234</v>
       </c>
-      <c r="C29" s="76"/>
+      <c r="C29" s="65"/>
       <c r="D29" s="50"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="50"/>
-      <c r="B30" s="67" t="s">
+      <c r="B30" s="64" t="s">
         <v>256</v>
       </c>
-      <c r="C30" s="67"/>
+      <c r="C30" s="64"/>
       <c r="D30" s="50"/>
       <c r="F30" t="s">
         <v>253</v>
@@ -45823,26 +45823,26 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="50"/>
-      <c r="B31" s="67" t="s">
+      <c r="B31" s="64" t="s">
         <v>257</v>
       </c>
-      <c r="C31" s="67"/>
+      <c r="C31" s="64"/>
       <c r="D31" s="50"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="50"/>
-      <c r="B32" s="77" t="s">
+      <c r="B32" s="66" t="s">
         <v>258</v>
       </c>
-      <c r="C32" s="77"/>
+      <c r="C32" s="66"/>
       <c r="D32" s="50"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="50"/>
-      <c r="B33" s="67" t="s">
+      <c r="B33" s="64" t="s">
         <v>259</v>
       </c>
-      <c r="C33" s="67"/>
+      <c r="C33" s="64"/>
       <c r="D33" s="50"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -45851,190 +45851,190 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="50"/>
-      <c r="B35" s="70" t="s">
+      <c r="B35" s="69" t="s">
         <v>269</v>
       </c>
-      <c r="C35" s="70"/>
+      <c r="C35" s="69"/>
       <c r="D35" s="50"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="50"/>
-      <c r="B36" s="67" t="s">
+      <c r="B36" s="64" t="s">
         <v>233</v>
       </c>
-      <c r="C36" s="67"/>
+      <c r="C36" s="64"/>
       <c r="D36" s="50"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="50"/>
-      <c r="B37" s="67" t="s">
+      <c r="B37" s="64" t="s">
         <v>260</v>
       </c>
-      <c r="C37" s="67"/>
+      <c r="C37" s="64"/>
       <c r="D37" s="50"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="50"/>
-      <c r="B38" s="67" t="s">
+      <c r="B38" s="64" t="s">
         <v>261</v>
       </c>
-      <c r="C38" s="67"/>
+      <c r="C38" s="64"/>
       <c r="D38" s="50"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="50"/>
-      <c r="B39" s="67" t="s">
+      <c r="B39" s="64" t="s">
         <v>262</v>
       </c>
-      <c r="C39" s="67"/>
+      <c r="C39" s="64"/>
       <c r="D39" s="50"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="50"/>
-      <c r="B40" s="68" t="s">
+      <c r="B40" s="77" t="s">
         <v>235</v>
       </c>
-      <c r="C40" s="68"/>
+      <c r="C40" s="77"/>
       <c r="D40" s="50"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="50"/>
-      <c r="B41" s="67" t="s">
+      <c r="B41" s="64" t="s">
         <v>236</v>
       </c>
-      <c r="C41" s="67"/>
+      <c r="C41" s="64"/>
       <c r="D41" s="50"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="50"/>
-      <c r="B42" s="67" t="s">
+      <c r="B42" s="64" t="s">
         <v>237</v>
       </c>
-      <c r="C42" s="67"/>
+      <c r="C42" s="64"/>
       <c r="D42" s="50"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="50"/>
-      <c r="B43" s="67" t="s">
+      <c r="B43" s="64" t="s">
         <v>238</v>
       </c>
-      <c r="C43" s="67"/>
+      <c r="C43" s="64"/>
       <c r="D43" s="50"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="50"/>
-      <c r="B44" s="67"/>
-      <c r="C44" s="67"/>
+      <c r="B44" s="64"/>
+      <c r="C44" s="64"/>
       <c r="D44" s="50"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="50"/>
-      <c r="B45" s="70" t="s">
+      <c r="B45" s="69" t="s">
         <v>239</v>
       </c>
-      <c r="C45" s="70"/>
+      <c r="C45" s="69"/>
       <c r="D45" s="50"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="50"/>
-      <c r="B46" s="67" t="s">
+      <c r="B46" s="64" t="s">
         <v>240</v>
       </c>
-      <c r="C46" s="67"/>
+      <c r="C46" s="64"/>
       <c r="D46" s="50"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="50"/>
-      <c r="B47" s="69" t="s">
+      <c r="B47" s="67" t="s">
         <v>263</v>
       </c>
-      <c r="C47" s="67"/>
+      <c r="C47" s="64"/>
       <c r="D47" s="50"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="50"/>
-      <c r="B48" s="67" t="s">
+      <c r="B48" s="64" t="s">
         <v>244</v>
       </c>
-      <c r="C48" s="67"/>
+      <c r="C48" s="64"/>
       <c r="D48" s="50"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="50"/>
-      <c r="B49" s="69" t="s">
+      <c r="B49" s="67" t="s">
         <v>264</v>
       </c>
-      <c r="C49" s="67"/>
+      <c r="C49" s="64"/>
       <c r="D49" s="50"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="50"/>
-      <c r="B50" s="67" t="s">
+      <c r="B50" s="64" t="s">
         <v>243</v>
       </c>
-      <c r="C50" s="67"/>
+      <c r="C50" s="64"/>
       <c r="D50" s="50"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="50"/>
-      <c r="B51" s="69" t="s">
+      <c r="B51" s="67" t="s">
         <v>265</v>
       </c>
-      <c r="C51" s="67"/>
+      <c r="C51" s="64"/>
       <c r="D51" s="50"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="50"/>
-      <c r="B52" s="67" t="s">
+      <c r="B52" s="64" t="s">
         <v>242</v>
       </c>
-      <c r="C52" s="67"/>
+      <c r="C52" s="64"/>
       <c r="D52" s="50"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="50"/>
-      <c r="B53" s="69" t="s">
+      <c r="B53" s="67" t="s">
         <v>266</v>
       </c>
-      <c r="C53" s="67"/>
+      <c r="C53" s="64"/>
       <c r="D53" s="50"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="50"/>
-      <c r="B54" s="67" t="s">
+      <c r="B54" s="64" t="s">
         <v>241</v>
       </c>
-      <c r="C54" s="67"/>
+      <c r="C54" s="64"/>
       <c r="D54" s="50"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="50"/>
-      <c r="B55" s="67"/>
-      <c r="C55" s="67"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="64"/>
       <c r="D55" s="50"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="50"/>
-      <c r="B56" s="70" t="s">
+      <c r="B56" s="69" t="s">
         <v>250</v>
       </c>
-      <c r="C56" s="70"/>
+      <c r="C56" s="69"/>
       <c r="D56" s="50"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="50"/>
-      <c r="B57" s="67" t="s">
+      <c r="B57" s="64" t="s">
         <v>251</v>
       </c>
-      <c r="C57" s="67"/>
+      <c r="C57" s="64"/>
       <c r="D57" s="50"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="50"/>
-      <c r="B58" s="67" t="s">
+      <c r="B58" s="64" t="s">
         <v>252</v>
       </c>
-      <c r="C58" s="67"/>
+      <c r="C58" s="64"/>
       <c r="D58" s="50"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -46045,69 +46045,109 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="50"/>
-      <c r="B60" s="67"/>
-      <c r="C60" s="67"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="64"/>
       <c r="D60" s="50"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="50"/>
-      <c r="B61" s="70" t="s">
+      <c r="B61" s="69" t="s">
         <v>249</v>
       </c>
-      <c r="C61" s="70"/>
+      <c r="C61" s="69"/>
       <c r="D61" s="50"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="50"/>
-      <c r="B62" s="67" t="s">
+      <c r="B62" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="C62" s="67"/>
+      <c r="C62" s="64"/>
       <c r="D62" s="50"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="50"/>
-      <c r="B63" s="67" t="s">
+      <c r="B63" s="64" t="s">
         <v>246</v>
       </c>
-      <c r="C63" s="67"/>
+      <c r="C63" s="64"/>
       <c r="D63" s="50"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="50"/>
-      <c r="B64" s="67" t="s">
+      <c r="B64" s="64" t="s">
         <v>247</v>
       </c>
-      <c r="C64" s="67"/>
+      <c r="C64" s="64"/>
       <c r="D64" s="50"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="50"/>
-      <c r="B65" s="67" t="s">
+      <c r="B65" s="64" t="s">
         <v>248</v>
       </c>
-      <c r="C65" s="67"/>
+      <c r="C65" s="64"/>
       <c r="D65" s="50"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="50"/>
-      <c r="B66" s="64"/>
-      <c r="C66" s="64"/>
+      <c r="B66" s="74"/>
+      <c r="C66" s="74"/>
       <c r="D66" s="50"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B67" s="54"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B70" s="67"/>
-      <c r="C70" s="67"/>
+      <c r="B70" s="64"/>
+      <c r="C70" s="64"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B71" s="67"/>
-      <c r="C71" s="67"/>
+      <c r="B71" s="64"/>
+      <c r="C71" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B70:C70"/>
     <mergeCell ref="B71:C71"/>
     <mergeCell ref="B29:C29"/>
@@ -46124,46 +46164,6 @@
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -46321,7 +46321,7 @@
       <c r="E7" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G7" s="67"/>
+      <c r="G7" s="64"/>
       <c r="I7" s="59"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -46329,7 +46329,7 @@
       <c r="E8" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G8" s="67"/>
+      <c r="G8" s="64"/>
       <c r="I8" s="59"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -46409,7 +46409,7 @@
       <c r="E13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="67"/>
+      <c r="G13" s="64"/>
       <c r="I13" s="59"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -46905,7 +46905,7 @@
       <c r="E37" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="67"/>
+      <c r="G37" s="64"/>
       <c r="I37" s="59"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -46913,7 +46913,7 @@
       <c r="E38" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G38" s="67"/>
+      <c r="G38" s="64"/>
       <c r="I38" s="59"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -46921,7 +46921,7 @@
       <c r="E39" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="67"/>
+      <c r="G39" s="64"/>
       <c r="I39" s="59"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -46929,7 +46929,7 @@
       <c r="E40" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G40" s="67"/>
+      <c r="G40" s="64"/>
       <c r="I40" s="59"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -46997,7 +46997,7 @@
       <c r="F44" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="G44" s="67"/>
+      <c r="G44" s="64"/>
       <c r="I44" s="59"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -47008,7 +47008,7 @@
       <c r="F45" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="G45" s="67"/>
+      <c r="G45" s="64"/>
       <c r="I45" s="59"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -47243,7 +47243,7 @@
       <c r="E57" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="G57" s="67"/>
+      <c r="G57" s="64"/>
       <c r="I57" s="59"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -47251,7 +47251,7 @@
       <c r="E58" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G58" s="67"/>
+      <c r="G58" s="64"/>
       <c r="I58" s="59"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -47259,7 +47259,7 @@
       <c r="E59" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="G59" s="67"/>
+      <c r="G59" s="64"/>
       <c r="I59" s="59"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -47267,7 +47267,7 @@
       <c r="E60" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="G60" s="67"/>
+      <c r="G60" s="64"/>
       <c r="I60" s="59"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -47275,7 +47275,7 @@
       <c r="E61" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G61" s="67"/>
+      <c r="G61" s="64"/>
       <c r="I61" s="59"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -47283,7 +47283,7 @@
       <c r="E62" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G62" s="67"/>
+      <c r="G62" s="64"/>
       <c r="I62" s="59"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -47493,7 +47493,7 @@
       <c r="F73" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="G73" s="67"/>
+      <c r="G73" s="64"/>
       <c r="I73" s="59"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -47504,7 +47504,7 @@
       <c r="F74" s="39" t="s">
         <v>216</v>
       </c>
-      <c r="G74" s="67"/>
+      <c r="G74" s="64"/>
       <c r="I74" s="59"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -47686,7 +47686,7 @@
   <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" zoomScalePageLayoutView="88" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -48036,7 +48036,7 @@
         <v>75</v>
       </c>
       <c r="B48">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -48211,7 +48211,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -48438,7 +48438,7 @@
         <v>48</v>
       </c>
       <c r="E9" s="2">
-        <v>0.2</v>
+        <v>5</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="1"/>
@@ -48459,7 +48459,7 @@
         <v>48</v>
       </c>
       <c r="E10" s="2">
-        <v>0.1</v>
+        <v>7</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="1"/>
@@ -49011,7 +49011,7 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -49740,15 +49740,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="a656bf76-cca4-4796-b3e3-9ff4debad9ca">
@@ -49757,6 +49748,15 @@
     <TaxCatchAll xmlns="3f4d043c-ef99-408b-9086-307465b47223" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -49779,14 +49779,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80A89352-0353-48F1-9429-0E3BD72B2E30}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D351F7AA-766C-4547-802C-9F4B7AB5F83E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -49801,4 +49793,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80A89352-0353-48F1-9429-0E3BD72B2E30}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/grid_data_input_file_WIP_v1.xlsx
+++ b/grid_data_input_file_WIP_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c30483\Documents\dc_design_tool\dc_design_tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5249EB1-373F-451A-A357-5B49410D98C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A60D0CE-60A9-4E99-9B8A-33E16B7054C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23196" yWindow="10692" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="simple example" sheetId="20" r:id="rId1"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="301">
   <si>
     <t>Node_i</t>
   </si>
@@ -1227,6 +1227,9 @@
   <si>
     <t>Sizing factors</t>
   </si>
+  <si>
+    <t>[[1.085, 0], [1, 1], [1, 1], [1, 1], [1, 1], [0.915, 1]]</t>
+  </si>
 </sst>
 </file>
 
@@ -1661,23 +1664,29 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -1691,17 +1700,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2448,8 +2451,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2877396" y="3759355"/>
-          <a:ext cx="391202" cy="317742"/>
+          <a:off x="2865966" y="3837460"/>
+          <a:ext cx="389297" cy="323457"/>
           <a:chOff x="3573269" y="3601319"/>
           <a:chExt cx="424926" cy="329094"/>
         </a:xfrm>
@@ -2715,8 +2718,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2877396" y="2923634"/>
-          <a:ext cx="391202" cy="312928"/>
+          <a:off x="2865966" y="2986499"/>
+          <a:ext cx="389297" cy="318643"/>
           <a:chOff x="3573269" y="3601319"/>
           <a:chExt cx="424926" cy="329094"/>
         </a:xfrm>
@@ -3439,8 +3442,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2878227" y="1745844"/>
-          <a:ext cx="391202" cy="319647"/>
+          <a:off x="2866797" y="1785849"/>
+          <a:ext cx="389297" cy="323457"/>
           <a:chOff x="3573269" y="3601319"/>
           <a:chExt cx="424926" cy="329094"/>
         </a:xfrm>
@@ -3761,8 +3764,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2877396" y="4601265"/>
-          <a:ext cx="391202" cy="319647"/>
+          <a:off x="2865966" y="4702230"/>
+          <a:ext cx="389297" cy="323457"/>
           <a:chOff x="3573269" y="3601319"/>
           <a:chExt cx="424926" cy="329094"/>
         </a:xfrm>
@@ -7440,8 +7443,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5034927" y="1421600"/>
-          <a:ext cx="1436104" cy="728810"/>
+          <a:off x="5017782" y="1450175"/>
+          <a:ext cx="1424674" cy="749765"/>
           <a:chOff x="5974842" y="1887551"/>
           <a:chExt cx="1550251" cy="767591"/>
         </a:xfrm>
@@ -9187,8 +9190,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5692389" y="2883699"/>
-          <a:ext cx="385489" cy="317740"/>
+          <a:off x="5665719" y="2946564"/>
+          <a:ext cx="385489" cy="323455"/>
           <a:chOff x="3573266" y="3601319"/>
           <a:chExt cx="424929" cy="329093"/>
         </a:xfrm>
@@ -20926,8 +20929,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="0" y="552449"/>
-          <a:ext cx="11170920" cy="5368291"/>
+          <a:off x="0" y="563879"/>
+          <a:ext cx="11123295" cy="5490211"/>
           <a:chOff x="335486" y="881826"/>
           <a:chExt cx="12151247" cy="5595213"/>
         </a:xfrm>
@@ -45102,8 +45105,8 @@
       <xdr:rowOff>78667</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>437850</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3043890</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>154098</xdr:rowOff>
     </xdr:to>
@@ -45590,16 +45593,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="50"/>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
       <c r="D1" s="50"/>
     </row>
     <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="50"/>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="74" t="s">
         <v>267</v>
       </c>
-      <c r="C2" s="72"/>
+      <c r="C2" s="74"/>
       <c r="D2" s="50"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -45608,18 +45611,18 @@
     </row>
     <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="50"/>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="73" t="s">
         <v>254</v>
       </c>
-      <c r="C4" s="71"/>
+      <c r="C4" s="73"/>
       <c r="D4" s="50"/>
     </row>
     <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="50"/>
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="72" t="s">
         <v>255</v>
       </c>
-      <c r="C5" s="70"/>
+      <c r="C5" s="72"/>
       <c r="D5" s="50"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -45632,70 +45635,70 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="50"/>
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="65" t="s">
         <v>224</v>
       </c>
-      <c r="C8" s="75"/>
+      <c r="C8" s="65"/>
       <c r="D8" s="50"/>
     </row>
     <row r="9" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="50"/>
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="75" t="s">
         <v>223</v>
       </c>
-      <c r="C9" s="73"/>
+      <c r="C9" s="75"/>
       <c r="D9" s="50"/>
     </row>
     <row r="10" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="50"/>
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="75" t="s">
         <v>222</v>
       </c>
-      <c r="C10" s="73"/>
+      <c r="C10" s="75"/>
       <c r="D10" s="50"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="50"/>
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="66" t="s">
         <v>226</v>
       </c>
-      <c r="C11" s="76"/>
+      <c r="C11" s="66"/>
       <c r="D11" s="50"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="50"/>
-      <c r="B12" s="73" t="s">
+      <c r="B12" s="75" t="s">
         <v>227</v>
       </c>
-      <c r="C12" s="73"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="50"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="50"/>
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="67" t="s">
         <v>228</v>
       </c>
-      <c r="C13" s="64"/>
+      <c r="C13" s="67"/>
       <c r="D13" s="55"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="50"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
       <c r="D14" s="56"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="50"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
       <c r="D15" s="50"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="50"/>
-      <c r="B16" s="75" t="s">
+      <c r="B16" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="C16" s="75"/>
+      <c r="C16" s="65"/>
       <c r="D16" s="57"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -45760,14 +45763,14 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="50"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="64"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
       <c r="D23" s="50"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="50"/>
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
       <c r="D24" s="50"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -45780,42 +45783,42 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="50"/>
-      <c r="B26" s="69" t="s">
+      <c r="B26" s="70" t="s">
         <v>232</v>
       </c>
-      <c r="C26" s="69"/>
+      <c r="C26" s="70"/>
       <c r="D26" s="50"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="50"/>
-      <c r="B27" s="64" t="s">
+      <c r="B27" s="67" t="s">
         <v>231</v>
       </c>
-      <c r="C27" s="64"/>
+      <c r="C27" s="67"/>
       <c r="D27" s="50"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="50"/>
-      <c r="B28" s="66" t="s">
+      <c r="B28" s="77" t="s">
         <v>230</v>
       </c>
-      <c r="C28" s="66"/>
+      <c r="C28" s="77"/>
       <c r="D28" s="50"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="50"/>
-      <c r="B29" s="65" t="s">
+      <c r="B29" s="76" t="s">
         <v>234</v>
       </c>
-      <c r="C29" s="65"/>
+      <c r="C29" s="76"/>
       <c r="D29" s="50"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="50"/>
-      <c r="B30" s="64" t="s">
+      <c r="B30" s="67" t="s">
         <v>256</v>
       </c>
-      <c r="C30" s="64"/>
+      <c r="C30" s="67"/>
       <c r="D30" s="50"/>
       <c r="F30" t="s">
         <v>253</v>
@@ -45823,26 +45826,26 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="50"/>
-      <c r="B31" s="64" t="s">
+      <c r="B31" s="67" t="s">
         <v>257</v>
       </c>
-      <c r="C31" s="64"/>
+      <c r="C31" s="67"/>
       <c r="D31" s="50"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="50"/>
-      <c r="B32" s="66" t="s">
+      <c r="B32" s="77" t="s">
         <v>258</v>
       </c>
-      <c r="C32" s="66"/>
+      <c r="C32" s="77"/>
       <c r="D32" s="50"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="50"/>
-      <c r="B33" s="64" t="s">
+      <c r="B33" s="67" t="s">
         <v>259</v>
       </c>
-      <c r="C33" s="64"/>
+      <c r="C33" s="67"/>
       <c r="D33" s="50"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -45851,190 +45854,190 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="50"/>
-      <c r="B35" s="69" t="s">
+      <c r="B35" s="70" t="s">
         <v>269</v>
       </c>
-      <c r="C35" s="69"/>
+      <c r="C35" s="70"/>
       <c r="D35" s="50"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="50"/>
-      <c r="B36" s="64" t="s">
+      <c r="B36" s="67" t="s">
         <v>233</v>
       </c>
-      <c r="C36" s="64"/>
+      <c r="C36" s="67"/>
       <c r="D36" s="50"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="50"/>
-      <c r="B37" s="64" t="s">
+      <c r="B37" s="67" t="s">
         <v>260</v>
       </c>
-      <c r="C37" s="64"/>
+      <c r="C37" s="67"/>
       <c r="D37" s="50"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="50"/>
-      <c r="B38" s="64" t="s">
+      <c r="B38" s="67" t="s">
         <v>261</v>
       </c>
-      <c r="C38" s="64"/>
+      <c r="C38" s="67"/>
       <c r="D38" s="50"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="50"/>
-      <c r="B39" s="64" t="s">
+      <c r="B39" s="67" t="s">
         <v>262</v>
       </c>
-      <c r="C39" s="64"/>
+      <c r="C39" s="67"/>
       <c r="D39" s="50"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="50"/>
-      <c r="B40" s="77" t="s">
+      <c r="B40" s="68" t="s">
         <v>235</v>
       </c>
-      <c r="C40" s="77"/>
+      <c r="C40" s="68"/>
       <c r="D40" s="50"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="50"/>
-      <c r="B41" s="64" t="s">
+      <c r="B41" s="67" t="s">
         <v>236</v>
       </c>
-      <c r="C41" s="64"/>
+      <c r="C41" s="67"/>
       <c r="D41" s="50"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="50"/>
-      <c r="B42" s="64" t="s">
+      <c r="B42" s="67" t="s">
         <v>237</v>
       </c>
-      <c r="C42" s="64"/>
+      <c r="C42" s="67"/>
       <c r="D42" s="50"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="50"/>
-      <c r="B43" s="64" t="s">
+      <c r="B43" s="67" t="s">
         <v>238</v>
       </c>
-      <c r="C43" s="64"/>
+      <c r="C43" s="67"/>
       <c r="D43" s="50"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="50"/>
-      <c r="B44" s="64"/>
-      <c r="C44" s="64"/>
+      <c r="B44" s="67"/>
+      <c r="C44" s="67"/>
       <c r="D44" s="50"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="50"/>
-      <c r="B45" s="69" t="s">
+      <c r="B45" s="70" t="s">
         <v>239</v>
       </c>
-      <c r="C45" s="69"/>
+      <c r="C45" s="70"/>
       <c r="D45" s="50"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="50"/>
-      <c r="B46" s="64" t="s">
+      <c r="B46" s="67" t="s">
         <v>240</v>
       </c>
-      <c r="C46" s="64"/>
+      <c r="C46" s="67"/>
       <c r="D46" s="50"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="50"/>
-      <c r="B47" s="67" t="s">
+      <c r="B47" s="69" t="s">
         <v>263</v>
       </c>
-      <c r="C47" s="64"/>
+      <c r="C47" s="67"/>
       <c r="D47" s="50"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="50"/>
-      <c r="B48" s="64" t="s">
+      <c r="B48" s="67" t="s">
         <v>244</v>
       </c>
-      <c r="C48" s="64"/>
+      <c r="C48" s="67"/>
       <c r="D48" s="50"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="50"/>
-      <c r="B49" s="67" t="s">
+      <c r="B49" s="69" t="s">
         <v>264</v>
       </c>
-      <c r="C49" s="64"/>
+      <c r="C49" s="67"/>
       <c r="D49" s="50"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="50"/>
-      <c r="B50" s="64" t="s">
+      <c r="B50" s="67" t="s">
         <v>243</v>
       </c>
-      <c r="C50" s="64"/>
+      <c r="C50" s="67"/>
       <c r="D50" s="50"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="50"/>
-      <c r="B51" s="67" t="s">
+      <c r="B51" s="69" t="s">
         <v>265</v>
       </c>
-      <c r="C51" s="64"/>
+      <c r="C51" s="67"/>
       <c r="D51" s="50"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="50"/>
-      <c r="B52" s="64" t="s">
+      <c r="B52" s="67" t="s">
         <v>242</v>
       </c>
-      <c r="C52" s="64"/>
+      <c r="C52" s="67"/>
       <c r="D52" s="50"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="50"/>
-      <c r="B53" s="67" t="s">
+      <c r="B53" s="69" t="s">
         <v>266</v>
       </c>
-      <c r="C53" s="64"/>
+      <c r="C53" s="67"/>
       <c r="D53" s="50"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="50"/>
-      <c r="B54" s="64" t="s">
+      <c r="B54" s="67" t="s">
         <v>241</v>
       </c>
-      <c r="C54" s="64"/>
+      <c r="C54" s="67"/>
       <c r="D54" s="50"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="50"/>
-      <c r="B55" s="64"/>
-      <c r="C55" s="64"/>
+      <c r="B55" s="67"/>
+      <c r="C55" s="67"/>
       <c r="D55" s="50"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="50"/>
-      <c r="B56" s="69" t="s">
+      <c r="B56" s="70" t="s">
         <v>250</v>
       </c>
-      <c r="C56" s="69"/>
+      <c r="C56" s="70"/>
       <c r="D56" s="50"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="50"/>
-      <c r="B57" s="64" t="s">
+      <c r="B57" s="67" t="s">
         <v>251</v>
       </c>
-      <c r="C57" s="64"/>
+      <c r="C57" s="67"/>
       <c r="D57" s="50"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="50"/>
-      <c r="B58" s="64" t="s">
+      <c r="B58" s="67" t="s">
         <v>252</v>
       </c>
-      <c r="C58" s="64"/>
+      <c r="C58" s="67"/>
       <c r="D58" s="50"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -46045,69 +46048,109 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="50"/>
-      <c r="B60" s="64"/>
-      <c r="C60" s="64"/>
+      <c r="B60" s="67"/>
+      <c r="C60" s="67"/>
       <c r="D60" s="50"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="50"/>
-      <c r="B61" s="69" t="s">
+      <c r="B61" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="C61" s="69"/>
+      <c r="C61" s="70"/>
       <c r="D61" s="50"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="50"/>
-      <c r="B62" s="64" t="s">
+      <c r="B62" s="67" t="s">
         <v>245</v>
       </c>
-      <c r="C62" s="64"/>
+      <c r="C62" s="67"/>
       <c r="D62" s="50"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="50"/>
-      <c r="B63" s="64" t="s">
+      <c r="B63" s="67" t="s">
         <v>246</v>
       </c>
-      <c r="C63" s="64"/>
+      <c r="C63" s="67"/>
       <c r="D63" s="50"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="50"/>
-      <c r="B64" s="64" t="s">
+      <c r="B64" s="67" t="s">
         <v>247</v>
       </c>
-      <c r="C64" s="64"/>
+      <c r="C64" s="67"/>
       <c r="D64" s="50"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="50"/>
-      <c r="B65" s="64" t="s">
+      <c r="B65" s="67" t="s">
         <v>248</v>
       </c>
-      <c r="C65" s="64"/>
+      <c r="C65" s="67"/>
       <c r="D65" s="50"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="50"/>
-      <c r="B66" s="74"/>
-      <c r="C66" s="74"/>
+      <c r="B66" s="64"/>
+      <c r="C66" s="64"/>
       <c r="D66" s="50"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B67" s="54"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B70" s="64"/>
-      <c r="C70" s="64"/>
+      <c r="B70" s="67"/>
+      <c r="C70" s="67"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B71" s="64"/>
-      <c r="C71" s="64"/>
+      <c r="B71" s="67"/>
+      <c r="C71" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B8:C8"/>
@@ -46124,46 +46167,6 @@
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B41:C41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -46321,7 +46324,7 @@
       <c r="E7" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G7" s="64"/>
+      <c r="G7" s="67"/>
       <c r="I7" s="59"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -46329,7 +46332,7 @@
       <c r="E8" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G8" s="64"/>
+      <c r="G8" s="67"/>
       <c r="I8" s="59"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -46409,7 +46412,7 @@
       <c r="E13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="64"/>
+      <c r="G13" s="67"/>
       <c r="I13" s="59"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -46905,7 +46908,7 @@
       <c r="E37" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="64"/>
+      <c r="G37" s="67"/>
       <c r="I37" s="59"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -46913,7 +46916,7 @@
       <c r="E38" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G38" s="64"/>
+      <c r="G38" s="67"/>
       <c r="I38" s="59"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -46921,7 +46924,7 @@
       <c r="E39" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="64"/>
+      <c r="G39" s="67"/>
       <c r="I39" s="59"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -46929,7 +46932,7 @@
       <c r="E40" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G40" s="64"/>
+      <c r="G40" s="67"/>
       <c r="I40" s="59"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -46997,7 +47000,7 @@
       <c r="F44" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="G44" s="64"/>
+      <c r="G44" s="67"/>
       <c r="I44" s="59"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -47008,7 +47011,7 @@
       <c r="F45" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="G45" s="64"/>
+      <c r="G45" s="67"/>
       <c r="I45" s="59"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -47243,7 +47246,7 @@
       <c r="E57" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="G57" s="64"/>
+      <c r="G57" s="67"/>
       <c r="I57" s="59"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -47251,7 +47254,7 @@
       <c r="E58" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G58" s="64"/>
+      <c r="G58" s="67"/>
       <c r="I58" s="59"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -47259,7 +47262,7 @@
       <c r="E59" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="G59" s="64"/>
+      <c r="G59" s="67"/>
       <c r="I59" s="59"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -47267,7 +47270,7 @@
       <c r="E60" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="G60" s="64"/>
+      <c r="G60" s="67"/>
       <c r="I60" s="59"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -47275,7 +47278,7 @@
       <c r="E61" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G61" s="64"/>
+      <c r="G61" s="67"/>
       <c r="I61" s="59"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -47283,7 +47286,7 @@
       <c r="E62" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G62" s="64"/>
+      <c r="G62" s="67"/>
       <c r="I62" s="59"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -47493,7 +47496,7 @@
       <c r="F73" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="G73" s="64"/>
+      <c r="G73" s="67"/>
       <c r="I73" s="59"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -47504,7 +47507,7 @@
       <c r="F74" s="39" t="s">
         <v>216</v>
       </c>
-      <c r="G74" s="64"/>
+      <c r="G74" s="67"/>
       <c r="I74" s="59"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -47685,8 +47688,8 @@
   </sheetPr>
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" zoomScalePageLayoutView="88" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView topLeftCell="A33" zoomScaleNormal="100" zoomScalePageLayoutView="88" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -48207,11 +48210,11 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -48225,10 +48228,11 @@
     <col min="7" max="7" width="10.09765625" style="18" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.796875" style="18" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.3984375" style="19"/>
+    <col min="10" max="10" width="42.69921875" style="19" customWidth="1"/>
+    <col min="11" max="16384" width="11.3984375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>12</v>
       </c>
@@ -48257,7 +48261,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -48280,7 +48284,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -48305,7 +48309,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -48328,7 +48332,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -48353,7 +48357,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -48378,7 +48382,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -48399,7 +48403,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -48424,7 +48428,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -48444,8 +48448,11 @@
       <c r="G9" s="1"/>
       <c r="H9" s="2"/>
       <c r="I9" s="1"/>
+      <c r="J9" s="3" t="s">
+        <v>300</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -48465,8 +48472,11 @@
       <c r="G10" s="1"/>
       <c r="H10" s="2"/>
       <c r="I10" s="1"/>
+      <c r="J10" s="3" t="s">
+        <v>300</v>
+      </c>
     </row>
-    <row r="11" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -48486,8 +48496,11 @@
       <c r="G11" s="1"/>
       <c r="H11" s="2"/>
       <c r="I11" s="1"/>
+      <c r="J11" s="3" t="s">
+        <v>300</v>
+      </c>
     </row>
-    <row r="12" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -48507,8 +48520,11 @@
       <c r="G12" s="1"/>
       <c r="H12" s="2"/>
       <c r="I12" s="1"/>
+      <c r="J12" s="3" t="s">
+        <v>300</v>
+      </c>
     </row>
-    <row r="13" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -48528,10 +48544,13 @@
       <c r="G13" s="1"/>
       <c r="H13" s="2"/>
       <c r="I13" s="1"/>
+      <c r="J13" s="3" t="s">
+        <v>300</v>
+      </c>
     </row>
-    <row r="14" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="19" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -48553,7 +48572,7 @@
   </sheetData>
   <autoFilter ref="A1:H34" xr:uid="{804CF21E-C353-4454-9B0E-05956E676815}"/>
   <phoneticPr fontId="8" type="noConversion"/>
-  <dataValidations xWindow="834" yWindow="350" count="13">
+  <dataValidations xWindow="834" yWindow="350" count="14">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14:C1048576" xr:uid="{87D41A8A-B7E0-4C23-A4B4-5C3476B64083}">
       <formula1>0</formula1>
       <formula2>1000</formula2>
@@ -48572,15 +48591,16 @@
       <formula1>0</formula1>
       <formula2>10000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the operating nominal voltage level for all node types" sqref="D1 D2:D13" xr:uid="{49B2F3FF-8A45-403E-81CA-D5147119B155}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the maximum power (non-negative for consumption and generation) in kilowatts if the node type is P, storage or gen, otherwise leave empty. " sqref="E1 E2:E13" xr:uid="{5201E93D-792F-4158-BD95-8C7F8A99D0C8}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the storage capacity in kilowatt-hours if the node type is storage, otherwise leave empty" sqref="F1 F2:F13" xr:uid="{11F5BC60-E48F-4A32-9105-B6224F41F4B9}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the operating nominal voltage level for all node types" sqref="D1:D13" xr:uid="{49B2F3FF-8A45-403E-81CA-D5147119B155}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the maximum power (non-negative for consumption and generation) in kilowatts if the node type is P, storage or gen, otherwise leave empty. " sqref="E1:E13" xr:uid="{5201E93D-792F-4158-BD95-8C7F8A99D0C8}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the storage capacity in kilowatt-hours if the node type is storage, otherwise leave empty" sqref="F1:F13" xr:uid="{11F5BC60-E48F-4A32-9105-B6224F41F4B9}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="If the node is linked direclty to a converter, provide the name of this converter following this: Conv_X where X∈[1,m], with m=total number of converters in the grid_x000a_Otherwise leave empty" sqref="G1:G13" xr:uid="{B996EBBF-B69A-41B7-AC00-C8E66CA296E1}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Assign a unique identifier to each converter" sqref="H1" xr:uid="{C1AC1EF0-DB87-48A8-961F-2CF2249E3998}"/>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Assign a unique identifier to each converter" sqref="H2:H13" xr:uid="{FD5AD164-C639-4CA7-8E59-88E7ACCC3A2F}">
       <formula1>0</formula1>
       <formula2>10000</formula2>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the default droop curve index 0, as follows: [Vi;Pi], i={1,2,3,4,5,6}, with V=Asset voltage value (p.u.), P=Asset power value (p.u.)" sqref="J9:J13" xr:uid="{97C5EAA7-AF40-4F8E-A7E0-3EF3506244E8}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -48612,9 +48632,9 @@
   </sheetPr>
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -49354,7 +49374,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -49505,6 +49525,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a656bf76-cca4-4796-b3e3-9ff4debad9ca">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3f4d043c-ef99-408b-9086-307465b47223" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005D48458B7DF5B44891BF6C8B708F036C" ma:contentTypeVersion="15" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="6ec72bf5cc41951886dd851de9b63939">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a656bf76-cca4-4796-b3e3-9ff4debad9ca" xmlns:ns3="3f4d043c-ef99-408b-9086-307465b47223" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="619265aacb58e563d368a43a0aeb056e" ns2:_="" ns3:_="">
     <xsd:import namespace="a656bf76-cca4-4796-b3e3-9ff4debad9ca"/>
@@ -49739,41 +49779,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a656bf76-cca4-4796-b3e3-9ff4debad9ca">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3f4d043c-ef99-408b-9086-307465b47223" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{908F6F40-8D93-4BAF-B5F7-B52D93E367E6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80A89352-0353-48F1-9429-0E3BD72B2E30}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a656bf76-cca4-4796-b3e3-9ff4debad9ca"/>
-    <ds:schemaRef ds:uri="3f4d043c-ef99-408b-9086-307465b47223"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -49796,9 +49805,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80A89352-0353-48F1-9429-0E3BD72B2E30}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{908F6F40-8D93-4BAF-B5F7-B52D93E367E6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a656bf76-cca4-4796-b3e3-9ff4debad9ca"/>
+    <ds:schemaRef ds:uri="3f4d043c-ef99-408b-9086-307465b47223"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/grid_data_input_file_WIP_v1.xlsx
+++ b/grid_data_input_file_WIP_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c30483\Documents\dc_design_tool\dc_design_tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A60D0CE-60A9-4E99-9B8A-33E16B7054C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65614182-CA8B-4FC6-8BA2-701C186D4C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16410" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="simple example" sheetId="20" r:id="rId1"/>
@@ -24,9 +24,9 @@
     <sheet name="Default droop curves" sheetId="14" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Assets Nodes'!$A$1:$H$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Assets Nodes'!$A$1:$I$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Converters!$A$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Glossary!$B$2:$H$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Glossary!$B$2:$H$85</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Lines!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="312">
   <si>
     <t>Node_i</t>
   </si>
@@ -586,9 +586,6 @@
   </si>
   <si>
     <t>Unique identifier for the converter associated with the node</t>
-  </si>
-  <si>
-    <t>Assign a unique identifier to each converter</t>
   </si>
   <si>
     <t>Provide the name of the converter: Conv_X where X∈[1,m], with m=total number of converters in the grid</t>
@@ -1204,12 +1201,6 @@
     <t xml:space="preserve">Worst case scenario 2 for sizing of cables and  PDU DC/DC,  DC/AC, PV DC/DC and EV DC/DC converters </t>
   </si>
   <si>
-    <t xml:space="preserve">P batt : output , to be fixed starting scenario 1 </t>
-  </si>
-  <si>
-    <t>Storage duration (hours)</t>
-  </si>
-  <si>
     <t>[[0,100],[50,98],[75,97],[100,95]]</t>
   </si>
   <si>
@@ -1222,13 +1213,78 @@
     <t>Droop curve 4</t>
   </si>
   <si>
-    <t>Load expansion factor (%)</t>
-  </si>
-  <si>
     <t>Sizing factors</t>
   </si>
   <si>
-    <t>[[1.085, 0], [1, 1], [1, 1], [1, 1], [1, 1], [0.915, 1]]</t>
+    <t>If the node is direclty linked to a converter, provide the name of the converter: Conv_X where X∈[1,m], with m=total number of converters in the grid. Otherwise, leave empty</t>
+  </si>
+  <si>
+    <t>Assign a unique identifier to each directly linked converter. Otherwise, leave empty</t>
+  </si>
+  <si>
+    <t>Conditional (on the presence of converter)</t>
+  </si>
+  <si>
+    <t>Remarks on input requirement</t>
+  </si>
+  <si>
+    <t>The cells containing titles or data in the sheets are color-coded to reflect their requirement status</t>
+  </si>
+  <si>
+    <t>Optional fields that can be filled at the user's discretion.</t>
+  </si>
+  <si>
+    <t>Conditional fields that must be filled if a specific condition applies.</t>
+  </si>
+  <si>
+    <t>Mandatory fields that must be completed by the user.</t>
+  </si>
+  <si>
+    <t>The cells that the user needs to fill are left white for clarity.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The user is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tw Cen MT"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>strictly invited to modify only the white cells</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tw Cen MT"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Editing any other cells may result in errors or inconsistencies in the design tool's functionality.</t>
+    </r>
+  </si>
+  <si>
+    <t>Loads expansion factor (%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All feeders SSCB loss consideration </t>
+  </si>
+  <si>
+    <t>Storage duration at nominal power (hours)</t>
+  </si>
+  <si>
+    <t>Droop curve of asset</t>
+  </si>
+  <si>
+    <t>Droop curve of the asset</t>
+  </si>
+  <si>
+    <t>not applicable</t>
   </si>
 </sst>
 </file>
@@ -1332,7 +1388,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1381,8 +1437,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8989"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD44B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA4D76B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1498,12 +1572,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1532,20 +1632,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1559,9 +1650,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -1580,9 +1668,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1604,9 +1689,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1661,8 +1743,71 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1701,6 +1846,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1724,14 +1872,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1742,21 +1905,21 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC000"/>
+          <bgColor rgb="FFFFD44B"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFA4D76B"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF5D5D"/>
+          <bgColor rgb="FFFF8989"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1764,11 +1927,14 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFA4D76B"/>
+      <color rgb="FFFFD44B"/>
+      <color rgb="FFFF8989"/>
+      <color rgb="FFFF5D5D"/>
       <color rgb="FFFF9900"/>
       <color rgb="FFE2ECF2"/>
       <color rgb="FF6EA92D"/>
       <color rgb="FF00558F"/>
-      <color rgb="FFFF5D5D"/>
       <color rgb="FFFFCCCC"/>
     </mruColors>
   </colors>
@@ -2451,8 +2617,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2865966" y="3837460"/>
-          <a:ext cx="389297" cy="323457"/>
+          <a:off x="2877396" y="3759355"/>
+          <a:ext cx="391202" cy="317742"/>
           <a:chOff x="3573269" y="3601319"/>
           <a:chExt cx="424926" cy="329094"/>
         </a:xfrm>
@@ -2718,8 +2884,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2865966" y="2986499"/>
-          <a:ext cx="389297" cy="318643"/>
+          <a:off x="2877396" y="2923634"/>
+          <a:ext cx="391202" cy="312928"/>
           <a:chOff x="3573269" y="3601319"/>
           <a:chExt cx="424926" cy="329094"/>
         </a:xfrm>
@@ -3442,8 +3608,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2866797" y="1785849"/>
-          <a:ext cx="389297" cy="323457"/>
+          <a:off x="2878227" y="1745844"/>
+          <a:ext cx="391202" cy="319647"/>
           <a:chOff x="3573269" y="3601319"/>
           <a:chExt cx="424926" cy="329094"/>
         </a:xfrm>
@@ -3764,8 +3930,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2865966" y="4702230"/>
-          <a:ext cx="389297" cy="323457"/>
+          <a:off x="2877396" y="4601265"/>
+          <a:ext cx="391202" cy="319647"/>
           <a:chOff x="3573269" y="3601319"/>
           <a:chExt cx="424926" cy="329094"/>
         </a:xfrm>
@@ -7443,8 +7609,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5017782" y="1450175"/>
-          <a:ext cx="1424674" cy="749765"/>
+          <a:off x="5034927" y="1421600"/>
+          <a:ext cx="1436104" cy="728810"/>
           <a:chOff x="5974842" y="1887551"/>
           <a:chExt cx="1550251" cy="767591"/>
         </a:xfrm>
@@ -9190,8 +9356,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5665719" y="2946564"/>
-          <a:ext cx="385489" cy="323455"/>
+          <a:off x="5692389" y="2883699"/>
+          <a:ext cx="385489" cy="317740"/>
           <a:chOff x="3573266" y="3601319"/>
           <a:chExt cx="424929" cy="329093"/>
         </a:xfrm>
@@ -20929,8 +21095,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="0" y="563879"/>
-          <a:ext cx="11123295" cy="5490211"/>
+          <a:off x="0" y="552449"/>
+          <a:ext cx="11170920" cy="5368291"/>
           <a:chOff x="335486" y="881826"/>
           <a:chExt cx="12151247" cy="5595213"/>
         </a:xfrm>
@@ -45052,7 +45218,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>6627658</xdr:colOff>
+      <xdr:colOff>6629563</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>17146</xdr:rowOff>
     </xdr:to>
@@ -45102,13 +45268,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>643925</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>78667</xdr:rowOff>
+      <xdr:rowOff>104067</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>3043890</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>154098</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>35260</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>1698</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -45131,8 +45297,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3720500" y="2659942"/>
-          <a:ext cx="8094010" cy="4018781"/>
+          <a:off x="3723675" y="2764717"/>
+          <a:ext cx="8090835" cy="4164831"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -45155,7 +45321,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>532971</xdr:colOff>
+      <xdr:colOff>132921</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>114718</xdr:rowOff>
     </xdr:to>
@@ -45198,15 +45364,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>139220</xdr:colOff>
+      <xdr:colOff>268760</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>78578</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>342314</xdr:colOff>
+      <xdr:colOff>475664</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>134880</xdr:rowOff>
+      <xdr:rowOff>131070</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -45229,8 +45395,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3767003" y="255274"/>
-          <a:ext cx="6265963" cy="3240633"/>
+          <a:off x="3897785" y="250028"/>
+          <a:ext cx="6207654" cy="3138592"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -45577,596 +45743,655 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:C31"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.796875" customWidth="1"/>
-    <col min="2" max="2" width="12.8984375" style="51" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="87.19921875" style="51" customWidth="1"/>
+    <col min="2" max="2" width="12.8984375" style="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="105.296875" style="45" customWidth="1"/>
     <col min="4" max="4" width="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="50"/>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="50"/>
+      <c r="A1" s="44"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="44"/>
     </row>
     <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
-      <c r="B2" s="74" t="s">
-        <v>267</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="50"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="91" t="s">
+        <v>266</v>
+      </c>
+      <c r="C2" s="91"/>
+      <c r="D2" s="44"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="50"/>
-      <c r="D3" s="50"/>
+      <c r="A3" s="44"/>
+      <c r="D3" s="44"/>
     </row>
     <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="73" t="s">
-        <v>254</v>
-      </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="50"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="90" t="s">
+        <v>253</v>
+      </c>
+      <c r="C4" s="90"/>
+      <c r="D4" s="44"/>
     </row>
     <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="50"/>
-      <c r="B5" s="72" t="s">
-        <v>255</v>
-      </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="50"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="89" t="s">
+        <v>254</v>
+      </c>
+      <c r="C5" s="89"/>
+      <c r="D5" s="44"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
-      <c r="D6" s="50"/>
+      <c r="A6" s="44"/>
+      <c r="D6" s="44"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="D7" s="50"/>
+      <c r="A7" s="44"/>
+      <c r="D7" s="44"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
-      <c r="B8" s="65" t="s">
-        <v>224</v>
-      </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="50"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="82" t="s">
+        <v>223</v>
+      </c>
+      <c r="C8" s="82"/>
+      <c r="D8" s="44"/>
     </row>
     <row r="9" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
-      <c r="B9" s="75" t="s">
-        <v>223</v>
-      </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="50"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="92" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9" s="92"/>
+      <c r="D9" s="44"/>
     </row>
     <row r="10" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
-      <c r="B10" s="75" t="s">
-        <v>222</v>
-      </c>
-      <c r="C10" s="75"/>
-      <c r="D10" s="50"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="92" t="s">
+        <v>221</v>
+      </c>
+      <c r="C10" s="92"/>
+      <c r="D10" s="44"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
-      <c r="B11" s="66" t="s">
-        <v>226</v>
-      </c>
-      <c r="C11" s="66"/>
-      <c r="D11" s="50"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="83" t="s">
+        <v>225</v>
+      </c>
+      <c r="C11" s="83"/>
+      <c r="D11" s="44"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
-      <c r="B12" s="75" t="s">
-        <v>227</v>
-      </c>
-      <c r="C12" s="75"/>
-      <c r="D12" s="50"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="92" t="s">
+        <v>226</v>
+      </c>
+      <c r="C12" s="92"/>
+      <c r="D12" s="44"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
-      <c r="B13" s="67" t="s">
-        <v>228</v>
-      </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="55"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="84" t="s">
+        <v>227</v>
+      </c>
+      <c r="C13" s="84"/>
+      <c r="D13" s="49"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="56"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="50"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="50"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="50"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="44"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
-      <c r="B16" s="65" t="s">
-        <v>225</v>
-      </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="57"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="82" t="s">
+        <v>224</v>
+      </c>
+      <c r="C16" s="82"/>
+      <c r="D16" s="51"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
-      <c r="B17" s="53" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="44"/>
+      <c r="B17" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="58"/>
+      <c r="D17" s="52"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
-      <c r="B18" s="51" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="44"/>
+      <c r="B18" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="58"/>
+      <c r="D18" s="52"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
-      <c r="B19" s="51" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="44"/>
+      <c r="B19" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="50"/>
+      <c r="D19" s="44"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="50"/>
-      <c r="B20" s="51" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="44"/>
+      <c r="B20" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="50"/>
+      <c r="D20" s="44"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="50"/>
-      <c r="B21" s="51" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="44"/>
+      <c r="B21" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="50"/>
+      <c r="D21" s="44"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
-      <c r="B22" s="51" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="44"/>
+      <c r="B22" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="51" t="s">
+      <c r="C22" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="50"/>
+      <c r="D22" s="44"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="50"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="50"/>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="44"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="44"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="50"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="50"/>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="44"/>
+      <c r="B24" s="83" t="s">
+        <v>299</v>
+      </c>
+      <c r="C24" s="83"/>
+      <c r="D24" s="44"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
-      <c r="B25" s="52" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="44"/>
+      <c r="B25" s="84" t="s">
+        <v>300</v>
+      </c>
+      <c r="C25" s="84"/>
+      <c r="D25" s="44"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="44"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="D26" s="44"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="44"/>
+      <c r="B27" s="79"/>
+      <c r="C27" s="57" t="s">
+        <v>302</v>
+      </c>
+      <c r="D27" s="44"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="44"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="57" t="s">
+        <v>301</v>
+      </c>
+      <c r="D28" s="44"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="44"/>
+      <c r="B29" s="84" t="s">
+        <v>304</v>
+      </c>
+      <c r="C29" s="84"/>
+      <c r="D29" s="44"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="44"/>
+      <c r="B30" s="93" t="s">
+        <v>305</v>
+      </c>
+      <c r="C30" s="93"/>
+      <c r="D30" s="44"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="44"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="44"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="44"/>
+      <c r="B32" s="46" t="s">
+        <v>228</v>
+      </c>
+      <c r="C32" s="46"/>
+      <c r="D32" s="51"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="44"/>
+      <c r="B33" s="87" t="s">
+        <v>231</v>
+      </c>
+      <c r="C33" s="87"/>
+      <c r="D33" s="44"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="44"/>
+      <c r="B34" s="84" t="s">
+        <v>230</v>
+      </c>
+      <c r="C34" s="84"/>
+      <c r="D34" s="44"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="44"/>
+      <c r="B35" s="95" t="s">
         <v>229</v>
       </c>
-      <c r="C25" s="52"/>
-      <c r="D25" s="57"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="44"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
-      <c r="B26" s="70" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="44"/>
+      <c r="B36" s="94" t="s">
+        <v>233</v>
+      </c>
+      <c r="C36" s="94"/>
+      <c r="D36" s="44"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="44"/>
+      <c r="B37" s="84" t="s">
+        <v>255</v>
+      </c>
+      <c r="C37" s="84"/>
+      <c r="D37" s="44"/>
+      <c r="F37" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="44"/>
+      <c r="B38" s="84" t="s">
+        <v>256</v>
+      </c>
+      <c r="C38" s="84"/>
+      <c r="D38" s="44"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="44"/>
+      <c r="B39" s="95" t="s">
+        <v>257</v>
+      </c>
+      <c r="C39" s="95"/>
+      <c r="D39" s="44"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="44"/>
+      <c r="B40" s="84" t="s">
+        <v>258</v>
+      </c>
+      <c r="C40" s="84"/>
+      <c r="D40" s="44"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="44"/>
+      <c r="D41" s="44"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="44"/>
+      <c r="B42" s="87" t="s">
+        <v>268</v>
+      </c>
+      <c r="C42" s="87"/>
+      <c r="D42" s="44"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="44"/>
+      <c r="B43" s="84" t="s">
         <v>232</v>
       </c>
-      <c r="C26" s="70"/>
-      <c r="D26" s="50"/>
+      <c r="C43" s="84"/>
+      <c r="D43" s="44"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="50"/>
-      <c r="B27" s="67" t="s">
-        <v>231</v>
-      </c>
-      <c r="C27" s="67"/>
-      <c r="D27" s="50"/>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="44"/>
+      <c r="B44" s="84" t="s">
+        <v>259</v>
+      </c>
+      <c r="C44" s="84"/>
+      <c r="D44" s="44"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="50"/>
-      <c r="B28" s="77" t="s">
-        <v>230</v>
-      </c>
-      <c r="C28" s="77"/>
-      <c r="D28" s="50"/>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="44"/>
+      <c r="B45" s="84" t="s">
+        <v>260</v>
+      </c>
+      <c r="C45" s="84"/>
+      <c r="D45" s="44"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="50"/>
-      <c r="B29" s="76" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="44"/>
+      <c r="B46" s="84" t="s">
+        <v>261</v>
+      </c>
+      <c r="C46" s="84"/>
+      <c r="D46" s="44"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="44"/>
+      <c r="B47" s="85" t="s">
         <v>234</v>
       </c>
-      <c r="C29" s="76"/>
-      <c r="D29" s="50"/>
+      <c r="C47" s="85"/>
+      <c r="D47" s="44"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="50"/>
-      <c r="B30" s="67" t="s">
-        <v>256</v>
-      </c>
-      <c r="C30" s="67"/>
-      <c r="D30" s="50"/>
-      <c r="F30" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="50"/>
-      <c r="B31" s="67" t="s">
-        <v>257</v>
-      </c>
-      <c r="C31" s="67"/>
-      <c r="D31" s="50"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="50"/>
-      <c r="B32" s="77" t="s">
-        <v>258</v>
-      </c>
-      <c r="C32" s="77"/>
-      <c r="D32" s="50"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="50"/>
-      <c r="B33" s="67" t="s">
-        <v>259</v>
-      </c>
-      <c r="C33" s="67"/>
-      <c r="D33" s="50"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="50"/>
-      <c r="D34" s="50"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="50"/>
-      <c r="B35" s="70" t="s">
-        <v>269</v>
-      </c>
-      <c r="C35" s="70"/>
-      <c r="D35" s="50"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="50"/>
-      <c r="B36" s="67" t="s">
-        <v>233</v>
-      </c>
-      <c r="C36" s="67"/>
-      <c r="D36" s="50"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="50"/>
-      <c r="B37" s="67" t="s">
-        <v>260</v>
-      </c>
-      <c r="C37" s="67"/>
-      <c r="D37" s="50"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="50"/>
-      <c r="B38" s="67" t="s">
-        <v>261</v>
-      </c>
-      <c r="C38" s="67"/>
-      <c r="D38" s="50"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="50"/>
-      <c r="B39" s="67" t="s">
-        <v>262</v>
-      </c>
-      <c r="C39" s="67"/>
-      <c r="D39" s="50"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="50"/>
-      <c r="B40" s="68" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="44"/>
+      <c r="B48" s="84" t="s">
         <v>235</v>
       </c>
-      <c r="C40" s="68"/>
-      <c r="D40" s="50"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="50"/>
-      <c r="B41" s="67" t="s">
-        <v>236</v>
-      </c>
-      <c r="C41" s="67"/>
-      <c r="D41" s="50"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="50"/>
-      <c r="B42" s="67" t="s">
-        <v>237</v>
-      </c>
-      <c r="C42" s="67"/>
-      <c r="D42" s="50"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="50"/>
-      <c r="B43" s="67" t="s">
-        <v>238</v>
-      </c>
-      <c r="C43" s="67"/>
-      <c r="D43" s="50"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="50"/>
-      <c r="B44" s="67"/>
-      <c r="C44" s="67"/>
-      <c r="D44" s="50"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="50"/>
-      <c r="B45" s="70" t="s">
-        <v>239</v>
-      </c>
-      <c r="C45" s="70"/>
-      <c r="D45" s="50"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="50"/>
-      <c r="B46" s="67" t="s">
-        <v>240</v>
-      </c>
-      <c r="C46" s="67"/>
-      <c r="D46" s="50"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="50"/>
-      <c r="B47" s="69" t="s">
-        <v>263</v>
-      </c>
-      <c r="C47" s="67"/>
-      <c r="D47" s="50"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="50"/>
-      <c r="B48" s="67" t="s">
-        <v>244</v>
-      </c>
-      <c r="C48" s="67"/>
-      <c r="D48" s="50"/>
+      <c r="C48" s="84"/>
+      <c r="D48" s="44"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="50"/>
-      <c r="B49" s="69" t="s">
-        <v>264</v>
-      </c>
-      <c r="C49" s="67"/>
-      <c r="D49" s="50"/>
+      <c r="A49" s="44"/>
+      <c r="B49" s="84" t="s">
+        <v>236</v>
+      </c>
+      <c r="C49" s="84"/>
+      <c r="D49" s="44"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="50"/>
-      <c r="B50" s="67" t="s">
-        <v>243</v>
-      </c>
-      <c r="C50" s="67"/>
-      <c r="D50" s="50"/>
+      <c r="A50" s="44"/>
+      <c r="B50" s="84" t="s">
+        <v>237</v>
+      </c>
+      <c r="C50" s="84"/>
+      <c r="D50" s="44"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="50"/>
-      <c r="B51" s="69" t="s">
-        <v>265</v>
-      </c>
-      <c r="C51" s="67"/>
-      <c r="D51" s="50"/>
+      <c r="A51" s="44"/>
+      <c r="B51" s="84"/>
+      <c r="C51" s="84"/>
+      <c r="D51" s="44"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="50"/>
-      <c r="B52" s="67" t="s">
-        <v>242</v>
-      </c>
-      <c r="C52" s="67"/>
-      <c r="D52" s="50"/>
+      <c r="A52" s="44"/>
+      <c r="B52" s="87" t="s">
+        <v>238</v>
+      </c>
+      <c r="C52" s="87"/>
+      <c r="D52" s="44"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="50"/>
-      <c r="B53" s="69" t="s">
-        <v>266</v>
-      </c>
-      <c r="C53" s="67"/>
-      <c r="D53" s="50"/>
+      <c r="A53" s="44"/>
+      <c r="B53" s="84" t="s">
+        <v>239</v>
+      </c>
+      <c r="C53" s="84"/>
+      <c r="D53" s="44"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="50"/>
-      <c r="B54" s="67" t="s">
-        <v>241</v>
-      </c>
-      <c r="C54" s="67"/>
-      <c r="D54" s="50"/>
+      <c r="A54" s="44"/>
+      <c r="B54" s="86" t="s">
+        <v>262</v>
+      </c>
+      <c r="C54" s="84"/>
+      <c r="D54" s="44"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="50"/>
-      <c r="B55" s="67"/>
-      <c r="C55" s="67"/>
-      <c r="D55" s="50"/>
+      <c r="A55" s="44"/>
+      <c r="B55" s="84" t="s">
+        <v>243</v>
+      </c>
+      <c r="C55" s="84"/>
+      <c r="D55" s="44"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="50"/>
-      <c r="B56" s="70" t="s">
-        <v>250</v>
-      </c>
-      <c r="C56" s="70"/>
-      <c r="D56" s="50"/>
+      <c r="A56" s="44"/>
+      <c r="B56" s="86" t="s">
+        <v>263</v>
+      </c>
+      <c r="C56" s="84"/>
+      <c r="D56" s="44"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="50"/>
-      <c r="B57" s="67" t="s">
-        <v>251</v>
-      </c>
-      <c r="C57" s="67"/>
-      <c r="D57" s="50"/>
+      <c r="A57" s="44"/>
+      <c r="B57" s="84" t="s">
+        <v>242</v>
+      </c>
+      <c r="C57" s="84"/>
+      <c r="D57" s="44"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="50"/>
-      <c r="B58" s="67" t="s">
-        <v>252</v>
-      </c>
-      <c r="C58" s="67"/>
-      <c r="D58" s="50"/>
+      <c r="A58" s="44"/>
+      <c r="B58" s="86" t="s">
+        <v>264</v>
+      </c>
+      <c r="C58" s="84"/>
+      <c r="D58" s="44"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="50"/>
-      <c r="B59" s="49"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="50"/>
+      <c r="A59" s="44"/>
+      <c r="B59" s="84" t="s">
+        <v>241</v>
+      </c>
+      <c r="C59" s="84"/>
+      <c r="D59" s="44"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="50"/>
-      <c r="B60" s="67"/>
-      <c r="C60" s="67"/>
-      <c r="D60" s="50"/>
+      <c r="A60" s="44"/>
+      <c r="B60" s="86" t="s">
+        <v>265</v>
+      </c>
+      <c r="C60" s="84"/>
+      <c r="D60" s="44"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="50"/>
-      <c r="B61" s="70" t="s">
-        <v>249</v>
-      </c>
-      <c r="C61" s="70"/>
-      <c r="D61" s="50"/>
+      <c r="A61" s="44"/>
+      <c r="B61" s="84" t="s">
+        <v>240</v>
+      </c>
+      <c r="C61" s="84"/>
+      <c r="D61" s="44"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="50"/>
-      <c r="B62" s="67" t="s">
-        <v>245</v>
-      </c>
-      <c r="C62" s="67"/>
-      <c r="D62" s="50"/>
+      <c r="A62" s="44"/>
+      <c r="B62" s="84"/>
+      <c r="C62" s="84"/>
+      <c r="D62" s="44"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="50"/>
-      <c r="B63" s="67" t="s">
-        <v>246</v>
-      </c>
-      <c r="C63" s="67"/>
-      <c r="D63" s="50"/>
+      <c r="A63" s="44"/>
+      <c r="B63" s="87" t="s">
+        <v>249</v>
+      </c>
+      <c r="C63" s="87"/>
+      <c r="D63" s="44"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="50"/>
-      <c r="B64" s="67" t="s">
-        <v>247</v>
-      </c>
-      <c r="C64" s="67"/>
-      <c r="D64" s="50"/>
+      <c r="A64" s="44"/>
+      <c r="B64" s="84" t="s">
+        <v>250</v>
+      </c>
+      <c r="C64" s="84"/>
+      <c r="D64" s="44"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="50"/>
-      <c r="B65" s="67" t="s">
-        <v>248</v>
-      </c>
-      <c r="C65" s="67"/>
-      <c r="D65" s="50"/>
+      <c r="A65" s="44"/>
+      <c r="B65" s="84" t="s">
+        <v>251</v>
+      </c>
+      <c r="C65" s="84"/>
+      <c r="D65" s="44"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="50"/>
-      <c r="B66" s="64"/>
-      <c r="C66" s="64"/>
-      <c r="D66" s="50"/>
+      <c r="A66" s="44"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="44"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B67" s="54"/>
+      <c r="A67" s="44"/>
+      <c r="B67" s="84"/>
+      <c r="C67" s="84"/>
+      <c r="D67" s="44"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="44"/>
+      <c r="B68" s="87" t="s">
+        <v>248</v>
+      </c>
+      <c r="C68" s="87"/>
+      <c r="D68" s="44"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="44"/>
+      <c r="B69" s="84" t="s">
+        <v>244</v>
+      </c>
+      <c r="C69" s="84"/>
+      <c r="D69" s="44"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B70" s="67"/>
-      <c r="C70" s="67"/>
+      <c r="A70" s="44"/>
+      <c r="B70" s="84" t="s">
+        <v>245</v>
+      </c>
+      <c r="C70" s="84"/>
+      <c r="D70" s="44"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B71" s="67"/>
-      <c r="C71" s="67"/>
+      <c r="A71" s="44"/>
+      <c r="B71" s="84" t="s">
+        <v>246</v>
+      </c>
+      <c r="C71" s="84"/>
+      <c r="D71" s="44"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="44"/>
+      <c r="B72" s="84" t="s">
+        <v>247</v>
+      </c>
+      <c r="C72" s="84"/>
+      <c r="D72" s="44"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="44"/>
+      <c r="B73" s="81"/>
+      <c r="C73" s="81"/>
+      <c r="D73" s="44"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B74" s="48"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B77" s="84"/>
+      <c r="C77" s="84"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B78" s="84"/>
+      <c r="C78" s="84"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
+  <mergeCells count="59">
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
     <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B1:C1"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B33:C33"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
     <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B73:C73"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
     <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -46179,1479 +46404,1548 @@
   <sheetPr>
     <tabColor rgb="FFFF9900"/>
   </sheetPr>
-  <dimension ref="A1:M81"/>
+  <dimension ref="A1:M86"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="E69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
+      <selection pane="bottomRight" activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.296875" style="62" customWidth="1"/>
+    <col min="1" max="1" width="1.296875" style="56" customWidth="1"/>
     <col min="2" max="2" width="13.19921875" style="4" customWidth="1"/>
     <col min="3" max="3" width="33.59765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.5" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.5" style="34" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.69921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="63.796875" style="39" customWidth="1"/>
-    <col min="7" max="7" width="18.69921875" style="39" customWidth="1"/>
+    <col min="6" max="6" width="63.796875" style="34" customWidth="1"/>
+    <col min="7" max="7" width="18.69921875" style="34" customWidth="1"/>
     <col min="8" max="8" width="17.8984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="1.3984375" style="62" customWidth="1"/>
+    <col min="9" max="9" width="1.3984375" style="56" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59"/>
-      <c r="B1" s="78" t="s">
+      <c r="A1" s="53"/>
+      <c r="B1" s="96" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="59"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="53"/>
     </row>
     <row r="2" spans="1:9" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="59"/>
-      <c r="B2" s="20" t="s">
+      <c r="A2" s="53"/>
+      <c r="B2" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="F2" s="35" t="s">
+      <c r="E2" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="G2" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="H2" s="20" t="s">
+      <c r="G2" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="H2" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="59"/>
+      <c r="I2" s="53"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="B3" s="25" t="s">
+      <c r="A3" s="53"/>
+      <c r="B3" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="42" t="s">
+      <c r="D3" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" s="21"/>
+      <c r="F3" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="G3" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="59"/>
+      <c r="G3" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="H3" s="20"/>
+      <c r="I3" s="53"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
-      <c r="B4" s="27" t="s">
+      <c r="A4" s="53"/>
+      <c r="B4" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="G4" s="79" t="s">
-        <v>196</v>
-      </c>
-      <c r="H4" s="26"/>
-      <c r="I4" s="59"/>
+      <c r="F4" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="G4" s="97" t="s">
+        <v>195</v>
+      </c>
+      <c r="H4" s="22"/>
+      <c r="I4" s="53"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="22" t="s">
+      <c r="A5" s="53"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="59"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="53"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="59"/>
-      <c r="B6" s="27" t="s">
+      <c r="A6" s="53"/>
+      <c r="B6" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="G6" s="79" t="s">
-        <v>196</v>
-      </c>
-      <c r="H6" s="26"/>
-      <c r="I6" s="59"/>
+      <c r="G6" s="97" t="s">
+        <v>195</v>
+      </c>
+      <c r="H6" s="22"/>
+      <c r="I6" s="53"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="59"/>
+      <c r="A7" s="53"/>
       <c r="E7" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G7" s="67"/>
-      <c r="I7" s="59"/>
+      <c r="G7" s="84"/>
+      <c r="I7" s="53"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="59"/>
+      <c r="A8" s="53"/>
       <c r="E8" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G8" s="67"/>
-      <c r="I8" s="59"/>
+      <c r="G8" s="84"/>
+      <c r="I8" s="53"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="59"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="22" t="s">
+      <c r="A9" s="53"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="59"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="53"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="59"/>
-      <c r="B10" s="27" t="s">
+      <c r="A10" s="53"/>
+      <c r="B10" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="79" t="s">
+      <c r="D10" s="97" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="G10" s="79" t="s">
-        <v>196</v>
-      </c>
-      <c r="H10" s="26"/>
-      <c r="I10" s="59"/>
+      <c r="F10" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="G10" s="97" t="s">
+        <v>195</v>
+      </c>
+      <c r="H10" s="22"/>
+      <c r="I10" s="53"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="59"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="22" t="s">
-        <v>268</v>
-      </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="59"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="F11" s="33"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="53"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="59"/>
-      <c r="B12" s="27" t="s">
+      <c r="A12" s="53"/>
+      <c r="B12" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="37" t="s">
+      <c r="F12" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="G12" s="79" t="s">
-        <v>196</v>
-      </c>
-      <c r="H12" s="26"/>
-      <c r="I12" s="59"/>
+      <c r="G12" s="97" t="s">
+        <v>195</v>
+      </c>
+      <c r="H12" s="22"/>
+      <c r="I12" s="53"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="59"/>
+      <c r="A13" s="53"/>
       <c r="E13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="67"/>
-      <c r="I13" s="59"/>
+      <c r="G13" s="84"/>
+      <c r="I13" s="53"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="59"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="22" t="s">
+      <c r="A14" s="53"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="38"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="59"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="53"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="59"/>
-      <c r="B15" s="22" t="s">
+      <c r="A15" s="53"/>
+      <c r="B15" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="38" t="s">
-        <v>272</v>
-      </c>
-      <c r="G15" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="H15" s="21" t="s">
+      <c r="G15" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="H15" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="59"/>
+      <c r="I15" s="53"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="59"/>
-      <c r="B16" s="22" t="s">
+      <c r="A16" s="53"/>
+      <c r="B16" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="38" t="s">
-        <v>274</v>
-      </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="38" t="s">
+      <c r="D16" s="33" t="s">
         <v>273</v>
       </c>
-      <c r="G16" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="H16" s="21" t="s">
+      <c r="E16" s="19"/>
+      <c r="F16" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="H16" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I16" s="59"/>
+      <c r="I16" s="53"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
-      <c r="B17" s="29" t="s">
+      <c r="A17" s="53"/>
+      <c r="B17" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="36" t="s">
+      <c r="E17" s="25"/>
+      <c r="F17" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="G17" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="H17" s="28"/>
-      <c r="I17" s="59"/>
+      <c r="G17" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="H17" s="24"/>
+      <c r="I17" s="53"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
-      <c r="B18" s="29" t="s">
+      <c r="A18" s="53"/>
+      <c r="B18" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="36" t="s">
+      <c r="E18" s="25"/>
+      <c r="F18" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="G18" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="59"/>
+      <c r="G18" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="H18" s="24"/>
+      <c r="I18" s="53"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="59"/>
-      <c r="B19" s="29" t="s">
+      <c r="A19" s="53"/>
+      <c r="B19" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="29"/>
-      <c r="F19" s="36" t="s">
+      <c r="E19" s="25"/>
+      <c r="F19" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="G19" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="59"/>
+      <c r="G19" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="H19" s="24"/>
+      <c r="I19" s="53"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="59"/>
-      <c r="B20" s="29" t="s">
+      <c r="A20" s="53"/>
+      <c r="B20" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="29"/>
-      <c r="F20" s="36" t="s">
+      <c r="E20" s="25"/>
+      <c r="F20" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="G20" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="59"/>
+      <c r="G20" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="H20" s="24"/>
+      <c r="I20" s="53"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="59"/>
-      <c r="B21" s="29" t="s">
+      <c r="A21" s="53"/>
+      <c r="B21" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="29"/>
-      <c r="F21" s="36" t="s">
+      <c r="E21" s="25"/>
+      <c r="F21" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="G21" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="59"/>
+      <c r="G21" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="H21" s="24"/>
+      <c r="I21" s="53"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="59"/>
-      <c r="B22" s="29" t="s">
+      <c r="A22" s="53"/>
+      <c r="B22" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="29"/>
-      <c r="F22" s="36" t="s">
+      <c r="E22" s="25"/>
+      <c r="F22" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="G22" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="59"/>
+      <c r="G22" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="H22" s="24"/>
+      <c r="I22" s="53"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="59"/>
-      <c r="B23" s="29" t="s">
+      <c r="A23" s="53"/>
+      <c r="B23" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="36" t="s">
+      <c r="D23" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="29"/>
-      <c r="F23" s="36" t="s">
+      <c r="E23" s="25"/>
+      <c r="F23" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="G23" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="H23" s="28"/>
-      <c r="I23" s="59"/>
+      <c r="G23" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="H23" s="24"/>
+      <c r="I23" s="53"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="59"/>
-      <c r="B24" s="29" t="s">
+      <c r="A24" s="53"/>
+      <c r="B24" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="36" t="s">
+      <c r="D24" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="E24" s="29"/>
-      <c r="F24" s="36" t="s">
+      <c r="E24" s="25"/>
+      <c r="F24" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="G24" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="H24" s="28" t="s">
+      <c r="G24" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="H24" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="I24" s="59"/>
+      <c r="I24" s="53"/>
       <c r="K24" s="4"/>
       <c r="M24" s="4"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="59"/>
-      <c r="B25" s="27" t="s">
+      <c r="A25" s="53"/>
+      <c r="B25" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="E25" s="27" t="s">
+      <c r="E25" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="F25" s="37" t="s">
+      <c r="F25" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="G25" s="79" t="s">
-        <v>196</v>
-      </c>
-      <c r="H25" s="26"/>
-      <c r="I25" s="59"/>
+      <c r="G25" s="97" t="s">
+        <v>195</v>
+      </c>
+      <c r="H25" s="22"/>
+      <c r="I25" s="53"/>
       <c r="K25" s="4"/>
       <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="59"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="22" t="s">
+      <c r="A26" s="53"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="F26" s="38"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="59"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="98"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="53"/>
       <c r="K26" s="4"/>
       <c r="M26" s="4"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="59"/>
-      <c r="B27" s="27" t="s">
+      <c r="A27" s="53"/>
+      <c r="B27" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="37" t="s">
+      <c r="D27" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="E27" s="27" t="s">
+      <c r="E27" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="F27" s="37" t="s">
+      <c r="F27" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="G27" s="79" t="s">
-        <v>196</v>
-      </c>
-      <c r="H27" s="26"/>
-      <c r="I27" s="59"/>
+      <c r="G27" s="97" t="s">
+        <v>195</v>
+      </c>
+      <c r="H27" s="22"/>
+      <c r="I27" s="53"/>
       <c r="K27" s="4"/>
       <c r="M27" s="4"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="59"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="22" t="s">
+      <c r="A28" s="53"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="F28" s="38"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="59"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="98"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="53"/>
       <c r="K28" s="4"/>
       <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="59"/>
-      <c r="B29" s="29" t="s">
+      <c r="A29" s="53"/>
+      <c r="B29" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="36" t="s">
+      <c r="D29" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="E29" s="29"/>
-      <c r="F29" s="36" t="s">
+      <c r="E29" s="25"/>
+      <c r="F29" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="G29" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="H29" s="28" t="s">
+      <c r="G29" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="H29" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="I29" s="59"/>
+      <c r="I29" s="53"/>
       <c r="K29" s="4"/>
       <c r="M29" s="4"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="59"/>
-      <c r="B30" s="29" t="s">
+      <c r="A30" s="53"/>
+      <c r="B30" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="D30" s="36" t="s">
+      <c r="D30" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="E30" s="29"/>
-      <c r="F30" s="39" t="s">
+      <c r="E30" s="25"/>
+      <c r="F30" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="G30" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="H30" s="28" t="s">
+      <c r="G30" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="H30" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="I30" s="59"/>
+      <c r="I30" s="53"/>
       <c r="K30" s="4"/>
       <c r="M30" s="4"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="59"/>
-      <c r="B31" s="29" t="s">
+      <c r="A31" s="53"/>
+      <c r="B31" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="D31" s="36" t="s">
+      <c r="D31" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="E31" s="29"/>
-      <c r="F31" s="36" t="s">
+      <c r="E31" s="25"/>
+      <c r="F31" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="G31" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="H31" s="28" t="s">
+      <c r="G31" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="H31" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="I31" s="59"/>
+      <c r="I31" s="53"/>
       <c r="K31" s="4"/>
       <c r="M31" s="4"/>
     </row>
     <row r="32" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A32" s="59"/>
-      <c r="B32" s="29" t="s">
+      <c r="A32" s="53"/>
+      <c r="B32" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="D32" s="36" t="s">
+      <c r="D32" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="E32" s="29"/>
-      <c r="F32" s="36" t="s">
+      <c r="E32" s="25"/>
+      <c r="F32" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="G32" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="H32" s="28" t="s">
+      <c r="G32" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="H32" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="I32" s="59"/>
+      <c r="I32" s="53"/>
       <c r="K32" s="4"/>
       <c r="M32" s="4"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="59"/>
-      <c r="B33" s="27" t="s">
+      <c r="A33" s="53"/>
+      <c r="B33" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="D33" s="39" t="s">
+      <c r="D33" s="34" t="s">
         <v>148</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F33" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="G33" s="79" t="s">
-        <v>196</v>
-      </c>
-      <c r="I33" s="59"/>
+      <c r="F33" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="G33" s="97" t="s">
+        <v>195</v>
+      </c>
+      <c r="I33" s="53"/>
       <c r="K33" s="4"/>
       <c r="M33" s="4"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="59"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
+      <c r="A34" s="53"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
       <c r="E34" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F34" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="G34" s="80"/>
-      <c r="I34" s="59"/>
+      <c r="F34" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="G34" s="98"/>
+      <c r="I34" s="53"/>
       <c r="K34" s="4"/>
       <c r="M34" s="4"/>
     </row>
     <row r="35" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="59"/>
-      <c r="B35" s="46" t="s">
+      <c r="A35" s="53"/>
+      <c r="B35" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="34"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="59"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="53"/>
       <c r="K35" s="4"/>
       <c r="M35" s="4"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="59"/>
-      <c r="B36" s="47" t="s">
+      <c r="A36" s="53"/>
+      <c r="B36" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="C36" s="47" t="s">
+      <c r="C36" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="48" t="s">
+      <c r="D36" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="E36" s="47" t="s">
+      <c r="E36" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="48" t="s">
+      <c r="F36" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="G36" s="83" t="s">
-        <v>196</v>
-      </c>
-      <c r="H36" s="31"/>
-      <c r="I36" s="59"/>
+      <c r="G36" s="101" t="s">
+        <v>195</v>
+      </c>
+      <c r="H36" s="27"/>
+      <c r="I36" s="53"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="59"/>
+      <c r="A37" s="53"/>
       <c r="E37" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="67"/>
-      <c r="I37" s="59"/>
+      <c r="G37" s="84"/>
+      <c r="I37" s="53"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="59"/>
+      <c r="A38" s="53"/>
       <c r="E38" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G38" s="67"/>
-      <c r="I38" s="59"/>
+      <c r="G38" s="84"/>
+      <c r="I38" s="53"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="59"/>
+      <c r="A39" s="53"/>
       <c r="E39" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="67"/>
-      <c r="I39" s="59"/>
+      <c r="G39" s="84"/>
+      <c r="I39" s="53"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="59"/>
+      <c r="A40" s="53"/>
       <c r="E40" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G40" s="67"/>
-      <c r="I40" s="59"/>
+      <c r="G40" s="84"/>
+      <c r="I40" s="53"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="59"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="22" t="s">
+      <c r="A41" s="53"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F41" s="38"/>
-      <c r="G41" s="80"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="59"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="98"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="53"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="59"/>
-      <c r="B42" s="29" t="s">
+      <c r="A42" s="53"/>
+      <c r="B42" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="C42" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D42" s="36" t="s">
+      <c r="D42" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="E42" s="29"/>
-      <c r="F42" s="36" t="s">
+      <c r="E42" s="25"/>
+      <c r="F42" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="G42" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="H42" s="28"/>
-      <c r="I42" s="59"/>
+      <c r="G42" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="H42" s="24"/>
+      <c r="I42" s="53"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="59"/>
-      <c r="B43" s="27" t="s">
+      <c r="A43" s="53"/>
+      <c r="B43" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C43" s="27" t="s">
+      <c r="C43" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D43" s="37" t="s">
+      <c r="D43" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="E43" s="27" t="s">
+      <c r="E43" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F43" s="37" t="s">
+      <c r="F43" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="G43" s="79" t="s">
-        <v>196</v>
-      </c>
-      <c r="H43" s="26"/>
-      <c r="I43" s="59"/>
+      <c r="G43" s="97" t="s">
+        <v>195</v>
+      </c>
+      <c r="H43" s="22"/>
+      <c r="I43" s="53"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="59"/>
+      <c r="A44" s="53"/>
       <c r="E44" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F44" s="39" t="s">
+      <c r="F44" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="G44" s="67"/>
-      <c r="I44" s="59"/>
+      <c r="G44" s="84"/>
+      <c r="I44" s="53"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="59"/>
+      <c r="A45" s="53"/>
       <c r="E45" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F45" s="39" t="s">
+      <c r="F45" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="G45" s="67"/>
-      <c r="I45" s="59"/>
+      <c r="G45" s="84"/>
+      <c r="I45" s="53"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="59"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="22" t="s">
+      <c r="A46" s="53"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F46" s="38" t="s">
+      <c r="F46" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="G46" s="80"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="59"/>
+      <c r="G46" s="98"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="53"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="59"/>
-      <c r="B47" s="29" t="s">
+      <c r="A47" s="53"/>
+      <c r="B47" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="D47" s="36" t="s">
+      <c r="C47" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="D47" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="E47" s="29"/>
-      <c r="F47" s="36" t="s">
-        <v>275</v>
-      </c>
-      <c r="G47" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="H47" s="28" t="s">
+      <c r="E47" s="25"/>
+      <c r="F47" s="31" t="s">
+        <v>274</v>
+      </c>
+      <c r="G47" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="H47" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="I47" s="59"/>
+      <c r="I47" s="53"/>
     </row>
     <row r="48" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A48" s="59"/>
-      <c r="B48" s="29" t="s">
+      <c r="A48" s="53"/>
+      <c r="B48" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C48" s="29" t="s">
+      <c r="C48" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="D48" s="36" t="s">
+      <c r="D48" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="E48" s="29"/>
-      <c r="F48" s="36" t="s">
+      <c r="E48" s="25"/>
+      <c r="F48" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="G48" s="36" t="s">
-        <v>199</v>
-      </c>
-      <c r="H48" s="28" t="s">
+      <c r="G48" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="H48" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="I48" s="59"/>
+      <c r="I48" s="53"/>
     </row>
     <row r="49" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A49" s="59"/>
-      <c r="B49" s="29" t="s">
+      <c r="A49" s="53"/>
+      <c r="B49" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C49" s="29" t="s">
+      <c r="C49" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="D49" s="36" t="s">
+      <c r="D49" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="E49" s="29"/>
-      <c r="F49" s="36" t="s">
+      <c r="E49" s="23"/>
+      <c r="F49" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="G49" s="36" t="s">
-        <v>199</v>
-      </c>
-      <c r="H49" s="28" t="s">
+      <c r="G49" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="H49" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="I49" s="59"/>
+      <c r="I49" s="53"/>
     </row>
-    <row r="50" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A50" s="59"/>
-      <c r="B50" s="29" t="s">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="53"/>
+      <c r="B50" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C50" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="D50" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="E50" s="29"/>
-      <c r="F50" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="G50" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="H50" s="28"/>
-      <c r="I50" s="59"/>
+      <c r="C50" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="D50" s="31"/>
+      <c r="E50" s="59" t="s">
+        <v>311</v>
+      </c>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="53"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="59"/>
-      <c r="B51" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C51" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="D51" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="E51" s="29"/>
-      <c r="F51" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="G51" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="H51" s="28"/>
-      <c r="I51" s="59"/>
+      <c r="A51" s="53"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="59" t="s">
+        <v>211</v>
+      </c>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="53"/>
     </row>
-    <row r="52" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="59"/>
-      <c r="B52" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="C52" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="D52" s="40"/>
-      <c r="E52" s="46"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="59"/>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="53"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="53"/>
     </row>
-    <row r="53" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A53" s="59"/>
-      <c r="B53" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C53" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D53" s="42" t="s">
-        <v>158</v>
-      </c>
-      <c r="E53" s="25"/>
-      <c r="F53" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="G53" s="42" t="s">
-        <v>196</v>
-      </c>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="53"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
       <c r="H53" s="24"/>
-      <c r="I53" s="59"/>
+      <c r="I53" s="53"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="59"/>
-      <c r="B54" s="29" t="s">
+      <c r="A54" s="53"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="53"/>
+    </row>
+    <row r="55" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A55" s="53"/>
+      <c r="B55" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="D55" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="E55" s="25"/>
+      <c r="F55" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="G55" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="H55" s="24"/>
+      <c r="I55" s="53"/>
+    </row>
+    <row r="56" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A56" s="53"/>
+      <c r="B56" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="E56" s="25"/>
+      <c r="F56" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="G56" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="H56" s="24"/>
+      <c r="I56" s="53"/>
+    </row>
+    <row r="57" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="53"/>
+      <c r="B57" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57" s="35"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="53"/>
+    </row>
+    <row r="58" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A58" s="53"/>
+      <c r="B58" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C54" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="D54" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="E54" s="29"/>
-      <c r="F54" s="36" t="s">
-        <v>169</v>
-      </c>
-      <c r="G54" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="H54" s="28"/>
-      <c r="I54" s="59"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="59"/>
-      <c r="B55" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C55" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="D55" s="36" t="s">
-        <v>171</v>
-      </c>
-      <c r="E55" s="29"/>
-      <c r="F55" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="G55" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="H55" s="28"/>
-      <c r="I55" s="59"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="59"/>
-      <c r="B56" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C56" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="D56" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="E56" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="F56" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="G56" s="79" t="s">
-        <v>196</v>
-      </c>
-      <c r="H56" s="26"/>
-      <c r="I56" s="59"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="59"/>
-      <c r="E57" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="G57" s="67"/>
-      <c r="I57" s="59"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="59"/>
-      <c r="E58" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G58" s="67"/>
-      <c r="I58" s="59"/>
+      <c r="C58" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D58" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="E58" s="21"/>
+      <c r="F58" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="G58" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="H58" s="20"/>
+      <c r="I58" s="53"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="59"/>
-      <c r="E59" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="G59" s="67"/>
-      <c r="I59" s="59"/>
+      <c r="A59" s="53"/>
+      <c r="B59" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="D59" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="E59" s="25"/>
+      <c r="F59" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="G59" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="H59" s="24"/>
+      <c r="I59" s="53"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="59"/>
-      <c r="E60" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="G60" s="67"/>
-      <c r="I60" s="59"/>
+      <c r="A60" s="53"/>
+      <c r="B60" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="D60" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="E60" s="25"/>
+      <c r="F60" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="G60" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="H60" s="24"/>
+      <c r="I60" s="53"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="59"/>
-      <c r="E61" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G61" s="67"/>
-      <c r="I61" s="59"/>
+      <c r="A61" s="53"/>
+      <c r="B61" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D61" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="E61" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="F61" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="G61" s="97" t="s">
+        <v>195</v>
+      </c>
+      <c r="H61" s="22"/>
+      <c r="I61" s="53"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="59"/>
+      <c r="A62" s="53"/>
       <c r="E62" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G62" s="67"/>
-      <c r="I62" s="59"/>
+        <v>204</v>
+      </c>
+      <c r="G62" s="84"/>
+      <c r="I62" s="53"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="59"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="38"/>
-      <c r="E63" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="F63" s="38"/>
-      <c r="G63" s="80"/>
-      <c r="H63" s="21"/>
-      <c r="I63" s="59"/>
+      <c r="A63" s="53"/>
+      <c r="E63" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G63" s="84"/>
+      <c r="I63" s="53"/>
     </row>
-    <row r="64" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A64" s="59"/>
-      <c r="B64" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C64" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="D64" s="36" t="s">
-        <v>181</v>
-      </c>
-      <c r="E64" s="29"/>
-      <c r="F64" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="G64" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="H64" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="I64" s="59"/>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="53"/>
+      <c r="E64" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="G64" s="84"/>
+      <c r="I64" s="53"/>
     </row>
-    <row r="65" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A65" s="59"/>
-      <c r="B65" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C65" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="D65" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="E65" s="29"/>
-      <c r="F65" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="G65" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="H65" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="I65" s="59"/>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="53"/>
+      <c r="E65" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="G65" s="84"/>
+      <c r="I65" s="53"/>
     </row>
-    <row r="66" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A66" s="59"/>
-      <c r="B66" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C66" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="D66" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="E66" s="29"/>
-      <c r="F66" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="G66" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="H66" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="I66" s="59"/>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="53"/>
+      <c r="E66" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G66" s="84"/>
+      <c r="I66" s="53"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="59"/>
-      <c r="B67" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C67" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D67" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="E67" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="F67" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="G67" s="79" t="s">
-        <v>196</v>
-      </c>
-      <c r="H67" s="26"/>
-      <c r="I67" s="59"/>
+      <c r="A67" s="53"/>
+      <c r="E67" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G67" s="84"/>
+      <c r="I67" s="53"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="59"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="38"/>
-      <c r="E68" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="F68" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="G68" s="80"/>
-      <c r="H68" s="21"/>
-      <c r="I68" s="59"/>
+      <c r="A68" s="53"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F68" s="33"/>
+      <c r="G68" s="98"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="53"/>
     </row>
     <row r="69" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A69" s="59"/>
-      <c r="B69" s="27" t="s">
+      <c r="A69" s="53"/>
+      <c r="B69" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C69" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D69" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="E69" s="29"/>
-      <c r="F69" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="G69" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="H69" s="21"/>
-      <c r="I69" s="59"/>
+      <c r="C69" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D69" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="E69" s="25"/>
+      <c r="F69" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="G69" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="H69" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="I69" s="53"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="59"/>
-      <c r="B70" s="27" t="s">
+    <row r="70" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A70" s="53"/>
+      <c r="B70" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C70" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D70" s="37" t="s">
-        <v>188</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F70" s="39" t="s">
-        <v>189</v>
-      </c>
-      <c r="G70" s="81" t="s">
-        <v>196</v>
-      </c>
-      <c r="H70" s="26"/>
-      <c r="I70" s="59"/>
+      <c r="C70" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="D70" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="E70" s="25"/>
+      <c r="F70" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="G70" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="H70" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="I70" s="53"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="59"/>
-      <c r="B71" s="22"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="38"/>
-      <c r="E71" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="F71" s="38"/>
-      <c r="G71" s="82"/>
-      <c r="H71" s="21"/>
-      <c r="I71" s="59"/>
+    <row r="71" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A71" s="53"/>
+      <c r="B71" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C71" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D71" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="E71" s="25"/>
+      <c r="F71" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="G71" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="H71" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="I71" s="53"/>
     </row>
-    <row r="72" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A72" s="59"/>
-      <c r="B72" s="4" t="s">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="53"/>
+      <c r="B72" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D72" s="39" t="s">
-        <v>190</v>
-      </c>
-      <c r="E72" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="F72" s="39" t="s">
-        <v>217</v>
-      </c>
-      <c r="G72" s="79" t="s">
-        <v>196</v>
-      </c>
-      <c r="I72" s="59"/>
+      <c r="C72" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D72" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="E72" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F72" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="G72" s="97" t="s">
+        <v>195</v>
+      </c>
+      <c r="H72" s="22"/>
+      <c r="I72" s="53"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="59"/>
-      <c r="E73" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="F73" s="39" t="s">
-        <v>218</v>
-      </c>
-      <c r="G73" s="67"/>
-      <c r="I73" s="59"/>
+      <c r="A73" s="53"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="33"/>
+      <c r="E73" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="F73" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="G73" s="98"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="53"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="59"/>
-      <c r="E74" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="F74" s="39" t="s">
-        <v>216</v>
-      </c>
-      <c r="G74" s="67"/>
-      <c r="I74" s="59"/>
+    <row r="74" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A74" s="53"/>
+      <c r="B74" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C74" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D74" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="E74" s="25"/>
+      <c r="F74" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="G74" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="H74" s="18"/>
+      <c r="I74" s="53"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="59"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="38"/>
-      <c r="E75" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="F75" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="G75" s="80"/>
-      <c r="H75" s="21"/>
-      <c r="I75" s="59"/>
+      <c r="A75" s="53"/>
+      <c r="B75" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C75" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D75" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F75" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="G75" s="99" t="s">
+        <v>195</v>
+      </c>
+      <c r="H75" s="22"/>
+      <c r="I75" s="53"/>
     </row>
-    <row r="76" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A76" s="59"/>
-      <c r="B76" s="29" t="s">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="53"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="33"/>
+      <c r="E76" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="F76" s="33"/>
+      <c r="G76" s="100"/>
+      <c r="H76" s="18"/>
+      <c r="I76" s="53"/>
+    </row>
+    <row r="77" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A77" s="53"/>
+      <c r="B77" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C76" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="D76" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="E76" s="22"/>
-      <c r="F76" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="G76" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="H76" s="21"/>
-      <c r="I76" s="59"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="59"/>
-      <c r="B77" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C77" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="D77" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="E77" s="22"/>
-      <c r="F77" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="G77" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="H77" s="32"/>
-      <c r="I77" s="59"/>
+      <c r="C77" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D77" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="E77" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="F77" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="G77" s="97" t="s">
+        <v>195</v>
+      </c>
+      <c r="I77" s="53"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="59"/>
-      <c r="B78" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C78" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="D78" s="36" t="s">
-        <v>176</v>
-      </c>
-      <c r="E78" s="29"/>
-      <c r="F78" s="36" t="s">
-        <v>193</v>
-      </c>
-      <c r="G78" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="H78" s="28"/>
-      <c r="I78" s="59"/>
+      <c r="A78" s="53"/>
+      <c r="E78" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F78" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="G78" s="84"/>
+      <c r="I78" s="53"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="59"/>
-      <c r="B79" s="29" t="s">
+      <c r="A79" s="53"/>
+      <c r="E79" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F79" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="G79" s="84"/>
+      <c r="I79" s="53"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="53"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="33"/>
+      <c r="E80" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="F80" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="G80" s="98"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="53"/>
+    </row>
+    <row r="81" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A81" s="53"/>
+      <c r="B81" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C81" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D81" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="E81" s="19"/>
+      <c r="F81" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="G81" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="H81" s="18"/>
+      <c r="I81" s="53"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="53"/>
+      <c r="B82" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C79" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="D79" s="36" t="s">
+      <c r="C82" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D82" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="E82" s="19"/>
+      <c r="F82" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="G82" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="H82" s="28"/>
+      <c r="I82" s="53"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="53"/>
+      <c r="B83" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C83" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="D83" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="E83" s="25"/>
+      <c r="F83" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="G83" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="H83" s="24"/>
+      <c r="I83" s="53"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="53"/>
+      <c r="B84" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C84" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D84" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="E79" s="29"/>
-      <c r="F79" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="G79" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="H79" s="28" t="s">
+      <c r="E84" s="25"/>
+      <c r="F84" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="G84" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="H84" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="I79" s="59"/>
+      <c r="I84" s="53"/>
     </row>
-    <row r="80" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A80" s="59"/>
-      <c r="B80" s="44" t="s">
+    <row r="85" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A85" s="53"/>
+      <c r="B85" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C80" s="44" t="s">
+      <c r="C85" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="D85" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="D80" s="38" t="s">
+      <c r="E85" s="19"/>
+      <c r="F85" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="G85" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="H85" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="E80" s="22"/>
-      <c r="F80" s="36" t="s">
-        <v>282</v>
-      </c>
-      <c r="G80" s="43" t="s">
-        <v>198</v>
-      </c>
-      <c r="H80" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="I80" s="59"/>
+      <c r="I85" s="53"/>
     </row>
-    <row r="81" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="59"/>
-      <c r="B81" s="60"/>
-      <c r="C81" s="60"/>
-      <c r="D81" s="61"/>
-      <c r="E81" s="60"/>
-      <c r="F81" s="61"/>
-      <c r="G81" s="61"/>
-      <c r="H81" s="59"/>
+    <row r="86" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="53"/>
+      <c r="B86" s="54"/>
+      <c r="C86" s="54"/>
+      <c r="D86" s="55"/>
+      <c r="E86" s="54"/>
+      <c r="F86" s="55"/>
+      <c r="G86" s="55"/>
+      <c r="H86" s="53"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:H80" xr:uid="{6F42B86B-1E1B-4BC7-A1AC-69908067C16A}"/>
+  <autoFilter ref="B2:H85" xr:uid="{6F42B86B-1E1B-4BC7-A1AC-69908067C16A}"/>
   <mergeCells count="15">
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="D10:D11"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G72:G75"/>
-    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="G77:G80"/>
+    <mergeCell ref="G75:G76"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="G6:G9"/>
     <mergeCell ref="G10:G11"/>
@@ -47661,14 +47955,14 @@
     <mergeCell ref="G33:G34"/>
     <mergeCell ref="G36:G41"/>
     <mergeCell ref="G43:G46"/>
-    <mergeCell ref="G56:G63"/>
+    <mergeCell ref="G61:G68"/>
   </mergeCells>
-  <conditionalFormatting sqref="G2:G4 G6 G10 G12 G27 G29:G33 G35:G36 G42:G43 G47:G57 G64:G67 G69:G70 G72:G74 G76:G80 G15:G25">
+  <conditionalFormatting sqref="G2:G4 G6 G10 G12 G27 G29:G33 G35:G36 G42:G43 G69:G72 G74:G75 G77:G79 G81:G85 G15:G25 G47:G62">
     <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Mandatory">
       <formula>NOT(ISERROR(SEARCH("Mandatory",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G4 G6 G10 G12 G27 G29:G33 G35:G36 G42:G43 G47:G57 G64:G67 G69:G70 G72:G74 G76:G80 G15:G25">
+  <conditionalFormatting sqref="G3:G4 G6 G10 G12 G27 G29:G33 G35:G36 G42:G43 G69:G72 G74:G75 G77:G79 G81:G85 G15:G25 G47:G62">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Optional">
       <formula>NOT(ISERROR(SEARCH("Optional",G3)))</formula>
     </cfRule>
@@ -47686,16 +47980,16 @@
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScaleNormal="100" zoomScalePageLayoutView="88" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView topLeftCell="A18" zoomScaleNormal="100" zoomScalePageLayoutView="88" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.59765625" customWidth="1"/>
+    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.3984375" bestFit="1" customWidth="1"/>
@@ -47703,16 +47997,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="84"/>
+      <c r="B1" s="103"/>
     </row>
     <row r="2" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="62" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="5"/>
@@ -47720,10 +48014,10 @@
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:7" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="62" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="5"/>
@@ -47731,10 +48025,10 @@
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="62" t="s">
         <v>107</v>
       </c>
       <c r="C4" s="5"/>
@@ -47742,10 +48036,10 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:7" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="5"/>
@@ -47753,359 +48047,367 @@
       <c r="E5" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="102" t="s">
         <v>116</v>
       </c>
-      <c r="B8" s="84"/>
+      <c r="B8" s="103"/>
       <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="63" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="67" t="s">
         <v>73</v>
       </c>
+      <c r="B10" s="63"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="67" t="s">
         <v>72</v>
       </c>
+      <c r="B11" s="63"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="63">
         <v>3</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="64">
         <v>1</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="64">
         <v>1</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="64">
         <v>2</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="64">
         <v>1</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="64">
         <v>1</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="64">
         <v>2</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="84" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="84"/>
-      <c r="D20" s="6"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="59"/>
+      <c r="B19" s="60"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="4">
-        <v>20</v>
-      </c>
+      <c r="A21" s="102" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="103"/>
+      <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>102</v>
+      <c r="A22" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="61">
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="61" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B24" s="61" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="84" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="84"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>127</v>
-      </c>
+      <c r="A27" s="106" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="106"/>
+      <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
+      <c r="A28" s="65" t="s">
+        <v>307</v>
+      </c>
+      <c r="B28" s="61" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="84" t="s">
-        <v>299</v>
-      </c>
-      <c r="B30" s="84"/>
+      <c r="A30" s="4"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="4">
-        <v>10</v>
-      </c>
+      <c r="A31" s="102" t="s">
+        <v>295</v>
+      </c>
+      <c r="B31" s="103"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B32" s="4">
+      <c r="A32" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="61">
         <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B33" s="4">
-        <v>5</v>
+      <c r="A33" s="65" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" s="61">
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="B34" s="4">
-        <v>90</v>
+      <c r="A34" s="65" t="s">
+        <v>124</v>
+      </c>
+      <c r="B34" s="61">
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
+      <c r="A35" s="65" t="s">
+        <v>306</v>
+      </c>
+      <c r="B35" s="61">
+        <v>90</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="86" t="s">
-        <v>285</v>
-      </c>
-      <c r="B36" s="86"/>
-      <c r="C36" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="D36" s="7"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>117</v>
-      </c>
-      <c r="B37">
-        <v>80</v>
-      </c>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>286</v>
-      </c>
-      <c r="B38">
-        <v>10</v>
-      </c>
+      <c r="A38" s="107" t="s">
+        <v>284</v>
+      </c>
+      <c r="B38" s="108"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>74</v>
-      </c>
-      <c r="B39">
+      <c r="A39" s="66" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" s="3">
         <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>287</v>
-      </c>
-      <c r="B40" t="s">
-        <v>288</v>
+      <c r="A40" s="66" t="s">
+        <v>285</v>
+      </c>
+      <c r="B40" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>293</v>
-      </c>
-      <c r="B41">
+      <c r="A41" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="66" t="s">
+        <v>286</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="66" t="s">
+        <v>308</v>
+      </c>
+      <c r="B43" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="86" t="s">
-        <v>291</v>
-      </c>
-      <c r="B44" s="86"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>117</v>
-      </c>
-      <c r="B45">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>286</v>
-      </c>
-      <c r="B46">
-        <v>100</v>
-      </c>
+    <row r="46" spans="1:4" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="B46" s="108"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>74</v>
-      </c>
-      <c r="B47">
+      <c r="A47" s="66" t="s">
+        <v>117</v>
+      </c>
+      <c r="B47" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>75</v>
-      </c>
-      <c r="B48">
-        <v>-100</v>
+      <c r="A48" s="66" t="s">
+        <v>285</v>
+      </c>
+      <c r="B48" s="3">
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>287</v>
-      </c>
-      <c r="B49" t="s">
-        <v>289</v>
+      <c r="A49" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50" s="3">
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="85" t="s">
-        <v>290</v>
-      </c>
-      <c r="B51" s="85"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>117</v>
-      </c>
-      <c r="B52">
-        <v>80</v>
+      <c r="A51" s="66" t="s">
+        <v>286</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>286</v>
-      </c>
-      <c r="B53">
-        <v>10</v>
-      </c>
+      <c r="A53" s="104" t="s">
+        <v>289</v>
+      </c>
+      <c r="B53" s="105"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>74</v>
-      </c>
-      <c r="B54">
+      <c r="A54" s="66" t="s">
+        <v>117</v>
+      </c>
+      <c r="B54" s="3">
         <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>75</v>
-      </c>
-      <c r="B55">
-        <v>0</v>
+      <c r="A55" s="66" t="s">
+        <v>285</v>
+      </c>
+      <c r="B55" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>287</v>
-      </c>
-      <c r="B56" t="s">
-        <v>289</v>
+      <c r="A56" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="B57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="66" t="s">
+        <v>286</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A53:B53"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A46:B46"/>
   </mergeCells>
   <dataValidations count="15">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3 H5 C9" xr:uid="{6A482B15-3B1C-4495-8EF5-99F2516B6988}">
@@ -48143,9 +48445,9 @@
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the operation temperature in degrees Celsius (°C)" sqref="B21" xr:uid="{621E9E2C-1966-4421-BAAC-E285337B2514}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the security factor for sizing in percentage (%)" sqref="B31:B33" xr:uid="{662F2B8C-7A32-4F59-BBCD-1EAF8C14D435}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the expansion factor for sizing in percentage (%)" sqref="B34" xr:uid="{C7A8F5ED-B7CF-45EC-A603-65DDBAA539CB}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the operation temperature in degrees Celsius (°C)" sqref="B22" xr:uid="{621E9E2C-1966-4421-BAAC-E285337B2514}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the security factor for sizing in percentage (%)" sqref="B32:B34" xr:uid="{662F2B8C-7A32-4F59-BBCD-1EAF8C14D435}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the expansion factor for sizing in percentage (%)" sqref="B35" xr:uid="{C7A8F5ED-B7CF-45EC-A603-65DDBAA539CB}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="82" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -48161,13 +48463,13 @@
           <x14:formula1>
             <xm:f>Glossary!$E$25:$E$26</xm:f>
           </x14:formula1>
-          <xm:sqref>B22</xm:sqref>
+          <xm:sqref>B23</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose the conductor isolation type" xr:uid="{754B0C02-7102-4557-8261-71F11C98DFC3}">
           <x14:formula1>
             <xm:f>Glossary!$E$27:$E$28</xm:f>
           </x14:formula1>
-          <xm:sqref>B23</xm:sqref>
+          <xm:sqref>B24</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select of one the listed classifications" xr:uid="{74868B49-87E2-4047-91A5-970789827DE8}">
           <x14:formula1>
@@ -48197,7 +48499,7 @@
           <x14:formula1>
             <xm:f>Glossary!$E$33:$E$34</xm:f>
           </x14:formula1>
-          <xm:sqref>B27:B29</xm:sqref>
+          <xm:sqref>B28</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -48212,52 +48514,55 @@
   </sheetPr>
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.69921875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="10.8984375" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.796875" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.69921875" style="18" customWidth="1"/>
-    <col min="5" max="5" width="11.8984375" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.69921875" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.09765625" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.796875" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="42.69921875" style="19" customWidth="1"/>
-    <col min="11" max="16384" width="11.3984375" style="19"/>
+    <col min="2" max="2" width="10.8984375" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.796875" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.69921875" style="15" customWidth="1"/>
+    <col min="5" max="5" width="11.8984375" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.69921875" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.8984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="15" customWidth="1"/>
+    <col min="9" max="9" width="21.5" style="15" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.3984375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:10" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="E1" s="13" t="s">
+      <c r="D1" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="E1" s="68" t="s">
+        <v>165</v>
+      </c>
+      <c r="F1" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="I1" s="17" t="s">
+      <c r="G1" s="68" t="s">
+        <v>309</v>
+      </c>
+      <c r="H1" s="68" t="s">
+        <v>275</v>
+      </c>
+      <c r="I1" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="J1" s="14" t="s">
         <v>29</v>
       </c>
     </row>
@@ -48276,13 +48581,16 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>1</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -48298,16 +48606,19 @@
         <v>700</v>
       </c>
       <c r="E3" s="2">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>4</v>
       </c>
-      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -48322,15 +48633,22 @@
       <c r="D4" s="1">
         <v>700</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="1" t="s">
+      <c r="E4" s="2">
+        <v>30</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>6</v>
       </c>
-      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -48349,13 +48667,16 @@
         <v>11</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>11</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -48374,13 +48695,16 @@
         <v>11</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
         <v>11</v>
       </c>
-      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -48396,12 +48720,15 @@
         <v>700</v>
       </c>
       <c r="E7" s="2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="1"/>
+      <c r="G7" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -48417,16 +48744,19 @@
         <v>400</v>
       </c>
       <c r="E8" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
         <v>23</v>
       </c>
-      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -48445,12 +48775,12 @@
         <v>5</v>
       </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="3" t="s">
-        <v>300</v>
-      </c>
+      <c r="G9" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -48469,12 +48799,12 @@
         <v>7</v>
       </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="3" t="s">
-        <v>300</v>
-      </c>
+      <c r="G10" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -48490,15 +48820,15 @@
         <v>350</v>
       </c>
       <c r="E11" s="2">
-        <v>0.3</v>
+        <v>10</v>
       </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="3" t="s">
-        <v>300</v>
-      </c>
+      <c r="G11" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -48514,15 +48844,15 @@
         <v>350</v>
       </c>
       <c r="E12" s="2">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F12" s="3"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="3" t="s">
-        <v>300</v>
-      </c>
+      <c r="G12" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -48538,15 +48868,15 @@
         <v>350</v>
       </c>
       <c r="E13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="3" t="s">
-        <v>300</v>
-      </c>
+      <c r="G13" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:10" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -48570,9 +48900,9 @@
     <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:H34" xr:uid="{804CF21E-C353-4454-9B0E-05956E676815}"/>
+  <autoFilter ref="A1:I34" xr:uid="{804CF21E-C353-4454-9B0E-05956E676815}"/>
   <phoneticPr fontId="8" type="noConversion"/>
-  <dataValidations xWindow="834" yWindow="350" count="14">
+  <dataValidations count="13">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14:C1048576" xr:uid="{87D41A8A-B7E0-4C23-A4B4-5C3476B64083}">
       <formula1>0</formula1>
       <formula2>1000</formula2>
@@ -48593,20 +48923,19 @@
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the operating nominal voltage level for all node types" sqref="D1:D13" xr:uid="{49B2F3FF-8A45-403E-81CA-D5147119B155}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the maximum power (non-negative for consumption and generation) in kilowatts if the node type is P, storage or gen, otherwise leave empty. " sqref="E1:E13" xr:uid="{5201E93D-792F-4158-BD95-8C7F8A99D0C8}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the storage capacity in kilowatt-hours if the node type is storage, otherwise leave empty" sqref="F1:F13" xr:uid="{11F5BC60-E48F-4A32-9105-B6224F41F4B9}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="If the node is linked direclty to a converter, provide the name of this converter following this: Conv_X where X∈[1,m], with m=total number of converters in the grid_x000a_Otherwise leave empty" sqref="G1:G13" xr:uid="{B996EBBF-B69A-41B7-AC00-C8E66CA296E1}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Assign a unique identifier to each converter" sqref="H1" xr:uid="{C1AC1EF0-DB87-48A8-961F-2CF2249E3998}"/>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Assign a unique identifier to each converter" sqref="H2:H13" xr:uid="{FD5AD164-C639-4CA7-8E59-88E7ACCC3A2F}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the storage capacity in kilowatt-hours if the node type is storage, otherwise leave empty" sqref="F1:G1 F2:F13" xr:uid="{11F5BC60-E48F-4A32-9105-B6224F41F4B9}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="If the node is linked direclty to a converter, provide the name of this converter following this: Conv_X where X∈[1,m], with m=total number of converters in the grid_x000a_Otherwise leave empty" sqref="H1:H13" xr:uid="{B996EBBF-B69A-41B7-AC00-C8E66CA296E1}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Assign a unique identifier to each converter" sqref="I1" xr:uid="{C1AC1EF0-DB87-48A8-961F-2CF2249E3998}"/>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Assign a unique identifier to each converter" sqref="I2:I13" xr:uid="{FD5AD164-C639-4CA7-8E59-88E7ACCC3A2F}">
       <formula1>0</formula1>
       <formula2>10000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the default droop curve index 0, as follows: [Vi;Pi], i={1,2,3,4,5,6}, with V=Asset voltage value (p.u.), P=Asset power value (p.u.)" sqref="J9:J13" xr:uid="{97C5EAA7-AF40-4F8E-A7E0-3EF3506244E8}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="834" yWindow="350" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose the asset type" xr:uid="{4BF5972B-EC41-4FEC-84D0-F6BA53E0988C}">
           <x14:formula1>
             <xm:f>Glossary!$E$36:$E$41</xm:f>
@@ -48618,6 +48947,12 @@
             <xm:f>Glossary!$E$43:$E$46</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B13</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the storage capacity in kilowatt-hours if the node type is storage, otherwise leave empty" xr:uid="{2B4B3345-CBD4-4ADA-91CE-C7043A0C07C7}">
+          <x14:formula1>
+            <xm:f>Glossary!$E$50:$E$54</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G13</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -48632,9 +48967,9 @@
   </sheetPr>
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -48643,53 +48978,53 @@
     <col min="2" max="3" width="13" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.69921875" style="10" customWidth="1"/>
     <col min="5" max="6" width="17.59765625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.19921875" customWidth="1"/>
     <col min="8" max="8" width="15.09765625" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.19921875" style="10" customWidth="1"/>
+    <col min="9" max="9" width="27.19921875" style="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.8984375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.59765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.8984375" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="71" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="71" t="s">
         <v>173</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="G1" s="13" t="s">
+      <c r="E1" s="72" t="s">
+        <v>276</v>
+      </c>
+      <c r="F1" s="71" t="s">
+        <v>177</v>
+      </c>
+      <c r="G1" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="76" t="s">
         <v>118</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="76" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>47</v>
       </c>
@@ -48698,11 +49033,11 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <f>'Assets Nodes'!H2</f>
+        <f>'Assets Nodes'!I2</f>
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E2" s="1">
         <v>400</v>
@@ -48710,21 +49045,21 @@
       <c r="F2" s="1">
         <v>700</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="63" t="s">
-        <v>294</v>
-      </c>
-      <c r="J2" s="15" t="s">
+      <c r="I2" s="58" t="s">
+        <v>291</v>
+      </c>
+      <c r="J2" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="K2" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="L2" s="63" t="s">
-        <v>294</v>
+      <c r="K2" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="L2" s="58" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -48745,20 +49080,20 @@
       <c r="F3" s="1">
         <v>700</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15" t="s">
+      <c r="G3" s="13"/>
+      <c r="H3" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="63" t="s">
-        <v>294</v>
+      <c r="I3" s="58" t="s">
+        <v>291</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="K3" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="L3" s="15"/>
+      <c r="K3" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="L3" s="13"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -48778,20 +49113,20 @@
       <c r="F4" s="1">
         <v>700</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15" t="s">
+      <c r="G4" s="13"/>
+      <c r="H4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="63" t="s">
-        <v>294</v>
+      <c r="I4" s="58" t="s">
+        <v>291</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="K4" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="L4" s="15"/>
+      <c r="K4" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="L4" s="13"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -48810,20 +49145,20 @@
       <c r="F5" s="1">
         <v>700</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15" t="s">
+      <c r="G5" s="13"/>
+      <c r="H5" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="63" t="s">
-        <v>294</v>
+      <c r="I5" s="58" t="s">
+        <v>291</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="K5" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="L5" s="15"/>
+      <c r="K5" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="L5" s="13"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -48842,20 +49177,20 @@
       <c r="F6" s="1">
         <v>700</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15" t="s">
+      <c r="G6" s="13"/>
+      <c r="H6" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="63" t="s">
-        <v>294</v>
+      <c r="I6" s="58" t="s">
+        <v>291</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="K6" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="L6" s="15"/>
+      <c r="K6" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="L6" s="13"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -48870,26 +49205,24 @@
       <c r="D7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="2">
-        <v>400</v>
-      </c>
+      <c r="E7" s="2"/>
       <c r="F7" s="1">
         <v>700</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15" t="s">
+      <c r="G7" s="13"/>
+      <c r="H7" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="63" t="s">
-        <v>294</v>
+      <c r="I7" s="58" t="s">
+        <v>291</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="K7" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="L7" s="15"/>
+      <c r="K7" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="L7" s="13"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -48902,7 +49235,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E8" s="2">
         <v>48</v>
@@ -48910,20 +49243,20 @@
       <c r="F8" s="1">
         <v>350</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15" t="s">
+      <c r="G8" s="13"/>
+      <c r="H8" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="63" t="s">
-        <v>294</v>
+      <c r="I8" s="58" t="s">
+        <v>291</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="K8" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="L8" s="15"/>
+      <c r="K8" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="L8" s="13"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -48936,7 +49269,7 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E9" s="2">
         <v>350</v>
@@ -48944,20 +49277,20 @@
       <c r="F9" s="1">
         <v>700</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15" t="s">
+      <c r="G9" s="13"/>
+      <c r="H9" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="63" t="s">
-        <v>294</v>
+      <c r="I9" s="58" t="s">
+        <v>291</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="K9" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="L9" s="15"/>
+      <c r="K9" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="L9" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K1" xr:uid="{6EA95C75-007C-4C1A-8654-C87E758B33B3}"/>
@@ -48988,31 +49321,31 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select the converter type from the proposed list" xr:uid="{5DC1F66F-17B2-416A-BC3A-19C6491E4C8B}">
           <x14:formula1>
-            <xm:f>Glossary!$E$56:$E$63</xm:f>
+            <xm:f>Glossary!$E$61:$E$68</xm:f>
           </x14:formula1>
           <xm:sqref>D1:D9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose the efficiency curve type: &quot;default&quot; for a constructor default efficiency curve per converter type, &quot;user-defined&quot; for a user-defined efficiency curve" xr:uid="{8C996FD7-C814-40FE-9FF2-40716467DE61}">
           <x14:formula1>
-            <xm:f>Glossary!$E$67:$E$68</xm:f>
+            <xm:f>Glossary!$E$72:$E$73</xm:f>
           </x14:formula1>
           <xm:sqref>H1:H9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{77FBB4C0-E5E8-4203-8DE6-810E13F9FDF1}">
           <x14:formula1>
-            <xm:f>Glossary!$E$70:$E$71</xm:f>
+            <xm:f>Glossary!$E$75:$E$76</xm:f>
           </x14:formula1>
           <xm:sqref>J2:J9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose the droop curve type for each converter" xr:uid="{205689B3-AD8B-4B4A-B8AA-73F04A8C81AA}">
           <x14:formula1>
-            <xm:f>Glossary!$E$72:$E$75</xm:f>
+            <xm:f>Glossary!$E$77:$E$80</xm:f>
           </x14:formula1>
           <xm:sqref>K1:K9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose the appropriate voltage control mode for each converter" xr:uid="{67503E9B-4F7C-4D04-A767-3C4C6BF68BBB}">
           <x14:formula1>
-            <xm:f>Glossary!$E$70:$E$71</xm:f>
+            <xm:f>Glossary!$E$75:$E$76</xm:f>
           </x14:formula1>
           <xm:sqref>J1</xm:sqref>
         </x14:dataValidation>
@@ -49029,9 +49362,9 @@
   </sheetPr>
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -49043,17 +49376,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>278</v>
+      <c r="C1" s="74" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" s="73" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -49064,7 +49397,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -49076,7 +49409,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -49088,7 +49421,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -49100,7 +49433,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2"/>
     </row>
@@ -49112,7 +49445,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2"/>
     </row>
@@ -49124,7 +49457,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -49136,7 +49469,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D8" s="2"/>
     </row>
@@ -49148,7 +49481,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D9" s="9"/>
     </row>
@@ -49160,7 +49493,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D10" s="9"/>
     </row>
@@ -49172,7 +49505,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D11" s="9"/>
     </row>
@@ -49184,7 +49517,7 @@
         <v>21</v>
       </c>
       <c r="C12" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D12" s="9"/>
     </row>
@@ -49196,7 +49529,7 @@
         <v>20</v>
       </c>
       <c r="C13" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D13" s="9"/>
     </row>
@@ -49208,7 +49541,7 @@
         <v>21</v>
       </c>
       <c r="C14" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D14" s="2"/>
     </row>
@@ -49347,7 +49680,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <dataValidations count="6">
+  <dataValidations xWindow="199" yWindow="268" count="6">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the resistance of the line in ohms per meters if already sized, otherwise the tool will size each cable " sqref="D1:D14" xr:uid="{7D2C384E-9E8C-464E-9021-98079FD99E6D}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the starting node of the line connection" sqref="A1" xr:uid="{8221C3CB-3351-40EE-988A-0D4B3FCD3E68}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the ending node of the line connection" sqref="B1" xr:uid="{8F09B62E-7CD4-46FD-BB21-77280F5E3E46}"/>
@@ -49371,10 +49704,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -49385,31 +49718,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" s="39" t="s">
         <v>283</v>
       </c>
-      <c r="C1" s="45" t="s">
-        <v>284</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>295</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>296</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>297</v>
+      <c r="D1" s="39" t="s">
+        <v>292</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>293</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -49421,7 +49754,7 @@
         <v>87</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -49433,7 +49766,7 @@
         <v>89</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -49445,7 +49778,7 @@
         <v>90</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -49457,7 +49790,7 @@
         <v>90</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -49469,7 +49802,7 @@
         <v>26</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -49478,10 +49811,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -49490,20 +49823,28 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="5">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the droop curve index 1, as follows: [Vi;Pi], i={1,2,3,4,5,6}, with V=Asset voltage value (p.u.), P=Asset power value (p.u.)" sqref="C1:C9" xr:uid="{B21BD030-2940-4E8D-BAC4-20C90C0349A0}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the default droop curve index 0, as follows: [Vi;Pi], i={1,2,3,4,5,6}, with V=Asset voltage value (p.u.), P=Asset power value (p.u.)" sqref="B1:B9" xr:uid="{6A38DD94-D4A2-43C1-8B58-060D7FB8F2C7}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the default droop curve index 0, as follows: [Vi;Pi], i={1,2,3,4,5,6}, with V=Asset voltage value (p.u.), P=Asset power value (p.u.)" sqref="B1:B10" xr:uid="{6A38DD94-D4A2-43C1-8B58-060D7FB8F2C7}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the droop curve index 2, as follows: [Vi;Pi], i={1,2,3,4,5,6}, with V=Asset voltage value (p.u.), P=Asset power value (p.u.)" sqref="D1:D9" xr:uid="{04EA2867-C584-410B-9F91-945740F87AD4}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the droop curve index 3, as follows: [Vi;Pi], i={1,2,3,4,5,6}, with V=Asset voltage value (p.u.), P=Asset power value (p.u.)" sqref="E1:E9" xr:uid="{D6C1814A-03D4-418C-8AD4-0957E2D8131F}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the droop curve index 4, as follows: [Vi;Pi], i={1,2,3,4,5,6}, with V=Asset voltage value (p.u.), P=Asset power value (p.u.)" sqref="F1:F9" xr:uid="{8FDEA274-DFE4-459D-A2A7-343BED09B01B}"/>
@@ -49514,7 +49855,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{72678E8B-3CD4-49C2-9B29-3C35D6762DE2}">
           <x14:formula1>
-            <xm:f>Glossary!$E$56:$E$63</xm:f>
+            <xm:f>Glossary!$E$61:$E$68</xm:f>
           </x14:formula1>
           <xm:sqref>A1:A9</xm:sqref>
         </x14:dataValidation>
@@ -49525,26 +49866,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a656bf76-cca4-4796-b3e3-9ff4debad9ca">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3f4d043c-ef99-408b-9086-307465b47223" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005D48458B7DF5B44891BF6C8B708F036C" ma:contentTypeVersion="15" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="6ec72bf5cc41951886dd851de9b63939">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a656bf76-cca4-4796-b3e3-9ff4debad9ca" xmlns:ns3="3f4d043c-ef99-408b-9086-307465b47223" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="619265aacb58e563d368a43a0aeb056e" ns2:_="" ns3:_="">
     <xsd:import namespace="a656bf76-cca4-4796-b3e3-9ff4debad9ca"/>
@@ -49779,32 +50100,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80A89352-0353-48F1-9429-0E3BD72B2E30}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D351F7AA-766C-4547-802C-9F4B7AB5F83E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a656bf76-cca4-4796-b3e3-9ff4debad9ca"/>
-    <ds:schemaRef ds:uri="3f4d043c-ef99-408b-9086-307465b47223"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a656bf76-cca4-4796-b3e3-9ff4debad9ca">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3f4d043c-ef99-408b-9086-307465b47223" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{908F6F40-8D93-4BAF-B5F7-B52D93E367E6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -49821,4 +50137,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80A89352-0353-48F1-9429-0E3BD72B2E30}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D351F7AA-766C-4547-802C-9F4B7AB5F83E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="a656bf76-cca4-4796-b3e3-9ff4debad9ca"/>
+    <ds:schemaRef ds:uri="3f4d043c-ef99-408b-9086-307465b47223"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/grid_data_input_file_WIP_v1.xlsx
+++ b/grid_data_input_file_WIP_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c30483\Documents\dc_design_tool\dc_design_tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65614182-CA8B-4FC6-8BA2-701C186D4C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FB9250-D9A6-48D2-BD9F-CBB239F8C8E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16410" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23196" yWindow="10692" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="simple example" sheetId="20" r:id="rId1"/>
@@ -1809,29 +1809,26 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -1845,14 +1842,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1892,9 +1895,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2617,8 +2617,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2877396" y="3759355"/>
-          <a:ext cx="391202" cy="317742"/>
+          <a:off x="2865966" y="3837460"/>
+          <a:ext cx="389297" cy="323457"/>
           <a:chOff x="3573269" y="3601319"/>
           <a:chExt cx="424926" cy="329094"/>
         </a:xfrm>
@@ -2884,8 +2884,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2877396" y="2923634"/>
-          <a:ext cx="391202" cy="312928"/>
+          <a:off x="2865966" y="2986499"/>
+          <a:ext cx="389297" cy="318643"/>
           <a:chOff x="3573269" y="3601319"/>
           <a:chExt cx="424926" cy="329094"/>
         </a:xfrm>
@@ -3608,8 +3608,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2878227" y="1745844"/>
-          <a:ext cx="391202" cy="319647"/>
+          <a:off x="2866797" y="1785849"/>
+          <a:ext cx="389297" cy="323457"/>
           <a:chOff x="3573269" y="3601319"/>
           <a:chExt cx="424926" cy="329094"/>
         </a:xfrm>
@@ -3930,8 +3930,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2877396" y="4601265"/>
-          <a:ext cx="391202" cy="319647"/>
+          <a:off x="2865966" y="4702230"/>
+          <a:ext cx="389297" cy="323457"/>
           <a:chOff x="3573269" y="3601319"/>
           <a:chExt cx="424926" cy="329094"/>
         </a:xfrm>
@@ -7609,8 +7609,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5034927" y="1421600"/>
-          <a:ext cx="1436104" cy="728810"/>
+          <a:off x="5017782" y="1450175"/>
+          <a:ext cx="1424674" cy="749765"/>
           <a:chOff x="5974842" y="1887551"/>
           <a:chExt cx="1550251" cy="767591"/>
         </a:xfrm>
@@ -9356,8 +9356,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5692389" y="2883699"/>
-          <a:ext cx="385489" cy="317740"/>
+          <a:off x="5665719" y="2946564"/>
+          <a:ext cx="385489" cy="323455"/>
           <a:chOff x="3573266" y="3601319"/>
           <a:chExt cx="424929" cy="329093"/>
         </a:xfrm>
@@ -21095,8 +21095,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="0" y="552449"/>
-          <a:ext cx="11170920" cy="5368291"/>
+          <a:off x="0" y="563879"/>
+          <a:ext cx="11123295" cy="5490211"/>
           <a:chOff x="335486" y="881826"/>
           <a:chExt cx="12151247" cy="5595213"/>
         </a:xfrm>
@@ -45759,16 +45759,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="44"/>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
       <c r="D1" s="44"/>
     </row>
     <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="44"/>
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="90" t="s">
         <v>266</v>
       </c>
-      <c r="C2" s="91"/>
+      <c r="C2" s="90"/>
       <c r="D2" s="44"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -45777,18 +45777,18 @@
     </row>
     <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="44"/>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="89" t="s">
         <v>253</v>
       </c>
-      <c r="C4" s="90"/>
+      <c r="C4" s="89"/>
       <c r="D4" s="44"/>
     </row>
     <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="44"/>
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="88" t="s">
         <v>254</v>
       </c>
-      <c r="C5" s="89"/>
+      <c r="C5" s="88"/>
       <c r="D5" s="44"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -45801,70 +45801,70 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="44"/>
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="95" t="s">
         <v>223</v>
       </c>
-      <c r="C8" s="82"/>
+      <c r="C8" s="95"/>
       <c r="D8" s="44"/>
     </row>
     <row r="9" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="44"/>
-      <c r="B9" s="92" t="s">
+      <c r="B9" s="91" t="s">
         <v>222</v>
       </c>
-      <c r="C9" s="92"/>
+      <c r="C9" s="91"/>
       <c r="D9" s="44"/>
     </row>
     <row r="10" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="44"/>
-      <c r="B10" s="92" t="s">
+      <c r="B10" s="91" t="s">
         <v>221</v>
       </c>
-      <c r="C10" s="92"/>
+      <c r="C10" s="91"/>
       <c r="D10" s="44"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="44"/>
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="92" t="s">
         <v>225</v>
       </c>
-      <c r="C11" s="83"/>
+      <c r="C11" s="92"/>
       <c r="D11" s="44"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="44"/>
-      <c r="B12" s="92" t="s">
+      <c r="B12" s="91" t="s">
         <v>226</v>
       </c>
-      <c r="C12" s="92"/>
+      <c r="C12" s="91"/>
       <c r="D12" s="44"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="44"/>
-      <c r="B13" s="84" t="s">
+      <c r="B13" s="82" t="s">
         <v>227</v>
       </c>
-      <c r="C13" s="84"/>
+      <c r="C13" s="82"/>
       <c r="D13" s="49"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
-      <c r="B14" s="84"/>
-      <c r="C14" s="84"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="82"/>
       <c r="D14" s="50"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="44"/>
-      <c r="B15" s="84"/>
-      <c r="C15" s="84"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="82"/>
       <c r="D15" s="44"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="44"/>
-      <c r="B16" s="82" t="s">
+      <c r="B16" s="95" t="s">
         <v>224</v>
       </c>
-      <c r="C16" s="82"/>
+      <c r="C16" s="95"/>
       <c r="D16" s="51"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -45935,18 +45935,18 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="44"/>
-      <c r="B24" s="83" t="s">
+      <c r="B24" s="92" t="s">
         <v>299</v>
       </c>
-      <c r="C24" s="83"/>
+      <c r="C24" s="92"/>
       <c r="D24" s="44"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="44"/>
-      <c r="B25" s="84" t="s">
+      <c r="B25" s="82" t="s">
         <v>300</v>
       </c>
-      <c r="C25" s="84"/>
+      <c r="C25" s="82"/>
       <c r="D25" s="44"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -45975,10 +45975,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="44"/>
-      <c r="B29" s="84" t="s">
+      <c r="B29" s="82" t="s">
         <v>304</v>
       </c>
-      <c r="C29" s="84"/>
+      <c r="C29" s="82"/>
       <c r="D29" s="44"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -45991,8 +45991,8 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="44"/>
-      <c r="B31" s="84"/>
-      <c r="C31" s="84"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="82"/>
       <c r="D31" s="44"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -46013,34 +46013,34 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="44"/>
-      <c r="B34" s="84" t="s">
+      <c r="B34" s="82" t="s">
         <v>230</v>
       </c>
-      <c r="C34" s="84"/>
+      <c r="C34" s="82"/>
       <c r="D34" s="44"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="44"/>
-      <c r="B35" s="95" t="s">
+      <c r="B35" s="84" t="s">
         <v>229</v>
       </c>
-      <c r="C35" s="95"/>
+      <c r="C35" s="84"/>
       <c r="D35" s="44"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="44"/>
-      <c r="B36" s="94" t="s">
+      <c r="B36" s="83" t="s">
         <v>233</v>
       </c>
-      <c r="C36" s="94"/>
+      <c r="C36" s="83"/>
       <c r="D36" s="44"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="44"/>
-      <c r="B37" s="84" t="s">
+      <c r="B37" s="82" t="s">
         <v>255</v>
       </c>
-      <c r="C37" s="84"/>
+      <c r="C37" s="82"/>
       <c r="D37" s="44"/>
       <c r="F37" t="s">
         <v>252</v>
@@ -46048,26 +46048,26 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="44"/>
-      <c r="B38" s="84" t="s">
+      <c r="B38" s="82" t="s">
         <v>256</v>
       </c>
-      <c r="C38" s="84"/>
+      <c r="C38" s="82"/>
       <c r="D38" s="44"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="44"/>
-      <c r="B39" s="95" t="s">
+      <c r="B39" s="84" t="s">
         <v>257</v>
       </c>
-      <c r="C39" s="95"/>
+      <c r="C39" s="84"/>
       <c r="D39" s="44"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="44"/>
-      <c r="B40" s="84" t="s">
+      <c r="B40" s="82" t="s">
         <v>258</v>
       </c>
-      <c r="C40" s="84"/>
+      <c r="C40" s="82"/>
       <c r="D40" s="44"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -46084,72 +46084,72 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="44"/>
-      <c r="B43" s="84" t="s">
+      <c r="B43" s="82" t="s">
         <v>232</v>
       </c>
-      <c r="C43" s="84"/>
+      <c r="C43" s="82"/>
       <c r="D43" s="44"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="44"/>
-      <c r="B44" s="84" t="s">
+      <c r="B44" s="82" t="s">
         <v>259</v>
       </c>
-      <c r="C44" s="84"/>
+      <c r="C44" s="82"/>
       <c r="D44" s="44"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="44"/>
-      <c r="B45" s="84" t="s">
+      <c r="B45" s="82" t="s">
         <v>260</v>
       </c>
-      <c r="C45" s="84"/>
+      <c r="C45" s="82"/>
       <c r="D45" s="44"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="44"/>
-      <c r="B46" s="84" t="s">
+      <c r="B46" s="82" t="s">
         <v>261</v>
       </c>
-      <c r="C46" s="84"/>
+      <c r="C46" s="82"/>
       <c r="D46" s="44"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="44"/>
-      <c r="B47" s="85" t="s">
+      <c r="B47" s="96" t="s">
         <v>234</v>
       </c>
-      <c r="C47" s="85"/>
+      <c r="C47" s="96"/>
       <c r="D47" s="44"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="44"/>
-      <c r="B48" s="84" t="s">
+      <c r="B48" s="82" t="s">
         <v>235</v>
       </c>
-      <c r="C48" s="84"/>
+      <c r="C48" s="82"/>
       <c r="D48" s="44"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="44"/>
-      <c r="B49" s="84" t="s">
+      <c r="B49" s="82" t="s">
         <v>236</v>
       </c>
-      <c r="C49" s="84"/>
+      <c r="C49" s="82"/>
       <c r="D49" s="44"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="44"/>
-      <c r="B50" s="84" t="s">
+      <c r="B50" s="82" t="s">
         <v>237</v>
       </c>
-      <c r="C50" s="84"/>
+      <c r="C50" s="82"/>
       <c r="D50" s="44"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="44"/>
-      <c r="B51" s="84"/>
-      <c r="C51" s="84"/>
+      <c r="B51" s="82"/>
+      <c r="C51" s="82"/>
       <c r="D51" s="44"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -46162,80 +46162,80 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="44"/>
-      <c r="B53" s="84" t="s">
+      <c r="B53" s="82" t="s">
         <v>239</v>
       </c>
-      <c r="C53" s="84"/>
+      <c r="C53" s="82"/>
       <c r="D53" s="44"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="44"/>
-      <c r="B54" s="86" t="s">
+      <c r="B54" s="85" t="s">
         <v>262</v>
       </c>
-      <c r="C54" s="84"/>
+      <c r="C54" s="82"/>
       <c r="D54" s="44"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="44"/>
-      <c r="B55" s="84" t="s">
+      <c r="B55" s="82" t="s">
         <v>243</v>
       </c>
-      <c r="C55" s="84"/>
+      <c r="C55" s="82"/>
       <c r="D55" s="44"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="44"/>
-      <c r="B56" s="86" t="s">
+      <c r="B56" s="85" t="s">
         <v>263</v>
       </c>
-      <c r="C56" s="84"/>
+      <c r="C56" s="82"/>
       <c r="D56" s="44"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="44"/>
-      <c r="B57" s="84" t="s">
+      <c r="B57" s="82" t="s">
         <v>242</v>
       </c>
-      <c r="C57" s="84"/>
+      <c r="C57" s="82"/>
       <c r="D57" s="44"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="44"/>
-      <c r="B58" s="86" t="s">
+      <c r="B58" s="85" t="s">
         <v>264</v>
       </c>
-      <c r="C58" s="84"/>
+      <c r="C58" s="82"/>
       <c r="D58" s="44"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="44"/>
-      <c r="B59" s="84" t="s">
+      <c r="B59" s="82" t="s">
         <v>241</v>
       </c>
-      <c r="C59" s="84"/>
+      <c r="C59" s="82"/>
       <c r="D59" s="44"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="44"/>
-      <c r="B60" s="86" t="s">
+      <c r="B60" s="85" t="s">
         <v>265</v>
       </c>
-      <c r="C60" s="84"/>
+      <c r="C60" s="82"/>
       <c r="D60" s="44"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="44"/>
-      <c r="B61" s="84" t="s">
+      <c r="B61" s="82" t="s">
         <v>240</v>
       </c>
-      <c r="C61" s="84"/>
+      <c r="C61" s="82"/>
       <c r="D61" s="44"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="44"/>
-      <c r="B62" s="84"/>
-      <c r="C62" s="84"/>
+      <c r="B62" s="82"/>
+      <c r="C62" s="82"/>
       <c r="D62" s="44"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -46248,18 +46248,18 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="44"/>
-      <c r="B64" s="84" t="s">
+      <c r="B64" s="82" t="s">
         <v>250</v>
       </c>
-      <c r="C64" s="84"/>
+      <c r="C64" s="82"/>
       <c r="D64" s="44"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="44"/>
-      <c r="B65" s="84" t="s">
+      <c r="B65" s="82" t="s">
         <v>251</v>
       </c>
-      <c r="C65" s="84"/>
+      <c r="C65" s="82"/>
       <c r="D65" s="44"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -46270,8 +46270,8 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="44"/>
-      <c r="B67" s="84"/>
-      <c r="C67" s="84"/>
+      <c r="B67" s="82"/>
+      <c r="C67" s="82"/>
       <c r="D67" s="44"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -46284,55 +46284,98 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="44"/>
-      <c r="B69" s="84" t="s">
+      <c r="B69" s="82" t="s">
         <v>244</v>
       </c>
-      <c r="C69" s="84"/>
+      <c r="C69" s="82"/>
       <c r="D69" s="44"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="44"/>
-      <c r="B70" s="84" t="s">
+      <c r="B70" s="82" t="s">
         <v>245</v>
       </c>
-      <c r="C70" s="84"/>
+      <c r="C70" s="82"/>
       <c r="D70" s="44"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="44"/>
-      <c r="B71" s="84" t="s">
+      <c r="B71" s="82" t="s">
         <v>246</v>
       </c>
-      <c r="C71" s="84"/>
+      <c r="C71" s="82"/>
       <c r="D71" s="44"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="44"/>
-      <c r="B72" s="84" t="s">
+      <c r="B72" s="82" t="s">
         <v>247</v>
       </c>
-      <c r="C72" s="84"/>
+      <c r="C72" s="82"/>
       <c r="D72" s="44"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="44"/>
-      <c r="B73" s="81"/>
-      <c r="C73" s="81"/>
+      <c r="B73" s="94"/>
+      <c r="C73" s="94"/>
       <c r="D73" s="44"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B74" s="48"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B77" s="84"/>
-      <c r="C77" s="84"/>
+      <c r="B77" s="82"/>
+      <c r="C77" s="82"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B78" s="84"/>
-      <c r="C78" s="84"/>
+      <c r="B78" s="82"/>
+      <c r="C78" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B30:C30"/>
     <mergeCell ref="B77:C77"/>
     <mergeCell ref="B78:C78"/>
     <mergeCell ref="B36:C36"/>
@@ -46349,49 +46392,6 @@
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -46407,10 +46407,10 @@
   <dimension ref="A1:M86"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="E69" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E77" sqref="E77"/>
+      <selection pane="bottomRight" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -46428,15 +46428,15 @@
   <sheetData>
     <row r="1" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="53"/>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
       <c r="I1" s="53"/>
     </row>
     <row r="2" spans="1:9" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -46502,7 +46502,7 @@
       <c r="F4" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="G4" s="97" t="s">
+      <c r="G4" s="98" t="s">
         <v>195</v>
       </c>
       <c r="H4" s="22"/>
@@ -46517,7 +46517,7 @@
         <v>8</v>
       </c>
       <c r="F5" s="33"/>
-      <c r="G5" s="98"/>
+      <c r="G5" s="99"/>
       <c r="H5" s="18"/>
       <c r="I5" s="53"/>
     </row>
@@ -46538,7 +46538,7 @@
       <c r="F6" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="G6" s="97" t="s">
+      <c r="G6" s="98" t="s">
         <v>195</v>
       </c>
       <c r="H6" s="22"/>
@@ -46549,7 +46549,7 @@
       <c r="E7" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G7" s="84"/>
+      <c r="G7" s="82"/>
       <c r="I7" s="53"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -46557,7 +46557,7 @@
       <c r="E8" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G8" s="84"/>
+      <c r="G8" s="82"/>
       <c r="I8" s="53"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -46569,7 +46569,7 @@
         <v>107</v>
       </c>
       <c r="F9" s="33"/>
-      <c r="G9" s="98"/>
+      <c r="G9" s="99"/>
       <c r="H9" s="18"/>
       <c r="I9" s="53"/>
     </row>
@@ -46581,7 +46581,7 @@
       <c r="C10" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="97" t="s">
+      <c r="D10" s="98" t="s">
         <v>91</v>
       </c>
       <c r="E10" s="23" t="s">
@@ -46590,7 +46590,7 @@
       <c r="F10" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="G10" s="97" t="s">
+      <c r="G10" s="98" t="s">
         <v>195</v>
       </c>
       <c r="H10" s="22"/>
@@ -46600,12 +46600,12 @@
       <c r="A11" s="53"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
-      <c r="D11" s="98"/>
+      <c r="D11" s="99"/>
       <c r="E11" s="19" t="s">
         <v>267</v>
       </c>
       <c r="F11" s="33"/>
-      <c r="G11" s="98"/>
+      <c r="G11" s="99"/>
       <c r="H11" s="18"/>
       <c r="I11" s="53"/>
     </row>
@@ -46626,7 +46626,7 @@
       <c r="F12" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="G12" s="97" t="s">
+      <c r="G12" s="98" t="s">
         <v>195</v>
       </c>
       <c r="H12" s="22"/>
@@ -46637,7 +46637,7 @@
       <c r="E13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="84"/>
+      <c r="G13" s="82"/>
       <c r="I13" s="53"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -46649,7 +46649,7 @@
         <v>23</v>
       </c>
       <c r="F14" s="33"/>
-      <c r="G14" s="98"/>
+      <c r="G14" s="99"/>
       <c r="H14" s="18"/>
       <c r="I14" s="53"/>
     </row>
@@ -46888,7 +46888,7 @@
       <c r="F25" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="G25" s="97" t="s">
+      <c r="G25" s="98" t="s">
         <v>195</v>
       </c>
       <c r="H25" s="22"/>
@@ -46905,7 +46905,7 @@
         <v>102</v>
       </c>
       <c r="F26" s="33"/>
-      <c r="G26" s="98"/>
+      <c r="G26" s="99"/>
       <c r="H26" s="18"/>
       <c r="I26" s="53"/>
       <c r="K26" s="4"/>
@@ -46928,7 +46928,7 @@
       <c r="F27" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="G27" s="97" t="s">
+      <c r="G27" s="98" t="s">
         <v>195</v>
       </c>
       <c r="H27" s="22"/>
@@ -46945,7 +46945,7 @@
         <v>104</v>
       </c>
       <c r="F28" s="33"/>
-      <c r="G28" s="98"/>
+      <c r="G28" s="99"/>
       <c r="H28" s="18"/>
       <c r="I28" s="53"/>
       <c r="K28" s="4"/>
@@ -47068,7 +47068,7 @@
       <c r="F33" s="34" t="s">
         <v>201</v>
       </c>
-      <c r="G33" s="97" t="s">
+      <c r="G33" s="98" t="s">
         <v>195</v>
       </c>
       <c r="I33" s="53"/>
@@ -47085,7 +47085,7 @@
       <c r="F34" s="34" t="s">
         <v>200</v>
       </c>
-      <c r="G34" s="98"/>
+      <c r="G34" s="99"/>
       <c r="I34" s="53"/>
       <c r="K34" s="4"/>
       <c r="M34" s="4"/>
@@ -47122,7 +47122,7 @@
       <c r="F36" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="G36" s="101" t="s">
+      <c r="G36" s="102" t="s">
         <v>195</v>
       </c>
       <c r="H36" s="27"/>
@@ -47133,7 +47133,7 @@
       <c r="E37" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="84"/>
+      <c r="G37" s="82"/>
       <c r="I37" s="53"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -47141,7 +47141,7 @@
       <c r="E38" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G38" s="84"/>
+      <c r="G38" s="82"/>
       <c r="I38" s="53"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -47149,7 +47149,7 @@
       <c r="E39" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="84"/>
+      <c r="G39" s="82"/>
       <c r="I39" s="53"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -47157,7 +47157,7 @@
       <c r="E40" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G40" s="84"/>
+      <c r="G40" s="82"/>
       <c r="I40" s="53"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -47169,7 +47169,7 @@
         <v>25</v>
       </c>
       <c r="F41" s="33"/>
-      <c r="G41" s="98"/>
+      <c r="G41" s="99"/>
       <c r="H41" s="18"/>
       <c r="I41" s="53"/>
     </row>
@@ -47211,7 +47211,7 @@
       <c r="F43" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="G43" s="97" t="s">
+      <c r="G43" s="98" t="s">
         <v>195</v>
       </c>
       <c r="H43" s="22"/>
@@ -47225,7 +47225,7 @@
       <c r="F44" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="G44" s="84"/>
+      <c r="G44" s="82"/>
       <c r="I44" s="53"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -47236,7 +47236,7 @@
       <c r="F45" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="G45" s="84"/>
+      <c r="G45" s="82"/>
       <c r="I45" s="53"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -47250,7 +47250,7 @@
       <c r="F46" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="G46" s="98"/>
+      <c r="G46" s="99"/>
       <c r="H46" s="18"/>
       <c r="I46" s="53"/>
     </row>
@@ -47529,7 +47529,7 @@
       <c r="F61" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="G61" s="97" t="s">
+      <c r="G61" s="98" t="s">
         <v>195</v>
       </c>
       <c r="H61" s="22"/>
@@ -47540,7 +47540,7 @@
       <c r="E62" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="G62" s="84"/>
+      <c r="G62" s="82"/>
       <c r="I62" s="53"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -47548,7 +47548,7 @@
       <c r="E63" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G63" s="84"/>
+      <c r="G63" s="82"/>
       <c r="I63" s="53"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -47556,7 +47556,7 @@
       <c r="E64" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="G64" s="84"/>
+      <c r="G64" s="82"/>
       <c r="I64" s="53"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -47564,7 +47564,7 @@
       <c r="E65" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="G65" s="84"/>
+      <c r="G65" s="82"/>
       <c r="I65" s="53"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -47572,7 +47572,7 @@
       <c r="E66" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G66" s="84"/>
+      <c r="G66" s="82"/>
       <c r="I66" s="53"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -47580,7 +47580,7 @@
       <c r="E67" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G67" s="84"/>
+      <c r="G67" s="82"/>
       <c r="I67" s="53"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -47592,7 +47592,7 @@
         <v>90</v>
       </c>
       <c r="F68" s="33"/>
-      <c r="G68" s="98"/>
+      <c r="G68" s="99"/>
       <c r="H68" s="18"/>
       <c r="I68" s="53"/>
     </row>
@@ -47682,7 +47682,7 @@
       <c r="F72" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="G72" s="97" t="s">
+      <c r="G72" s="98" t="s">
         <v>195</v>
       </c>
       <c r="H72" s="22"/>
@@ -47699,7 +47699,7 @@
       <c r="F73" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="G73" s="98"/>
+      <c r="G73" s="99"/>
       <c r="H73" s="18"/>
       <c r="I73" s="53"/>
     </row>
@@ -47741,7 +47741,7 @@
       <c r="F75" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="G75" s="99" t="s">
+      <c r="G75" s="100" t="s">
         <v>195</v>
       </c>
       <c r="H75" s="22"/>
@@ -47756,7 +47756,7 @@
         <v>120</v>
       </c>
       <c r="F76" s="33"/>
-      <c r="G76" s="100"/>
+      <c r="G76" s="101"/>
       <c r="H76" s="18"/>
       <c r="I76" s="53"/>
     </row>
@@ -47777,7 +47777,7 @@
       <c r="F77" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="G77" s="97" t="s">
+      <c r="G77" s="98" t="s">
         <v>195</v>
       </c>
       <c r="I77" s="53"/>
@@ -47790,7 +47790,7 @@
       <c r="F78" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="G78" s="84"/>
+      <c r="G78" s="82"/>
       <c r="I78" s="53"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -47801,7 +47801,7 @@
       <c r="F79" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="G79" s="84"/>
+      <c r="G79" s="82"/>
       <c r="I79" s="53"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -47815,7 +47815,7 @@
       <c r="F80" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="G80" s="98"/>
+      <c r="G80" s="99"/>
       <c r="H80" s="18"/>
       <c r="I80" s="53"/>
     </row>
@@ -47997,10 +47997,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="103"/>
+      <c r="B1" s="104"/>
     </row>
     <row r="2" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65" t="s">
@@ -48047,10 +48047,10 @@
       <c r="E5" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="102" t="s">
+      <c r="A8" s="103" t="s">
         <v>116</v>
       </c>
-      <c r="B8" s="103"/>
+      <c r="B8" s="104"/>
       <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -48154,10 +48154,10 @@
       <c r="G19" s="4"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="102" t="s">
+      <c r="A21" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="103"/>
+      <c r="B21" s="104"/>
       <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -48189,10 +48189,10 @@
       <c r="B26" s="4"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="106" t="s">
+      <c r="A27" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="106"/>
+      <c r="B27" s="107"/>
       <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -48210,10 +48210,10 @@
       <c r="A30" s="4"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="102" t="s">
+      <c r="A31" s="103" t="s">
         <v>295</v>
       </c>
-      <c r="B31" s="103"/>
+      <c r="B31" s="104"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="65" t="s">
@@ -48257,10 +48257,10 @@
       <c r="C37" s="4"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="107" t="s">
+      <c r="A38" s="108" t="s">
         <v>284</v>
       </c>
-      <c r="B38" s="108"/>
+      <c r="B38" s="109"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
     </row>
@@ -48305,10 +48305,10 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="107" t="s">
+      <c r="A46" s="108" t="s">
         <v>290</v>
       </c>
-      <c r="B46" s="108"/>
+      <c r="B46" s="109"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
     </row>
@@ -48353,10 +48353,10 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="104" t="s">
+      <c r="A53" s="105" t="s">
         <v>289</v>
       </c>
-      <c r="B53" s="105"/>
+      <c r="B53" s="106"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="66" t="s">
@@ -48514,9 +48514,9 @@
   </sheetPr>
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -48606,7 +48606,7 @@
         <v>700</v>
       </c>
       <c r="E3" s="2">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
@@ -48820,7 +48820,7 @@
         <v>350</v>
       </c>
       <c r="E11" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
@@ -48967,9 +48967,9 @@
   </sheetPr>
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -49362,9 +49362,9 @@
   </sheetPr>
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C14"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -49707,7 +49707,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -49834,7 +49834,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="81" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -49866,6 +49866,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a656bf76-cca4-4796-b3e3-9ff4debad9ca">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3f4d043c-ef99-408b-9086-307465b47223" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005D48458B7DF5B44891BF6C8B708F036C" ma:contentTypeVersion="15" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="6ec72bf5cc41951886dd851de9b63939">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a656bf76-cca4-4796-b3e3-9ff4debad9ca" xmlns:ns3="3f4d043c-ef99-408b-9086-307465b47223" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="619265aacb58e563d368a43a0aeb056e" ns2:_="" ns3:_="">
     <xsd:import namespace="a656bf76-cca4-4796-b3e3-9ff4debad9ca"/>
@@ -50100,27 +50120,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D351F7AA-766C-4547-802C-9F4B7AB5F83E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="a656bf76-cca4-4796-b3e3-9ff4debad9ca"/>
+    <ds:schemaRef ds:uri="3f4d043c-ef99-408b-9086-307465b47223"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a656bf76-cca4-4796-b3e3-9ff4debad9ca">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3f4d043c-ef99-408b-9086-307465b47223" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80A89352-0353-48F1-9429-0E3BD72B2E30}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{908F6F40-8D93-4BAF-B5F7-B52D93E367E6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -50137,29 +50162,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80A89352-0353-48F1-9429-0E3BD72B2E30}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D351F7AA-766C-4547-802C-9F4B7AB5F83E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="a656bf76-cca4-4796-b3e3-9ff4debad9ca"/>
-    <ds:schemaRef ds:uri="3f4d043c-ef99-408b-9086-307465b47223"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/grid_data_input_file_WIP_v1.xlsx
+++ b/grid_data_input_file_WIP_v1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c30483\Documents\dc_design_tool\dc_design_tool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dc_design_tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65614182-CA8B-4FC6-8BA2-701C186D4C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A5637B-1548-4C44-BA03-716C0FC0EEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16410" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="simple example" sheetId="20" r:id="rId1"/>
@@ -58,17 +58,17 @@
   <commentList>
     <comment ref="F25" authorId="0" shapeId="0" xr:uid="{4AEC16CA-931E-481C-8C48-D9F88EBF5518}">
       <text>
-        <t>[Commentaire à thread]
-Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
-Commentaire :
+        <t>[Comentário por tópicos]
+A sua versão do Excel permite-lhe ler este comentário por tópicos. No entanto, as edições feitas ao comentário serão removidas se o ficheiro for aberto numa versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
     Check with Nexans team if we can add some recommendation for the user</t>
       </text>
     </comment>
     <comment ref="F27" authorId="1" shapeId="0" xr:uid="{A7B4201B-8F2F-4F54-9D6C-131EEA2F9A61}">
       <text>
-        <t>[Commentaire à thread]
-Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
-Commentaire :
+        <t>[Comentário por tópicos]
+A sua versão do Excel permite-lhe ler este comentário por tópicos. No entanto, as edições feitas ao comentário serão removidas se o ficheiro for aberto numa versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
     Check with Nexans team if we can add some recommendation for the user</t>
       </text>
     </comment>
@@ -85,19 +85,19 @@
   <commentList>
     <comment ref="D1" authorId="0" shapeId="0" xr:uid="{639D7D96-3B2D-4B72-989E-37A0D6AF2EAF}">
       <text>
-        <t>[Commentaire à thread]
-Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
-Commentaire :
+        <t>[Comentário por tópicos]
+A sua versão do Excel permite-lhe ler este comentário por tópicos. No entanto, as edições feitas ao comentário serão removidas se o ficheiro for aberto numa versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
     ILC, PDU, Asset converter (load, EV , Sto, PV), AC load
-Réponse :
+Resposta:
     C'est important pour les courbes de droop</t>
       </text>
     </comment>
     <comment ref="G1" authorId="1" shapeId="0" xr:uid="{13412737-2AD2-44EE-9F96-E158448B3EEA}">
       <text>
-        <t xml:space="preserve">[Commentaire à thread]
-Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
-Commentaire :
+        <t xml:space="preserve">[Comentário por tópicos]
+A sua versão do Excel permite-lhe ler este comentário por tópicos. No entanto, as edições feitas ao comentário serão removidas se o ficheiro for aberto numa versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
     Information non obligatoire p-e mettre des couleurs différentes ? </t>
       </text>
     </comment>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="313">
   <si>
     <t>Node_i</t>
   </si>
@@ -1135,9 +1135,6 @@
     <t>Step 2: Add and Number Nodes to the Grid</t>
   </si>
   <si>
-    <t>[1.085; 0], [1; 1], [1; 1], [1; 1], [1; 1], [0.915; 1]</t>
-  </si>
-  <si>
     <t>The total power of PV installed in the grid</t>
   </si>
   <si>
@@ -1285,6 +1282,12 @@
   </si>
   <si>
     <t>not applicable</t>
+  </si>
+  <si>
+    <t>[1.025; 0], [1; 1], [1; 1], [1; 1], [1; 1], [0.975; 1]</t>
+  </si>
+  <si>
+    <t>[1.025; 1], [1; 1], [1; 1], [1; 1], [1; 1], [0.975; 0]</t>
   </si>
 </sst>
 </file>
@@ -1603,7 +1606,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1727,7 +1730,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1742,26 +1744,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1808,6 +1798,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1893,13 +1886,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Avertissement" xfId="1" builtinId="11"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Texto de Aviso" xfId="1" builtinId="11"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -2617,8 +2607,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2877396" y="3759355"/>
-          <a:ext cx="391202" cy="317742"/>
+          <a:off x="2865966" y="3837460"/>
+          <a:ext cx="389297" cy="323457"/>
           <a:chOff x="3573269" y="3601319"/>
           <a:chExt cx="424926" cy="329094"/>
         </a:xfrm>
@@ -2884,8 +2874,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2877396" y="2923634"/>
-          <a:ext cx="391202" cy="312928"/>
+          <a:off x="2865966" y="2986499"/>
+          <a:ext cx="389297" cy="318643"/>
           <a:chOff x="3573269" y="3601319"/>
           <a:chExt cx="424926" cy="329094"/>
         </a:xfrm>
@@ -3608,8 +3598,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2878227" y="1745844"/>
-          <a:ext cx="391202" cy="319647"/>
+          <a:off x="2866797" y="1785849"/>
+          <a:ext cx="389297" cy="323457"/>
           <a:chOff x="3573269" y="3601319"/>
           <a:chExt cx="424926" cy="329094"/>
         </a:xfrm>
@@ -3930,8 +3920,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2877396" y="4601265"/>
-          <a:ext cx="391202" cy="319647"/>
+          <a:off x="2865966" y="4702230"/>
+          <a:ext cx="389297" cy="323457"/>
           <a:chOff x="3573269" y="3601319"/>
           <a:chExt cx="424926" cy="329094"/>
         </a:xfrm>
@@ -7609,8 +7599,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5034927" y="1421600"/>
-          <a:ext cx="1436104" cy="728810"/>
+          <a:off x="5017782" y="1450175"/>
+          <a:ext cx="1424674" cy="749765"/>
           <a:chOff x="5974842" y="1887551"/>
           <a:chExt cx="1550251" cy="767591"/>
         </a:xfrm>
@@ -9356,8 +9346,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5692389" y="2883699"/>
-          <a:ext cx="385489" cy="317740"/>
+          <a:off x="5665719" y="2946564"/>
+          <a:ext cx="385489" cy="323455"/>
           <a:chOff x="3573266" y="3601319"/>
           <a:chExt cx="424929" cy="329093"/>
         </a:xfrm>
@@ -21095,8 +21085,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="0" y="552449"/>
-          <a:ext cx="11170920" cy="5368291"/>
+          <a:off x="0" y="563879"/>
+          <a:ext cx="11123295" cy="5490211"/>
           <a:chOff x="335486" y="881826"/>
           <a:chExt cx="12151247" cy="5595213"/>
         </a:xfrm>
@@ -45716,7 +45706,7 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -45731,7 +45721,7 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -45749,7 +45739,7 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.796875" customWidth="1"/>
     <col min="2" max="2" width="12.8984375" style="45" bestFit="1" customWidth="1"/>
@@ -45759,16 +45749,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="44"/>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
       <c r="D1" s="44"/>
     </row>
     <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="44"/>
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="85" t="s">
         <v>266</v>
       </c>
-      <c r="C2" s="91"/>
+      <c r="C2" s="85"/>
       <c r="D2" s="44"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -45777,18 +45767,18 @@
     </row>
     <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="44"/>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="84" t="s">
         <v>253</v>
       </c>
-      <c r="C4" s="90"/>
+      <c r="C4" s="84"/>
       <c r="D4" s="44"/>
     </row>
     <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="44"/>
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="83" t="s">
         <v>254</v>
       </c>
-      <c r="C5" s="89"/>
+      <c r="C5" s="83"/>
       <c r="D5" s="44"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -45801,71 +45791,71 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="44"/>
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="76" t="s">
         <v>223</v>
       </c>
-      <c r="C8" s="82"/>
+      <c r="C8" s="76"/>
       <c r="D8" s="44"/>
     </row>
     <row r="9" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="44"/>
-      <c r="B9" s="92" t="s">
+      <c r="B9" s="86" t="s">
         <v>222</v>
       </c>
-      <c r="C9" s="92"/>
+      <c r="C9" s="86"/>
       <c r="D9" s="44"/>
     </row>
     <row r="10" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="44"/>
-      <c r="B10" s="92" t="s">
+      <c r="B10" s="86" t="s">
         <v>221</v>
       </c>
-      <c r="C10" s="92"/>
+      <c r="C10" s="86"/>
       <c r="D10" s="44"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="44"/>
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="77" t="s">
         <v>225</v>
       </c>
-      <c r="C11" s="83"/>
+      <c r="C11" s="77"/>
       <c r="D11" s="44"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="44"/>
-      <c r="B12" s="92" t="s">
+      <c r="B12" s="86" t="s">
         <v>226</v>
       </c>
-      <c r="C12" s="92"/>
+      <c r="C12" s="86"/>
       <c r="D12" s="44"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="44"/>
-      <c r="B13" s="84" t="s">
+      <c r="B13" s="78" t="s">
         <v>227</v>
       </c>
-      <c r="C13" s="84"/>
-      <c r="D13" s="49"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="44"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
-      <c r="B14" s="84"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="50"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="49"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="44"/>
-      <c r="B15" s="84"/>
-      <c r="C15" s="84"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
       <c r="D15" s="44"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="44"/>
-      <c r="B16" s="82" t="s">
+      <c r="B16" s="76" t="s">
         <v>224</v>
       </c>
-      <c r="C16" s="82"/>
-      <c r="D16" s="51"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="50"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
@@ -45875,7 +45865,7 @@
       <c r="C17" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="52"/>
+      <c r="D17" s="51"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="44"/>
@@ -45885,7 +45875,7 @@
       <c r="C18" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="52"/>
+      <c r="D18" s="51"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="44"/>
@@ -45929,70 +45919,68 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="44"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
       <c r="D23" s="44"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="44"/>
-      <c r="B24" s="83" t="s">
-        <v>299</v>
-      </c>
-      <c r="C24" s="83"/>
+      <c r="B24" s="77" t="s">
+        <v>298</v>
+      </c>
+      <c r="C24" s="77"/>
       <c r="D24" s="44"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="44"/>
-      <c r="B25" s="84" t="s">
-        <v>300</v>
-      </c>
-      <c r="C25" s="84"/>
+      <c r="B25" s="78" t="s">
+        <v>299</v>
+      </c>
+      <c r="C25" s="78"/>
       <c r="D25" s="44"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="44"/>
-      <c r="B26" s="78"/>
-      <c r="C26" s="57" t="s">
-        <v>303</v>
+      <c r="B26" s="71"/>
+      <c r="C26" s="45" t="s">
+        <v>302</v>
       </c>
       <c r="D26" s="44"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="44"/>
-      <c r="B27" s="79"/>
-      <c r="C27" s="57" t="s">
-        <v>302</v>
+      <c r="B27" s="72"/>
+      <c r="C27" s="45" t="s">
+        <v>301</v>
       </c>
       <c r="D27" s="44"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="44"/>
-      <c r="B28" s="80"/>
-      <c r="C28" s="57" t="s">
-        <v>301</v>
+      <c r="B28" s="73"/>
+      <c r="C28" s="45" t="s">
+        <v>300</v>
       </c>
       <c r="D28" s="44"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="44"/>
-      <c r="B29" s="84" t="s">
-        <v>304</v>
-      </c>
-      <c r="C29" s="84"/>
+      <c r="B29" s="78" t="s">
+        <v>303</v>
+      </c>
+      <c r="C29" s="78"/>
       <c r="D29" s="44"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="44"/>
-      <c r="B30" s="93" t="s">
-        <v>305</v>
-      </c>
-      <c r="C30" s="93"/>
+      <c r="B30" s="87" t="s">
+        <v>304</v>
+      </c>
+      <c r="C30" s="87"/>
       <c r="D30" s="44"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="44"/>
-      <c r="B31" s="84"/>
-      <c r="C31" s="84"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="78"/>
       <c r="D31" s="44"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -46001,46 +45989,46 @@
         <v>228</v>
       </c>
       <c r="C32" s="46"/>
-      <c r="D32" s="51"/>
+      <c r="D32" s="50"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="44"/>
-      <c r="B33" s="87" t="s">
+      <c r="B33" s="81" t="s">
         <v>231</v>
       </c>
-      <c r="C33" s="87"/>
+      <c r="C33" s="81"/>
       <c r="D33" s="44"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="44"/>
-      <c r="B34" s="84" t="s">
+      <c r="B34" s="78" t="s">
         <v>230</v>
       </c>
-      <c r="C34" s="84"/>
+      <c r="C34" s="78"/>
       <c r="D34" s="44"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="44"/>
-      <c r="B35" s="95" t="s">
+      <c r="B35" s="89" t="s">
         <v>229</v>
       </c>
-      <c r="C35" s="95"/>
+      <c r="C35" s="89"/>
       <c r="D35" s="44"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="44"/>
-      <c r="B36" s="94" t="s">
+      <c r="B36" s="88" t="s">
         <v>233</v>
       </c>
-      <c r="C36" s="94"/>
+      <c r="C36" s="88"/>
       <c r="D36" s="44"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="44"/>
-      <c r="B37" s="84" t="s">
+      <c r="B37" s="78" t="s">
         <v>255</v>
       </c>
-      <c r="C37" s="84"/>
+      <c r="C37" s="78"/>
       <c r="D37" s="44"/>
       <c r="F37" t="s">
         <v>252</v>
@@ -46048,26 +46036,26 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="44"/>
-      <c r="B38" s="84" t="s">
+      <c r="B38" s="78" t="s">
         <v>256</v>
       </c>
-      <c r="C38" s="84"/>
+      <c r="C38" s="78"/>
       <c r="D38" s="44"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="44"/>
-      <c r="B39" s="95" t="s">
+      <c r="B39" s="89" t="s">
         <v>257</v>
       </c>
-      <c r="C39" s="95"/>
+      <c r="C39" s="89"/>
       <c r="D39" s="44"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="44"/>
-      <c r="B40" s="84" t="s">
+      <c r="B40" s="78" t="s">
         <v>258</v>
       </c>
-      <c r="C40" s="84"/>
+      <c r="C40" s="78"/>
       <c r="D40" s="44"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -46076,190 +46064,190 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="44"/>
-      <c r="B42" s="87" t="s">
+      <c r="B42" s="81" t="s">
         <v>268</v>
       </c>
-      <c r="C42" s="87"/>
+      <c r="C42" s="81"/>
       <c r="D42" s="44"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="44"/>
-      <c r="B43" s="84" t="s">
+      <c r="B43" s="78" t="s">
         <v>232</v>
       </c>
-      <c r="C43" s="84"/>
+      <c r="C43" s="78"/>
       <c r="D43" s="44"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="44"/>
-      <c r="B44" s="84" t="s">
+      <c r="B44" s="78" t="s">
         <v>259</v>
       </c>
-      <c r="C44" s="84"/>
+      <c r="C44" s="78"/>
       <c r="D44" s="44"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="44"/>
-      <c r="B45" s="84" t="s">
+      <c r="B45" s="78" t="s">
         <v>260</v>
       </c>
-      <c r="C45" s="84"/>
+      <c r="C45" s="78"/>
       <c r="D45" s="44"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="44"/>
-      <c r="B46" s="84" t="s">
+      <c r="B46" s="78" t="s">
         <v>261</v>
       </c>
-      <c r="C46" s="84"/>
+      <c r="C46" s="78"/>
       <c r="D46" s="44"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="44"/>
-      <c r="B47" s="85" t="s">
+      <c r="B47" s="79" t="s">
         <v>234</v>
       </c>
-      <c r="C47" s="85"/>
+      <c r="C47" s="79"/>
       <c r="D47" s="44"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="44"/>
-      <c r="B48" s="84" t="s">
+      <c r="B48" s="78" t="s">
         <v>235</v>
       </c>
-      <c r="C48" s="84"/>
+      <c r="C48" s="78"/>
       <c r="D48" s="44"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="44"/>
-      <c r="B49" s="84" t="s">
+      <c r="B49" s="78" t="s">
         <v>236</v>
       </c>
-      <c r="C49" s="84"/>
+      <c r="C49" s="78"/>
       <c r="D49" s="44"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="44"/>
-      <c r="B50" s="84" t="s">
+      <c r="B50" s="78" t="s">
         <v>237</v>
       </c>
-      <c r="C50" s="84"/>
+      <c r="C50" s="78"/>
       <c r="D50" s="44"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="44"/>
-      <c r="B51" s="84"/>
-      <c r="C51" s="84"/>
+      <c r="B51" s="78"/>
+      <c r="C51" s="78"/>
       <c r="D51" s="44"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="44"/>
-      <c r="B52" s="87" t="s">
+      <c r="B52" s="81" t="s">
         <v>238</v>
       </c>
-      <c r="C52" s="87"/>
+      <c r="C52" s="81"/>
       <c r="D52" s="44"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="44"/>
-      <c r="B53" s="84" t="s">
+      <c r="B53" s="78" t="s">
         <v>239</v>
       </c>
-      <c r="C53" s="84"/>
+      <c r="C53" s="78"/>
       <c r="D53" s="44"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="44"/>
-      <c r="B54" s="86" t="s">
+      <c r="B54" s="80" t="s">
         <v>262</v>
       </c>
-      <c r="C54" s="84"/>
+      <c r="C54" s="78"/>
       <c r="D54" s="44"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="44"/>
-      <c r="B55" s="84" t="s">
+      <c r="B55" s="78" t="s">
         <v>243</v>
       </c>
-      <c r="C55" s="84"/>
+      <c r="C55" s="78"/>
       <c r="D55" s="44"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="44"/>
-      <c r="B56" s="86" t="s">
+      <c r="B56" s="80" t="s">
         <v>263</v>
       </c>
-      <c r="C56" s="84"/>
+      <c r="C56" s="78"/>
       <c r="D56" s="44"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="44"/>
-      <c r="B57" s="84" t="s">
+      <c r="B57" s="78" t="s">
         <v>242</v>
       </c>
-      <c r="C57" s="84"/>
+      <c r="C57" s="78"/>
       <c r="D57" s="44"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="44"/>
-      <c r="B58" s="86" t="s">
+      <c r="B58" s="80" t="s">
         <v>264</v>
       </c>
-      <c r="C58" s="84"/>
+      <c r="C58" s="78"/>
       <c r="D58" s="44"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="44"/>
-      <c r="B59" s="84" t="s">
+      <c r="B59" s="78" t="s">
         <v>241</v>
       </c>
-      <c r="C59" s="84"/>
+      <c r="C59" s="78"/>
       <c r="D59" s="44"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="44"/>
-      <c r="B60" s="86" t="s">
+      <c r="B60" s="80" t="s">
         <v>265</v>
       </c>
-      <c r="C60" s="84"/>
+      <c r="C60" s="78"/>
       <c r="D60" s="44"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="44"/>
-      <c r="B61" s="84" t="s">
+      <c r="B61" s="78" t="s">
         <v>240</v>
       </c>
-      <c r="C61" s="84"/>
+      <c r="C61" s="78"/>
       <c r="D61" s="44"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="44"/>
-      <c r="B62" s="84"/>
-      <c r="C62" s="84"/>
+      <c r="B62" s="78"/>
+      <c r="C62" s="78"/>
       <c r="D62" s="44"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="44"/>
-      <c r="B63" s="87" t="s">
+      <c r="B63" s="81" t="s">
         <v>249</v>
       </c>
-      <c r="C63" s="87"/>
+      <c r="C63" s="81"/>
       <c r="D63" s="44"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="44"/>
-      <c r="B64" s="84" t="s">
+      <c r="B64" s="78" t="s">
         <v>250</v>
       </c>
-      <c r="C64" s="84"/>
+      <c r="C64" s="78"/>
       <c r="D64" s="44"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="44"/>
-      <c r="B65" s="84" t="s">
+      <c r="B65" s="78" t="s">
         <v>251</v>
       </c>
-      <c r="C65" s="84"/>
+      <c r="C65" s="78"/>
       <c r="D65" s="44"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -46270,66 +46258,66 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="44"/>
-      <c r="B67" s="84"/>
-      <c r="C67" s="84"/>
+      <c r="B67" s="78"/>
+      <c r="C67" s="78"/>
       <c r="D67" s="44"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="44"/>
-      <c r="B68" s="87" t="s">
+      <c r="B68" s="81" t="s">
         <v>248</v>
       </c>
-      <c r="C68" s="87"/>
+      <c r="C68" s="81"/>
       <c r="D68" s="44"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="44"/>
-      <c r="B69" s="84" t="s">
+      <c r="B69" s="78" t="s">
         <v>244</v>
       </c>
-      <c r="C69" s="84"/>
+      <c r="C69" s="78"/>
       <c r="D69" s="44"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="44"/>
-      <c r="B70" s="84" t="s">
+      <c r="B70" s="78" t="s">
         <v>245</v>
       </c>
-      <c r="C70" s="84"/>
+      <c r="C70" s="78"/>
       <c r="D70" s="44"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="44"/>
-      <c r="B71" s="84" t="s">
+      <c r="B71" s="78" t="s">
         <v>246</v>
       </c>
-      <c r="C71" s="84"/>
+      <c r="C71" s="78"/>
       <c r="D71" s="44"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="44"/>
-      <c r="B72" s="84" t="s">
+      <c r="B72" s="78" t="s">
         <v>247</v>
       </c>
-      <c r="C72" s="84"/>
+      <c r="C72" s="78"/>
       <c r="D72" s="44"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="44"/>
-      <c r="B73" s="81"/>
-      <c r="C73" s="81"/>
+      <c r="B73" s="75"/>
+      <c r="C73" s="75"/>
       <c r="D73" s="44"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B74" s="48"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B77" s="84"/>
-      <c r="C77" s="84"/>
+      <c r="B77" s="78"/>
+      <c r="C77" s="78"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B78" s="84"/>
-      <c r="C78" s="84"/>
+      <c r="B78" s="78"/>
+      <c r="C78" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="59">
@@ -46407,15 +46395,15 @@
   <dimension ref="A1:M86"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="E69" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.296875" style="56" customWidth="1"/>
+    <col min="1" max="1" width="1.296875" customWidth="1"/>
     <col min="2" max="2" width="13.19921875" style="4" customWidth="1"/>
     <col min="3" max="3" width="33.59765625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51.5" style="34" bestFit="1" customWidth="1"/>
@@ -46423,24 +46411,24 @@
     <col min="6" max="6" width="63.796875" style="34" customWidth="1"/>
     <col min="7" max="7" width="18.69921875" style="34" customWidth="1"/>
     <col min="8" max="8" width="17.8984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="1.3984375" style="56" customWidth="1"/>
+    <col min="9" max="9" width="1.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53"/>
-      <c r="B1" s="96" t="s">
+      <c r="A1" s="52"/>
+      <c r="B1" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="53"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:9" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="53"/>
+      <c r="A2" s="52"/>
       <c r="B2" s="17" t="s">
         <v>52</v>
       </c>
@@ -46462,10 +46450,10 @@
       <c r="H2" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="53"/>
+      <c r="I2" s="52"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
+      <c r="A3" s="52"/>
       <c r="B3" s="21" t="s">
         <v>53</v>
       </c>
@@ -46483,10 +46471,10 @@
         <v>195</v>
       </c>
       <c r="H3" s="20"/>
-      <c r="I3" s="53"/>
+      <c r="I3" s="52"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="23" t="s">
         <v>53</v>
       </c>
@@ -46502,14 +46490,14 @@
       <c r="F4" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="G4" s="97" t="s">
+      <c r="G4" s="91" t="s">
         <v>195</v>
       </c>
       <c r="H4" s="22"/>
-      <c r="I4" s="53"/>
+      <c r="I4" s="52"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
       <c r="D5" s="33"/>
@@ -46517,12 +46505,12 @@
         <v>8</v>
       </c>
       <c r="F5" s="33"/>
-      <c r="G5" s="98"/>
+      <c r="G5" s="92"/>
       <c r="H5" s="18"/>
-      <c r="I5" s="53"/>
+      <c r="I5" s="52"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="23" t="s">
         <v>53</v>
       </c>
@@ -46538,30 +46526,30 @@
       <c r="F6" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="G6" s="97" t="s">
+      <c r="G6" s="91" t="s">
         <v>195</v>
       </c>
       <c r="H6" s="22"/>
-      <c r="I6" s="53"/>
+      <c r="I6" s="52"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
+      <c r="A7" s="52"/>
       <c r="E7" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G7" s="84"/>
-      <c r="I7" s="53"/>
+      <c r="G7" s="78"/>
+      <c r="I7" s="52"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
+      <c r="A8" s="52"/>
       <c r="E8" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G8" s="84"/>
-      <c r="I8" s="53"/>
+      <c r="G8" s="78"/>
+      <c r="I8" s="52"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
       <c r="D9" s="33"/>
@@ -46569,19 +46557,19 @@
         <v>107</v>
       </c>
       <c r="F9" s="33"/>
-      <c r="G9" s="98"/>
+      <c r="G9" s="92"/>
       <c r="H9" s="18"/>
-      <c r="I9" s="53"/>
+      <c r="I9" s="52"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="23" t="s">
         <v>53</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="97" t="s">
+      <c r="D10" s="91" t="s">
         <v>91</v>
       </c>
       <c r="E10" s="23" t="s">
@@ -46590,27 +46578,27 @@
       <c r="F10" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="G10" s="97" t="s">
+      <c r="G10" s="91" t="s">
         <v>195</v>
       </c>
       <c r="H10" s="22"/>
-      <c r="I10" s="53"/>
+      <c r="I10" s="52"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
-      <c r="D11" s="98"/>
+      <c r="D11" s="92"/>
       <c r="E11" s="19" t="s">
         <v>267</v>
       </c>
       <c r="F11" s="33"/>
-      <c r="G11" s="98"/>
+      <c r="G11" s="92"/>
       <c r="H11" s="18"/>
-      <c r="I11" s="53"/>
+      <c r="I11" s="52"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="23" t="s">
         <v>53</v>
       </c>
@@ -46626,22 +46614,22 @@
       <c r="F12" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="G12" s="97" t="s">
+      <c r="G12" s="91" t="s">
         <v>195</v>
       </c>
       <c r="H12" s="22"/>
-      <c r="I12" s="53"/>
+      <c r="I12" s="52"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
+      <c r="A13" s="52"/>
       <c r="E13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="84"/>
-      <c r="I13" s="53"/>
+      <c r="G13" s="78"/>
+      <c r="I13" s="52"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
+      <c r="A14" s="52"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
       <c r="D14" s="33"/>
@@ -46649,12 +46637,12 @@
         <v>23</v>
       </c>
       <c r="F14" s="33"/>
-      <c r="G14" s="98"/>
+      <c r="G14" s="92"/>
       <c r="H14" s="18"/>
-      <c r="I14" s="53"/>
+      <c r="I14" s="52"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="19" t="s">
         <v>53</v>
       </c>
@@ -46662,11 +46650,11 @@
         <v>73</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G15" s="31" t="s">
         <v>197</v>
@@ -46674,10 +46662,10 @@
       <c r="H15" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="53"/>
+      <c r="I15" s="52"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="53"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="19" t="s">
         <v>53</v>
       </c>
@@ -46685,11 +46673,11 @@
         <v>72</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="33" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G16" s="31" t="s">
         <v>197</v>
@@ -46697,10 +46685,10 @@
       <c r="H16" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I16" s="53"/>
+      <c r="I16" s="52"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="25" t="s">
         <v>53</v>
       </c>
@@ -46718,10 +46706,10 @@
         <v>197</v>
       </c>
       <c r="H17" s="24"/>
-      <c r="I17" s="53"/>
+      <c r="I17" s="52"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
+      <c r="A18" s="52"/>
       <c r="B18" s="25" t="s">
         <v>53</v>
       </c>
@@ -46739,10 +46727,10 @@
         <v>197</v>
       </c>
       <c r="H18" s="24"/>
-      <c r="I18" s="53"/>
+      <c r="I18" s="52"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="25" t="s">
         <v>53</v>
       </c>
@@ -46760,10 +46748,10 @@
         <v>197</v>
       </c>
       <c r="H19" s="24"/>
-      <c r="I19" s="53"/>
+      <c r="I19" s="52"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="53"/>
+      <c r="A20" s="52"/>
       <c r="B20" s="25" t="s">
         <v>53</v>
       </c>
@@ -46781,10 +46769,10 @@
         <v>197</v>
       </c>
       <c r="H20" s="24"/>
-      <c r="I20" s="53"/>
+      <c r="I20" s="52"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
+      <c r="A21" s="52"/>
       <c r="B21" s="25" t="s">
         <v>53</v>
       </c>
@@ -46802,10 +46790,10 @@
         <v>197</v>
       </c>
       <c r="H21" s="24"/>
-      <c r="I21" s="53"/>
+      <c r="I21" s="52"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
+      <c r="A22" s="52"/>
       <c r="B22" s="25" t="s">
         <v>53</v>
       </c>
@@ -46823,10 +46811,10 @@
         <v>197</v>
       </c>
       <c r="H22" s="24"/>
-      <c r="I22" s="53"/>
+      <c r="I22" s="52"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
+      <c r="A23" s="52"/>
       <c r="B23" s="25" t="s">
         <v>53</v>
       </c>
@@ -46844,10 +46832,10 @@
         <v>197</v>
       </c>
       <c r="H23" s="24"/>
-      <c r="I23" s="53"/>
+      <c r="I23" s="52"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="53"/>
+      <c r="A24" s="52"/>
       <c r="B24" s="25" t="s">
         <v>53</v>
       </c>
@@ -46867,12 +46855,12 @@
       <c r="H24" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="I24" s="53"/>
+      <c r="I24" s="52"/>
       <c r="K24" s="4"/>
       <c r="M24" s="4"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="53"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="23" t="s">
         <v>53</v>
       </c>
@@ -46888,16 +46876,16 @@
       <c r="F25" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="G25" s="97" t="s">
+      <c r="G25" s="91" t="s">
         <v>195</v>
       </c>
       <c r="H25" s="22"/>
-      <c r="I25" s="53"/>
+      <c r="I25" s="52"/>
       <c r="K25" s="4"/>
       <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="53"/>
+      <c r="A26" s="52"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
       <c r="D26" s="33"/>
@@ -46905,14 +46893,14 @@
         <v>102</v>
       </c>
       <c r="F26" s="33"/>
-      <c r="G26" s="98"/>
+      <c r="G26" s="92"/>
       <c r="H26" s="18"/>
-      <c r="I26" s="53"/>
+      <c r="I26" s="52"/>
       <c r="K26" s="4"/>
       <c r="M26" s="4"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="53"/>
+      <c r="A27" s="52"/>
       <c r="B27" s="23" t="s">
         <v>53</v>
       </c>
@@ -46928,16 +46916,16 @@
       <c r="F27" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="G27" s="97" t="s">
+      <c r="G27" s="91" t="s">
         <v>195</v>
       </c>
       <c r="H27" s="22"/>
-      <c r="I27" s="53"/>
+      <c r="I27" s="52"/>
       <c r="K27" s="4"/>
       <c r="M27" s="4"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="53"/>
+      <c r="A28" s="52"/>
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
       <c r="D28" s="33"/>
@@ -46945,14 +46933,14 @@
         <v>104</v>
       </c>
       <c r="F28" s="33"/>
-      <c r="G28" s="98"/>
+      <c r="G28" s="92"/>
       <c r="H28" s="18"/>
-      <c r="I28" s="53"/>
+      <c r="I28" s="52"/>
       <c r="K28" s="4"/>
       <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="53"/>
+      <c r="A29" s="52"/>
       <c r="B29" s="25" t="s">
         <v>53</v>
       </c>
@@ -46972,12 +46960,12 @@
       <c r="H29" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="I29" s="53"/>
+      <c r="I29" s="52"/>
       <c r="K29" s="4"/>
       <c r="M29" s="4"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="53"/>
+      <c r="A30" s="52"/>
       <c r="B30" s="25" t="s">
         <v>53</v>
       </c>
@@ -46997,12 +46985,12 @@
       <c r="H30" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="I30" s="53"/>
+      <c r="I30" s="52"/>
       <c r="K30" s="4"/>
       <c r="M30" s="4"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="53"/>
+      <c r="A31" s="52"/>
       <c r="B31" s="25" t="s">
         <v>53</v>
       </c>
@@ -47022,12 +47010,12 @@
       <c r="H31" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="I31" s="53"/>
+      <c r="I31" s="52"/>
       <c r="K31" s="4"/>
       <c r="M31" s="4"/>
     </row>
     <row r="32" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A32" s="53"/>
+      <c r="A32" s="52"/>
       <c r="B32" s="25" t="s">
         <v>53</v>
       </c>
@@ -47047,12 +47035,12 @@
       <c r="H32" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="I32" s="53"/>
+      <c r="I32" s="52"/>
       <c r="K32" s="4"/>
       <c r="M32" s="4"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="53"/>
+      <c r="A33" s="52"/>
       <c r="B33" s="23" t="s">
         <v>53</v>
       </c>
@@ -47068,15 +47056,15 @@
       <c r="F33" s="34" t="s">
         <v>201</v>
       </c>
-      <c r="G33" s="97" t="s">
+      <c r="G33" s="91" t="s">
         <v>195</v>
       </c>
-      <c r="I33" s="53"/>
+      <c r="I33" s="52"/>
       <c r="K33" s="4"/>
       <c r="M33" s="4"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="53"/>
+      <c r="A34" s="52"/>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
       <c r="E34" s="4" t="s">
@@ -47085,13 +47073,13 @@
       <c r="F34" s="34" t="s">
         <v>200</v>
       </c>
-      <c r="G34" s="98"/>
-      <c r="I34" s="53"/>
+      <c r="G34" s="92"/>
+      <c r="I34" s="52"/>
       <c r="K34" s="4"/>
       <c r="M34" s="4"/>
     </row>
     <row r="35" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="53"/>
+      <c r="A35" s="52"/>
       <c r="B35" s="40" t="s">
         <v>53</v>
       </c>
@@ -47101,12 +47089,12 @@
       <c r="F35" s="35"/>
       <c r="G35" s="35"/>
       <c r="H35" s="26"/>
-      <c r="I35" s="53"/>
+      <c r="I35" s="52"/>
       <c r="K35" s="4"/>
       <c r="M35" s="4"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="53"/>
+      <c r="A36" s="52"/>
       <c r="B36" s="41" t="s">
         <v>55</v>
       </c>
@@ -47122,46 +47110,46 @@
       <c r="F36" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="G36" s="101" t="s">
+      <c r="G36" s="95" t="s">
         <v>195</v>
       </c>
       <c r="H36" s="27"/>
-      <c r="I36" s="53"/>
+      <c r="I36" s="52"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="53"/>
+      <c r="A37" s="52"/>
       <c r="E37" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="84"/>
-      <c r="I37" s="53"/>
+      <c r="G37" s="78"/>
+      <c r="I37" s="52"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="53"/>
+      <c r="A38" s="52"/>
       <c r="E38" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G38" s="84"/>
-      <c r="I38" s="53"/>
+      <c r="G38" s="78"/>
+      <c r="I38" s="52"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="53"/>
+      <c r="A39" s="52"/>
       <c r="E39" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="84"/>
-      <c r="I39" s="53"/>
+      <c r="G39" s="78"/>
+      <c r="I39" s="52"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="53"/>
+      <c r="A40" s="52"/>
       <c r="E40" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G40" s="84"/>
-      <c r="I40" s="53"/>
+      <c r="G40" s="78"/>
+      <c r="I40" s="52"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="53"/>
+      <c r="A41" s="52"/>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
       <c r="D41" s="33"/>
@@ -47169,12 +47157,12 @@
         <v>25</v>
       </c>
       <c r="F41" s="33"/>
-      <c r="G41" s="98"/>
+      <c r="G41" s="92"/>
       <c r="H41" s="18"/>
-      <c r="I41" s="53"/>
+      <c r="I41" s="52"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="53"/>
+      <c r="A42" s="52"/>
       <c r="B42" s="25" t="s">
         <v>55</v>
       </c>
@@ -47192,10 +47180,10 @@
         <v>195</v>
       </c>
       <c r="H42" s="24"/>
-      <c r="I42" s="53"/>
+      <c r="I42" s="52"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="53"/>
+      <c r="A43" s="52"/>
       <c r="B43" s="23" t="s">
         <v>55</v>
       </c>
@@ -47211,36 +47199,36 @@
       <c r="F43" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="G43" s="97" t="s">
+      <c r="G43" s="91" t="s">
         <v>195</v>
       </c>
       <c r="H43" s="22"/>
-      <c r="I43" s="53"/>
+      <c r="I43" s="52"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="53"/>
+      <c r="A44" s="52"/>
       <c r="E44" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F44" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="G44" s="84"/>
-      <c r="I44" s="53"/>
+      <c r="G44" s="78"/>
+      <c r="I44" s="52"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="53"/>
+      <c r="A45" s="52"/>
       <c r="E45" s="4" t="s">
         <v>99</v>
       </c>
       <c r="F45" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="G45" s="84"/>
-      <c r="I45" s="53"/>
+      <c r="G45" s="78"/>
+      <c r="I45" s="52"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="53"/>
+      <c r="A46" s="52"/>
       <c r="B46" s="19"/>
       <c r="C46" s="19"/>
       <c r="D46" s="33"/>
@@ -47250,12 +47238,12 @@
       <c r="F46" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="G46" s="98"/>
+      <c r="G46" s="92"/>
       <c r="H46" s="18"/>
-      <c r="I46" s="53"/>
+      <c r="I46" s="52"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="53"/>
+      <c r="A47" s="52"/>
       <c r="B47" s="25" t="s">
         <v>55</v>
       </c>
@@ -47267,7 +47255,7 @@
       </c>
       <c r="E47" s="25"/>
       <c r="F47" s="31" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G47" s="31" t="s">
         <v>195</v>
@@ -47275,10 +47263,10 @@
       <c r="H47" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="I47" s="53"/>
+      <c r="I47" s="52"/>
     </row>
     <row r="48" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A48" s="53"/>
+      <c r="A48" s="52"/>
       <c r="B48" s="25" t="s">
         <v>55</v>
       </c>
@@ -47298,10 +47286,10 @@
       <c r="H48" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="I48" s="53"/>
+      <c r="I48" s="52"/>
     </row>
     <row r="49" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A49" s="53"/>
+      <c r="A49" s="52"/>
       <c r="B49" s="25" t="s">
         <v>55</v>
       </c>
@@ -47321,40 +47309,40 @@
       <c r="H49" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="I49" s="53"/>
+      <c r="I49" s="52"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="53"/>
+      <c r="A50" s="52"/>
       <c r="B50" s="25" t="s">
         <v>55</v>
       </c>
       <c r="C50" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="D50" s="31"/>
+      <c r="E50" s="4" t="s">
         <v>310</v>
-      </c>
-      <c r="D50" s="31"/>
-      <c r="E50" s="59" t="s">
-        <v>311</v>
       </c>
       <c r="F50" s="31"/>
       <c r="G50" s="31"/>
       <c r="H50" s="24"/>
-      <c r="I50" s="53"/>
+      <c r="I50" s="52"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="53"/>
+      <c r="A51" s="52"/>
       <c r="B51" s="25"/>
       <c r="C51" s="25"/>
       <c r="D51" s="31"/>
-      <c r="E51" s="59" t="s">
+      <c r="E51" s="4" t="s">
         <v>211</v>
       </c>
       <c r="F51" s="31"/>
       <c r="G51" s="31"/>
       <c r="H51" s="24"/>
-      <c r="I51" s="53"/>
+      <c r="I51" s="52"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="53"/>
+      <c r="A52" s="52"/>
       <c r="B52" s="25"/>
       <c r="C52" s="25"/>
       <c r="D52" s="31"/>
@@ -47364,10 +47352,10 @@
       <c r="F52" s="31"/>
       <c r="G52" s="31"/>
       <c r="H52" s="24"/>
-      <c r="I52" s="53"/>
+      <c r="I52" s="52"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="53"/>
+      <c r="A53" s="52"/>
       <c r="B53" s="25"/>
       <c r="C53" s="25"/>
       <c r="D53" s="31"/>
@@ -47377,10 +47365,10 @@
       <c r="F53" s="31"/>
       <c r="G53" s="31"/>
       <c r="H53" s="24"/>
-      <c r="I53" s="53"/>
+      <c r="I53" s="52"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="53"/>
+      <c r="A54" s="52"/>
       <c r="B54" s="25"/>
       <c r="C54" s="25"/>
       <c r="D54" s="31"/>
@@ -47390,10 +47378,10 @@
       <c r="F54" s="31"/>
       <c r="G54" s="31"/>
       <c r="H54" s="24"/>
-      <c r="I54" s="53"/>
+      <c r="I54" s="52"/>
     </row>
     <row r="55" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A55" s="53"/>
+      <c r="A55" s="52"/>
       <c r="B55" s="25" t="s">
         <v>55</v>
       </c>
@@ -47405,16 +47393,16 @@
       </c>
       <c r="E55" s="25"/>
       <c r="F55" s="31" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G55" s="31" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H55" s="24"/>
-      <c r="I55" s="53"/>
+      <c r="I55" s="52"/>
     </row>
     <row r="56" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A56" s="53"/>
+      <c r="A56" s="52"/>
       <c r="B56" s="25" t="s">
         <v>55</v>
       </c>
@@ -47426,16 +47414,16 @@
       </c>
       <c r="E56" s="25"/>
       <c r="F56" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="G56" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="G56" s="31" t="s">
-        <v>298</v>
-      </c>
       <c r="H56" s="24"/>
-      <c r="I56" s="53"/>
+      <c r="I56" s="52"/>
     </row>
     <row r="57" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="53"/>
+      <c r="A57" s="52"/>
       <c r="B57" s="40" t="s">
         <v>55</v>
       </c>
@@ -47447,10 +47435,10 @@
       <c r="F57" s="35"/>
       <c r="G57" s="35"/>
       <c r="H57" s="26"/>
-      <c r="I57" s="53"/>
+      <c r="I57" s="52"/>
     </row>
     <row r="58" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A58" s="53"/>
+      <c r="A58" s="52"/>
       <c r="B58" s="21" t="s">
         <v>57</v>
       </c>
@@ -47468,10 +47456,10 @@
         <v>195</v>
       </c>
       <c r="H58" s="20"/>
-      <c r="I58" s="53"/>
+      <c r="I58" s="52"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="53"/>
+      <c r="A59" s="52"/>
       <c r="B59" s="25" t="s">
         <v>57</v>
       </c>
@@ -47489,10 +47477,10 @@
         <v>195</v>
       </c>
       <c r="H59" s="24"/>
-      <c r="I59" s="53"/>
+      <c r="I59" s="52"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="53"/>
+      <c r="A60" s="52"/>
       <c r="B60" s="25" t="s">
         <v>57</v>
       </c>
@@ -47510,10 +47498,10 @@
         <v>195</v>
       </c>
       <c r="H60" s="24"/>
-      <c r="I60" s="53"/>
+      <c r="I60" s="52"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="53"/>
+      <c r="A61" s="52"/>
       <c r="B61" s="23" t="s">
         <v>57</v>
       </c>
@@ -47529,62 +47517,62 @@
       <c r="F61" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="G61" s="97" t="s">
+      <c r="G61" s="91" t="s">
         <v>195</v>
       </c>
       <c r="H61" s="22"/>
-      <c r="I61" s="53"/>
+      <c r="I61" s="52"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="53"/>
+      <c r="A62" s="52"/>
       <c r="E62" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="G62" s="84"/>
-      <c r="I62" s="53"/>
+      <c r="G62" s="78"/>
+      <c r="I62" s="52"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="53"/>
+      <c r="A63" s="52"/>
       <c r="E63" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G63" s="84"/>
-      <c r="I63" s="53"/>
+      <c r="G63" s="78"/>
+      <c r="I63" s="52"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="53"/>
+      <c r="A64" s="52"/>
       <c r="E64" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="G64" s="84"/>
-      <c r="I64" s="53"/>
+      <c r="G64" s="78"/>
+      <c r="I64" s="52"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="53"/>
+      <c r="A65" s="52"/>
       <c r="E65" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="G65" s="84"/>
-      <c r="I65" s="53"/>
+      <c r="G65" s="78"/>
+      <c r="I65" s="52"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="53"/>
+      <c r="A66" s="52"/>
       <c r="E66" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G66" s="84"/>
-      <c r="I66" s="53"/>
+      <c r="G66" s="78"/>
+      <c r="I66" s="52"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="53"/>
+      <c r="A67" s="52"/>
       <c r="E67" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G67" s="84"/>
-      <c r="I67" s="53"/>
+      <c r="G67" s="78"/>
+      <c r="I67" s="52"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="53"/>
+      <c r="A68" s="52"/>
       <c r="B68" s="19"/>
       <c r="C68" s="19"/>
       <c r="D68" s="33"/>
@@ -47592,12 +47580,12 @@
         <v>90</v>
       </c>
       <c r="F68" s="33"/>
-      <c r="G68" s="98"/>
+      <c r="G68" s="92"/>
       <c r="H68" s="18"/>
-      <c r="I68" s="53"/>
+      <c r="I68" s="52"/>
     </row>
     <row r="69" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A69" s="53"/>
+      <c r="A69" s="52"/>
       <c r="B69" s="25" t="s">
         <v>57</v>
       </c>
@@ -47617,10 +47605,10 @@
       <c r="H69" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="I69" s="53"/>
+      <c r="I69" s="52"/>
     </row>
     <row r="70" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A70" s="53"/>
+      <c r="A70" s="52"/>
       <c r="B70" s="25" t="s">
         <v>57</v>
       </c>
@@ -47640,10 +47628,10 @@
       <c r="H70" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="I70" s="53"/>
+      <c r="I70" s="52"/>
     </row>
     <row r="71" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A71" s="53"/>
+      <c r="A71" s="52"/>
       <c r="B71" s="25" t="s">
         <v>57</v>
       </c>
@@ -47663,10 +47651,10 @@
       <c r="H71" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="I71" s="53"/>
+      <c r="I71" s="52"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="53"/>
+      <c r="A72" s="52"/>
       <c r="B72" s="23" t="s">
         <v>57</v>
       </c>
@@ -47682,14 +47670,14 @@
       <c r="F72" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="G72" s="97" t="s">
+      <c r="G72" s="91" t="s">
         <v>195</v>
       </c>
       <c r="H72" s="22"/>
-      <c r="I72" s="53"/>
+      <c r="I72" s="52"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="53"/>
+      <c r="A73" s="52"/>
       <c r="B73" s="19"/>
       <c r="C73" s="19"/>
       <c r="D73" s="33"/>
@@ -47699,12 +47687,12 @@
       <c r="F73" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="G73" s="98"/>
+      <c r="G73" s="92"/>
       <c r="H73" s="18"/>
-      <c r="I73" s="53"/>
+      <c r="I73" s="52"/>
     </row>
     <row r="74" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A74" s="53"/>
+      <c r="A74" s="52"/>
       <c r="B74" s="23" t="s">
         <v>57</v>
       </c>
@@ -47722,10 +47710,10 @@
         <v>199</v>
       </c>
       <c r="H74" s="18"/>
-      <c r="I74" s="53"/>
+      <c r="I74" s="52"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="53"/>
+      <c r="A75" s="52"/>
       <c r="B75" s="23" t="s">
         <v>57</v>
       </c>
@@ -47741,14 +47729,14 @@
       <c r="F75" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="G75" s="99" t="s">
+      <c r="G75" s="93" t="s">
         <v>195</v>
       </c>
       <c r="H75" s="22"/>
-      <c r="I75" s="53"/>
+      <c r="I75" s="52"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="53"/>
+      <c r="A76" s="52"/>
       <c r="B76" s="19"/>
       <c r="C76" s="19"/>
       <c r="D76" s="33"/>
@@ -47756,12 +47744,12 @@
         <v>120</v>
       </c>
       <c r="F76" s="33"/>
-      <c r="G76" s="100"/>
+      <c r="G76" s="94"/>
       <c r="H76" s="18"/>
-      <c r="I76" s="53"/>
+      <c r="I76" s="52"/>
     </row>
     <row r="77" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A77" s="53"/>
+      <c r="A77" s="52"/>
       <c r="B77" s="4" t="s">
         <v>57</v>
       </c>
@@ -47777,35 +47765,35 @@
       <c r="F77" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="G77" s="97" t="s">
+      <c r="G77" s="91" t="s">
         <v>195</v>
       </c>
-      <c r="I77" s="53"/>
+      <c r="I77" s="52"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="53"/>
+      <c r="A78" s="52"/>
       <c r="E78" s="4" t="s">
         <v>208</v>
       </c>
       <c r="F78" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="G78" s="84"/>
-      <c r="I78" s="53"/>
+      <c r="G78" s="78"/>
+      <c r="I78" s="52"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="53"/>
+      <c r="A79" s="52"/>
       <c r="E79" s="4" t="s">
         <v>210</v>
       </c>
       <c r="F79" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="G79" s="84"/>
-      <c r="I79" s="53"/>
+      <c r="G79" s="78"/>
+      <c r="I79" s="52"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="53"/>
+      <c r="A80" s="52"/>
       <c r="B80" s="19"/>
       <c r="C80" s="19"/>
       <c r="D80" s="33"/>
@@ -47815,12 +47803,12 @@
       <c r="F80" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="G80" s="98"/>
+      <c r="G80" s="92"/>
       <c r="H80" s="18"/>
-      <c r="I80" s="53"/>
+      <c r="I80" s="52"/>
     </row>
     <row r="81" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A81" s="53"/>
+      <c r="A81" s="52"/>
       <c r="B81" s="25" t="s">
         <v>57</v>
       </c>
@@ -47838,10 +47826,10 @@
         <v>199</v>
       </c>
       <c r="H81" s="18"/>
-      <c r="I81" s="53"/>
+      <c r="I81" s="52"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="53"/>
+      <c r="A82" s="52"/>
       <c r="B82" s="19" t="s">
         <v>59</v>
       </c>
@@ -47859,10 +47847,10 @@
         <v>195</v>
       </c>
       <c r="H82" s="28"/>
-      <c r="I82" s="53"/>
+      <c r="I82" s="52"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="53"/>
+      <c r="A83" s="52"/>
       <c r="B83" s="25" t="s">
         <v>59</v>
       </c>
@@ -47880,10 +47868,10 @@
         <v>195</v>
       </c>
       <c r="H83" s="24"/>
-      <c r="I83" s="53"/>
+      <c r="I83" s="52"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="53"/>
+      <c r="A84" s="52"/>
       <c r="B84" s="25" t="s">
         <v>59</v>
       </c>
@@ -47903,40 +47891,40 @@
       <c r="H84" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="I84" s="53"/>
+      <c r="I84" s="52"/>
     </row>
     <row r="85" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A85" s="53"/>
+      <c r="A85" s="52"/>
       <c r="B85" s="38" t="s">
         <v>59</v>
       </c>
       <c r="C85" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="D85" s="33" t="s">
         <v>278</v>
-      </c>
-      <c r="D85" s="33" t="s">
-        <v>279</v>
       </c>
       <c r="E85" s="19"/>
       <c r="F85" s="31" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G85" s="37" t="s">
         <v>197</v>
       </c>
       <c r="H85" s="18" t="s">
-        <v>280</v>
-      </c>
-      <c r="I85" s="53"/>
+        <v>279</v>
+      </c>
+      <c r="I85" s="52"/>
     </row>
     <row r="86" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="53"/>
-      <c r="B86" s="54"/>
-      <c r="C86" s="54"/>
-      <c r="D86" s="55"/>
-      <c r="E86" s="54"/>
-      <c r="F86" s="55"/>
-      <c r="G86" s="55"/>
-      <c r="H86" s="53"/>
+      <c r="A86" s="52"/>
+      <c r="B86" s="53"/>
+      <c r="C86" s="53"/>
+      <c r="D86" s="54"/>
+      <c r="E86" s="53"/>
+      <c r="F86" s="54"/>
+      <c r="G86" s="54"/>
+      <c r="H86" s="52"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:H85" xr:uid="{6F42B86B-1E1B-4BC7-A1AC-69908067C16A}"/>
@@ -47957,12 +47945,12 @@
     <mergeCell ref="G43:G46"/>
     <mergeCell ref="G61:G68"/>
   </mergeCells>
-  <conditionalFormatting sqref="G2:G4 G6 G10 G12 G27 G29:G33 G35:G36 G42:G43 G69:G72 G74:G75 G77:G79 G81:G85 G15:G25 G47:G62">
+  <conditionalFormatting sqref="G2:G4 G6 G10 G12 G15:G25 G27 G29:G33 G35:G36 G42:G43 G47:G62 G69:G72 G74:G75 G77:G79 G81:G85">
     <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Mandatory">
       <formula>NOT(ISERROR(SEARCH("Mandatory",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G4 G6 G10 G12 G27 G29:G33 G35:G36 G42:G43 G69:G72 G74:G75 G77:G79 G81:G85 G15:G25 G47:G62">
+  <conditionalFormatting sqref="G3:G4 G6 G10 G12 G15:G25 G27 G29:G33 G35:G36 G42:G43 G47:G62 G69:G72 G74:G75 G77:G79 G81:G85">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Optional">
       <formula>NOT(ISERROR(SEARCH("Optional",G3)))</formula>
     </cfRule>
@@ -47982,11 +47970,11 @@
   </sheetPr>
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScaleNormal="100" zoomScalePageLayoutView="88" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="88" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
@@ -47997,16 +47985,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="103"/>
+      <c r="B1" s="97"/>
     </row>
     <row r="2" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="57" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="5"/>
@@ -48014,10 +48002,10 @@
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:7" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="57" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="5"/>
@@ -48025,10 +48013,10 @@
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="57" t="s">
         <v>107</v>
       </c>
       <c r="C4" s="5"/>
@@ -48036,10 +48024,10 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:7" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="5"/>
@@ -48047,140 +48035,139 @@
       <c r="E5" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="102" t="s">
+      <c r="A8" s="96" t="s">
         <v>116</v>
       </c>
-      <c r="B8" s="103"/>
+      <c r="B8" s="97"/>
       <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="63"/>
+      <c r="B10" s="3"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="63"/>
+      <c r="B11" s="3"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="63">
+      <c r="B12" s="3">
         <v>3</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="67" t="s">
+      <c r="A13" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="64">
+      <c r="B13" s="56">
         <v>1</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="67" t="s">
+      <c r="A14" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="64">
+      <c r="B14" s="56">
         <v>1</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="64">
+      <c r="B15" s="56">
         <v>2</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="64">
+      <c r="B16" s="56">
         <v>1</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="67" t="s">
+      <c r="A17" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="64">
+      <c r="B17" s="56">
         <v>1</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="64">
+      <c r="B18" s="56">
         <v>2</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="59"/>
-      <c r="B19" s="60"/>
+      <c r="A19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="102" t="s">
+      <c r="A21" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="103"/>
+      <c r="B21" s="97"/>
       <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="61">
+      <c r="B22" s="56">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="65" t="s">
+      <c r="A23" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="61" t="s">
+      <c r="B23" s="56" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="65" t="s">
+      <c r="A24" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="56" t="s">
         <v>103</v>
       </c>
     </row>
@@ -48189,17 +48176,17 @@
       <c r="B26" s="4"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="106" t="s">
+      <c r="A27" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="106"/>
+      <c r="B27" s="100"/>
       <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="65" t="s">
-        <v>307</v>
-      </c>
-      <c r="B28" s="61" t="s">
+      <c r="A28" s="58" t="s">
+        <v>306</v>
+      </c>
+      <c r="B28" s="56" t="s">
         <v>127</v>
       </c>
     </row>
@@ -48210,40 +48197,40 @@
       <c r="A30" s="4"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="102" t="s">
-        <v>295</v>
-      </c>
-      <c r="B31" s="103"/>
+      <c r="A31" s="96" t="s">
+        <v>294</v>
+      </c>
+      <c r="B31" s="97"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="65" t="s">
+      <c r="A32" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="61">
+      <c r="B32" s="56">
         <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="65" t="s">
+      <c r="A33" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="B33" s="61">
+      <c r="B33" s="56">
         <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="65" t="s">
+      <c r="A34" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="B34" s="61">
+      <c r="B34" s="56">
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="65" t="s">
-        <v>306</v>
-      </c>
-      <c r="B35" s="61">
+      <c r="A35" s="58" t="s">
+        <v>305</v>
+      </c>
+      <c r="B35" s="56">
         <v>90</v>
       </c>
     </row>
@@ -48257,15 +48244,15 @@
       <c r="C37" s="4"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="107" t="s">
-        <v>284</v>
-      </c>
-      <c r="B38" s="108"/>
+      <c r="A38" s="101" t="s">
+        <v>283</v>
+      </c>
+      <c r="B38" s="102"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="66" t="s">
+      <c r="A39" s="59" t="s">
         <v>117</v>
       </c>
       <c r="B39" s="3">
@@ -48273,15 +48260,15 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="66" t="s">
-        <v>285</v>
+      <c r="A40" s="59" t="s">
+        <v>284</v>
       </c>
       <c r="B40" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="66" t="s">
+      <c r="A41" s="59" t="s">
         <v>74</v>
       </c>
       <c r="B41" s="3">
@@ -48289,31 +48276,31 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="66" t="s">
+      <c r="A42" s="59" t="s">
+        <v>285</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>286</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="66" t="s">
-        <v>308</v>
+      <c r="A43" s="59" t="s">
+        <v>307</v>
       </c>
       <c r="B43" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="107" t="s">
-        <v>290</v>
-      </c>
-      <c r="B46" s="108"/>
+      <c r="A46" s="101" t="s">
+        <v>289</v>
+      </c>
+      <c r="B46" s="102"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="66" t="s">
+      <c r="A47" s="59" t="s">
         <v>117</v>
       </c>
       <c r="B47" s="3">
@@ -48321,15 +48308,15 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="66" t="s">
-        <v>285</v>
+      <c r="A48" s="59" t="s">
+        <v>284</v>
       </c>
       <c r="B48" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="66" t="s">
+      <c r="A49" s="59" t="s">
         <v>74</v>
       </c>
       <c r="B49" s="3">
@@ -48337,7 +48324,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="66" t="s">
+      <c r="A50" s="59" t="s">
         <v>75</v>
       </c>
       <c r="B50" s="3">
@@ -48345,21 +48332,21 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="66" t="s">
-        <v>286</v>
+      <c r="A51" s="59" t="s">
+        <v>285</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="104" t="s">
-        <v>289</v>
-      </c>
-      <c r="B53" s="105"/>
+      <c r="A53" s="98" t="s">
+        <v>288</v>
+      </c>
+      <c r="B53" s="99"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="66" t="s">
+      <c r="A54" s="59" t="s">
         <v>117</v>
       </c>
       <c r="B54" s="3">
@@ -48367,15 +48354,15 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="66" t="s">
-        <v>285</v>
+      <c r="A55" s="59" t="s">
+        <v>284</v>
       </c>
       <c r="B55" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="66" t="s">
+      <c r="A56" s="59" t="s">
         <v>74</v>
       </c>
       <c r="B56" s="3">
@@ -48383,7 +48370,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="66" t="s">
+      <c r="A57" s="59" t="s">
         <v>75</v>
       </c>
       <c r="B57" s="3">
@@ -48391,11 +48378,11 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="66" t="s">
-        <v>286</v>
+      <c r="A58" s="59" t="s">
+        <v>285</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -48514,12 +48501,12 @@
   </sheetPr>
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.69921875" style="10" customWidth="1"/>
     <col min="2" max="2" width="10.8984375" style="15" bestFit="1" customWidth="1"/>
@@ -48535,31 +48522,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="63" t="s">
         <v>166</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="61" t="s">
         <v>165</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="68" t="s">
-        <v>309</v>
-      </c>
-      <c r="H1" s="68" t="s">
-        <v>275</v>
-      </c>
-      <c r="I1" s="68" t="s">
+      <c r="G1" s="61" t="s">
+        <v>308</v>
+      </c>
+      <c r="H1" s="61" t="s">
+        <v>274</v>
+      </c>
+      <c r="I1" s="61" t="s">
         <v>202</v>
       </c>
       <c r="J1" s="14" t="s">
@@ -48582,7 +48569,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>47</v>
@@ -48606,11 +48593,11 @@
         <v>700</v>
       </c>
       <c r="E3" s="2">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>76</v>
@@ -48640,7 +48627,7 @@
         <v>1000</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>77</v>
@@ -48668,7 +48655,7 @@
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>78</v>
@@ -48696,7 +48683,7 @@
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>79</v>
@@ -48748,7 +48735,7 @@
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>80</v>
@@ -48969,10 +48956,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.3984375" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="13" style="10" bestFit="1" customWidth="1"/>
@@ -48987,40 +48974,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="64" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="64" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="72" t="s">
-        <v>276</v>
-      </c>
-      <c r="F1" s="71" t="s">
+      <c r="E1" s="65" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1" s="64" t="s">
         <v>177</v>
       </c>
-      <c r="G1" s="69" t="s">
+      <c r="G1" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="70" t="s">
+      <c r="H1" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="76" t="s">
+      <c r="I1" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="J1" s="75" t="s">
+      <c r="J1" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="77" t="s">
+      <c r="K1" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="76" t="s">
+      <c r="L1" s="69" t="s">
         <v>122</v>
       </c>
     </row>
@@ -49049,8 +49036,8 @@
       <c r="H2" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="58" t="s">
-        <v>291</v>
+      <c r="I2" s="55" t="s">
+        <v>290</v>
       </c>
       <c r="J2" s="13" t="s">
         <v>121</v>
@@ -49058,8 +49045,8 @@
       <c r="K2" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="L2" s="58" t="s">
-        <v>291</v>
+      <c r="L2" s="55" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -49084,8 +49071,8 @@
       <c r="H3" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="58" t="s">
-        <v>291</v>
+      <c r="I3" s="55" t="s">
+        <v>290</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>121</v>
@@ -49117,8 +49104,8 @@
       <c r="H4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="58" t="s">
-        <v>291</v>
+      <c r="I4" s="55" t="s">
+        <v>290</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>121</v>
@@ -49149,8 +49136,8 @@
       <c r="H5" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="58" t="s">
-        <v>291</v>
+      <c r="I5" s="55" t="s">
+        <v>290</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>121</v>
@@ -49181,8 +49168,8 @@
       <c r="H6" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="58" t="s">
-        <v>291</v>
+      <c r="I6" s="55" t="s">
+        <v>290</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>121</v>
@@ -49213,8 +49200,8 @@
       <c r="H7" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="58" t="s">
-        <v>291</v>
+      <c r="I7" s="55" t="s">
+        <v>290</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>121</v>
@@ -49247,8 +49234,8 @@
       <c r="H8" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="58" t="s">
-        <v>291</v>
+      <c r="I8" s="55" t="s">
+        <v>290</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>121</v>
@@ -49281,8 +49268,8 @@
       <c r="H9" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="58" t="s">
-        <v>291</v>
+      <c r="I9" s="55" t="s">
+        <v>290</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>121</v>
@@ -49362,12 +49349,12 @@
   </sheetPr>
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C14"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5" style="10" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="10" bestFit="1" customWidth="1"/>
@@ -49376,17 +49363,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="74" t="s">
+      <c r="C1" s="67" t="s">
         <v>164</v>
       </c>
-      <c r="D1" s="73" t="s">
-        <v>277</v>
+      <c r="D1" s="66" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -49397,7 +49384,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -49409,7 +49396,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -49421,7 +49408,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="1">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -49433,7 +49420,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="1">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D5" s="2"/>
     </row>
@@ -49445,7 +49432,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="1">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D6" s="2"/>
     </row>
@@ -49457,7 +49444,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="1">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -49469,7 +49456,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="1">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D8" s="2"/>
     </row>
@@ -49481,7 +49468,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="1">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D9" s="9"/>
     </row>
@@ -49493,7 +49480,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="1">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D10" s="9"/>
     </row>
@@ -49505,7 +49492,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="1">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D11" s="9"/>
     </row>
@@ -49517,7 +49504,7 @@
         <v>21</v>
       </c>
       <c r="C12" s="1">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D12" s="9"/>
     </row>
@@ -49529,7 +49516,7 @@
         <v>20</v>
       </c>
       <c r="C13" s="1">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D13" s="9"/>
     </row>
@@ -49541,7 +49528,7 @@
         <v>21</v>
       </c>
       <c r="C14" s="1">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D14" s="2"/>
     </row>
@@ -49707,10 +49694,10 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.69921875" customWidth="1"/>
@@ -49722,19 +49709,19 @@
         <v>35</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="C1" s="39" t="s">
         <v>282</v>
       </c>
-      <c r="C1" s="39" t="s">
-        <v>283</v>
-      </c>
       <c r="D1" s="39" t="s">
+        <v>291</v>
+      </c>
+      <c r="E1" s="39" t="s">
         <v>292</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="F1" s="39" t="s">
         <v>293</v>
-      </c>
-      <c r="F1" s="39" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -49742,7 +49729,7 @@
         <v>204</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -49754,7 +49741,7 @@
         <v>87</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -49766,7 +49753,7 @@
         <v>89</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -49778,7 +49765,7 @@
         <v>90</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -49790,7 +49777,7 @@
         <v>90</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -49802,7 +49789,7 @@
         <v>26</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>269</v>
+        <v>312</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -49814,7 +49801,7 @@
         <v>206</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -49826,7 +49813,7 @@
         <v>206</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -49834,11 +49821,11 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="74" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>269</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>

--- a/grid_data_input_file_WIP_v1.xlsx
+++ b/grid_data_input_file_WIP_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c30483\Documents\dc_design_tool\dc_design_tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FB9250-D9A6-48D2-BD9F-CBB239F8C8E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43F68B9-4C66-46AB-AF4D-32432F66337D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23196" yWindow="10692" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="simple example" sheetId="20" r:id="rId1"/>
@@ -1135,9 +1135,6 @@
     <t>Step 2: Add and Number Nodes to the Grid</t>
   </si>
   <si>
-    <t>[1.085; 0], [1; 1], [1; 1], [1; 1], [1; 1], [0.915; 1]</t>
-  </si>
-  <si>
     <t>The total power of PV installed in the grid</t>
   </si>
   <si>
@@ -1285,6 +1282,9 @@
   </si>
   <si>
     <t>not applicable</t>
+  </si>
+  <si>
+    <t>[1.025; 0], [1; 1], [1; 1], [1; 1], [1; 1], [0.975; 1]</t>
   </si>
 </sst>
 </file>
@@ -1812,23 +1812,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -1842,20 +1848,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -45759,16 +45759,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="44"/>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
       <c r="D1" s="44"/>
     </row>
     <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="44"/>
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="92" t="s">
         <v>266</v>
       </c>
-      <c r="C2" s="90"/>
+      <c r="C2" s="92"/>
       <c r="D2" s="44"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -45777,18 +45777,18 @@
     </row>
     <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="44"/>
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="91" t="s">
         <v>253</v>
       </c>
-      <c r="C4" s="89"/>
+      <c r="C4" s="91"/>
       <c r="D4" s="44"/>
     </row>
     <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="44"/>
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="90" t="s">
         <v>254</v>
       </c>
-      <c r="C5" s="88"/>
+      <c r="C5" s="90"/>
       <c r="D5" s="44"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -45801,70 +45801,70 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="44"/>
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="83" t="s">
         <v>223</v>
       </c>
-      <c r="C8" s="95"/>
+      <c r="C8" s="83"/>
       <c r="D8" s="44"/>
     </row>
     <row r="9" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="44"/>
-      <c r="B9" s="91" t="s">
+      <c r="B9" s="93" t="s">
         <v>222</v>
       </c>
-      <c r="C9" s="91"/>
+      <c r="C9" s="93"/>
       <c r="D9" s="44"/>
     </row>
     <row r="10" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="44"/>
-      <c r="B10" s="91" t="s">
+      <c r="B10" s="93" t="s">
         <v>221</v>
       </c>
-      <c r="C10" s="91"/>
+      <c r="C10" s="93"/>
       <c r="D10" s="44"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="44"/>
-      <c r="B11" s="92" t="s">
+      <c r="B11" s="84" t="s">
         <v>225</v>
       </c>
-      <c r="C11" s="92"/>
+      <c r="C11" s="84"/>
       <c r="D11" s="44"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="44"/>
-      <c r="B12" s="91" t="s">
+      <c r="B12" s="93" t="s">
         <v>226</v>
       </c>
-      <c r="C12" s="91"/>
+      <c r="C12" s="93"/>
       <c r="D12" s="44"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="44"/>
-      <c r="B13" s="82" t="s">
+      <c r="B13" s="85" t="s">
         <v>227</v>
       </c>
-      <c r="C13" s="82"/>
+      <c r="C13" s="85"/>
       <c r="D13" s="49"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="85"/>
       <c r="D14" s="50"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="44"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="82"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="85"/>
       <c r="D15" s="44"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="44"/>
-      <c r="B16" s="95" t="s">
+      <c r="B16" s="83" t="s">
         <v>224</v>
       </c>
-      <c r="C16" s="95"/>
+      <c r="C16" s="83"/>
       <c r="D16" s="51"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -45935,25 +45935,25 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="44"/>
-      <c r="B24" s="92" t="s">
-        <v>299</v>
-      </c>
-      <c r="C24" s="92"/>
+      <c r="B24" s="84" t="s">
+        <v>298</v>
+      </c>
+      <c r="C24" s="84"/>
       <c r="D24" s="44"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="44"/>
-      <c r="B25" s="82" t="s">
-        <v>300</v>
-      </c>
-      <c r="C25" s="82"/>
+      <c r="B25" s="85" t="s">
+        <v>299</v>
+      </c>
+      <c r="C25" s="85"/>
       <c r="D25" s="44"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="44"/>
       <c r="B26" s="78"/>
       <c r="C26" s="57" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D26" s="44"/>
     </row>
@@ -45961,7 +45961,7 @@
       <c r="A27" s="44"/>
       <c r="B27" s="79"/>
       <c r="C27" s="57" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D27" s="44"/>
     </row>
@@ -45969,30 +45969,30 @@
       <c r="A28" s="44"/>
       <c r="B28" s="80"/>
       <c r="C28" s="57" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D28" s="44"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="44"/>
-      <c r="B29" s="82" t="s">
-        <v>304</v>
-      </c>
-      <c r="C29" s="82"/>
+      <c r="B29" s="85" t="s">
+        <v>303</v>
+      </c>
+      <c r="C29" s="85"/>
       <c r="D29" s="44"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="44"/>
-      <c r="B30" s="93" t="s">
-        <v>305</v>
-      </c>
-      <c r="C30" s="93"/>
+      <c r="B30" s="94" t="s">
+        <v>304</v>
+      </c>
+      <c r="C30" s="94"/>
       <c r="D30" s="44"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="44"/>
-      <c r="B31" s="82"/>
-      <c r="C31" s="82"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="85"/>
       <c r="D31" s="44"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -46005,42 +46005,42 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="44"/>
-      <c r="B33" s="87" t="s">
+      <c r="B33" s="88" t="s">
         <v>231</v>
       </c>
-      <c r="C33" s="87"/>
+      <c r="C33" s="88"/>
       <c r="D33" s="44"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="44"/>
-      <c r="B34" s="82" t="s">
+      <c r="B34" s="85" t="s">
         <v>230</v>
       </c>
-      <c r="C34" s="82"/>
+      <c r="C34" s="85"/>
       <c r="D34" s="44"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="44"/>
-      <c r="B35" s="84" t="s">
+      <c r="B35" s="96" t="s">
         <v>229</v>
       </c>
-      <c r="C35" s="84"/>
+      <c r="C35" s="96"/>
       <c r="D35" s="44"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="44"/>
-      <c r="B36" s="83" t="s">
+      <c r="B36" s="95" t="s">
         <v>233</v>
       </c>
-      <c r="C36" s="83"/>
+      <c r="C36" s="95"/>
       <c r="D36" s="44"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="44"/>
-      <c r="B37" s="82" t="s">
+      <c r="B37" s="85" t="s">
         <v>255</v>
       </c>
-      <c r="C37" s="82"/>
+      <c r="C37" s="85"/>
       <c r="D37" s="44"/>
       <c r="F37" t="s">
         <v>252</v>
@@ -46048,26 +46048,26 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="44"/>
-      <c r="B38" s="82" t="s">
+      <c r="B38" s="85" t="s">
         <v>256</v>
       </c>
-      <c r="C38" s="82"/>
+      <c r="C38" s="85"/>
       <c r="D38" s="44"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="44"/>
-      <c r="B39" s="84" t="s">
+      <c r="B39" s="96" t="s">
         <v>257</v>
       </c>
-      <c r="C39" s="84"/>
+      <c r="C39" s="96"/>
       <c r="D39" s="44"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="44"/>
-      <c r="B40" s="82" t="s">
+      <c r="B40" s="85" t="s">
         <v>258</v>
       </c>
-      <c r="C40" s="82"/>
+      <c r="C40" s="85"/>
       <c r="D40" s="44"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -46076,190 +46076,190 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="44"/>
-      <c r="B42" s="87" t="s">
+      <c r="B42" s="88" t="s">
         <v>268</v>
       </c>
-      <c r="C42" s="87"/>
+      <c r="C42" s="88"/>
       <c r="D42" s="44"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="44"/>
-      <c r="B43" s="82" t="s">
+      <c r="B43" s="85" t="s">
         <v>232</v>
       </c>
-      <c r="C43" s="82"/>
+      <c r="C43" s="85"/>
       <c r="D43" s="44"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="44"/>
-      <c r="B44" s="82" t="s">
+      <c r="B44" s="85" t="s">
         <v>259</v>
       </c>
-      <c r="C44" s="82"/>
+      <c r="C44" s="85"/>
       <c r="D44" s="44"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="44"/>
-      <c r="B45" s="82" t="s">
+      <c r="B45" s="85" t="s">
         <v>260</v>
       </c>
-      <c r="C45" s="82"/>
+      <c r="C45" s="85"/>
       <c r="D45" s="44"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="44"/>
-      <c r="B46" s="82" t="s">
+      <c r="B46" s="85" t="s">
         <v>261</v>
       </c>
-      <c r="C46" s="82"/>
+      <c r="C46" s="85"/>
       <c r="D46" s="44"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="44"/>
-      <c r="B47" s="96" t="s">
+      <c r="B47" s="86" t="s">
         <v>234</v>
       </c>
-      <c r="C47" s="96"/>
+      <c r="C47" s="86"/>
       <c r="D47" s="44"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="44"/>
-      <c r="B48" s="82" t="s">
+      <c r="B48" s="85" t="s">
         <v>235</v>
       </c>
-      <c r="C48" s="82"/>
+      <c r="C48" s="85"/>
       <c r="D48" s="44"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="44"/>
-      <c r="B49" s="82" t="s">
+      <c r="B49" s="85" t="s">
         <v>236</v>
       </c>
-      <c r="C49" s="82"/>
+      <c r="C49" s="85"/>
       <c r="D49" s="44"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="44"/>
-      <c r="B50" s="82" t="s">
+      <c r="B50" s="85" t="s">
         <v>237</v>
       </c>
-      <c r="C50" s="82"/>
+      <c r="C50" s="85"/>
       <c r="D50" s="44"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="44"/>
-      <c r="B51" s="82"/>
-      <c r="C51" s="82"/>
+      <c r="B51" s="85"/>
+      <c r="C51" s="85"/>
       <c r="D51" s="44"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="44"/>
-      <c r="B52" s="87" t="s">
+      <c r="B52" s="88" t="s">
         <v>238</v>
       </c>
-      <c r="C52" s="87"/>
+      <c r="C52" s="88"/>
       <c r="D52" s="44"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="44"/>
-      <c r="B53" s="82" t="s">
+      <c r="B53" s="85" t="s">
         <v>239</v>
       </c>
-      <c r="C53" s="82"/>
+      <c r="C53" s="85"/>
       <c r="D53" s="44"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="44"/>
-      <c r="B54" s="85" t="s">
+      <c r="B54" s="87" t="s">
         <v>262</v>
       </c>
-      <c r="C54" s="82"/>
+      <c r="C54" s="85"/>
       <c r="D54" s="44"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="44"/>
-      <c r="B55" s="82" t="s">
+      <c r="B55" s="85" t="s">
         <v>243</v>
       </c>
-      <c r="C55" s="82"/>
+      <c r="C55" s="85"/>
       <c r="D55" s="44"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="44"/>
-      <c r="B56" s="85" t="s">
+      <c r="B56" s="87" t="s">
         <v>263</v>
       </c>
-      <c r="C56" s="82"/>
+      <c r="C56" s="85"/>
       <c r="D56" s="44"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="44"/>
-      <c r="B57" s="82" t="s">
+      <c r="B57" s="85" t="s">
         <v>242</v>
       </c>
-      <c r="C57" s="82"/>
+      <c r="C57" s="85"/>
       <c r="D57" s="44"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="44"/>
-      <c r="B58" s="85" t="s">
+      <c r="B58" s="87" t="s">
         <v>264</v>
       </c>
-      <c r="C58" s="82"/>
+      <c r="C58" s="85"/>
       <c r="D58" s="44"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="44"/>
-      <c r="B59" s="82" t="s">
+      <c r="B59" s="85" t="s">
         <v>241</v>
       </c>
-      <c r="C59" s="82"/>
+      <c r="C59" s="85"/>
       <c r="D59" s="44"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="44"/>
-      <c r="B60" s="85" t="s">
+      <c r="B60" s="87" t="s">
         <v>265</v>
       </c>
-      <c r="C60" s="82"/>
+      <c r="C60" s="85"/>
       <c r="D60" s="44"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="44"/>
-      <c r="B61" s="82" t="s">
+      <c r="B61" s="85" t="s">
         <v>240</v>
       </c>
-      <c r="C61" s="82"/>
+      <c r="C61" s="85"/>
       <c r="D61" s="44"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="44"/>
-      <c r="B62" s="82"/>
-      <c r="C62" s="82"/>
+      <c r="B62" s="85"/>
+      <c r="C62" s="85"/>
       <c r="D62" s="44"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="44"/>
-      <c r="B63" s="87" t="s">
+      <c r="B63" s="88" t="s">
         <v>249</v>
       </c>
-      <c r="C63" s="87"/>
+      <c r="C63" s="88"/>
       <c r="D63" s="44"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="44"/>
-      <c r="B64" s="82" t="s">
+      <c r="B64" s="85" t="s">
         <v>250</v>
       </c>
-      <c r="C64" s="82"/>
+      <c r="C64" s="85"/>
       <c r="D64" s="44"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="44"/>
-      <c r="B65" s="82" t="s">
+      <c r="B65" s="85" t="s">
         <v>251</v>
       </c>
-      <c r="C65" s="82"/>
+      <c r="C65" s="85"/>
       <c r="D65" s="44"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -46270,69 +46270,112 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="44"/>
-      <c r="B67" s="82"/>
-      <c r="C67" s="82"/>
+      <c r="B67" s="85"/>
+      <c r="C67" s="85"/>
       <c r="D67" s="44"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="44"/>
-      <c r="B68" s="87" t="s">
+      <c r="B68" s="88" t="s">
         <v>248</v>
       </c>
-      <c r="C68" s="87"/>
+      <c r="C68" s="88"/>
       <c r="D68" s="44"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="44"/>
-      <c r="B69" s="82" t="s">
+      <c r="B69" s="85" t="s">
         <v>244</v>
       </c>
-      <c r="C69" s="82"/>
+      <c r="C69" s="85"/>
       <c r="D69" s="44"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="44"/>
-      <c r="B70" s="82" t="s">
+      <c r="B70" s="85" t="s">
         <v>245</v>
       </c>
-      <c r="C70" s="82"/>
+      <c r="C70" s="85"/>
       <c r="D70" s="44"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="44"/>
-      <c r="B71" s="82" t="s">
+      <c r="B71" s="85" t="s">
         <v>246</v>
       </c>
-      <c r="C71" s="82"/>
+      <c r="C71" s="85"/>
       <c r="D71" s="44"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="44"/>
-      <c r="B72" s="82" t="s">
+      <c r="B72" s="85" t="s">
         <v>247</v>
       </c>
-      <c r="C72" s="82"/>
+      <c r="C72" s="85"/>
       <c r="D72" s="44"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="44"/>
-      <c r="B73" s="94"/>
-      <c r="C73" s="94"/>
+      <c r="B73" s="82"/>
+      <c r="C73" s="82"/>
       <c r="D73" s="44"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B74" s="48"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B77" s="82"/>
-      <c r="C77" s="82"/>
+      <c r="B77" s="85"/>
+      <c r="C77" s="85"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B78" s="82"/>
-      <c r="C78" s="82"/>
+      <c r="B78" s="85"/>
+      <c r="C78" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
     <mergeCell ref="B73:C73"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B8:C8"/>
@@ -46349,49 +46392,6 @@
     <mergeCell ref="B64:C64"/>
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B48:C48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -46549,7 +46549,7 @@
       <c r="E7" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G7" s="82"/>
+      <c r="G7" s="85"/>
       <c r="I7" s="53"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -46557,7 +46557,7 @@
       <c r="E8" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G8" s="82"/>
+      <c r="G8" s="85"/>
       <c r="I8" s="53"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -46637,7 +46637,7 @@
       <c r="E13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="82"/>
+      <c r="G13" s="85"/>
       <c r="I13" s="53"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -46662,11 +46662,11 @@
         <v>73</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G15" s="31" t="s">
         <v>197</v>
@@ -46685,11 +46685,11 @@
         <v>72</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="33" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G16" s="31" t="s">
         <v>197</v>
@@ -47133,7 +47133,7 @@
       <c r="E37" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="82"/>
+      <c r="G37" s="85"/>
       <c r="I37" s="53"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -47141,7 +47141,7 @@
       <c r="E38" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G38" s="82"/>
+      <c r="G38" s="85"/>
       <c r="I38" s="53"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -47149,7 +47149,7 @@
       <c r="E39" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="82"/>
+      <c r="G39" s="85"/>
       <c r="I39" s="53"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -47157,7 +47157,7 @@
       <c r="E40" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G40" s="82"/>
+      <c r="G40" s="85"/>
       <c r="I40" s="53"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -47225,7 +47225,7 @@
       <c r="F44" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="G44" s="82"/>
+      <c r="G44" s="85"/>
       <c r="I44" s="53"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -47236,7 +47236,7 @@
       <c r="F45" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="G45" s="82"/>
+      <c r="G45" s="85"/>
       <c r="I45" s="53"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -47267,7 +47267,7 @@
       </c>
       <c r="E47" s="25"/>
       <c r="F47" s="31" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G47" s="31" t="s">
         <v>195</v>
@@ -47329,11 +47329,11 @@
         <v>55</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D50" s="31"/>
       <c r="E50" s="59" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F50" s="31"/>
       <c r="G50" s="31"/>
@@ -47405,10 +47405,10 @@
       </c>
       <c r="E55" s="25"/>
       <c r="F55" s="31" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G55" s="31" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H55" s="24"/>
       <c r="I55" s="53"/>
@@ -47426,10 +47426,10 @@
       </c>
       <c r="E56" s="25"/>
       <c r="F56" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="G56" s="31" t="s">
         <v>297</v>
-      </c>
-      <c r="G56" s="31" t="s">
-        <v>298</v>
       </c>
       <c r="H56" s="24"/>
       <c r="I56" s="53"/>
@@ -47540,7 +47540,7 @@
       <c r="E62" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="G62" s="82"/>
+      <c r="G62" s="85"/>
       <c r="I62" s="53"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -47548,7 +47548,7 @@
       <c r="E63" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G63" s="82"/>
+      <c r="G63" s="85"/>
       <c r="I63" s="53"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -47556,7 +47556,7 @@
       <c r="E64" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="G64" s="82"/>
+      <c r="G64" s="85"/>
       <c r="I64" s="53"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -47564,7 +47564,7 @@
       <c r="E65" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="G65" s="82"/>
+      <c r="G65" s="85"/>
       <c r="I65" s="53"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -47572,7 +47572,7 @@
       <c r="E66" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G66" s="82"/>
+      <c r="G66" s="85"/>
       <c r="I66" s="53"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -47580,7 +47580,7 @@
       <c r="E67" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G67" s="82"/>
+      <c r="G67" s="85"/>
       <c r="I67" s="53"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -47790,7 +47790,7 @@
       <c r="F78" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="G78" s="82"/>
+      <c r="G78" s="85"/>
       <c r="I78" s="53"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -47801,7 +47801,7 @@
       <c r="F79" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="G79" s="82"/>
+      <c r="G79" s="85"/>
       <c r="I79" s="53"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -47911,20 +47911,20 @@
         <v>59</v>
       </c>
       <c r="C85" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="D85" s="33" t="s">
         <v>278</v>
-      </c>
-      <c r="D85" s="33" t="s">
-        <v>279</v>
       </c>
       <c r="E85" s="19"/>
       <c r="F85" s="31" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G85" s="37" t="s">
         <v>197</v>
       </c>
       <c r="H85" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I85" s="53"/>
     </row>
@@ -48197,7 +48197,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="65" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B28" s="61" t="s">
         <v>127</v>
@@ -48211,7 +48211,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="103" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B31" s="104"/>
     </row>
@@ -48241,7 +48241,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="65" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B35" s="61">
         <v>90</v>
@@ -48258,7 +48258,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="108" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B38" s="109"/>
       <c r="C38" s="7"/>
@@ -48274,7 +48274,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="66" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B40" s="3">
         <v>10</v>
@@ -48290,15 +48290,15 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="66" t="s">
+        <v>285</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>286</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="66" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B43" s="3">
         <v>4</v>
@@ -48306,7 +48306,7 @@
     </row>
     <row r="46" spans="1:4" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="108" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B46" s="109"/>
       <c r="C46" s="7"/>
@@ -48322,7 +48322,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="66" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B48" s="3">
         <v>100</v>
@@ -48346,15 +48346,15 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="66" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="105" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B53" s="106"/>
     </row>
@@ -48368,7 +48368,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="66" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B55" s="3">
         <v>10</v>
@@ -48392,10 +48392,10 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="66" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -48514,7 +48514,7 @@
   </sheetPr>
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
@@ -48554,10 +48554,10 @@
         <v>13</v>
       </c>
       <c r="G1" s="68" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1" s="68" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I1" s="68" t="s">
         <v>202</v>
@@ -48582,7 +48582,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>47</v>
@@ -48610,7 +48610,7 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>76</v>
@@ -48640,7 +48640,7 @@
         <v>1000</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>77</v>
@@ -48668,7 +48668,7 @@
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>78</v>
@@ -48696,7 +48696,7 @@
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>79</v>
@@ -48748,7 +48748,7 @@
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>80</v>
@@ -48967,7 +48967,7 @@
   </sheetPr>
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
@@ -49000,7 +49000,7 @@
         <v>35</v>
       </c>
       <c r="E1" s="72" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F1" s="71" t="s">
         <v>177</v>
@@ -49050,7 +49050,7 @@
         <v>39</v>
       </c>
       <c r="I2" s="58" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J2" s="13" t="s">
         <v>121</v>
@@ -49059,7 +49059,7 @@
         <v>211</v>
       </c>
       <c r="L2" s="58" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -49085,7 +49085,7 @@
         <v>39</v>
       </c>
       <c r="I3" s="58" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>121</v>
@@ -49118,7 +49118,7 @@
         <v>39</v>
       </c>
       <c r="I4" s="58" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>121</v>
@@ -49150,7 +49150,7 @@
         <v>39</v>
       </c>
       <c r="I5" s="58" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>121</v>
@@ -49182,7 +49182,7 @@
         <v>39</v>
       </c>
       <c r="I6" s="58" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>121</v>
@@ -49214,7 +49214,7 @@
         <v>39</v>
       </c>
       <c r="I7" s="58" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>121</v>
@@ -49248,7 +49248,7 @@
         <v>39</v>
       </c>
       <c r="I8" s="58" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>121</v>
@@ -49282,7 +49282,7 @@
         <v>39</v>
       </c>
       <c r="I9" s="58" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>121</v>
@@ -49386,7 +49386,7 @@
         <v>164</v>
       </c>
       <c r="D1" s="73" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -49706,8 +49706,8 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -49722,19 +49722,19 @@
         <v>35</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="C1" s="39" t="s">
         <v>282</v>
       </c>
-      <c r="C1" s="39" t="s">
-        <v>283</v>
-      </c>
       <c r="D1" s="39" t="s">
+        <v>291</v>
+      </c>
+      <c r="E1" s="39" t="s">
         <v>292</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="F1" s="39" t="s">
         <v>293</v>
-      </c>
-      <c r="F1" s="39" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -49742,7 +49742,7 @@
         <v>204</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -49754,7 +49754,7 @@
         <v>87</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -49766,7 +49766,7 @@
         <v>89</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -49778,7 +49778,7 @@
         <v>90</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -49790,7 +49790,7 @@
         <v>90</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -49802,7 +49802,7 @@
         <v>26</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -49814,7 +49814,7 @@
         <v>206</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -49826,7 +49826,7 @@
         <v>206</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -49838,7 +49838,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -49866,26 +49866,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a656bf76-cca4-4796-b3e3-9ff4debad9ca">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3f4d043c-ef99-408b-9086-307465b47223" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005D48458B7DF5B44891BF6C8B708F036C" ma:contentTypeVersion="15" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="6ec72bf5cc41951886dd851de9b63939">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a656bf76-cca4-4796-b3e3-9ff4debad9ca" xmlns:ns3="3f4d043c-ef99-408b-9086-307465b47223" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="619265aacb58e563d368a43a0aeb056e" ns2:_="" ns3:_="">
     <xsd:import namespace="a656bf76-cca4-4796-b3e3-9ff4debad9ca"/>
@@ -50120,32 +50100,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D351F7AA-766C-4547-802C-9F4B7AB5F83E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="a656bf76-cca4-4796-b3e3-9ff4debad9ca"/>
-    <ds:schemaRef ds:uri="3f4d043c-ef99-408b-9086-307465b47223"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80A89352-0353-48F1-9429-0E3BD72B2E30}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a656bf76-cca4-4796-b3e3-9ff4debad9ca">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3f4d043c-ef99-408b-9086-307465b47223" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{908F6F40-8D93-4BAF-B5F7-B52D93E367E6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -50162,4 +50137,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80A89352-0353-48F1-9429-0E3BD72B2E30}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D351F7AA-766C-4547-802C-9F4B7AB5F83E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="a656bf76-cca4-4796-b3e3-9ff4debad9ca"/>
+    <ds:schemaRef ds:uri="3f4d043c-ef99-408b-9086-307465b47223"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>